--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC356"/>
+  <dimension ref="A1:AC354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2598,7 +2598,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5281576</v>
+        <v>5281403</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2610,76 +2610,76 @@
         <v>44955.3125</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
+        <v>2.1</v>
+      </c>
+      <c r="N24">
+        <v>3.4</v>
+      </c>
+      <c r="O24">
         <v>3.5</v>
       </c>
-      <c r="M24">
-        <v>4.333</v>
-      </c>
-      <c r="N24">
-        <v>1.55</v>
-      </c>
-      <c r="O24">
-        <v>3.8</v>
-      </c>
       <c r="P24">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
+        <v>1.85</v>
+      </c>
+      <c r="V24">
         <v>1.95</v>
       </c>
-      <c r="V24">
-        <v>1.85</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2687,7 +2687,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5281403</v>
+        <v>5281576</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2699,76 +2699,76 @@
         <v>44955.3125</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
+        <v>1.727</v>
+      </c>
+      <c r="L25">
+        <v>3.5</v>
+      </c>
+      <c r="M25">
+        <v>4.333</v>
+      </c>
+      <c r="N25">
+        <v>1.55</v>
+      </c>
+      <c r="O25">
+        <v>3.8</v>
+      </c>
+      <c r="P25">
+        <v>5.25</v>
+      </c>
+      <c r="Q25">
+        <v>-1</v>
+      </c>
+      <c r="R25">
         <v>2</v>
       </c>
-      <c r="J25" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>3.4</v>
-      </c>
-      <c r="M25">
-        <v>2.1</v>
-      </c>
-      <c r="N25">
-        <v>3.4</v>
-      </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
-      <c r="P25">
-        <v>1.95</v>
-      </c>
-      <c r="Q25">
-        <v>0.5</v>
-      </c>
-      <c r="R25">
-        <v>1.775</v>
-      </c>
       <c r="S25">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
+        <v>1.95</v>
+      </c>
+      <c r="V25">
         <v>1.85</v>
       </c>
-      <c r="V25">
-        <v>1.95</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB25">
+        <v>-1</v>
+      </c>
+      <c r="AC25">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC25">
-        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6287655</v>
+        <v>6287656</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,40 +5280,40 @@
         <v>44997.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K54">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N54">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P54">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q54">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
         <v>1.9</v>
@@ -5322,31 +5322,31 @@
         <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W54">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA54">
-        <v>-1</v>
-      </c>
       <c r="AB54">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5357,7 +5357,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6287656</v>
+        <v>6287655</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5369,40 +5369,40 @@
         <v>44997.3125</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M55">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N55">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O55">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R55">
         <v>1.9</v>
@@ -5411,31 +5411,31 @@
         <v>1.9</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -7048,7 +7048,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5284199</v>
+        <v>5281437</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7060,58 +7060,58 @@
         <v>45013.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
         <v>2</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>55</v>
       </c>
       <c r="K74">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L74">
         <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N74">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q74">
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7120,13 +7120,13 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7137,7 +7137,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5281437</v>
+        <v>5284199</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7149,58 +7149,58 @@
         <v>45013.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>55</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L75">
         <v>3.4</v>
       </c>
       <c r="M75">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7209,13 +7209,13 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5574590</v>
+        <v>6604510</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11599,40 +11599,40 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
         <v>1</v>
       </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
       <c r="J125" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K125">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N125">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
         <v>1.975</v>
@@ -11641,34 +11641,34 @@
         <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11676,7 +11676,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6604510</v>
+        <v>5574590</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11688,40 +11688,40 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K126">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N126">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O126">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R126">
         <v>1.975</v>
@@ -11730,34 +11730,34 @@
         <v>1.825</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12210,7 +12210,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5603143</v>
+        <v>5603142</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12222,76 +12222,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K132">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="L132">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="N132">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P132">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X132">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12299,7 +12299,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5603142</v>
+        <v>5603143</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12311,76 +12311,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K133">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="N133">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12388,7 +12388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5608074</v>
+        <v>5636763</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12400,55 +12400,55 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
         <v>1</v>
-      </c>
-      <c r="I134">
-        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>53</v>
       </c>
       <c r="K134">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="L134">
         <v>3.5</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N134">
+        <v>1.727</v>
+      </c>
+      <c r="O134">
         <v>3.75</v>
       </c>
-      <c r="O134">
+      <c r="P134">
         <v>4</v>
       </c>
-      <c r="P134">
-        <v>1.727</v>
-      </c>
       <c r="Q134">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12457,19 +12457,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.7270000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,7 +12477,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5636763</v>
+        <v>5608075</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12489,76 +12489,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K135">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L135">
+        <v>3.4</v>
+      </c>
+      <c r="M135">
+        <v>2.875</v>
+      </c>
+      <c r="N135">
+        <v>2.1</v>
+      </c>
+      <c r="O135">
         <v>3.5</v>
       </c>
-      <c r="M135">
-        <v>3.5</v>
-      </c>
-      <c r="N135">
-        <v>1.727</v>
-      </c>
-      <c r="O135">
-        <v>3.75</v>
-      </c>
       <c r="P135">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
         <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AC135">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5608075</v>
+        <v>5608074</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
         <v>2</v>
       </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
       <c r="J136" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K136">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R136">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U136">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z136">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB136">
-        <v>0.35</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5641727</v>
+        <v>5638761</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,49 +13290,49 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K144">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N144">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="Q144">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T144">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U144">
         <v>2</v>
@@ -13344,22 +13344,22 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA144">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13367,7 +13367,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5638761</v>
+        <v>5641727</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13379,49 +13379,49 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K145">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N145">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U145">
         <v>2</v>
@@ -13433,22 +13433,22 @@
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z145">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6963171</v>
+        <v>6963173</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,76 +16405,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K179">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M179">
+        <v>5.5</v>
+      </c>
+      <c r="N179">
+        <v>1.45</v>
+      </c>
+      <c r="O179">
+        <v>4.2</v>
+      </c>
+      <c r="P179">
+        <v>7</v>
+      </c>
+      <c r="Q179">
+        <v>-1.25</v>
+      </c>
+      <c r="R179">
+        <v>2.025</v>
+      </c>
+      <c r="S179">
+        <v>1.775</v>
+      </c>
+      <c r="T179">
         <v>2.75</v>
       </c>
-      <c r="N179">
-        <v>2.45</v>
-      </c>
-      <c r="O179">
-        <v>3.1</v>
-      </c>
-      <c r="P179">
-        <v>2.8</v>
-      </c>
-      <c r="Q179">
-        <v>0</v>
-      </c>
-      <c r="R179">
-        <v>1.725</v>
-      </c>
-      <c r="S179">
-        <v>2.075</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
       <c r="U179">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X179">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA179">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC179">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6963173</v>
+        <v>6963171</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,76 +16494,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F180" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M180">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P180">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
+        <v>1.725</v>
+      </c>
+      <c r="S180">
+        <v>2.075</v>
+      </c>
+      <c r="T180">
+        <v>2.25</v>
+      </c>
+      <c r="U180">
+        <v>1.775</v>
+      </c>
+      <c r="V180">
         <v>2.025</v>
       </c>
-      <c r="S180">
-        <v>1.775</v>
-      </c>
-      <c r="T180">
-        <v>2.75</v>
-      </c>
-      <c r="U180">
-        <v>1.925</v>
-      </c>
-      <c r="V180">
-        <v>1.875</v>
-      </c>
       <c r="W180">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>-0</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
         <v>1.025</v>
-      </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>0.925</v>
-      </c>
-      <c r="AC180">
-        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6963180</v>
+        <v>6963265</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,58 +18986,58 @@
         <v>45200.3125</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
         <v>1</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>55</v>
       </c>
       <c r="K208">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M208">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N208">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O208">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P208">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S208">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
+        <v>1.925</v>
+      </c>
+      <c r="V208">
         <v>1.875</v>
       </c>
-      <c r="V208">
-        <v>1.925</v>
-      </c>
       <c r="W208">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19046,16 +19046,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC208">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6963265</v>
+        <v>6963180</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45200.3125</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G209" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>55</v>
       </c>
       <c r="K209">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L209">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N209">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O209">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P209">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q209">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S209">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
+        <v>1.875</v>
+      </c>
+      <c r="V209">
         <v>1.925</v>
       </c>
-      <c r="V209">
-        <v>1.875</v>
-      </c>
       <c r="W209">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
         <v>0.925</v>
-      </c>
-      <c r="AC209">
-        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -22712,7 +22712,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6963198</v>
+        <v>6963199</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22724,46 +22724,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F250" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G250" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K250">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L250">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M250">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N250">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O250">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P250">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q250">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R250">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S250">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T250">
         <v>2.25</v>
@@ -22775,25 +22775,25 @@
         <v>1.95</v>
       </c>
       <c r="W250">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X250">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA250">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB250">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC250">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22801,7 +22801,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6963199</v>
+        <v>6963198</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22813,46 +22813,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G251" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K251">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L251">
+        <v>3.1</v>
+      </c>
+      <c r="M251">
+        <v>2.375</v>
+      </c>
+      <c r="N251">
         <v>3.4</v>
       </c>
-      <c r="M251">
-        <v>3.8</v>
-      </c>
-      <c r="N251">
-        <v>1.95</v>
-      </c>
       <c r="O251">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P251">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q251">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R251">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S251">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
         <v>2.25</v>
@@ -22864,25 +22864,25 @@
         <v>1.95</v>
       </c>
       <c r="W251">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB251">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -24225,7 +24225,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6962926</v>
+        <v>6962990</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24237,10 +24237,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F267" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G267" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -24252,40 +24252,40 @@
         <v>53</v>
       </c>
       <c r="K267">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="L267">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M267">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N267">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O267">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P267">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q267">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R267">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S267">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T267">
         <v>2.5</v>
       </c>
       <c r="U267">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V267">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24294,16 +24294,16 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB267">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC267">
         <v>-1</v>
@@ -24314,7 +24314,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6962990</v>
+        <v>6962926</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24326,10 +24326,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G268" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24341,40 +24341,40 @@
         <v>53</v>
       </c>
       <c r="K268">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="L268">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M268">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N268">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="O268">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P268">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q268">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R268">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S268">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T268">
         <v>2.5</v>
       </c>
       <c r="U268">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V268">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W268">
         <v>-1</v>
@@ -24383,16 +24383,16 @@
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB268">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC268">
         <v>-1</v>
@@ -24403,7 +24403,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6962991</v>
+        <v>7526759</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24415,46 +24415,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F269" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G269" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H269">
         <v>1</v>
       </c>
       <c r="I269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K269">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L269">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M269">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N269">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O269">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P269">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q269">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R269">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S269">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T269">
         <v>2.5</v>
@@ -24469,22 +24469,22 @@
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y269">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA269">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
+        <v>-1</v>
+      </c>
+      <c r="AC269">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC269">
-        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24492,7 +24492,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7526759</v>
+        <v>6962991</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24504,46 +24504,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F270" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G270" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H270">
         <v>1</v>
       </c>
       <c r="I270">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J270" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K270">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L270">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M270">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N270">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O270">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P270">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q270">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R270">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S270">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T270">
         <v>2.5</v>
@@ -24558,22 +24558,22 @@
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z270">
+        <v>-1</v>
+      </c>
+      <c r="AA270">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB270">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA270">
-        <v>-1</v>
-      </c>
-      <c r="AB270">
-        <v>-1</v>
-      </c>
       <c r="AC270">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -27518,7 +27518,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7656973</v>
+        <v>6963219</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27530,76 +27530,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F304" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G304" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I304">
         <v>0</v>
       </c>
       <c r="J304" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K304">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="L304">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M304">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N304">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="O304">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P304">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q304">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R304">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S304">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T304">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U304">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V304">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X304">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA304">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC304">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27607,7 +27607,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6963219</v>
+        <v>7656973</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27619,76 +27619,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F305" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G305" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H305">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I305">
         <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K305">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="L305">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M305">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N305">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="O305">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P305">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q305">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R305">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S305">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U305">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V305">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W305">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB305">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -31523,7 +31523,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6963232</v>
+        <v>6962944</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31532,49 +31532,49 @@
         <v>28</v>
       </c>
       <c r="E349" s="2">
-        <v>45339.3125</v>
+        <v>45339.54166666666</v>
       </c>
       <c r="F349" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G349" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="K349">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="L349">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M349">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N349">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O349">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P349">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q349">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R349">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S349">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T349">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U349">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V349">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W349">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6963233</v>
+        <v>6963013</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31606,49 +31606,49 @@
         <v>28</v>
       </c>
       <c r="E350" s="2">
-        <v>45339.41666666666</v>
+        <v>45340.3125</v>
       </c>
       <c r="F350" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G350" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K350">
-        <v>5.5</v>
+        <v>1.181</v>
       </c>
       <c r="L350">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M350">
-        <v>1.533</v>
+        <v>15</v>
       </c>
       <c r="N350">
+        <v>1.142</v>
+      </c>
+      <c r="O350">
         <v>7</v>
       </c>
-      <c r="O350">
-        <v>4.5</v>
-      </c>
       <c r="P350">
-        <v>1.444</v>
+        <v>17</v>
       </c>
       <c r="Q350">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R350">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S350">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T350">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U350">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V350">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W350">
         <v>0</v>
@@ -31671,7 +31671,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6962944</v>
+        <v>6963011</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31680,49 +31680,49 @@
         <v>28</v>
       </c>
       <c r="E351" s="2">
-        <v>45339.54166666666</v>
+        <v>45340.3125</v>
       </c>
       <c r="F351" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G351" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K351">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L351">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M351">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="N351">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O351">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P351">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q351">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R351">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S351">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T351">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U351">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V351">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W351">
         <v>0</v>
@@ -31745,7 +31745,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6963013</v>
+        <v>6963012</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31754,49 +31754,49 @@
         <v>28</v>
       </c>
       <c r="E352" s="2">
-        <v>45340.3125</v>
+        <v>45340.41666666666</v>
       </c>
       <c r="F352" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G352" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K352">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L352">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M352">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="N352">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="O352">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P352">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="Q352">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R352">
+        <v>1.95</v>
+      </c>
+      <c r="S352">
         <v>1.85</v>
       </c>
-      <c r="S352">
-        <v>1.95</v>
-      </c>
       <c r="T352">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U352">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V352">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W352">
         <v>0</v>
@@ -31819,7 +31819,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6963011</v>
+        <v>6963235</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31828,49 +31828,49 @@
         <v>28</v>
       </c>
       <c r="E353" s="2">
-        <v>45340.3125</v>
+        <v>45340.54166666666</v>
       </c>
       <c r="F353" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G353" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K353">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="L353">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M353">
+        <v>1.7</v>
+      </c>
+      <c r="N353">
         <v>5.25</v>
       </c>
-      <c r="N353">
-        <v>1.666</v>
-      </c>
       <c r="O353">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P353">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q353">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R353">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S353">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T353">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U353">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V353">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W353">
         <v>0</v>
@@ -31893,7 +31893,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6963012</v>
+        <v>7820479</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31902,50 +31902,50 @@
         <v>28</v>
       </c>
       <c r="E354" s="2">
-        <v>45340.41666666666</v>
+        <v>45341.58333333334</v>
       </c>
       <c r="F354" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G354" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K354">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L354">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M354">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N354">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O354">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P354">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q354">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R354">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S354">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T354">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U354">
+        <v>1.975</v>
+      </c>
+      <c r="V354">
         <v>1.825</v>
       </c>
-      <c r="V354">
-        <v>1.975</v>
-      </c>
       <c r="W354">
         <v>0</v>
       </c>
@@ -31959,154 +31959,6 @@
         <v>0</v>
       </c>
       <c r="AA354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:27">
-      <c r="A355" s="1">
-        <v>353</v>
-      </c>
-      <c r="B355">
-        <v>6963235</v>
-      </c>
-      <c r="C355" t="s">
-        <v>28</v>
-      </c>
-      <c r="D355" t="s">
-        <v>28</v>
-      </c>
-      <c r="E355" s="2">
-        <v>45340.54166666666</v>
-      </c>
-      <c r="F355" t="s">
-        <v>51</v>
-      </c>
-      <c r="G355" t="s">
-        <v>44</v>
-      </c>
-      <c r="K355">
-        <v>4.75</v>
-      </c>
-      <c r="L355">
-        <v>3.75</v>
-      </c>
-      <c r="M355">
-        <v>1.7</v>
-      </c>
-      <c r="N355">
-        <v>5.25</v>
-      </c>
-      <c r="O355">
-        <v>3.75</v>
-      </c>
-      <c r="P355">
-        <v>1.65</v>
-      </c>
-      <c r="Q355">
-        <v>0.75</v>
-      </c>
-      <c r="R355">
-        <v>1.975</v>
-      </c>
-      <c r="S355">
-        <v>1.825</v>
-      </c>
-      <c r="T355">
-        <v>2.75</v>
-      </c>
-      <c r="U355">
-        <v>1.975</v>
-      </c>
-      <c r="V355">
-        <v>1.825</v>
-      </c>
-      <c r="W355">
-        <v>0</v>
-      </c>
-      <c r="X355">
-        <v>0</v>
-      </c>
-      <c r="Y355">
-        <v>0</v>
-      </c>
-      <c r="Z355">
-        <v>0</v>
-      </c>
-      <c r="AA355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:27">
-      <c r="A356" s="1">
-        <v>354</v>
-      </c>
-      <c r="B356">
-        <v>7820479</v>
-      </c>
-      <c r="C356" t="s">
-        <v>28</v>
-      </c>
-      <c r="D356" t="s">
-        <v>28</v>
-      </c>
-      <c r="E356" s="2">
-        <v>45341.58333333334</v>
-      </c>
-      <c r="F356" t="s">
-        <v>41</v>
-      </c>
-      <c r="G356" t="s">
-        <v>40</v>
-      </c>
-      <c r="K356">
-        <v>2.375</v>
-      </c>
-      <c r="L356">
-        <v>3.4</v>
-      </c>
-      <c r="M356">
-        <v>2.9</v>
-      </c>
-      <c r="N356">
-        <v>2.4</v>
-      </c>
-      <c r="O356">
-        <v>3.3</v>
-      </c>
-      <c r="P356">
-        <v>2.9</v>
-      </c>
-      <c r="Q356">
-        <v>-0.25</v>
-      </c>
-      <c r="R356">
-        <v>2.05</v>
-      </c>
-      <c r="S356">
-        <v>1.75</v>
-      </c>
-      <c r="T356">
-        <v>2.5</v>
-      </c>
-      <c r="U356">
-        <v>1.975</v>
-      </c>
-      <c r="V356">
-        <v>1.825</v>
-      </c>
-      <c r="W356">
-        <v>0</v>
-      </c>
-      <c r="X356">
-        <v>0</v>
-      </c>
-      <c r="Y356">
-        <v>0</v>
-      </c>
-      <c r="Z356">
-        <v>0</v>
-      </c>
-      <c r="AA356">
         <v>0</v>
       </c>
     </row>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC354"/>
+  <dimension ref="A1:AC353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2598,7 +2598,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5281403</v>
+        <v>5281576</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2610,76 +2610,76 @@
         <v>44955.3125</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24">
+        <v>1.727</v>
+      </c>
+      <c r="L24">
+        <v>3.5</v>
+      </c>
+      <c r="M24">
+        <v>4.333</v>
+      </c>
+      <c r="N24">
+        <v>1.55</v>
+      </c>
+      <c r="O24">
+        <v>3.8</v>
+      </c>
+      <c r="P24">
+        <v>5.25</v>
+      </c>
+      <c r="Q24">
+        <v>-1</v>
+      </c>
+      <c r="R24">
         <v>2</v>
       </c>
-      <c r="J24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>3.4</v>
-      </c>
-      <c r="M24">
-        <v>2.1</v>
-      </c>
-      <c r="N24">
-        <v>3.4</v>
-      </c>
-      <c r="O24">
-        <v>3.5</v>
-      </c>
-      <c r="P24">
-        <v>1.95</v>
-      </c>
-      <c r="Q24">
-        <v>0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.775</v>
-      </c>
       <c r="S24">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
+        <v>1.95</v>
+      </c>
+      <c r="V24">
         <v>1.85</v>
       </c>
-      <c r="V24">
-        <v>1.95</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2687,7 +2687,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5281576</v>
+        <v>5281403</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2699,76 +2699,76 @@
         <v>44955.3125</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L25">
+        <v>3.4</v>
+      </c>
+      <c r="M25">
+        <v>2.1</v>
+      </c>
+      <c r="N25">
+        <v>3.4</v>
+      </c>
+      <c r="O25">
         <v>3.5</v>
       </c>
-      <c r="M25">
-        <v>4.333</v>
-      </c>
-      <c r="N25">
-        <v>1.55</v>
-      </c>
-      <c r="O25">
-        <v>3.8</v>
-      </c>
       <c r="P25">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
+        <v>1.85</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="V25">
-        <v>1.85</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6287656</v>
+        <v>6287655</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,40 +5280,40 @@
         <v>44997.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L54">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M54">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O54">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R54">
         <v>1.9</v>
@@ -5322,31 +5322,31 @@
         <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5357,7 +5357,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6287655</v>
+        <v>6287656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5369,40 +5369,40 @@
         <v>44997.3125</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K55">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M55">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N55">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P55">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q55">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
         <v>1.9</v>
@@ -5411,31 +5411,31 @@
         <v>1.9</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W55">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA55">
-        <v>-1</v>
-      </c>
       <c r="AB55">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -7048,7 +7048,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5281437</v>
+        <v>5284199</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7060,58 +7060,58 @@
         <v>45013.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>55</v>
       </c>
       <c r="K74">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L74">
         <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q74">
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7120,13 +7120,13 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7137,7 +7137,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5284199</v>
+        <v>5281437</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7149,58 +7149,58 @@
         <v>45013.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
         <v>2</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>55</v>
       </c>
       <c r="K75">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L75">
         <v>3.4</v>
       </c>
       <c r="M75">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N75">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q75">
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7209,13 +7209,13 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6604510</v>
+        <v>5574591</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11599,76 +11599,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K125">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M125">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N125">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>2.9</v>
+        <v>9.5</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
+        <v>1.8</v>
+      </c>
+      <c r="V125">
         <v>2</v>
       </c>
-      <c r="V125">
-        <v>1.8</v>
-      </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5574591</v>
+        <v>6604510</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11777,76 +11777,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>53</v>
+      </c>
+      <c r="K127">
+        <v>2.25</v>
+      </c>
+      <c r="L127">
+        <v>3.2</v>
+      </c>
+      <c r="M127">
+        <v>2.8</v>
+      </c>
+      <c r="N127">
+        <v>2.2</v>
+      </c>
+      <c r="O127">
+        <v>3.2</v>
+      </c>
+      <c r="P127">
+        <v>2.9</v>
+      </c>
+      <c r="Q127">
+        <v>-0.25</v>
+      </c>
+      <c r="R127">
+        <v>1.975</v>
+      </c>
+      <c r="S127">
+        <v>1.825</v>
+      </c>
+      <c r="T127">
+        <v>2.5</v>
+      </c>
+      <c r="U127">
         <v>2</v>
       </c>
-      <c r="J127" t="s">
-        <v>55</v>
-      </c>
-      <c r="K127">
-        <v>1.363</v>
-      </c>
-      <c r="L127">
-        <v>4.75</v>
-      </c>
-      <c r="M127">
-        <v>7</v>
-      </c>
-      <c r="N127">
-        <v>1.285</v>
-      </c>
-      <c r="O127">
-        <v>5</v>
-      </c>
-      <c r="P127">
-        <v>9.5</v>
-      </c>
-      <c r="Q127">
-        <v>-1.75</v>
-      </c>
-      <c r="R127">
-        <v>2</v>
-      </c>
-      <c r="S127">
+      <c r="V127">
         <v>1.8</v>
       </c>
-      <c r="T127">
-        <v>3</v>
-      </c>
-      <c r="U127">
-        <v>1.8</v>
-      </c>
-      <c r="V127">
-        <v>2</v>
-      </c>
       <c r="W127">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z127">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
         <v>0.8</v>
-      </c>
-      <c r="AC127">
-        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6963173</v>
+        <v>6963171</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,76 +16405,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K179">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N179">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O179">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P179">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R179">
+        <v>1.725</v>
+      </c>
+      <c r="S179">
+        <v>2.075</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
+        <v>1.775</v>
+      </c>
+      <c r="V179">
         <v>2.025</v>
       </c>
-      <c r="S179">
-        <v>1.775</v>
-      </c>
-      <c r="T179">
-        <v>2.75</v>
-      </c>
-      <c r="U179">
-        <v>1.925</v>
-      </c>
-      <c r="V179">
-        <v>1.875</v>
-      </c>
       <c r="W179">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>-0</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>1.025</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.925</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6963171</v>
+        <v>6963173</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,76 +16494,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K180">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M180">
+        <v>5.5</v>
+      </c>
+      <c r="N180">
+        <v>1.45</v>
+      </c>
+      <c r="O180">
+        <v>4.2</v>
+      </c>
+      <c r="P180">
+        <v>7</v>
+      </c>
+      <c r="Q180">
+        <v>-1.25</v>
+      </c>
+      <c r="R180">
+        <v>2.025</v>
+      </c>
+      <c r="S180">
+        <v>1.775</v>
+      </c>
+      <c r="T180">
         <v>2.75</v>
       </c>
-      <c r="N180">
-        <v>2.45</v>
-      </c>
-      <c r="O180">
-        <v>3.1</v>
-      </c>
-      <c r="P180">
-        <v>2.8</v>
-      </c>
-      <c r="Q180">
-        <v>0</v>
-      </c>
-      <c r="R180">
-        <v>1.725</v>
-      </c>
-      <c r="S180">
-        <v>2.075</v>
-      </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X180">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -17817,7 +17817,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6963176</v>
+        <v>6963179</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17829,58 +17829,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H195">
         <v>2</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>55</v>
       </c>
       <c r="K195">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L195">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N195">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P195">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U195">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W195">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17889,16 +17889,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17906,7 +17906,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6963179</v>
+        <v>6963176</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17918,58 +17918,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>2</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
         <v>55</v>
       </c>
       <c r="K196">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L196">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N196">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O196">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
+        <v>1.8</v>
+      </c>
+      <c r="S196">
+        <v>2</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
+        <v>1.875</v>
+      </c>
+      <c r="V196">
         <v>1.925</v>
       </c>
-      <c r="S196">
-        <v>1.875</v>
-      </c>
-      <c r="T196">
-        <v>2.75</v>
-      </c>
-      <c r="U196">
-        <v>1.975</v>
-      </c>
-      <c r="V196">
-        <v>1.825</v>
-      </c>
       <c r="W196">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17978,16 +17978,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6963265</v>
+        <v>6963180</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,58 +18986,58 @@
         <v>45200.3125</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>55</v>
       </c>
       <c r="K208">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L208">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M208">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N208">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O208">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P208">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q208">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S208">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
+        <v>1.875</v>
+      </c>
+      <c r="V208">
         <v>1.925</v>
       </c>
-      <c r="V208">
-        <v>1.875</v>
-      </c>
       <c r="W208">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19046,16 +19046,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.925</v>
-      </c>
-      <c r="AC208">
-        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6963180</v>
+        <v>6963265</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45200.3125</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
         <v>1</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>55</v>
       </c>
       <c r="K209">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L209">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M209">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N209">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O209">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P209">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
+        <v>1.925</v>
+      </c>
+      <c r="V209">
         <v>1.875</v>
       </c>
-      <c r="V209">
-        <v>1.925</v>
-      </c>
       <c r="W209">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC209">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7291537</v>
+        <v>6962976</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,16 +19520,16 @@
         <v>45206.3125</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G214" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>54</v>
@@ -19544,37 +19544,37 @@
         <v>4</v>
       </c>
       <c r="N214">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P214">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y214">
         <v>-1</v>
@@ -19583,13 +19583,13 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6962976</v>
+        <v>7291537</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,16 +19609,16 @@
         <v>45206.3125</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>54</v>
@@ -19633,37 +19633,37 @@
         <v>4</v>
       </c>
       <c r="N215">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O215">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y215">
         <v>-1</v>
@@ -19672,13 +19672,13 @@
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19953,7 +19953,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6962974</v>
+        <v>6962915</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19965,76 +19965,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G219" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H219">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I219">
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K219">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L219">
+        <v>3.2</v>
+      </c>
+      <c r="M219">
+        <v>2.3</v>
+      </c>
+      <c r="N219">
+        <v>2.75</v>
+      </c>
+      <c r="O219">
         <v>3.25</v>
       </c>
-      <c r="M219">
-        <v>3</v>
-      </c>
-      <c r="N219">
-        <v>2.05</v>
-      </c>
-      <c r="O219">
-        <v>3.1</v>
-      </c>
       <c r="P219">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
         <v>1.8</v>
-      </c>
-      <c r="S219">
-        <v>2</v>
       </c>
       <c r="T219">
         <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V219">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W219">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z219">
+        <v>-1</v>
+      </c>
+      <c r="AA219">
         <v>0.8</v>
       </c>
-      <c r="AA219">
-        <v>-1</v>
-      </c>
       <c r="AB219">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20042,7 +20042,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6962915</v>
+        <v>6962974</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20054,76 +20054,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I220">
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K220">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L220">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M220">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N220">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O220">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P220">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q220">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
+        <v>1.8</v>
+      </c>
+      <c r="S220">
         <v>2</v>
-      </c>
-      <c r="S220">
-        <v>1.8</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V220">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA220">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC220">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -22712,7 +22712,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6963199</v>
+        <v>6963198</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22724,46 +22724,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G250" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K250">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L250">
+        <v>3.1</v>
+      </c>
+      <c r="M250">
+        <v>2.375</v>
+      </c>
+      <c r="N250">
         <v>3.4</v>
       </c>
-      <c r="M250">
-        <v>3.8</v>
-      </c>
-      <c r="N250">
-        <v>1.95</v>
-      </c>
       <c r="O250">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P250">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q250">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R250">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S250">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T250">
         <v>2.25</v>
@@ -22775,25 +22775,25 @@
         <v>1.95</v>
       </c>
       <c r="W250">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB250">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC250">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22801,7 +22801,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6963198</v>
+        <v>6963199</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22813,46 +22813,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F251" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K251">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L251">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M251">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N251">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O251">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P251">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q251">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T251">
         <v>2.25</v>
@@ -22864,25 +22864,25 @@
         <v>1.95</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X251">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -24403,7 +24403,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7526759</v>
+        <v>6962991</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24415,46 +24415,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G269" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H269">
         <v>1</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J269" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K269">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L269">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M269">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N269">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O269">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P269">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q269">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R269">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S269">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T269">
         <v>2.5</v>
@@ -24469,22 +24469,22 @@
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z269">
+        <v>-1</v>
+      </c>
+      <c r="AA269">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB269">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA269">
-        <v>-1</v>
-      </c>
-      <c r="AB269">
-        <v>-1</v>
-      </c>
       <c r="AC269">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24492,7 +24492,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6962991</v>
+        <v>7526759</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24504,46 +24504,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F270" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G270" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H270">
         <v>1</v>
       </c>
       <c r="I270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K270">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L270">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M270">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N270">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O270">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P270">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q270">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R270">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S270">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T270">
         <v>2.5</v>
@@ -24558,22 +24558,22 @@
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y270">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA270">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB270">
+        <v>-1</v>
+      </c>
+      <c r="AC270">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC270">
-        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -26094,7 +26094,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7589522</v>
+        <v>6963211</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26106,76 +26106,76 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G288" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H288">
         <v>1</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J288" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K288">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L288">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M288">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N288">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O288">
         <v>3.25</v>
       </c>
       <c r="P288">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q288">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R288">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S288">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T288">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U288">
+        <v>1.8</v>
+      </c>
+      <c r="V288">
         <v>2</v>
       </c>
-      <c r="V288">
-        <v>1.8</v>
-      </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z288">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC288">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26183,7 +26183,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6963211</v>
+        <v>7589522</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26195,76 +26195,76 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G289" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H289">
         <v>1</v>
       </c>
       <c r="I289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K289">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L289">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M289">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N289">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O289">
         <v>3.25</v>
       </c>
       <c r="P289">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="Q289">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R289">
+        <v>1.85</v>
+      </c>
+      <c r="S289">
+        <v>1.95</v>
+      </c>
+      <c r="T289">
+        <v>2.5</v>
+      </c>
+      <c r="U289">
         <v>2</v>
       </c>
-      <c r="S289">
+      <c r="V289">
         <v>1.8</v>
       </c>
-      <c r="T289">
+      <c r="W289">
+        <v>-1</v>
+      </c>
+      <c r="X289">
         <v>2.25</v>
       </c>
-      <c r="U289">
-        <v>1.8</v>
-      </c>
-      <c r="V289">
-        <v>2</v>
-      </c>
-      <c r="W289">
-        <v>-1</v>
-      </c>
-      <c r="X289">
-        <v>-1</v>
-      </c>
       <c r="Y289">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA289">
+        <v>0.475</v>
+      </c>
+      <c r="AB289">
+        <v>-1</v>
+      </c>
+      <c r="AC289">
         <v>0.8</v>
-      </c>
-      <c r="AB289">
-        <v>0.8</v>
-      </c>
-      <c r="AC289">
-        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -27518,7 +27518,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6963219</v>
+        <v>7656973</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27530,76 +27530,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F304" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G304" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H304">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I304">
         <v>0</v>
       </c>
       <c r="J304" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K304">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="L304">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M304">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N304">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="O304">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P304">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q304">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R304">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S304">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T304">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U304">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V304">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W304">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X304">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB304">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC304">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27607,7 +27607,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7656973</v>
+        <v>6963219</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27619,76 +27619,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F305" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G305" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I305">
         <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K305">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="L305">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M305">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N305">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="O305">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P305">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q305">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R305">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S305">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T305">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U305">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V305">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X305">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA305">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC305">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -30277,7 +30277,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6963045</v>
+        <v>6963229</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30289,58 +30289,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F335" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G335" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H335">
         <v>2</v>
       </c>
       <c r="I335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335" t="s">
         <v>55</v>
       </c>
       <c r="K335">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L335">
+        <v>3.4</v>
+      </c>
+      <c r="M335">
+        <v>2.05</v>
+      </c>
+      <c r="N335">
         <v>3.5</v>
       </c>
-      <c r="M335">
-        <v>3.75</v>
-      </c>
-      <c r="N335">
-        <v>1.95</v>
-      </c>
       <c r="O335">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P335">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q335">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R335">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S335">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T335">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U335">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V335">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W335">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X335">
         <v>-1</v>
@@ -30349,16 +30349,16 @@
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA335">
         <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC335">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30366,7 +30366,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6963229</v>
+        <v>6963045</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30378,58 +30378,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F336" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G336" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H336">
         <v>2</v>
       </c>
       <c r="I336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336" t="s">
         <v>55</v>
       </c>
       <c r="K336">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L336">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M336">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="N336">
+        <v>1.95</v>
+      </c>
+      <c r="O336">
         <v>3.5</v>
       </c>
-      <c r="O336">
-        <v>3.4</v>
-      </c>
       <c r="P336">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q336">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R336">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S336">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T336">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U336">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V336">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W336">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X336">
         <v>-1</v>
@@ -30438,16 +30438,16 @@
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA336">
         <v>-1</v>
       </c>
       <c r="AB336">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC336">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -31523,7 +31523,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6962944</v>
+        <v>6963013</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31532,49 +31532,49 @@
         <v>28</v>
       </c>
       <c r="E349" s="2">
-        <v>45339.54166666666</v>
+        <v>45340.3125</v>
       </c>
       <c r="F349" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G349" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K349">
-        <v>1.444</v>
+        <v>1.181</v>
       </c>
       <c r="L349">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M349">
+        <v>15</v>
+      </c>
+      <c r="N349">
+        <v>1.166</v>
+      </c>
+      <c r="O349">
         <v>7</v>
       </c>
-      <c r="N349">
-        <v>1.571</v>
-      </c>
-      <c r="O349">
-        <v>4</v>
-      </c>
       <c r="P349">
-        <v>5.75</v>
+        <v>17</v>
       </c>
       <c r="Q349">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R349">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S349">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T349">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U349">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V349">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W349">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6963013</v>
+        <v>6963011</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31609,46 +31609,46 @@
         <v>45340.3125</v>
       </c>
       <c r="F350" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G350" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K350">
-        <v>1.181</v>
+        <v>1.727</v>
       </c>
       <c r="L350">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M350">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N350">
-        <v>1.142</v>
+        <v>1.666</v>
       </c>
       <c r="O350">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P350">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q350">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R350">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S350">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T350">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U350">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V350">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W350">
         <v>0</v>
@@ -31671,7 +31671,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6963011</v>
+        <v>6963012</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31680,49 +31680,49 @@
         <v>28</v>
       </c>
       <c r="E351" s="2">
-        <v>45340.3125</v>
+        <v>45340.41666666666</v>
       </c>
       <c r="F351" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G351" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K351">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L351">
+        <v>3.2</v>
+      </c>
+      <c r="M351">
         <v>3.4</v>
       </c>
-      <c r="M351">
-        <v>5.25</v>
-      </c>
       <c r="N351">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O351">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P351">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q351">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R351">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S351">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T351">
         <v>2.25</v>
       </c>
       <c r="U351">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V351">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W351">
         <v>0</v>
@@ -31745,7 +31745,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6963012</v>
+        <v>6963235</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31754,49 +31754,49 @@
         <v>28</v>
       </c>
       <c r="E352" s="2">
-        <v>45340.41666666666</v>
+        <v>45340.54166666666</v>
       </c>
       <c r="F352" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G352" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K352">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L352">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M352">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="N352">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O352">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P352">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="Q352">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R352">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S352">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T352">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U352">
+        <v>1.975</v>
+      </c>
+      <c r="V352">
         <v>1.825</v>
-      </c>
-      <c r="V352">
-        <v>1.975</v>
       </c>
       <c r="W352">
         <v>0</v>
@@ -31819,7 +31819,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6963235</v>
+        <v>7820479</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31828,34 +31828,34 @@
         <v>28</v>
       </c>
       <c r="E353" s="2">
-        <v>45340.54166666666</v>
+        <v>45341.58333333334</v>
       </c>
       <c r="F353" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G353" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K353">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="L353">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M353">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="N353">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="O353">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P353">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="Q353">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R353">
         <v>1.975</v>
@@ -31864,13 +31864,13 @@
         <v>1.825</v>
       </c>
       <c r="T353">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U353">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V353">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W353">
         <v>0</v>
@@ -31885,80 +31885,6 @@
         <v>0</v>
       </c>
       <c r="AA353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:27">
-      <c r="A354" s="1">
-        <v>352</v>
-      </c>
-      <c r="B354">
-        <v>7820479</v>
-      </c>
-      <c r="C354" t="s">
-        <v>28</v>
-      </c>
-      <c r="D354" t="s">
-        <v>28</v>
-      </c>
-      <c r="E354" s="2">
-        <v>45341.58333333334</v>
-      </c>
-      <c r="F354" t="s">
-        <v>41</v>
-      </c>
-      <c r="G354" t="s">
-        <v>40</v>
-      </c>
-      <c r="K354">
-        <v>2.375</v>
-      </c>
-      <c r="L354">
-        <v>3.4</v>
-      </c>
-      <c r="M354">
-        <v>2.9</v>
-      </c>
-      <c r="N354">
-        <v>2.7</v>
-      </c>
-      <c r="O354">
-        <v>3.3</v>
-      </c>
-      <c r="P354">
-        <v>2.55</v>
-      </c>
-      <c r="Q354">
-        <v>0</v>
-      </c>
-      <c r="R354">
-        <v>1.975</v>
-      </c>
-      <c r="S354">
-        <v>1.825</v>
-      </c>
-      <c r="T354">
-        <v>2.5</v>
-      </c>
-      <c r="U354">
-        <v>1.975</v>
-      </c>
-      <c r="V354">
-        <v>1.825</v>
-      </c>
-      <c r="W354">
-        <v>0</v>
-      </c>
-      <c r="X354">
-        <v>0</v>
-      </c>
-      <c r="Y354">
-        <v>0</v>
-      </c>
-      <c r="Z354">
-        <v>0</v>
-      </c>
-      <c r="AA354">
         <v>0</v>
       </c>
     </row>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -133,10 +133,10 @@
     <t>Sakaryaspor</t>
   </si>
   <si>
-    <t>Erzurum BB</t>
+    <t>Bandirmaspor</t>
   </si>
   <si>
-    <t>Bandirmaspor</t>
+    <t>Erzurum BB</t>
   </si>
   <si>
     <t>Genclerbirligi</t>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC353"/>
+  <dimension ref="A1:AC356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1367,7 +1367,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5281400</v>
+        <v>5284173</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1545,37 +1545,37 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N12">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O12">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1584,34 +1584,34 @@
         <v>1.875</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5284173</v>
+        <v>5281400</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1634,37 +1634,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M13">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
         <v>1.925</v>
@@ -1673,34 +1673,34 @@
         <v>1.875</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2257,7 +2257,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2598,7 +2598,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5281576</v>
+        <v>5281403</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2610,76 +2610,76 @@
         <v>44955.3125</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
+        <v>2.1</v>
+      </c>
+      <c r="N24">
+        <v>3.4</v>
+      </c>
+      <c r="O24">
         <v>3.5</v>
       </c>
-      <c r="M24">
-        <v>4.333</v>
-      </c>
-      <c r="N24">
-        <v>1.55</v>
-      </c>
-      <c r="O24">
-        <v>3.8</v>
-      </c>
       <c r="P24">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
+        <v>1.85</v>
+      </c>
+      <c r="V24">
         <v>1.95</v>
       </c>
-      <c r="V24">
-        <v>1.85</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2687,7 +2687,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5281403</v>
+        <v>5281576</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2699,76 +2699,76 @@
         <v>44955.3125</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
+        <v>1.727</v>
+      </c>
+      <c r="L25">
+        <v>3.5</v>
+      </c>
+      <c r="M25">
+        <v>4.333</v>
+      </c>
+      <c r="N25">
+        <v>1.55</v>
+      </c>
+      <c r="O25">
+        <v>3.8</v>
+      </c>
+      <c r="P25">
+        <v>5.25</v>
+      </c>
+      <c r="Q25">
+        <v>-1</v>
+      </c>
+      <c r="R25">
         <v>2</v>
       </c>
-      <c r="J25" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>3.4</v>
-      </c>
-      <c r="M25">
-        <v>2.1</v>
-      </c>
-      <c r="N25">
-        <v>3.4</v>
-      </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
-      <c r="P25">
-        <v>1.95</v>
-      </c>
-      <c r="Q25">
-        <v>0.5</v>
-      </c>
-      <c r="R25">
-        <v>1.775</v>
-      </c>
       <c r="S25">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
+        <v>1.95</v>
+      </c>
+      <c r="V25">
         <v>1.85</v>
       </c>
-      <c r="V25">
-        <v>1.95</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB25">
+        <v>-1</v>
+      </c>
+      <c r="AC25">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC25">
-        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2969,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3132,7 +3132,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5284180</v>
+        <v>5281410</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3147,53 +3147,53 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
         <v>53</v>
       </c>
       <c r="K30">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M30">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N30">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O30">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
+        <v>1.875</v>
+      </c>
+      <c r="S30">
+        <v>1.925</v>
+      </c>
+      <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
         <v>1.825</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>1.975</v>
       </c>
-      <c r="T30">
-        <v>2.5</v>
-      </c>
-      <c r="U30">
-        <v>1.875</v>
-      </c>
-      <c r="V30">
-        <v>1.925</v>
-      </c>
       <c r="W30">
         <v>-1</v>
       </c>
@@ -3201,16 +3201,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB30">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3221,7 +3221,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5281410</v>
+        <v>5284180</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3236,53 +3236,53 @@
         <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>53</v>
       </c>
       <c r="K31">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L31">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N31">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P31">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>1.825</v>
+      </c>
+      <c r="S31">
+        <v>1.975</v>
+      </c>
+      <c r="T31">
+        <v>2.5</v>
+      </c>
+      <c r="U31">
         <v>1.875</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.925</v>
       </c>
-      <c r="T31">
-        <v>2.75</v>
-      </c>
-      <c r="U31">
-        <v>1.825</v>
-      </c>
-      <c r="V31">
-        <v>1.975</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
@@ -3290,16 +3290,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3844,7 +3844,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6287641</v>
+        <v>6287640</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3856,76 +3856,76 @@
         <v>44988.58333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O38">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P38">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6287640</v>
+        <v>6287641</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3945,76 +3945,76 @@
         <v>44988.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="L39">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N39">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P39">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4022,7 +4022,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6287642</v>
+        <v>6287645</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4034,58 +4034,58 @@
         <v>44989.3125</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>55</v>
       </c>
       <c r="K40">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N40">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4094,16 +4094,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
+        <v>0.75</v>
+      </c>
+      <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>0.875</v>
-      </c>
-      <c r="AC40">
-        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4111,7 +4111,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6287645</v>
+        <v>6287642</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4123,58 +4123,58 @@
         <v>44989.3125</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
         <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>55</v>
       </c>
       <c r="K41">
+        <v>2.375</v>
+      </c>
+      <c r="L41">
+        <v>3.25</v>
+      </c>
+      <c r="M41">
+        <v>2.75</v>
+      </c>
+      <c r="N41">
         <v>2.2</v>
       </c>
-      <c r="L41">
-        <v>3.4</v>
-      </c>
-      <c r="M41">
-        <v>2.9</v>
-      </c>
-      <c r="N41">
-        <v>2.3</v>
-      </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P41">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4183,16 +4183,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4657,7 +4657,7 @@
         <v>44993.35416666666</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
         <v>30</v>
@@ -4924,7 +4924,7 @@
         <v>44994.35416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
         <v>44</v>
@@ -5461,7 +5461,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6288653</v>
+        <v>6288641</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5547,76 +5547,76 @@
         <v>44998.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K57">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L57">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N57">
-        <v>1.285</v>
+        <v>1.55</v>
       </c>
       <c r="O57">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P57">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
+        <v>1.825</v>
+      </c>
+      <c r="V57">
         <v>1.975</v>
       </c>
-      <c r="V57">
-        <v>1.825</v>
-      </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA57">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5624,7 +5624,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6288641</v>
+        <v>6288653</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5636,76 +5636,76 @@
         <v>44998.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K58">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M58">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="N58">
-        <v>1.55</v>
+        <v>1.285</v>
       </c>
       <c r="O58">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P58">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q58">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R58">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S58">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
+        <v>1.975</v>
+      </c>
+      <c r="V58">
         <v>1.825</v>
       </c>
-      <c r="V58">
-        <v>1.975</v>
-      </c>
       <c r="W58">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB58">
+        <v>-1</v>
+      </c>
+      <c r="AC58">
         <v>0.825</v>
-      </c>
-      <c r="AC58">
-        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6336,7 +6336,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5281429</v>
+        <v>5281430</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6348,76 +6348,76 @@
         <v>45009.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K66">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="L66">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M66">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="N66">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="O66">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P66">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R66">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S66">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA66">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6425,7 +6425,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5281430</v>
+        <v>5281429</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6437,76 +6437,76 @@
         <v>45009.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
         <v>2</v>
       </c>
-      <c r="I67">
+      <c r="J67" t="s">
+        <v>53</v>
+      </c>
+      <c r="K67">
+        <v>3.1</v>
+      </c>
+      <c r="L67">
+        <v>3.3</v>
+      </c>
+      <c r="M67">
+        <v>2.15</v>
+      </c>
+      <c r="N67">
+        <v>2.875</v>
+      </c>
+      <c r="O67">
+        <v>3.25</v>
+      </c>
+      <c r="P67">
+        <v>2.3</v>
+      </c>
+      <c r="Q67">
         <v>0</v>
       </c>
-      <c r="J67" t="s">
-        <v>55</v>
-      </c>
-      <c r="K67">
-        <v>1.363</v>
-      </c>
-      <c r="L67">
-        <v>4.75</v>
-      </c>
-      <c r="M67">
-        <v>6.5</v>
-      </c>
-      <c r="N67">
+      <c r="R67">
+        <v>2.05</v>
+      </c>
+      <c r="S67">
+        <v>1.75</v>
+      </c>
+      <c r="T67">
+        <v>2.5</v>
+      </c>
+      <c r="U67">
+        <v>1.975</v>
+      </c>
+      <c r="V67">
+        <v>1.825</v>
+      </c>
+      <c r="W67">
+        <v>-1</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
         <v>1.3</v>
       </c>
-      <c r="O67">
-        <v>5</v>
-      </c>
-      <c r="P67">
-        <v>8</v>
-      </c>
-      <c r="Q67">
-        <v>-1.5</v>
-      </c>
-      <c r="R67">
-        <v>1.925</v>
-      </c>
-      <c r="S67">
-        <v>1.875</v>
-      </c>
-      <c r="T67">
-        <v>2.75</v>
-      </c>
-      <c r="U67">
-        <v>1.9</v>
-      </c>
-      <c r="V67">
-        <v>1.9</v>
-      </c>
-      <c r="W67">
-        <v>0.3</v>
-      </c>
-      <c r="X67">
-        <v>-1</v>
-      </c>
-      <c r="Y67">
-        <v>-1</v>
-      </c>
       <c r="Z67">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6796,7 +6796,7 @@
         <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5284199</v>
+        <v>5281437</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7060,58 +7060,58 @@
         <v>45013.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
         <v>2</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>55</v>
       </c>
       <c r="K74">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L74">
         <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N74">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q74">
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7120,13 +7120,13 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7137,7 +7137,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5281437</v>
+        <v>5284199</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7149,58 +7149,58 @@
         <v>45013.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>55</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L75">
         <v>3.4</v>
       </c>
       <c r="M75">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7209,13 +7209,13 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7238,7 +7238,7 @@
         <v>45014.3125</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
         <v>43</v>
@@ -7505,7 +7505,7 @@
         <v>45015.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
         <v>42</v>
@@ -7849,7 +7849,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5284202</v>
+        <v>5284200</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7861,31 +7861,31 @@
         <v>45018.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K83">
         <v>1.666</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N83">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O83">
         <v>3.5</v>
@@ -7894,43 +7894,43 @@
         <v>4.2</v>
       </c>
       <c r="Q83">
+        <v>-0.75</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1.8</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>1.875</v>
+      </c>
+      <c r="V83">
+        <v>1.925</v>
+      </c>
+      <c r="W83">
+        <v>0.75</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>0.5</v>
+      </c>
+      <c r="AA83">
         <v>-0.5</v>
       </c>
-      <c r="R83">
-        <v>1.8</v>
-      </c>
-      <c r="S83">
-        <v>2</v>
-      </c>
-      <c r="T83">
-        <v>2.75</v>
-      </c>
-      <c r="U83">
-        <v>1.925</v>
-      </c>
-      <c r="V83">
-        <v>1.875</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>3.2</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
-      <c r="AA83">
-        <v>1</v>
-      </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7938,7 +7938,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5284200</v>
+        <v>5284202</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7950,31 +7950,31 @@
         <v>45018.3125</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K84">
         <v>1.666</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N84">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O84">
         <v>3.5</v>
@@ -7983,43 +7983,43 @@
         <v>4.2</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.8</v>
+      </c>
+      <c r="S84">
         <v>2</v>
       </c>
-      <c r="S84">
-        <v>1.8</v>
-      </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
+        <v>1.925</v>
+      </c>
+      <c r="V84">
         <v>1.875</v>
       </c>
-      <c r="V84">
-        <v>1.925</v>
-      </c>
       <c r="W84">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
         <v>0.875</v>
-      </c>
-      <c r="AC84">
-        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8042,7 +8042,7 @@
         <v>46</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5281587</v>
+        <v>5284203</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,76 +8128,76 @@
         <v>45019.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K86">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L86">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N86">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P86">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="Q86">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="V86">
-        <v>1.85</v>
-      </c>
       <c r="W86">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
+        <v>-1</v>
+      </c>
+      <c r="AC86">
         <v>0.95</v>
-      </c>
-      <c r="AC86">
-        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5284203</v>
+        <v>5281587</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,76 +8217,76 @@
         <v>45019.60416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K87">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L87">
+        <v>3.3</v>
+      </c>
+      <c r="M87">
+        <v>2.3</v>
+      </c>
+      <c r="N87">
         <v>3.75</v>
       </c>
-      <c r="M87">
-        <v>4.75</v>
-      </c>
-      <c r="N87">
-        <v>1.363</v>
-      </c>
       <c r="O87">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
+        <v>1.95</v>
+      </c>
+      <c r="V87">
         <v>1.85</v>
       </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X87">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8383,7 +8383,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5281446</v>
+        <v>5284205</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8395,76 +8395,76 @@
         <v>45023.60416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
+        <v>4</v>
+      </c>
+      <c r="J89" t="s">
+        <v>53</v>
+      </c>
+      <c r="K89">
+        <v>2.625</v>
+      </c>
+      <c r="L89">
+        <v>3.1</v>
+      </c>
+      <c r="M89">
+        <v>2.5</v>
+      </c>
+      <c r="N89">
+        <v>2.6</v>
+      </c>
+      <c r="O89">
+        <v>3.2</v>
+      </c>
+      <c r="P89">
+        <v>2.5</v>
+      </c>
+      <c r="Q89">
         <v>0</v>
       </c>
-      <c r="J89" t="s">
-        <v>55</v>
-      </c>
-      <c r="K89">
-        <v>3.5</v>
-      </c>
-      <c r="L89">
-        <v>3.3</v>
-      </c>
-      <c r="M89">
+      <c r="R89">
         <v>1.95</v>
       </c>
-      <c r="N89">
-        <v>3</v>
-      </c>
-      <c r="O89">
-        <v>3.25</v>
-      </c>
-      <c r="P89">
-        <v>2.15</v>
-      </c>
-      <c r="Q89">
-        <v>0.25</v>
-      </c>
-      <c r="R89">
-        <v>1.875</v>
-      </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T89">
         <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z89">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8472,7 +8472,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5284205</v>
+        <v>5281446</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8484,76 +8484,76 @@
         <v>45023.60416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K90">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="L90">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N90">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P90">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
         <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8751,7 +8751,7 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
         <v>42</v>
@@ -8840,7 +8840,7 @@
         <v>45025.60416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
         <v>46</v>
@@ -9199,7 +9199,7 @@
         <v>47</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
         <v>47</v>
@@ -9908,7 +9908,7 @@
         <v>45033.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
         <v>38</v>
@@ -10252,7 +10252,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5495158</v>
+        <v>5499322</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10264,58 +10264,58 @@
         <v>45039.3125</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
         <v>55</v>
       </c>
       <c r="K110">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L110">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N110">
-        <v>1.45</v>
+        <v>1.571</v>
       </c>
       <c r="O110">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
         <v>4.75</v>
       </c>
       <c r="Q110">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S110">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W110">
-        <v>0.45</v>
+        <v>0.571</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10324,13 +10324,13 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5499322</v>
+        <v>5505122</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,58 +10353,58 @@
         <v>45039.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>55</v>
       </c>
       <c r="K111">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="L111">
+        <v>5.25</v>
+      </c>
+      <c r="M111">
+        <v>10</v>
+      </c>
+      <c r="N111">
+        <v>1.045</v>
+      </c>
+      <c r="O111">
+        <v>15</v>
+      </c>
+      <c r="P111">
+        <v>29</v>
+      </c>
+      <c r="Q111">
+        <v>-3</v>
+      </c>
+      <c r="R111">
+        <v>1.875</v>
+      </c>
+      <c r="S111">
+        <v>1.925</v>
+      </c>
+      <c r="T111">
         <v>3.75</v>
       </c>
-      <c r="M111">
-        <v>5</v>
-      </c>
-      <c r="N111">
-        <v>1.571</v>
-      </c>
-      <c r="O111">
-        <v>3.8</v>
-      </c>
-      <c r="P111">
-        <v>4.75</v>
-      </c>
-      <c r="Q111">
-        <v>-0.75</v>
-      </c>
-      <c r="R111">
-        <v>1.775</v>
-      </c>
-      <c r="S111">
-        <v>2.025</v>
-      </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>0.571</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10413,16 +10413,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10430,7 +10430,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5505122</v>
+        <v>5495158</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10442,58 +10442,58 @@
         <v>45039.3125</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
         <v>55</v>
       </c>
       <c r="K112">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L112">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="M112">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N112">
-        <v>1.045</v>
+        <v>1.45</v>
       </c>
       <c r="O112">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="P112">
-        <v>29</v>
+        <v>4.75</v>
       </c>
       <c r="Q112">
-        <v>-3</v>
+        <v>-1.25</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S112">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T112">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W112">
-        <v>0.04499999999999993</v>
+        <v>0.45</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10502,16 +10502,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10608,7 +10608,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5499323</v>
+        <v>5505970</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10620,73 +10620,73 @@
         <v>45040.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H114">
         <v>2</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K114">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M114">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N114">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O114">
         <v>4</v>
       </c>
       <c r="P114">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q114">
         <v>-0.75</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
+        <v>2.75</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
         <v>3</v>
       </c>
-      <c r="U114">
-        <v>1.9</v>
-      </c>
-      <c r="V114">
-        <v>1.9</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>3</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10697,7 +10697,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5505970</v>
+        <v>5499323</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10709,73 +10709,73 @@
         <v>45040.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K115">
+        <v>1.615</v>
+      </c>
+      <c r="L115">
+        <v>3.75</v>
+      </c>
+      <c r="M115">
+        <v>5.25</v>
+      </c>
+      <c r="N115">
         <v>1.666</v>
-      </c>
-      <c r="L115">
-        <v>3.6</v>
-      </c>
-      <c r="M115">
-        <v>4.5</v>
-      </c>
-      <c r="N115">
-        <v>1.7</v>
       </c>
       <c r="O115">
         <v>4</v>
       </c>
       <c r="P115">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q115">
         <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y115">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -11335,7 +11335,7 @@
         <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11510,7 +11510,7 @@
         <v>45048.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
         <v>38</v>
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5574591</v>
+        <v>6604510</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11599,76 +11599,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>53</v>
+      </c>
+      <c r="K125">
+        <v>2.25</v>
+      </c>
+      <c r="L125">
+        <v>3.2</v>
+      </c>
+      <c r="M125">
+        <v>2.8</v>
+      </c>
+      <c r="N125">
+        <v>2.2</v>
+      </c>
+      <c r="O125">
+        <v>3.2</v>
+      </c>
+      <c r="P125">
+        <v>2.9</v>
+      </c>
+      <c r="Q125">
+        <v>-0.25</v>
+      </c>
+      <c r="R125">
+        <v>1.975</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>2.5</v>
+      </c>
+      <c r="U125">
         <v>2</v>
       </c>
-      <c r="J125" t="s">
-        <v>55</v>
-      </c>
-      <c r="K125">
-        <v>1.363</v>
-      </c>
-      <c r="L125">
-        <v>4.75</v>
-      </c>
-      <c r="M125">
-        <v>7</v>
-      </c>
-      <c r="N125">
-        <v>1.285</v>
-      </c>
-      <c r="O125">
-        <v>5</v>
-      </c>
-      <c r="P125">
-        <v>9.5</v>
-      </c>
-      <c r="Q125">
-        <v>-1.75</v>
-      </c>
-      <c r="R125">
-        <v>2</v>
-      </c>
-      <c r="S125">
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
-      <c r="U125">
-        <v>1.8</v>
-      </c>
-      <c r="V125">
-        <v>2</v>
-      </c>
       <c r="W125">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z125">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.8</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11676,7 +11676,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5574590</v>
+        <v>5578989</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11688,13 +11688,13 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11703,43 +11703,43 @@
         <v>55</v>
       </c>
       <c r="K126">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M126">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N126">
-        <v>1.533</v>
+        <v>1.142</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P126">
-        <v>5.25</v>
+        <v>13</v>
       </c>
       <c r="Q126">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>0.5329999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11748,16 +11748,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6604510</v>
+        <v>5578988</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11777,76 +11777,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K127">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L127">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O127">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q127">
         <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA127">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11866,7 +11866,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
         <v>31</v>
@@ -11943,7 +11943,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5569305</v>
+        <v>5574591</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11955,76 +11955,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K129">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
+        <v>7</v>
+      </c>
+      <c r="N129">
+        <v>1.285</v>
+      </c>
+      <c r="O129">
+        <v>5</v>
+      </c>
+      <c r="P129">
+        <v>9.5</v>
+      </c>
+      <c r="Q129">
+        <v>-1.75</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>1.8</v>
+      </c>
+      <c r="T129">
         <v>3</v>
       </c>
-      <c r="N129">
-        <v>2.05</v>
-      </c>
-      <c r="O129">
-        <v>3.3</v>
-      </c>
-      <c r="P129">
-        <v>3.3</v>
-      </c>
-      <c r="Q129">
-        <v>-0.25</v>
-      </c>
-      <c r="R129">
-        <v>1.85</v>
-      </c>
-      <c r="S129">
-        <v>1.95</v>
-      </c>
-      <c r="T129">
-        <v>2.5</v>
-      </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X129">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
+        <v>0.5</v>
+      </c>
+      <c r="AA129">
         <v>-0.5</v>
       </c>
-      <c r="AA129">
-        <v>0.475</v>
-      </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC129">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12032,7 +12032,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5578989</v>
+        <v>5574590</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12044,13 +12044,13 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12059,43 +12059,43 @@
         <v>55</v>
       </c>
       <c r="K130">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="L130">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M130">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="N130">
-        <v>1.142</v>
+        <v>1.533</v>
       </c>
       <c r="O130">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P130">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="Q130">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
-        <v>0.1419999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12104,16 +12104,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12121,7 +12121,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5578988</v>
+        <v>5569305</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12133,76 +12133,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>54</v>
+      </c>
+      <c r="K131">
+        <v>2.15</v>
+      </c>
+      <c r="L131">
+        <v>3.3</v>
+      </c>
+      <c r="M131">
         <v>3</v>
       </c>
-      <c r="I131">
-        <v>2</v>
-      </c>
-      <c r="J131" t="s">
-        <v>55</v>
-      </c>
-      <c r="K131">
-        <v>2.375</v>
-      </c>
-      <c r="L131">
-        <v>3.4</v>
-      </c>
-      <c r="M131">
-        <v>2.7</v>
-      </c>
       <c r="N131">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12210,7 +12210,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5603142</v>
+        <v>5608074</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12222,40 +12222,40 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>2</v>
       </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
       <c r="J132" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K132">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P132">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q132">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R132">
         <v>1.825</v>
@@ -12264,34 +12264,34 @@
         <v>1.975</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12299,7 +12299,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5603143</v>
+        <v>5603142</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12311,76 +12311,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K133">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="L133">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="N133">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P133">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X133">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12388,7 +12388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5636763</v>
+        <v>5603143</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12400,76 +12400,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H134">
+        <v>3</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134" t="s">
+        <v>54</v>
+      </c>
+      <c r="K134">
+        <v>2.8</v>
+      </c>
+      <c r="L134">
+        <v>3.3</v>
+      </c>
+      <c r="M134">
+        <v>2.3</v>
+      </c>
+      <c r="N134">
+        <v>2.55</v>
+      </c>
+      <c r="O134">
+        <v>3.25</v>
+      </c>
+      <c r="P134">
+        <v>2.55</v>
+      </c>
+      <c r="Q134">
         <v>0</v>
       </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-      <c r="J134" t="s">
-        <v>53</v>
-      </c>
-      <c r="K134">
-        <v>1.95</v>
-      </c>
-      <c r="L134">
-        <v>3.5</v>
-      </c>
-      <c r="M134">
-        <v>3.5</v>
-      </c>
-      <c r="N134">
-        <v>1.727</v>
-      </c>
-      <c r="O134">
-        <v>3.75</v>
-      </c>
-      <c r="P134">
-        <v>4</v>
-      </c>
-      <c r="Q134">
-        <v>-0.75</v>
-      </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y134">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA134">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,7 +12477,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5608075</v>
+        <v>5615110</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12489,10 +12489,10 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12504,43 +12504,43 @@
         <v>55</v>
       </c>
       <c r="K135">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N135">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
+        <v>1.925</v>
+      </c>
+      <c r="S135">
         <v>1.875</v>
       </c>
-      <c r="S135">
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>1.875</v>
+      </c>
+      <c r="V135">
         <v>1.925</v>
       </c>
-      <c r="T135">
-        <v>2.75</v>
-      </c>
-      <c r="U135">
-        <v>1.7</v>
-      </c>
-      <c r="V135">
-        <v>2.1</v>
-      </c>
       <c r="W135">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12549,16 +12549,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
-        <v>0.35</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5608074</v>
+        <v>5610598</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,55 +12578,55 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
         <v>1</v>
-      </c>
-      <c r="I136">
-        <v>2</v>
       </c>
       <c r="J136" t="s">
         <v>53</v>
       </c>
       <c r="K136">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M136">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N136">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q136">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12635,19 +12635,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.7270000000000001</v>
+        <v>4.75</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5610598</v>
+        <v>5636763</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,10 +12667,10 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12682,40 +12682,40 @@
         <v>53</v>
       </c>
       <c r="K137">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="L137">
+        <v>3.5</v>
+      </c>
+      <c r="M137">
+        <v>3.5</v>
+      </c>
+      <c r="N137">
+        <v>1.727</v>
+      </c>
+      <c r="O137">
         <v>3.75</v>
       </c>
-      <c r="M137">
-        <v>4.5</v>
-      </c>
-      <c r="N137">
-        <v>1.5</v>
-      </c>
-      <c r="O137">
-        <v>3.6</v>
-      </c>
       <c r="P137">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="Q137">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12724,19 +12724,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
         <v>0.925</v>
-      </c>
-      <c r="AB137">
-        <v>-1</v>
-      </c>
-      <c r="AC137">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5615110</v>
+        <v>5608075</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,10 +12756,10 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12771,43 +12771,43 @@
         <v>55</v>
       </c>
       <c r="K138">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M138">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N138">
+        <v>2.1</v>
+      </c>
+      <c r="O138">
+        <v>3.5</v>
+      </c>
+      <c r="P138">
+        <v>2.9</v>
+      </c>
+      <c r="Q138">
+        <v>-0.25</v>
+      </c>
+      <c r="R138">
+        <v>1.875</v>
+      </c>
+      <c r="S138">
+        <v>1.925</v>
+      </c>
+      <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
         <v>1.7</v>
       </c>
-      <c r="O138">
-        <v>4.2</v>
-      </c>
-      <c r="P138">
-        <v>3.75</v>
-      </c>
-      <c r="Q138">
-        <v>-0.75</v>
-      </c>
-      <c r="R138">
-        <v>1.925</v>
-      </c>
-      <c r="S138">
-        <v>1.875</v>
-      </c>
-      <c r="T138">
-        <v>3.25</v>
-      </c>
-      <c r="U138">
-        <v>1.875</v>
-      </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="W138">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12816,16 +12816,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AA138">
+        <v>-1</v>
+      </c>
+      <c r="AB138">
+        <v>0.35</v>
+      </c>
+      <c r="AC138">
         <v>-0.5</v>
-      </c>
-      <c r="AB138">
-        <v>-0.5</v>
-      </c>
-      <c r="AC138">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5705512</v>
+        <v>5636764</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,58 +12934,58 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>55</v>
       </c>
       <c r="K140">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O140">
         <v>4</v>
       </c>
       <c r="P140">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12994,16 +12994,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5641728</v>
+        <v>5641727</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
+        <v>5</v>
+      </c>
+      <c r="J141" t="s">
+        <v>53</v>
+      </c>
+      <c r="K141">
+        <v>3.3</v>
+      </c>
+      <c r="L141">
+        <v>3.5</v>
+      </c>
+      <c r="M141">
+        <v>1.909</v>
+      </c>
+      <c r="N141">
+        <v>3.3</v>
+      </c>
+      <c r="O141">
+        <v>3.8</v>
+      </c>
+      <c r="P141">
+        <v>1.833</v>
+      </c>
+      <c r="Q141">
+        <v>0.5</v>
+      </c>
+      <c r="R141">
+        <v>1.9</v>
+      </c>
+      <c r="S141">
+        <v>1.9</v>
+      </c>
+      <c r="T141">
+        <v>3.25</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
+        <v>1.8</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>0.833</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB141">
         <v>1</v>
       </c>
-      <c r="J141" t="s">
-        <v>54</v>
-      </c>
-      <c r="K141">
-        <v>1.909</v>
-      </c>
-      <c r="L141">
-        <v>3.3</v>
-      </c>
-      <c r="M141">
-        <v>3.4</v>
-      </c>
-      <c r="N141">
-        <v>1.75</v>
-      </c>
-      <c r="O141">
-        <v>3.75</v>
-      </c>
-      <c r="P141">
-        <v>3.6</v>
-      </c>
-      <c r="Q141">
-        <v>-0.5</v>
-      </c>
-      <c r="R141">
-        <v>1.825</v>
-      </c>
-      <c r="S141">
-        <v>1.975</v>
-      </c>
-      <c r="T141">
-        <v>2.75</v>
-      </c>
-      <c r="U141">
-        <v>1.8</v>
-      </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
-      <c r="W141">
-        <v>-1</v>
-      </c>
-      <c r="X141">
-        <v>2.75</v>
-      </c>
-      <c r="Y141">
-        <v>-1</v>
-      </c>
-      <c r="Z141">
-        <v>-1</v>
-      </c>
-      <c r="AA141">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB141">
-        <v>-1</v>
-      </c>
       <c r="AC141">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5702788</v>
+        <v>5641728</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,61 +13112,61 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>54</v>
       </c>
       <c r="K142">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L142">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P142">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
+        <v>1.825</v>
+      </c>
+      <c r="S142">
+        <v>1.975</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>1.8</v>
+      </c>
+      <c r="V142">
         <v>2</v>
       </c>
-      <c r="S142">
-        <v>1.8</v>
-      </c>
-      <c r="T142">
-        <v>3.5</v>
-      </c>
-      <c r="U142">
-        <v>1.975</v>
-      </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Y142">
         <v>-1</v>
@@ -13175,13 +13175,13 @@
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5636764</v>
+        <v>5702788</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143" t="s">
+        <v>54</v>
+      </c>
+      <c r="K143">
+        <v>1.533</v>
+      </c>
+      <c r="L143">
+        <v>4.333</v>
+      </c>
+      <c r="M143">
+        <v>4.5</v>
+      </c>
+      <c r="N143">
+        <v>1.363</v>
+      </c>
+      <c r="O143">
+        <v>5</v>
+      </c>
+      <c r="P143">
+        <v>5.75</v>
+      </c>
+      <c r="Q143">
+        <v>-1.5</v>
+      </c>
+      <c r="R143">
         <v>2</v>
       </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-      <c r="J143" t="s">
-        <v>55</v>
-      </c>
-      <c r="K143">
-        <v>1.5</v>
-      </c>
-      <c r="L143">
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
+        <v>3.5</v>
+      </c>
+      <c r="U143">
+        <v>1.975</v>
+      </c>
+      <c r="V143">
+        <v>1.825</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
         <v>4</v>
       </c>
-      <c r="M143">
-        <v>5.25</v>
-      </c>
-      <c r="N143">
-        <v>1.5</v>
-      </c>
-      <c r="O143">
-        <v>4</v>
-      </c>
-      <c r="P143">
-        <v>5</v>
-      </c>
-      <c r="Q143">
-        <v>-1</v>
-      </c>
-      <c r="R143">
-        <v>1.925</v>
-      </c>
-      <c r="S143">
-        <v>1.875</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.9</v>
-      </c>
-      <c r="V143">
-        <v>1.9</v>
-      </c>
-      <c r="W143">
-        <v>0.5</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13290,7 +13290,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
         <v>41</v>
@@ -13367,7 +13367,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5641727</v>
+        <v>5705512</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13379,76 +13379,76 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K145">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M145">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N145">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P145">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="Q145">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -14358,10 +14358,10 @@
         <v>45151.55208333334</v>
       </c>
       <c r="F156" t="s">
+        <v>40</v>
+      </c>
+      <c r="G156" t="s">
         <v>39</v>
-      </c>
-      <c r="G156" t="s">
-        <v>40</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14717,7 +14717,7 @@
         <v>43</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
         <v>31</v>
@@ -15426,7 +15426,7 @@
         <v>45163.625</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G168" t="s">
         <v>47</v>
@@ -15503,7 +15503,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6963169</v>
+        <v>7102510</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15515,76 +15515,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
         <v>0</v>
       </c>
-      <c r="I169">
-        <v>5</v>
-      </c>
       <c r="J169" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K169">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M169">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N169">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="O169">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P169">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="Q169">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA169">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15592,7 +15592,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7102510</v>
+        <v>6963169</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15604,76 +15604,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J170" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K170">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="L170">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M170">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N170">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="O170">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P170">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="Q170">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R170">
+        <v>1.825</v>
+      </c>
+      <c r="S170">
+        <v>1.975</v>
+      </c>
+      <c r="T170">
+        <v>2.5</v>
+      </c>
+      <c r="U170">
         <v>1.9</v>
       </c>
-      <c r="S170">
+      <c r="V170">
         <v>1.9</v>
       </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
-      <c r="U170">
-        <v>1.8</v>
-      </c>
-      <c r="V170">
-        <v>2</v>
-      </c>
       <c r="W170">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z170">
+        <v>-1</v>
+      </c>
+      <c r="AA170">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB170">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA170">
-        <v>-1</v>
-      </c>
-      <c r="AB170">
-        <v>-1</v>
-      </c>
       <c r="AC170">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16141,7 +16141,7 @@
         <v>52</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16316,7 +16316,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
         <v>38</v>
@@ -16853,7 +16853,7 @@
         <v>49</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -17016,7 +17016,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6962966</v>
+        <v>6963034</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17028,13 +17028,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -17043,43 +17043,43 @@
         <v>55</v>
       </c>
       <c r="K186">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186">
         <v>3.25</v>
       </c>
-      <c r="M186">
-        <v>3.4</v>
-      </c>
       <c r="N186">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O186">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P186">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q186">
         <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17088,16 +17088,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17105,7 +17105,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6963034</v>
+        <v>6962966</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17117,13 +17117,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -17132,43 +17132,43 @@
         <v>55</v>
       </c>
       <c r="K187">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M187">
+        <v>3.4</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187">
         <v>3.25</v>
       </c>
-      <c r="N187">
-        <v>2.2</v>
-      </c>
-      <c r="O187">
-        <v>2.9</v>
-      </c>
       <c r="P187">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q187">
         <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W187">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17177,16 +17177,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC187">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17194,7 +17194,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6963264</v>
+        <v>6962909</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17206,73 +17206,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G188" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K188">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L188">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M188">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N188">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O188">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P188">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
+        <v>1.775</v>
+      </c>
+      <c r="S188">
         <v>2.025</v>
       </c>
-      <c r="S188">
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
         <v>1.775</v>
       </c>
-      <c r="T188">
-        <v>2.5</v>
-      </c>
-      <c r="U188">
-        <v>1.925</v>
-      </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB188">
-        <v>0.925</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17283,7 +17283,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6962909</v>
+        <v>6963264</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17295,73 +17295,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K189">
+        <v>2.1</v>
+      </c>
+      <c r="L189">
+        <v>3.25</v>
+      </c>
+      <c r="M189">
+        <v>3.1</v>
+      </c>
+      <c r="N189">
+        <v>2.3</v>
+      </c>
+      <c r="O189">
+        <v>3.25</v>
+      </c>
+      <c r="P189">
+        <v>2.75</v>
+      </c>
+      <c r="Q189">
+        <v>-0.25</v>
+      </c>
+      <c r="R189">
+        <v>2.025</v>
+      </c>
+      <c r="S189">
+        <v>1.775</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>1.925</v>
+      </c>
+      <c r="V189">
+        <v>1.875</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.75</v>
       </c>
-      <c r="L189">
-        <v>3.2</v>
-      </c>
-      <c r="M189">
-        <v>4.333</v>
-      </c>
-      <c r="N189">
-        <v>1.75</v>
-      </c>
-      <c r="O189">
-        <v>3.2</v>
-      </c>
-      <c r="P189">
-        <v>4.333</v>
-      </c>
-      <c r="Q189">
-        <v>-0.5</v>
-      </c>
-      <c r="R189">
-        <v>1.775</v>
-      </c>
-      <c r="S189">
-        <v>2.025</v>
-      </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>1.775</v>
-      </c>
-      <c r="V189">
-        <v>2.025</v>
-      </c>
-      <c r="W189">
-        <v>0.75</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
+        <v>-1</v>
+      </c>
+      <c r="AA189">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA189">
-        <v>-1</v>
-      </c>
       <c r="AB189">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17565,7 +17565,7 @@
         <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6962970</v>
+        <v>6962911</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,76 +18096,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F198" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G198" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
         <v>1</v>
       </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
       <c r="J198" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K198">
         <v>2.1</v>
       </c>
       <c r="L198">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
+        <v>3.25</v>
+      </c>
+      <c r="N198">
+        <v>2.2</v>
+      </c>
+      <c r="O198">
+        <v>3.2</v>
+      </c>
+      <c r="P198">
         <v>3.1</v>
       </c>
-      <c r="N198">
-        <v>1.909</v>
-      </c>
-      <c r="O198">
-        <v>3.5</v>
-      </c>
-      <c r="P198">
-        <v>3.6</v>
-      </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S198">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
         <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V198">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W198">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6962911</v>
+        <v>6962970</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,76 +18185,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
         <v>0</v>
       </c>
-      <c r="I199">
-        <v>1</v>
-      </c>
       <c r="J199" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K199">
         <v>2.1</v>
       </c>
       <c r="L199">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N199">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O199">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P199">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V199">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA199">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18274,7 +18274,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G200" t="s">
         <v>41</v>
@@ -18366,7 +18366,7 @@
         <v>45</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18633,7 +18633,7 @@
         <v>51</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18986,7 +18986,7 @@
         <v>45200.3125</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G208" t="s">
         <v>31</v>
@@ -19434,7 +19434,7 @@
         <v>48</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19609,7 +19609,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
         <v>50</v>
@@ -19953,7 +19953,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6962915</v>
+        <v>6962974</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19965,76 +19965,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G219" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I219">
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K219">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L219">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M219">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N219">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O219">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P219">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q219">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
+        <v>1.8</v>
+      </c>
+      <c r="S219">
         <v>2</v>
-      </c>
-      <c r="S219">
-        <v>1.8</v>
       </c>
       <c r="T219">
         <v>2.25</v>
       </c>
       <c r="U219">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA219">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC219">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20042,7 +20042,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6962974</v>
+        <v>6962915</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20054,76 +20054,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H220">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I220">
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K220">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L220">
+        <v>3.2</v>
+      </c>
+      <c r="M220">
+        <v>2.3</v>
+      </c>
+      <c r="N220">
+        <v>2.75</v>
+      </c>
+      <c r="O220">
         <v>3.25</v>
       </c>
-      <c r="M220">
-        <v>3</v>
-      </c>
-      <c r="N220">
-        <v>2.05</v>
-      </c>
-      <c r="O220">
-        <v>3.1</v>
-      </c>
       <c r="P220">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
         <v>1.8</v>
-      </c>
-      <c r="S220">
-        <v>2</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W220">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z220">
+        <v>-1</v>
+      </c>
+      <c r="AA220">
         <v>0.8</v>
       </c>
-      <c r="AA220">
-        <v>-1</v>
-      </c>
       <c r="AB220">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20321,7 +20321,7 @@
         <v>45220.3125</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G223" t="s">
         <v>30</v>
@@ -20591,7 +20591,7 @@
         <v>43</v>
       </c>
       <c r="G226" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -20665,7 +20665,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6963190</v>
+        <v>6963187</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20677,76 +20677,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G227" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K227">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L227">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
         <v>2.375</v>
       </c>
       <c r="N227">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O227">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q227">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S227">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V227">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA227">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC227">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20754,7 +20754,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6963187</v>
+        <v>6963190</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20766,76 +20766,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G228" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K228">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L228">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M228">
         <v>2.375</v>
       </c>
       <c r="N228">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P228">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q228">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R228">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S228">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W228">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z228">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -21110,7 +21110,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6962919</v>
+        <v>6963191</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21122,10 +21122,10 @@
         <v>45227.3125</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -21137,40 +21137,40 @@
         <v>53</v>
       </c>
       <c r="K232">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L232">
         <v>3.1</v>
       </c>
       <c r="M232">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N232">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O232">
         <v>3.1</v>
       </c>
       <c r="P232">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S232">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T232">
         <v>2.25</v>
       </c>
       <c r="U232">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V232">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21179,19 +21179,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21199,7 +21199,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6963191</v>
+        <v>6962919</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21211,10 +21211,10 @@
         <v>45227.3125</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21226,40 +21226,40 @@
         <v>53</v>
       </c>
       <c r="K233">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L233">
         <v>3.1</v>
       </c>
       <c r="M233">
+        <v>2.3</v>
+      </c>
+      <c r="N233">
         <v>3</v>
-      </c>
-      <c r="N233">
-        <v>2.375</v>
       </c>
       <c r="O233">
         <v>3.1</v>
       </c>
       <c r="P233">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R233">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S233">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T233">
         <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V233">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21268,19 +21268,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21555,7 +21555,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6962979</v>
+        <v>6962980</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21567,76 +21567,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G237" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K237">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L237">
         <v>3.2</v>
       </c>
       <c r="M237">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N237">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O237">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P237">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R237">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S237">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T237">
         <v>2.5</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V237">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W237">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z237">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC237">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6962980</v>
+        <v>6962979</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G238" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H238">
         <v>1</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K238">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L238">
         <v>3.2</v>
       </c>
       <c r="M238">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N238">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O238">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P238">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q238">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T238">
         <v>2.5</v>
       </c>
       <c r="U238">
+        <v>1.875</v>
+      </c>
+      <c r="V238">
+        <v>1.925</v>
+      </c>
+      <c r="W238">
         <v>2</v>
       </c>
-      <c r="V238">
-        <v>1.8</v>
-      </c>
-      <c r="W238">
-        <v>-1</v>
-      </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA238">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21748,7 +21748,7 @@
         <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -22279,7 +22279,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F245" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
         <v>42</v>
@@ -22371,7 +22371,7 @@
         <v>52</v>
       </c>
       <c r="G246" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -23083,7 +23083,7 @@
         <v>47</v>
       </c>
       <c r="G254" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G256" t="s">
         <v>33</v>
@@ -23439,7 +23439,7 @@
         <v>38</v>
       </c>
       <c r="G258" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H258">
         <v>2</v>
@@ -23513,7 +23513,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7482211</v>
+        <v>7482213</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23525,10 +23525,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F259" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G259" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23540,40 +23540,40 @@
         <v>53</v>
       </c>
       <c r="K259">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M259">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N259">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="O259">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P259">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q259">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R259">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S259">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T259">
         <v>2.75</v>
       </c>
       <c r="U259">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V259">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W259">
         <v>-1</v>
@@ -23582,19 +23582,19 @@
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23602,7 +23602,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7482213</v>
+        <v>7482211</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23614,10 +23614,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G260" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -23629,40 +23629,40 @@
         <v>53</v>
       </c>
       <c r="K260">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L260">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M260">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N260">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="O260">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P260">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q260">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R260">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S260">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T260">
         <v>2.75</v>
       </c>
       <c r="U260">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V260">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W260">
         <v>-1</v>
@@ -23671,19 +23671,19 @@
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z260">
         <v>-1</v>
       </c>
       <c r="AA260">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB260">
         <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -24403,7 +24403,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6962991</v>
+        <v>7526759</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24415,46 +24415,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F269" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G269" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H269">
         <v>1</v>
       </c>
       <c r="I269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K269">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L269">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M269">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N269">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O269">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P269">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q269">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R269">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S269">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T269">
         <v>2.5</v>
@@ -24469,22 +24469,22 @@
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y269">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA269">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
+        <v>-1</v>
+      </c>
+      <c r="AC269">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC269">
-        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24492,7 +24492,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7526759</v>
+        <v>6962991</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24504,46 +24504,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F270" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G270" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H270">
         <v>1</v>
       </c>
       <c r="I270">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J270" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K270">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L270">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M270">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N270">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O270">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P270">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q270">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R270">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S270">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T270">
         <v>2.5</v>
@@ -24558,22 +24558,22 @@
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z270">
+        <v>-1</v>
+      </c>
+      <c r="AA270">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB270">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA270">
-        <v>-1</v>
-      </c>
-      <c r="AB270">
-        <v>-1</v>
-      </c>
       <c r="AC270">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24860,7 +24860,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G274" t="s">
         <v>41</v>
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6963207</v>
+        <v>6962929</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,76 +25038,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F276" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G276" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J276" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K276">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L276">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M276">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N276">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O276">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P276">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q276">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S276">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T276">
         <v>2.5</v>
       </c>
       <c r="U276">
+        <v>2</v>
+      </c>
+      <c r="V276">
         <v>1.8</v>
       </c>
-      <c r="V276">
-        <v>2</v>
-      </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC276">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25115,7 +25115,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6962929</v>
+        <v>6963207</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25127,76 +25127,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F277" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G277" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K277">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L277">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M277">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N277">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O277">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P277">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q277">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R277">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S277">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T277">
         <v>2.5</v>
       </c>
       <c r="U277">
+        <v>1.8</v>
+      </c>
+      <c r="V277">
         <v>2</v>
       </c>
-      <c r="V277">
-        <v>1.8</v>
-      </c>
       <c r="W277">
         <v>-1</v>
       </c>
       <c r="X277">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y277">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB277">
+        <v>-1</v>
+      </c>
+      <c r="AC277">
         <v>1</v>
-      </c>
-      <c r="AC277">
-        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25486,7 +25486,7 @@
         <v>50</v>
       </c>
       <c r="G281" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H281">
         <v>4</v>
@@ -26109,7 +26109,7 @@
         <v>30</v>
       </c>
       <c r="G288" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H288">
         <v>1</v>
@@ -26195,7 +26195,7 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F289" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G289" t="s">
         <v>51</v>
@@ -26806,7 +26806,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6962933</v>
+        <v>6962998</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26818,73 +26818,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F296" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G296" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H296">
+        <v>2</v>
+      </c>
+      <c r="I296">
         <v>3</v>
       </c>
-      <c r="I296">
-        <v>0</v>
-      </c>
       <c r="J296" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K296">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L296">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M296">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N296">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O296">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P296">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q296">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R296">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T296">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U296">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V296">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W296">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z296">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB296">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26895,7 +26895,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6962998</v>
+        <v>6962933</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26907,73 +26907,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F297" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G297" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I297">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K297">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L297">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M297">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N297">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O297">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P297">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q297">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T297">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U297">
+        <v>1.9</v>
+      </c>
+      <c r="V297">
+        <v>1.9</v>
+      </c>
+      <c r="W297">
         <v>1.8</v>
       </c>
-      <c r="V297">
-        <v>2</v>
-      </c>
-      <c r="W297">
-        <v>-1</v>
-      </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA297">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -27355,7 +27355,7 @@
         <v>44</v>
       </c>
       <c r="G302" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H302">
         <v>3</v>
@@ -27530,10 +27530,10 @@
         <v>45304.3125</v>
       </c>
       <c r="F304" t="s">
+        <v>39</v>
+      </c>
+      <c r="G304" t="s">
         <v>40</v>
-      </c>
-      <c r="G304" t="s">
-        <v>39</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -28331,7 +28331,7 @@
         <v>45311.3125</v>
       </c>
       <c r="F313" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G313" t="s">
         <v>43</v>
@@ -28423,7 +28423,7 @@
         <v>31</v>
       </c>
       <c r="G314" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H314">
         <v>2</v>
@@ -29135,7 +29135,7 @@
         <v>47</v>
       </c>
       <c r="G322" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -29488,7 +29488,7 @@
         <v>45319.3125</v>
       </c>
       <c r="F326" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G326" t="s">
         <v>52</v>
@@ -29847,7 +29847,7 @@
         <v>38</v>
       </c>
       <c r="G330" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H330">
         <v>1</v>
@@ -30378,7 +30378,7 @@
         <v>45326.3125</v>
       </c>
       <c r="F336" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G336" t="s">
         <v>49</v>
@@ -30915,7 +30915,7 @@
         <v>42</v>
       </c>
       <c r="G342" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H342">
         <v>0</v>
@@ -30989,7 +30989,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6963009</v>
+        <v>6962943</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -31001,76 +31001,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F343" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G343" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
         <v>2</v>
       </c>
-      <c r="I343">
-        <v>1</v>
-      </c>
       <c r="J343" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K343">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L343">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M343">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N343">
         <v>2.375</v>
       </c>
       <c r="O343">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P343">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q343">
         <v>-0.25</v>
       </c>
       <c r="R343">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S343">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T343">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U343">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V343">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W343">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X343">
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z343">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA343">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB343">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC343">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31078,7 +31078,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6962943</v>
+        <v>6963009</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31090,76 +31090,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F344" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G344" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J344" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K344">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L344">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M344">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N344">
         <v>2.375</v>
       </c>
       <c r="O344">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P344">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q344">
         <v>-0.25</v>
       </c>
       <c r="R344">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S344">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T344">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U344">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V344">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W344">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z344">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA344">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB344">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC344">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31523,7 +31523,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6963013</v>
+        <v>6963232</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31532,64 +31532,79 @@
         <v>28</v>
       </c>
       <c r="E349" s="2">
-        <v>45340.3125</v>
+        <v>45339.3125</v>
       </c>
       <c r="F349" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G349" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="H349">
+        <v>1</v>
+      </c>
+      <c r="I349">
+        <v>2</v>
+      </c>
+      <c r="J349" t="s">
+        <v>53</v>
       </c>
       <c r="K349">
-        <v>1.181</v>
+        <v>2.625</v>
       </c>
       <c r="L349">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M349">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="N349">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="O349">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="P349">
-        <v>17</v>
+        <v>2.8</v>
       </c>
       <c r="Q349">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R349">
+        <v>1.95</v>
+      </c>
+      <c r="S349">
+        <v>1.85</v>
+      </c>
+      <c r="T349">
+        <v>2</v>
+      </c>
+      <c r="U349">
+        <v>1.875</v>
+      </c>
+      <c r="V349">
         <v>1.925</v>
       </c>
-      <c r="S349">
-        <v>1.875</v>
-      </c>
-      <c r="T349">
-        <v>2.75</v>
-      </c>
-      <c r="U349">
-        <v>1.85</v>
-      </c>
-      <c r="V349">
-        <v>1.95</v>
-      </c>
       <c r="W349">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X349">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y349">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z349">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA349">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB349">
+        <v>0.875</v>
+      </c>
+      <c r="AC349">
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31597,7 +31612,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6963011</v>
+        <v>6963233</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31606,64 +31621,79 @@
         <v>28</v>
       </c>
       <c r="E350" s="2">
-        <v>45340.3125</v>
+        <v>45339.41666666666</v>
       </c>
       <c r="F350" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G350" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="I350">
+        <v>1</v>
+      </c>
+      <c r="J350" t="s">
+        <v>53</v>
       </c>
       <c r="K350">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L350">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M350">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="N350">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="O350">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P350">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q350">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R350">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S350">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T350">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U350">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V350">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W350">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X350">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y350">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z350">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA350">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB350">
+        <v>-1</v>
+      </c>
+      <c r="AC350">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31671,7 +31701,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6963012</v>
+        <v>6962944</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31680,64 +31710,79 @@
         <v>28</v>
       </c>
       <c r="E351" s="2">
-        <v>45340.41666666666</v>
+        <v>45339.54166666666</v>
       </c>
       <c r="F351" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G351" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351" t="s">
+        <v>53</v>
       </c>
       <c r="K351">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L351">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M351">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="N351">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O351">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P351">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q351">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R351">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S351">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T351">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U351">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V351">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W351">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X351">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="Z351">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB351">
+        <v>-1</v>
+      </c>
+      <c r="AC351">
+        <v>0.875</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31745,7 +31790,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6963235</v>
+        <v>6963011</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31754,137 +31799,419 @@
         <v>28</v>
       </c>
       <c r="E352" s="2">
-        <v>45340.54166666666</v>
+        <v>45340.3125</v>
       </c>
       <c r="F352" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G352" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="H352">
+        <v>1</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352" t="s">
+        <v>55</v>
       </c>
       <c r="K352">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="L352">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M352">
+        <v>5.25</v>
+      </c>
+      <c r="N352">
         <v>1.7</v>
       </c>
-      <c r="N352">
-        <v>5.25</v>
-      </c>
       <c r="O352">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P352">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="Q352">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R352">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S352">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T352">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U352">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V352">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W352">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X352">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB352">
+        <v>-1</v>
+      </c>
+      <c r="AC352">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="353" spans="1:29">
       <c r="A353" s="1">
         <v>351</v>
       </c>
       <c r="B353">
+        <v>6963013</v>
+      </c>
+      <c r="C353" t="s">
+        <v>28</v>
+      </c>
+      <c r="D353" t="s">
+        <v>28</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45340.3125</v>
+      </c>
+      <c r="F353" t="s">
+        <v>43</v>
+      </c>
+      <c r="G353" t="s">
+        <v>42</v>
+      </c>
+      <c r="H353">
+        <v>3</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353" t="s">
+        <v>55</v>
+      </c>
+      <c r="K353">
+        <v>1.181</v>
+      </c>
+      <c r="L353">
+        <v>6.5</v>
+      </c>
+      <c r="M353">
+        <v>15</v>
+      </c>
+      <c r="N353">
+        <v>1.166</v>
+      </c>
+      <c r="O353">
+        <v>7</v>
+      </c>
+      <c r="P353">
+        <v>17</v>
+      </c>
+      <c r="Q353">
+        <v>-2</v>
+      </c>
+      <c r="R353">
+        <v>1.875</v>
+      </c>
+      <c r="S353">
+        <v>1.925</v>
+      </c>
+      <c r="T353">
+        <v>2.75</v>
+      </c>
+      <c r="U353">
+        <v>1.8</v>
+      </c>
+      <c r="V353">
+        <v>2</v>
+      </c>
+      <c r="W353">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X353">
+        <v>-1</v>
+      </c>
+      <c r="Y353">
+        <v>-1</v>
+      </c>
+      <c r="Z353">
+        <v>0.875</v>
+      </c>
+      <c r="AA353">
+        <v>-1</v>
+      </c>
+      <c r="AB353">
+        <v>0.4</v>
+      </c>
+      <c r="AC353">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:29">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>6963012</v>
+      </c>
+      <c r="C354" t="s">
+        <v>28</v>
+      </c>
+      <c r="D354" t="s">
+        <v>28</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45340.41666666666</v>
+      </c>
+      <c r="F354" t="s">
+        <v>38</v>
+      </c>
+      <c r="G354" t="s">
+        <v>50</v>
+      </c>
+      <c r="H354">
+        <v>3</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354" t="s">
+        <v>55</v>
+      </c>
+      <c r="K354">
+        <v>2.2</v>
+      </c>
+      <c r="L354">
+        <v>3.2</v>
+      </c>
+      <c r="M354">
+        <v>3.4</v>
+      </c>
+      <c r="N354">
+        <v>2.5</v>
+      </c>
+      <c r="O354">
+        <v>3</v>
+      </c>
+      <c r="P354">
+        <v>3</v>
+      </c>
+      <c r="Q354">
+        <v>0</v>
+      </c>
+      <c r="R354">
+        <v>1.725</v>
+      </c>
+      <c r="S354">
+        <v>2.075</v>
+      </c>
+      <c r="T354">
+        <v>2.25</v>
+      </c>
+      <c r="U354">
+        <v>1.925</v>
+      </c>
+      <c r="V354">
+        <v>1.875</v>
+      </c>
+      <c r="W354">
+        <v>1.5</v>
+      </c>
+      <c r="X354">
+        <v>-1</v>
+      </c>
+      <c r="Y354">
+        <v>-1</v>
+      </c>
+      <c r="Z354">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA354">
+        <v>-1</v>
+      </c>
+      <c r="AB354">
+        <v>0.925</v>
+      </c>
+      <c r="AC354">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:29">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>6963235</v>
+      </c>
+      <c r="C355" t="s">
+        <v>28</v>
+      </c>
+      <c r="D355" t="s">
+        <v>28</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45340.54166666666</v>
+      </c>
+      <c r="F355" t="s">
+        <v>51</v>
+      </c>
+      <c r="G355" t="s">
+        <v>44</v>
+      </c>
+      <c r="H355">
+        <v>1</v>
+      </c>
+      <c r="I355">
+        <v>3</v>
+      </c>
+      <c r="J355" t="s">
+        <v>53</v>
+      </c>
+      <c r="K355">
+        <v>4.75</v>
+      </c>
+      <c r="L355">
+        <v>3.75</v>
+      </c>
+      <c r="M355">
+        <v>1.7</v>
+      </c>
+      <c r="N355">
+        <v>6</v>
+      </c>
+      <c r="O355">
+        <v>3.8</v>
+      </c>
+      <c r="P355">
+        <v>1.571</v>
+      </c>
+      <c r="Q355">
+        <v>1</v>
+      </c>
+      <c r="R355">
+        <v>1.825</v>
+      </c>
+      <c r="S355">
+        <v>1.975</v>
+      </c>
+      <c r="T355">
+        <v>2.5</v>
+      </c>
+      <c r="U355">
+        <v>1.8</v>
+      </c>
+      <c r="V355">
+        <v>2</v>
+      </c>
+      <c r="W355">
+        <v>-1</v>
+      </c>
+      <c r="X355">
+        <v>-1</v>
+      </c>
+      <c r="Y355">
+        <v>0.571</v>
+      </c>
+      <c r="Z355">
+        <v>-1</v>
+      </c>
+      <c r="AA355">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB355">
+        <v>0.8</v>
+      </c>
+      <c r="AC355">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:29">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
         <v>7820479</v>
       </c>
-      <c r="C353" t="s">
-        <v>28</v>
-      </c>
-      <c r="D353" t="s">
-        <v>28</v>
-      </c>
-      <c r="E353" s="2">
-        <v>45341.58333333334</v>
-      </c>
-      <c r="F353" t="s">
+      <c r="C356" t="s">
+        <v>28</v>
+      </c>
+      <c r="D356" t="s">
+        <v>28</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45341.33333333334</v>
+      </c>
+      <c r="F356" t="s">
         <v>41</v>
       </c>
-      <c r="G353" t="s">
-        <v>40</v>
-      </c>
-      <c r="K353">
+      <c r="G356" t="s">
+        <v>39</v>
+      </c>
+      <c r="K356">
         <v>2.375</v>
       </c>
-      <c r="L353">
+      <c r="L356">
         <v>3.4</v>
       </c>
-      <c r="M353">
+      <c r="M356">
         <v>2.9</v>
       </c>
-      <c r="N353">
+      <c r="N356">
         <v>2.7</v>
       </c>
-      <c r="O353">
-        <v>3.3</v>
-      </c>
-      <c r="P353">
-        <v>2.55</v>
-      </c>
-      <c r="Q353">
+      <c r="O356">
+        <v>3.25</v>
+      </c>
+      <c r="P356">
+        <v>2.6</v>
+      </c>
+      <c r="Q356">
         <v>0</v>
       </c>
-      <c r="R353">
-        <v>1.975</v>
-      </c>
-      <c r="S353">
-        <v>1.825</v>
-      </c>
-      <c r="T353">
-        <v>2.5</v>
-      </c>
-      <c r="U353">
+      <c r="R356">
+        <v>1.95</v>
+      </c>
+      <c r="S356">
+        <v>1.85</v>
+      </c>
+      <c r="T356">
+        <v>2.25</v>
+      </c>
+      <c r="U356">
+        <v>1.8</v>
+      </c>
+      <c r="V356">
         <v>2</v>
       </c>
-      <c r="V353">
-        <v>1.8</v>
-      </c>
-      <c r="W353">
+      <c r="W356">
         <v>0</v>
       </c>
-      <c r="X353">
+      <c r="X356">
         <v>0</v>
       </c>
-      <c r="Y353">
+      <c r="Y356">
         <v>0</v>
       </c>
-      <c r="Z353">
+      <c r="Z356">
         <v>0</v>
       </c>
-      <c r="AA353">
+      <c r="AA356">
         <v>0</v>
       </c>
     </row>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6287656</v>
+        <v>6287655</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,40 +5280,40 @@
         <v>44997.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L54">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M54">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O54">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R54">
         <v>1.9</v>
@@ -5322,31 +5322,31 @@
         <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5357,7 +5357,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6287655</v>
+        <v>6287656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5369,40 +5369,40 @@
         <v>44997.3125</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K55">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M55">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N55">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P55">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q55">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
         <v>1.9</v>
@@ -5411,31 +5411,31 @@
         <v>1.9</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W55">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA55">
-        <v>-1</v>
-      </c>
       <c r="AB55">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -9985,7 +9985,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5467336</v>
+        <v>5465855</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9997,76 +9997,76 @@
         <v>45033.60416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K107">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L107">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M107">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N107">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10074,7 +10074,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5465855</v>
+        <v>5467336</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10086,76 +10086,76 @@
         <v>45033.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K108">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L108">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M108">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N108">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P108">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5505122</v>
+        <v>5495158</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10264,58 +10264,58 @@
         <v>45039.3125</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
         <v>55</v>
       </c>
       <c r="K110">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L110">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N110">
-        <v>1.045</v>
+        <v>1.45</v>
       </c>
       <c r="O110">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="P110">
-        <v>29</v>
+        <v>4.75</v>
       </c>
       <c r="Q110">
-        <v>-3</v>
+        <v>-1.25</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T110">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W110">
-        <v>0.04499999999999993</v>
+        <v>0.45</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10324,16 +10324,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5495158</v>
+        <v>5505122</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,58 +10353,58 @@
         <v>45039.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>55</v>
       </c>
       <c r="K111">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L111">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="M111">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N111">
-        <v>1.45</v>
+        <v>1.045</v>
       </c>
       <c r="O111">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="P111">
-        <v>4.75</v>
+        <v>29</v>
       </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>-3</v>
       </c>
       <c r="R111">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U111">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>0.45</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10413,16 +10413,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB111">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10608,7 +10608,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5499323</v>
+        <v>5505970</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10620,73 +10620,73 @@
         <v>45040.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>2</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K114">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M114">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N114">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O114">
         <v>4</v>
       </c>
       <c r="P114">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q114">
         <v>-0.75</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
+        <v>2.75</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
         <v>3</v>
       </c>
-      <c r="U114">
-        <v>1.9</v>
-      </c>
-      <c r="V114">
-        <v>1.9</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>3</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10697,7 +10697,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5505970</v>
+        <v>5499323</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10709,73 +10709,73 @@
         <v>45040.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K115">
+        <v>1.615</v>
+      </c>
+      <c r="L115">
+        <v>3.75</v>
+      </c>
+      <c r="M115">
+        <v>5.25</v>
+      </c>
+      <c r="N115">
         <v>1.666</v>
-      </c>
-      <c r="L115">
-        <v>3.6</v>
-      </c>
-      <c r="M115">
-        <v>4.5</v>
-      </c>
-      <c r="N115">
-        <v>1.7</v>
       </c>
       <c r="O115">
         <v>4</v>
       </c>
       <c r="P115">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q115">
         <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y115">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -11676,7 +11676,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5574591</v>
+        <v>5578989</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11688,58 +11688,58 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>55</v>
       </c>
       <c r="K126">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="L126">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M126">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="N126">
-        <v>1.285</v>
+        <v>1.142</v>
       </c>
       <c r="O126">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="P126">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Q126">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R126">
+        <v>1.8</v>
+      </c>
+      <c r="S126">
         <v>2</v>
       </c>
-      <c r="S126">
-        <v>1.8</v>
-      </c>
       <c r="T126">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U126">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>0.2849999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11748,16 +11748,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
         <v>-0.5</v>
       </c>
-      <c r="AB126">
-        <v>0.8</v>
-      </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5578989</v>
+        <v>5578988</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11777,58 +11777,58 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>3</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>55</v>
       </c>
       <c r="K127">
-        <v>1.45</v>
+        <v>2.375</v>
       </c>
       <c r="L127">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
-        <v>1.142</v>
+        <v>2.1</v>
       </c>
       <c r="O127">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q127">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>0.1419999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11837,16 +11837,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11854,7 +11854,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6604510</v>
+        <v>5574590</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11866,40 +11866,40 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K128">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M128">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N128">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O128">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P128">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R128">
         <v>1.975</v>
@@ -11908,34 +11908,34 @@
         <v>1.825</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11943,7 +11943,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5574590</v>
+        <v>5578987</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11955,28 +11955,28 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
         <v>1</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>55</v>
       </c>
       <c r="K129">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N129">
         <v>1.533</v>
@@ -11985,25 +11985,25 @@
         <v>4</v>
       </c>
       <c r="P129">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q129">
         <v>-1</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
         <v>0.5329999999999999</v>
@@ -12021,10 +12021,10 @@
         <v>-0</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12032,7 +12032,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5578987</v>
+        <v>5574591</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12044,58 +12044,58 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H130">
+        <v>4</v>
+      </c>
+      <c r="I130">
         <v>2</v>
-      </c>
-      <c r="I130">
-        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>55</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N130">
-        <v>1.533</v>
+        <v>1.285</v>
       </c>
       <c r="O130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P130">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>0.5329999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12104,16 +12104,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA130">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12121,7 +12121,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5578988</v>
+        <v>6604510</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12133,76 +12133,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K131">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N131">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P131">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12210,7 +12210,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5608075</v>
+        <v>5603142</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12222,58 +12222,58 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H132">
         <v>2</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
         <v>55</v>
       </c>
       <c r="K132">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="N132">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P132">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12282,16 +12282,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12299,7 +12299,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5615110</v>
+        <v>5603143</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12311,76 +12311,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K133">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N133">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R133">
+        <v>1.875</v>
+      </c>
+      <c r="S133">
         <v>1.925</v>
       </c>
-      <c r="S133">
-        <v>1.875</v>
-      </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12388,7 +12388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5636763</v>
+        <v>5615110</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12400,49 +12400,49 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K134">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N134">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O134">
+        <v>4.2</v>
+      </c>
+      <c r="P134">
         <v>3.75</v>
-      </c>
-      <c r="P134">
-        <v>4</v>
       </c>
       <c r="Q134">
         <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U134">
         <v>1.875</v>
@@ -12451,25 +12451,25 @@
         <v>1.925</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA134">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,7 +12477,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5608074</v>
+        <v>5610598</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12489,55 +12489,55 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
         <v>1</v>
-      </c>
-      <c r="I135">
-        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>53</v>
       </c>
       <c r="K135">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N135">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q135">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12546,19 +12546,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.7270000000000001</v>
+        <v>4.75</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5603143</v>
+        <v>5608075</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,40 +12578,40 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K136">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L136">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N136">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
         <v>1.875</v>
@@ -12623,31 +12623,31 @@
         <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X136">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5603142</v>
+        <v>5608074</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,40 +12667,40 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
         <v>2</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
       <c r="J137" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K137">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="N137">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O137">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q137">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R137">
         <v>1.825</v>
@@ -12709,34 +12709,34 @@
         <v>1.975</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U137">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z137">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5610598</v>
+        <v>5636763</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,10 +12756,10 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12771,40 +12771,40 @@
         <v>53</v>
       </c>
       <c r="K138">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="L138">
+        <v>3.5</v>
+      </c>
+      <c r="M138">
+        <v>3.5</v>
+      </c>
+      <c r="N138">
+        <v>1.727</v>
+      </c>
+      <c r="O138">
         <v>3.75</v>
       </c>
-      <c r="M138">
-        <v>4.5</v>
-      </c>
-      <c r="N138">
-        <v>1.5</v>
-      </c>
-      <c r="O138">
-        <v>3.6</v>
-      </c>
       <c r="P138">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S138">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12813,19 +12813,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
         <v>0.925</v>
-      </c>
-      <c r="AB138">
-        <v>-1</v>
-      </c>
-      <c r="AC138">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5705512</v>
+        <v>5636764</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,58 +12934,58 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>55</v>
       </c>
       <c r="K140">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O140">
         <v>4</v>
       </c>
       <c r="P140">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12994,16 +12994,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5641728</v>
+        <v>5638761</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,10 +13023,10 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13038,61 +13038,61 @@
         <v>54</v>
       </c>
       <c r="K141">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
+        <v>2.6</v>
+      </c>
+      <c r="N141">
+        <v>2.875</v>
+      </c>
+      <c r="O141">
         <v>3.4</v>
       </c>
-      <c r="N141">
-        <v>1.75</v>
-      </c>
-      <c r="O141">
-        <v>3.75</v>
-      </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q141">
+        <v>0.25</v>
+      </c>
+      <c r="R141">
+        <v>1.85</v>
+      </c>
+      <c r="S141">
+        <v>1.95</v>
+      </c>
+      <c r="T141">
+        <v>3</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
+        <v>1.8</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>2.4</v>
+      </c>
+      <c r="Y141">
+        <v>-1</v>
+      </c>
+      <c r="Z141">
+        <v>0.425</v>
+      </c>
+      <c r="AA141">
         <v>-0.5</v>
       </c>
-      <c r="R141">
-        <v>1.825</v>
-      </c>
-      <c r="S141">
-        <v>1.975</v>
-      </c>
-      <c r="T141">
-        <v>2.75</v>
-      </c>
-      <c r="U141">
-        <v>1.8</v>
-      </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
-      <c r="W141">
-        <v>-1</v>
-      </c>
-      <c r="X141">
-        <v>2.75</v>
-      </c>
-      <c r="Y141">
-        <v>-1</v>
-      </c>
-      <c r="Z141">
-        <v>-1</v>
-      </c>
-      <c r="AA141">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5636764</v>
+        <v>5705512</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,58 +13201,58 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>55</v>
       </c>
       <c r="K143">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M143">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N143">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O143">
         <v>4</v>
       </c>
       <c r="P143">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R143">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13261,16 +13261,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5638761</v>
+        <v>5641728</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,10 +13290,10 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13305,61 +13305,61 @@
         <v>54</v>
       </c>
       <c r="K144">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L144">
+        <v>3.3</v>
+      </c>
+      <c r="M144">
         <v>3.4</v>
       </c>
-      <c r="M144">
-        <v>2.6</v>
-      </c>
       <c r="N144">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
+        <v>1.8</v>
+      </c>
+      <c r="V144">
         <v>2</v>
       </c>
-      <c r="V144">
-        <v>1.8</v>
-      </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -14168,7 +14168,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6963162</v>
+        <v>6963260</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14180,73 +14180,73 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K154">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L154">
         <v>3.4</v>
       </c>
       <c r="M154">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="N154">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O154">
         <v>3.4</v>
       </c>
       <c r="P154">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
+        <v>1.75</v>
+      </c>
+      <c r="S154">
+        <v>2.05</v>
+      </c>
+      <c r="T154">
+        <v>2.5</v>
+      </c>
+      <c r="U154">
         <v>1.825</v>
       </c>
-      <c r="S154">
+      <c r="V154">
         <v>1.975</v>
       </c>
-      <c r="T154">
-        <v>2.25</v>
-      </c>
-      <c r="U154">
-        <v>1.975</v>
-      </c>
-      <c r="V154">
-        <v>1.825</v>
-      </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14257,7 +14257,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6963260</v>
+        <v>6963162</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14269,73 +14269,73 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K155">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L155">
         <v>3.4</v>
       </c>
       <c r="M155">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N155">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="O155">
         <v>3.4</v>
       </c>
       <c r="P155">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q155">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
+        <v>1.975</v>
+      </c>
+      <c r="V155">
         <v>1.825</v>
       </c>
-      <c r="V155">
-        <v>1.975</v>
-      </c>
       <c r="W155">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z155">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB155">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14969,7 +14969,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6963167</v>
+        <v>6963166</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14981,10 +14981,10 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -14996,31 +14996,31 @@
         <v>54</v>
       </c>
       <c r="K163">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L163">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M163">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N163">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O163">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P163">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q163">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
         <v>2.5</v>
@@ -15035,7 +15035,7 @@
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y163">
         <v>-1</v>
@@ -15044,7 +15044,7 @@
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB163">
         <v>-1</v>
@@ -15058,7 +15058,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6963166</v>
+        <v>6963167</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15070,10 +15070,10 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15085,31 +15085,31 @@
         <v>54</v>
       </c>
       <c r="K164">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L164">
+        <v>3.75</v>
+      </c>
+      <c r="M164">
+        <v>2.625</v>
+      </c>
+      <c r="N164">
+        <v>1.85</v>
+      </c>
+      <c r="O164">
+        <v>3.8</v>
+      </c>
+      <c r="P164">
         <v>3.6</v>
       </c>
-      <c r="M164">
-        <v>3.6</v>
-      </c>
-      <c r="N164">
-        <v>1.7</v>
-      </c>
-      <c r="O164">
-        <v>3.6</v>
-      </c>
-      <c r="P164">
-        <v>4.333</v>
-      </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T164">
         <v>2.5</v>
@@ -15124,7 +15124,7 @@
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y164">
         <v>-1</v>
@@ -15133,7 +15133,7 @@
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB164">
         <v>-1</v>
@@ -15503,7 +15503,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7102510</v>
+        <v>6963169</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15515,76 +15515,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J169" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K169">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="L169">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M169">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N169">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="O169">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P169">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="Q169">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R169">
+        <v>1.825</v>
+      </c>
+      <c r="S169">
+        <v>1.975</v>
+      </c>
+      <c r="T169">
+        <v>2.5</v>
+      </c>
+      <c r="U169">
         <v>1.9</v>
       </c>
-      <c r="S169">
+      <c r="V169">
         <v>1.9</v>
       </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
-      <c r="U169">
-        <v>1.8</v>
-      </c>
-      <c r="V169">
-        <v>2</v>
-      </c>
       <c r="W169">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z169">
+        <v>-1</v>
+      </c>
+      <c r="AA169">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB169">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
-      <c r="AB169">
-        <v>-1</v>
-      </c>
       <c r="AC169">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15592,7 +15592,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6963169</v>
+        <v>7102510</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15604,76 +15604,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K170">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M170">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N170">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="O170">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P170">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="Q170">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA170">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6963171</v>
+        <v>6963173</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,76 +16405,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K179">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M179">
+        <v>5.5</v>
+      </c>
+      <c r="N179">
+        <v>1.45</v>
+      </c>
+      <c r="O179">
+        <v>4.2</v>
+      </c>
+      <c r="P179">
+        <v>7</v>
+      </c>
+      <c r="Q179">
+        <v>-1.25</v>
+      </c>
+      <c r="R179">
+        <v>2.025</v>
+      </c>
+      <c r="S179">
+        <v>1.775</v>
+      </c>
+      <c r="T179">
         <v>2.75</v>
       </c>
-      <c r="N179">
-        <v>2.45</v>
-      </c>
-      <c r="O179">
-        <v>3.1</v>
-      </c>
-      <c r="P179">
-        <v>2.8</v>
-      </c>
-      <c r="Q179">
-        <v>0</v>
-      </c>
-      <c r="R179">
-        <v>1.725</v>
-      </c>
-      <c r="S179">
-        <v>2.075</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
       <c r="U179">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X179">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA179">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC179">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6963173</v>
+        <v>6963171</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,76 +16494,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F180" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M180">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P180">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
+        <v>1.725</v>
+      </c>
+      <c r="S180">
+        <v>2.075</v>
+      </c>
+      <c r="T180">
+        <v>2.25</v>
+      </c>
+      <c r="U180">
+        <v>1.775</v>
+      </c>
+      <c r="V180">
         <v>2.025</v>
       </c>
-      <c r="S180">
-        <v>1.775</v>
-      </c>
-      <c r="T180">
-        <v>2.75</v>
-      </c>
-      <c r="U180">
-        <v>1.925</v>
-      </c>
-      <c r="V180">
-        <v>1.875</v>
-      </c>
       <c r="W180">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>-0</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
         <v>1.025</v>
-      </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>0.925</v>
-      </c>
-      <c r="AC180">
-        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -17194,7 +17194,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6962909</v>
+        <v>6963264</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17206,73 +17206,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J188" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K188">
+        <v>2.1</v>
+      </c>
+      <c r="L188">
+        <v>3.25</v>
+      </c>
+      <c r="M188">
+        <v>3.1</v>
+      </c>
+      <c r="N188">
+        <v>2.3</v>
+      </c>
+      <c r="O188">
+        <v>3.25</v>
+      </c>
+      <c r="P188">
+        <v>2.75</v>
+      </c>
+      <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
+        <v>2.025</v>
+      </c>
+      <c r="S188">
+        <v>1.775</v>
+      </c>
+      <c r="T188">
+        <v>2.5</v>
+      </c>
+      <c r="U188">
+        <v>1.925</v>
+      </c>
+      <c r="V188">
+        <v>1.875</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
         <v>1.75</v>
       </c>
-      <c r="L188">
-        <v>3.2</v>
-      </c>
-      <c r="M188">
-        <v>4.333</v>
-      </c>
-      <c r="N188">
-        <v>1.75</v>
-      </c>
-      <c r="O188">
-        <v>3.2</v>
-      </c>
-      <c r="P188">
-        <v>4.333</v>
-      </c>
-      <c r="Q188">
-        <v>-0.5</v>
-      </c>
-      <c r="R188">
-        <v>1.775</v>
-      </c>
-      <c r="S188">
-        <v>2.025</v>
-      </c>
-      <c r="T188">
-        <v>2.25</v>
-      </c>
-      <c r="U188">
-        <v>1.775</v>
-      </c>
-      <c r="V188">
-        <v>2.025</v>
-      </c>
-      <c r="W188">
-        <v>0.75</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
       <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA188">
-        <v>-1</v>
-      </c>
       <c r="AB188">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17283,7 +17283,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6963264</v>
+        <v>6962909</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17295,73 +17295,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G189" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K189">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L189">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M189">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N189">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O189">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P189">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
+        <v>1.775</v>
+      </c>
+      <c r="S189">
         <v>2.025</v>
       </c>
-      <c r="S189">
+      <c r="T189">
+        <v>2.25</v>
+      </c>
+      <c r="U189">
         <v>1.775</v>
       </c>
-      <c r="T189">
-        <v>2.5</v>
-      </c>
-      <c r="U189">
-        <v>1.925</v>
-      </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA189">
+        <v>-1</v>
+      </c>
+      <c r="AB189">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB189">
-        <v>0.925</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17372,7 +17372,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6963175</v>
+        <v>6962968</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17384,76 +17384,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K190">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L190">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M190">
+        <v>2.5</v>
+      </c>
+      <c r="N190">
+        <v>2.55</v>
+      </c>
+      <c r="O190">
+        <v>3.2</v>
+      </c>
+      <c r="P190">
+        <v>2.5</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>1.95</v>
+      </c>
+      <c r="S190">
         <v>1.85</v>
-      </c>
-      <c r="N190">
-        <v>4.5</v>
-      </c>
-      <c r="O190">
-        <v>3.75</v>
-      </c>
-      <c r="P190">
-        <v>1.615</v>
-      </c>
-      <c r="Q190">
-        <v>0.75</v>
-      </c>
-      <c r="R190">
-        <v>1.975</v>
-      </c>
-      <c r="S190">
-        <v>1.825</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
+        <v>1.975</v>
+      </c>
+      <c r="V190">
         <v>1.825</v>
       </c>
-      <c r="V190">
-        <v>1.975</v>
-      </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X190">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
+        <v>0.95</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA190">
-        <v>-1</v>
-      </c>
-      <c r="AB190">
-        <v>-1</v>
-      </c>
       <c r="AC190">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17461,7 +17461,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6962968</v>
+        <v>6963175</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17473,76 +17473,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G191" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K191">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L191">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M191">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N191">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O191">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P191">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
+        <v>1.825</v>
+      </c>
+      <c r="V191">
         <v>1.975</v>
       </c>
-      <c r="V191">
-        <v>1.825</v>
-      </c>
       <c r="W191">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC191">
-        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6963265</v>
+        <v>6963180</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,58 +18986,58 @@
         <v>45200.3125</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>55</v>
       </c>
       <c r="K208">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L208">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M208">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N208">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O208">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P208">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q208">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S208">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
+        <v>1.875</v>
+      </c>
+      <c r="V208">
         <v>1.925</v>
       </c>
-      <c r="V208">
-        <v>1.875</v>
-      </c>
       <c r="W208">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19046,16 +19046,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.925</v>
-      </c>
-      <c r="AC208">
-        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6963180</v>
+        <v>6963265</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45200.3125</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
         <v>1</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>55</v>
       </c>
       <c r="K209">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L209">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M209">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N209">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O209">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P209">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
+        <v>1.925</v>
+      </c>
+      <c r="V209">
         <v>1.875</v>
       </c>
-      <c r="V209">
-        <v>1.925</v>
-      </c>
       <c r="W209">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC209">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7291537</v>
+        <v>6962976</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,16 +19520,16 @@
         <v>45206.3125</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G214" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>54</v>
@@ -19544,37 +19544,37 @@
         <v>4</v>
       </c>
       <c r="N214">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P214">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y214">
         <v>-1</v>
@@ -19583,13 +19583,13 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19597,7 +19597,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6962976</v>
+        <v>7291537</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19609,16 +19609,16 @@
         <v>45206.3125</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>54</v>
@@ -19633,37 +19633,37 @@
         <v>4</v>
       </c>
       <c r="N215">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O215">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y215">
         <v>-1</v>
@@ -19672,13 +19672,13 @@
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20220,7 +20220,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6963186</v>
+        <v>6962917</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20232,55 +20232,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F222" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G222" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
         <v>53</v>
       </c>
       <c r="K222">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L222">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M222">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N222">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O222">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q222">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R222">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S222">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T222">
         <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -20289,19 +20289,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20309,7 +20309,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6962917</v>
+        <v>6963186</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20321,55 +20321,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G223" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
         <v>1</v>
-      </c>
-      <c r="I223">
-        <v>2</v>
       </c>
       <c r="J223" t="s">
         <v>53</v>
       </c>
       <c r="K223">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M223">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N223">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O223">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P223">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q223">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R223">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T223">
         <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V223">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W223">
         <v>-1</v>
@@ -20378,19 +20378,19 @@
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB223">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20665,7 +20665,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6963190</v>
+        <v>6963187</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20677,76 +20677,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G227" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K227">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L227">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
         <v>2.375</v>
       </c>
       <c r="N227">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O227">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q227">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S227">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V227">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA227">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC227">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20754,7 +20754,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6963187</v>
+        <v>6963190</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20766,76 +20766,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G228" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K228">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L228">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M228">
         <v>2.375</v>
       </c>
       <c r="N228">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P228">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q228">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R228">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S228">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W228">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z228">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -22712,7 +22712,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6963199</v>
+        <v>6963198</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22724,46 +22724,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G250" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K250">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L250">
+        <v>3.1</v>
+      </c>
+      <c r="M250">
+        <v>2.375</v>
+      </c>
+      <c r="N250">
         <v>3.4</v>
       </c>
-      <c r="M250">
-        <v>3.8</v>
-      </c>
-      <c r="N250">
-        <v>1.95</v>
-      </c>
       <c r="O250">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P250">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q250">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R250">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S250">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T250">
         <v>2.25</v>
@@ -22775,25 +22775,25 @@
         <v>1.95</v>
       </c>
       <c r="W250">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB250">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC250">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22801,7 +22801,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6963198</v>
+        <v>6963199</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22813,46 +22813,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F251" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K251">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L251">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M251">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N251">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O251">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P251">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q251">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T251">
         <v>2.25</v>
@@ -22864,25 +22864,25 @@
         <v>1.95</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X251">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23068,7 +23068,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7437371</v>
+        <v>7437372</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23080,37 +23080,37 @@
         <v>45242.3125</v>
       </c>
       <c r="F254" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G254" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J254" t="s">
         <v>53</v>
       </c>
       <c r="K254">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L254">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M254">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N254">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O254">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P254">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -23122,7 +23122,7 @@
         <v>2</v>
       </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U254">
         <v>2</v>
@@ -23137,7 +23137,7 @@
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>1.625</v>
+        <v>1.8</v>
       </c>
       <c r="Z254">
         <v>-1</v>
@@ -23146,10 +23146,10 @@
         <v>1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC254">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7437372</v>
+        <v>7437371</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,37 +23169,37 @@
         <v>45242.3125</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G255" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
         <v>2</v>
-      </c>
-      <c r="I255">
-        <v>3</v>
       </c>
       <c r="J255" t="s">
         <v>53</v>
       </c>
       <c r="K255">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L255">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M255">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N255">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O255">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P255">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -23211,7 +23211,7 @@
         <v>2</v>
       </c>
       <c r="T255">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U255">
         <v>2</v>
@@ -23226,7 +23226,7 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>1.8</v>
+        <v>1.625</v>
       </c>
       <c r="Z255">
         <v>-1</v>
@@ -23235,10 +23235,10 @@
         <v>1</v>
       </c>
       <c r="AB255">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23513,7 +23513,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7482213</v>
+        <v>7482211</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23525,10 +23525,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F259" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G259" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23540,40 +23540,40 @@
         <v>53</v>
       </c>
       <c r="K259">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L259">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M259">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N259">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="O259">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P259">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q259">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R259">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S259">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T259">
         <v>2.75</v>
       </c>
       <c r="U259">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V259">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W259">
         <v>-1</v>
@@ -23582,19 +23582,19 @@
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23602,7 +23602,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7482211</v>
+        <v>7482213</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23614,10 +23614,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F260" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G260" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -23629,40 +23629,40 @@
         <v>53</v>
       </c>
       <c r="K260">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M260">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N260">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="O260">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P260">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q260">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R260">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S260">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T260">
         <v>2.75</v>
       </c>
       <c r="U260">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V260">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W260">
         <v>-1</v>
@@ -23671,19 +23671,19 @@
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z260">
         <v>-1</v>
       </c>
       <c r="AA260">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB260">
         <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -24225,7 +24225,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6962990</v>
+        <v>6962926</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24237,10 +24237,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F267" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G267" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -24252,40 +24252,40 @@
         <v>53</v>
       </c>
       <c r="K267">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="L267">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M267">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N267">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="O267">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P267">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q267">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R267">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S267">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T267">
         <v>2.5</v>
       </c>
       <c r="U267">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V267">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24294,16 +24294,16 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB267">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC267">
         <v>-1</v>
@@ -24314,7 +24314,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6962926</v>
+        <v>6962990</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24326,10 +24326,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G268" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24341,40 +24341,40 @@
         <v>53</v>
       </c>
       <c r="K268">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="L268">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M268">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N268">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O268">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P268">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q268">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R268">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S268">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T268">
         <v>2.5</v>
       </c>
       <c r="U268">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V268">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W268">
         <v>-1</v>
@@ -24383,16 +24383,16 @@
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB268">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC268">
         <v>-1</v>
@@ -24403,7 +24403,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7526759</v>
+        <v>6962991</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24415,46 +24415,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G269" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H269">
         <v>1</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J269" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K269">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L269">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M269">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N269">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O269">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P269">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q269">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R269">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S269">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T269">
         <v>2.5</v>
@@ -24469,22 +24469,22 @@
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z269">
+        <v>-1</v>
+      </c>
+      <c r="AA269">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB269">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA269">
-        <v>-1</v>
-      </c>
-      <c r="AB269">
-        <v>-1</v>
-      </c>
       <c r="AC269">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24492,7 +24492,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6962991</v>
+        <v>7526759</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24504,46 +24504,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F270" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G270" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H270">
         <v>1</v>
       </c>
       <c r="I270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K270">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L270">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M270">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N270">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O270">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P270">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q270">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R270">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S270">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T270">
         <v>2.5</v>
@@ -24558,22 +24558,22 @@
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y270">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA270">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB270">
+        <v>-1</v>
+      </c>
+      <c r="AC270">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC270">
-        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6963207</v>
+        <v>6962929</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,76 +25038,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F276" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G276" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J276" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K276">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L276">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M276">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N276">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O276">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P276">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q276">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S276">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T276">
         <v>2.5</v>
       </c>
       <c r="U276">
+        <v>2</v>
+      </c>
+      <c r="V276">
         <v>1.8</v>
       </c>
-      <c r="V276">
-        <v>2</v>
-      </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC276">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25115,7 +25115,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6962929</v>
+        <v>6963207</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25127,76 +25127,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F277" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G277" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K277">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L277">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M277">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N277">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O277">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P277">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q277">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R277">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S277">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T277">
         <v>2.5</v>
       </c>
       <c r="U277">
+        <v>1.8</v>
+      </c>
+      <c r="V277">
         <v>2</v>
       </c>
-      <c r="V277">
-        <v>1.8</v>
-      </c>
       <c r="W277">
         <v>-1</v>
       </c>
       <c r="X277">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y277">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB277">
+        <v>-1</v>
+      </c>
+      <c r="AC277">
         <v>1</v>
-      </c>
-      <c r="AC277">
-        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -26094,7 +26094,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7589522</v>
+        <v>6963211</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26106,76 +26106,76 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G288" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H288">
         <v>1</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J288" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K288">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L288">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M288">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N288">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O288">
         <v>3.25</v>
       </c>
       <c r="P288">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q288">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R288">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S288">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T288">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U288">
+        <v>1.8</v>
+      </c>
+      <c r="V288">
         <v>2</v>
       </c>
-      <c r="V288">
-        <v>1.8</v>
-      </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z288">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC288">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26183,7 +26183,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6963211</v>
+        <v>7589522</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26195,76 +26195,76 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G289" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H289">
         <v>1</v>
       </c>
       <c r="I289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K289">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L289">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M289">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N289">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O289">
         <v>3.25</v>
       </c>
       <c r="P289">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="Q289">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R289">
+        <v>1.85</v>
+      </c>
+      <c r="S289">
+        <v>1.95</v>
+      </c>
+      <c r="T289">
+        <v>2.5</v>
+      </c>
+      <c r="U289">
         <v>2</v>
       </c>
-      <c r="S289">
+      <c r="V289">
         <v>1.8</v>
       </c>
-      <c r="T289">
+      <c r="W289">
+        <v>-1</v>
+      </c>
+      <c r="X289">
         <v>2.25</v>
       </c>
-      <c r="U289">
-        <v>1.8</v>
-      </c>
-      <c r="V289">
-        <v>2</v>
-      </c>
-      <c r="W289">
-        <v>-1</v>
-      </c>
-      <c r="X289">
-        <v>-1</v>
-      </c>
       <c r="Y289">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA289">
+        <v>0.475</v>
+      </c>
+      <c r="AB289">
+        <v>-1</v>
+      </c>
+      <c r="AC289">
         <v>0.8</v>
-      </c>
-      <c r="AB289">
-        <v>0.8</v>
-      </c>
-      <c r="AC289">
-        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26806,7 +26806,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6962933</v>
+        <v>6962998</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26818,73 +26818,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F296" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G296" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H296">
+        <v>2</v>
+      </c>
+      <c r="I296">
         <v>3</v>
       </c>
-      <c r="I296">
-        <v>0</v>
-      </c>
       <c r="J296" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K296">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L296">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M296">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N296">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O296">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P296">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q296">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R296">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T296">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U296">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V296">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W296">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z296">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB296">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26895,7 +26895,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6962998</v>
+        <v>6962933</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26907,73 +26907,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F297" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G297" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I297">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K297">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L297">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M297">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N297">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O297">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P297">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q297">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T297">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U297">
+        <v>1.9</v>
+      </c>
+      <c r="V297">
+        <v>1.9</v>
+      </c>
+      <c r="W297">
         <v>1.8</v>
       </c>
-      <c r="V297">
-        <v>2</v>
-      </c>
-      <c r="W297">
-        <v>-1</v>
-      </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA297">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -28586,7 +28586,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6963004</v>
+        <v>6963223</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28598,76 +28598,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F316" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G316" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K316">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="L316">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M316">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N316">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O316">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P316">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q316">
+        <v>0</v>
+      </c>
+      <c r="R316">
+        <v>2.05</v>
+      </c>
+      <c r="S316">
+        <v>1.75</v>
+      </c>
+      <c r="T316">
+        <v>2.25</v>
+      </c>
+      <c r="U316">
+        <v>1.775</v>
+      </c>
+      <c r="V316">
+        <v>2.025</v>
+      </c>
+      <c r="W316">
+        <v>-1</v>
+      </c>
+      <c r="X316">
+        <v>2.2</v>
+      </c>
+      <c r="Y316">
+        <v>-1</v>
+      </c>
+      <c r="Z316">
+        <v>0</v>
+      </c>
+      <c r="AA316">
+        <v>-0</v>
+      </c>
+      <c r="AB316">
         <v>-0.5</v>
       </c>
-      <c r="R316">
-        <v>1.775</v>
-      </c>
-      <c r="S316">
-        <v>2.025</v>
-      </c>
-      <c r="T316">
-        <v>2.5</v>
-      </c>
-      <c r="U316">
-        <v>2.025</v>
-      </c>
-      <c r="V316">
-        <v>1.775</v>
-      </c>
-      <c r="W316">
-        <v>0.8</v>
-      </c>
-      <c r="X316">
-        <v>-1</v>
-      </c>
-      <c r="Y316">
-        <v>-1</v>
-      </c>
-      <c r="Z316">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA316">
-        <v>-1</v>
-      </c>
-      <c r="AB316">
-        <v>-1</v>
-      </c>
       <c r="AC316">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28675,7 +28675,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6963223</v>
+        <v>6963004</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28687,76 +28687,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F317" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G317" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K317">
+        <v>1.85</v>
+      </c>
+      <c r="L317">
         <v>3.4</v>
       </c>
-      <c r="L317">
-        <v>3.25</v>
-      </c>
       <c r="M317">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N317">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O317">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P317">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q317">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S317">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T317">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U317">
+        <v>2.025</v>
+      </c>
+      <c r="V317">
         <v>1.775</v>
       </c>
-      <c r="V317">
-        <v>2.025</v>
-      </c>
       <c r="W317">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X317">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA317">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -29387,7 +29387,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6963271</v>
+        <v>7732507</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29399,13 +29399,13 @@
         <v>45319.3125</v>
       </c>
       <c r="F325" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G325" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I325">
         <v>0</v>
@@ -29414,43 +29414,43 @@
         <v>55</v>
       </c>
       <c r="K325">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="L325">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M325">
-        <v>3.8</v>
+        <v>23</v>
       </c>
       <c r="N325">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="O325">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P325">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="Q325">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R325">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S325">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T325">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U325">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V325">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W325">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="X325">
         <v>-1</v>
@@ -29459,16 +29459,16 @@
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA325">
         <v>-1</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC325">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29476,7 +29476,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7732507</v>
+        <v>6963271</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29488,13 +29488,13 @@
         <v>45319.3125</v>
       </c>
       <c r="F326" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G326" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H326">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I326">
         <v>0</v>
@@ -29503,43 +29503,43 @@
         <v>55</v>
       </c>
       <c r="K326">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="L326">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M326">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="N326">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="O326">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P326">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="Q326">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R326">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S326">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T326">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U326">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V326">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W326">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="X326">
         <v>-1</v>
@@ -29548,16 +29548,16 @@
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA326">
         <v>-1</v>
       </c>
       <c r="AB326">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC326">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -30277,7 +30277,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6963229</v>
+        <v>6963045</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30289,58 +30289,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F335" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G335" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H335">
         <v>2</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
         <v>55</v>
       </c>
       <c r="K335">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L335">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M335">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="N335">
+        <v>1.95</v>
+      </c>
+      <c r="O335">
         <v>3.5</v>
       </c>
-      <c r="O335">
-        <v>3.4</v>
-      </c>
       <c r="P335">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q335">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R335">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S335">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T335">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U335">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V335">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W335">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X335">
         <v>-1</v>
@@ -30349,16 +30349,16 @@
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA335">
         <v>-1</v>
       </c>
       <c r="AB335">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC335">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30366,7 +30366,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6963045</v>
+        <v>6963229</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30378,58 +30378,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F336" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G336" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H336">
         <v>2</v>
       </c>
       <c r="I336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336" t="s">
         <v>55</v>
       </c>
       <c r="K336">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L336">
+        <v>3.4</v>
+      </c>
+      <c r="M336">
+        <v>2.05</v>
+      </c>
+      <c r="N336">
         <v>3.5</v>
       </c>
-      <c r="M336">
-        <v>3.75</v>
-      </c>
-      <c r="N336">
-        <v>1.95</v>
-      </c>
       <c r="O336">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P336">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q336">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R336">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S336">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T336">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U336">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V336">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W336">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X336">
         <v>-1</v>
@@ -30438,16 +30438,16 @@
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA336">
         <v>-1</v>
       </c>
       <c r="AB336">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC336">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30989,7 +30989,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6963009</v>
+        <v>6962943</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -31001,76 +31001,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F343" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G343" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
         <v>2</v>
       </c>
-      <c r="I343">
-        <v>1</v>
-      </c>
       <c r="J343" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K343">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L343">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M343">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N343">
         <v>2.375</v>
       </c>
       <c r="O343">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P343">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q343">
         <v>-0.25</v>
       </c>
       <c r="R343">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S343">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T343">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U343">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V343">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W343">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X343">
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z343">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA343">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB343">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC343">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31078,7 +31078,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6962943</v>
+        <v>6963009</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31090,76 +31090,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F344" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G344" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J344" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K344">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L344">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M344">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N344">
         <v>2.375</v>
       </c>
       <c r="O344">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P344">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q344">
         <v>-0.25</v>
       </c>
       <c r="R344">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S344">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T344">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U344">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V344">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W344">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z344">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA344">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB344">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC344">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31790,7 +31790,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6963013</v>
+        <v>6963011</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31802,13 +31802,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F352" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G352" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H352">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I352">
         <v>0</v>
@@ -31817,43 +31817,43 @@
         <v>55</v>
       </c>
       <c r="K352">
-        <v>1.181</v>
+        <v>1.727</v>
       </c>
       <c r="L352">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M352">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N352">
-        <v>1.166</v>
+        <v>1.7</v>
       </c>
       <c r="O352">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P352">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q352">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R352">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S352">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T352">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U352">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V352">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W352">
-        <v>0.1659999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -31862,16 +31862,16 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB352">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC352">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31879,7 +31879,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6963011</v>
+        <v>6963013</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31891,13 +31891,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F353" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G353" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I353">
         <v>0</v>
@@ -31906,43 +31906,43 @@
         <v>55</v>
       </c>
       <c r="K353">
-        <v>1.727</v>
+        <v>1.181</v>
       </c>
       <c r="L353">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M353">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N353">
-        <v>1.7</v>
+        <v>1.166</v>
       </c>
       <c r="O353">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P353">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q353">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R353">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S353">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T353">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U353">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V353">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W353">
-        <v>0.7</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X353">
         <v>-1</v>
@@ -31951,16 +31951,16 @@
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AA353">
+        <v>-1</v>
+      </c>
+      <c r="AB353">
+        <v>0.4</v>
+      </c>
+      <c r="AC353">
         <v>-0.5</v>
-      </c>
-      <c r="AB353">
-        <v>-1</v>
-      </c>
-      <c r="AC353">
-        <v>0.95</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32274,10 +32274,10 @@
         <v>-0.75</v>
       </c>
       <c r="R357">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S357">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T357">
         <v>2.5</v>
@@ -32422,10 +32422,10 @@
         <v>0</v>
       </c>
       <c r="R359">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S359">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T359">
         <v>2.25</v>
@@ -32531,7 +32531,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6962946</v>
+        <v>6963238</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32543,46 +32543,46 @@
         <v>45347.3125</v>
       </c>
       <c r="F361" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G361" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K361">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="L361">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M361">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="N361">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O361">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P361">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="Q361">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R361">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S361">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T361">
         <v>2.25</v>
       </c>
       <c r="U361">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V361">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W361">
         <v>0</v>
@@ -32605,7 +32605,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6963238</v>
+        <v>6962946</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32614,49 +32614,49 @@
         <v>28</v>
       </c>
       <c r="E362" s="2">
-        <v>45347.41666666666</v>
+        <v>45347.3125</v>
       </c>
       <c r="F362" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G362" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K362">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="L362">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M362">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="N362">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="O362">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P362">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q362">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R362">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S362">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T362">
         <v>2.25</v>
       </c>
       <c r="U362">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V362">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W362">
         <v>0</v>
@@ -32801,10 +32801,10 @@
         <v>2.75</v>
       </c>
       <c r="U364">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V364">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W364">
         <v>0</v>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -2598,7 +2598,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5281403</v>
+        <v>5281576</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2610,76 +2610,76 @@
         <v>44955.3125</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24">
+        <v>1.727</v>
+      </c>
+      <c r="L24">
+        <v>3.5</v>
+      </c>
+      <c r="M24">
+        <v>4.333</v>
+      </c>
+      <c r="N24">
+        <v>1.55</v>
+      </c>
+      <c r="O24">
+        <v>3.8</v>
+      </c>
+      <c r="P24">
+        <v>5.25</v>
+      </c>
+      <c r="Q24">
+        <v>-1</v>
+      </c>
+      <c r="R24">
         <v>2</v>
       </c>
-      <c r="J24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>3.4</v>
-      </c>
-      <c r="M24">
-        <v>2.1</v>
-      </c>
-      <c r="N24">
-        <v>3.4</v>
-      </c>
-      <c r="O24">
-        <v>3.5</v>
-      </c>
-      <c r="P24">
-        <v>1.95</v>
-      </c>
-      <c r="Q24">
-        <v>0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.775</v>
-      </c>
       <c r="S24">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
+        <v>1.95</v>
+      </c>
+      <c r="V24">
         <v>1.85</v>
       </c>
-      <c r="V24">
-        <v>1.95</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2687,7 +2687,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5281576</v>
+        <v>5281403</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2699,76 +2699,76 @@
         <v>44955.3125</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L25">
+        <v>3.4</v>
+      </c>
+      <c r="M25">
+        <v>2.1</v>
+      </c>
+      <c r="N25">
+        <v>3.4</v>
+      </c>
+      <c r="O25">
         <v>3.5</v>
       </c>
-      <c r="M25">
-        <v>4.333</v>
-      </c>
-      <c r="N25">
-        <v>1.55</v>
-      </c>
-      <c r="O25">
-        <v>3.8</v>
-      </c>
       <c r="P25">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
+        <v>1.85</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="V25">
-        <v>1.85</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -4645,7 +4645,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6287649</v>
+        <v>6287650</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4657,76 +4657,76 @@
         <v>44993.35416666666</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K47">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M47">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O47">
         <v>3.1</v>
       </c>
       <c r="P47">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S47">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z47">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4734,7 +4734,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6287650</v>
+        <v>6287649</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4746,76 +4746,76 @@
         <v>44993.35416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K48">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="N48">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O48">
         <v>3.1</v>
       </c>
       <c r="P48">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S48">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA48">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -6514,7 +6514,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5284195</v>
+        <v>5281431</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6526,76 +6526,76 @@
         <v>45010.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K68">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L68">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N68">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P68">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q68">
+        <v>0.25</v>
+      </c>
+      <c r="R68">
+        <v>1.75</v>
+      </c>
+      <c r="S68">
+        <v>2.05</v>
+      </c>
+      <c r="T68">
+        <v>2.25</v>
+      </c>
+      <c r="U68">
+        <v>1.825</v>
+      </c>
+      <c r="V68">
+        <v>1.975</v>
+      </c>
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
+        <v>-1</v>
+      </c>
+      <c r="Y68">
+        <v>1.3</v>
+      </c>
+      <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>1.05</v>
+      </c>
+      <c r="AB68">
         <v>-0.5</v>
       </c>
-      <c r="R68">
-        <v>1.9</v>
-      </c>
-      <c r="S68">
-        <v>1.9</v>
-      </c>
-      <c r="T68">
-        <v>2.5</v>
-      </c>
-      <c r="U68">
-        <v>1.9</v>
-      </c>
-      <c r="V68">
-        <v>1.9</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
-      <c r="X68">
-        <v>2.6</v>
-      </c>
-      <c r="Y68">
-        <v>-1</v>
-      </c>
-      <c r="Z68">
-        <v>-1</v>
-      </c>
-      <c r="AA68">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB68">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6603,7 +6603,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5281431</v>
+        <v>5284195</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6615,76 +6615,76 @@
         <v>45010.3125</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K69">
+        <v>1.7</v>
+      </c>
+      <c r="L69">
+        <v>3.8</v>
+      </c>
+      <c r="M69">
+        <v>4.2</v>
+      </c>
+      <c r="N69">
+        <v>1.85</v>
+      </c>
+      <c r="O69">
+        <v>3.6</v>
+      </c>
+      <c r="P69">
+        <v>3.6</v>
+      </c>
+      <c r="Q69">
+        <v>-0.5</v>
+      </c>
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
         <v>2.5</v>
       </c>
-      <c r="L69">
-        <v>3.4</v>
-      </c>
-      <c r="M69">
-        <v>2.5</v>
-      </c>
-      <c r="N69">
-        <v>2.75</v>
-      </c>
-      <c r="O69">
-        <v>3.3</v>
-      </c>
-      <c r="P69">
-        <v>2.3</v>
-      </c>
-      <c r="Q69">
-        <v>0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.75</v>
-      </c>
-      <c r="S69">
-        <v>2.05</v>
-      </c>
-      <c r="T69">
-        <v>2.25</v>
-      </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y69">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7849,7 +7849,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5284202</v>
+        <v>5284200</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7861,31 +7861,31 @@
         <v>45018.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K83">
         <v>1.666</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N83">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O83">
         <v>3.5</v>
@@ -7894,43 +7894,43 @@
         <v>4.2</v>
       </c>
       <c r="Q83">
+        <v>-0.75</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1.8</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>1.875</v>
+      </c>
+      <c r="V83">
+        <v>1.925</v>
+      </c>
+      <c r="W83">
+        <v>0.75</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>0.5</v>
+      </c>
+      <c r="AA83">
         <v>-0.5</v>
       </c>
-      <c r="R83">
-        <v>1.8</v>
-      </c>
-      <c r="S83">
-        <v>2</v>
-      </c>
-      <c r="T83">
-        <v>2.75</v>
-      </c>
-      <c r="U83">
-        <v>1.925</v>
-      </c>
-      <c r="V83">
-        <v>1.875</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>3.2</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
-      <c r="AA83">
-        <v>1</v>
-      </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7938,7 +7938,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5284200</v>
+        <v>5284202</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7950,31 +7950,31 @@
         <v>45018.3125</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K84">
         <v>1.666</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N84">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O84">
         <v>3.5</v>
@@ -7983,43 +7983,43 @@
         <v>4.2</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.8</v>
+      </c>
+      <c r="S84">
         <v>2</v>
       </c>
-      <c r="S84">
-        <v>1.8</v>
-      </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
+        <v>1.925</v>
+      </c>
+      <c r="V84">
         <v>1.875</v>
       </c>
-      <c r="V84">
-        <v>1.925</v>
-      </c>
       <c r="W84">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
         <v>0.875</v>
-      </c>
-      <c r="AC84">
-        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5505122</v>
+        <v>5499322</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,58 +10353,58 @@
         <v>45039.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
+        <v>4</v>
+      </c>
+      <c r="I111">
         <v>1</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>55</v>
       </c>
       <c r="K111">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="L111">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="M111">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N111">
-        <v>1.045</v>
+        <v>1.571</v>
       </c>
       <c r="O111">
-        <v>15</v>
+        <v>3.8</v>
       </c>
       <c r="P111">
-        <v>29</v>
+        <v>4.75</v>
       </c>
       <c r="Q111">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S111">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
-        <v>0.04499999999999993</v>
+        <v>0.571</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10413,16 +10413,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA111">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC111">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10430,7 +10430,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5499322</v>
+        <v>5505122</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10442,58 +10442,58 @@
         <v>45039.3125</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>55</v>
       </c>
       <c r="K112">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="L112">
+        <v>5.25</v>
+      </c>
+      <c r="M112">
+        <v>10</v>
+      </c>
+      <c r="N112">
+        <v>1.045</v>
+      </c>
+      <c r="O112">
+        <v>15</v>
+      </c>
+      <c r="P112">
+        <v>29</v>
+      </c>
+      <c r="Q112">
+        <v>-3</v>
+      </c>
+      <c r="R112">
+        <v>1.875</v>
+      </c>
+      <c r="S112">
+        <v>1.925</v>
+      </c>
+      <c r="T112">
         <v>3.75</v>
       </c>
-      <c r="M112">
-        <v>5</v>
-      </c>
-      <c r="N112">
-        <v>1.571</v>
-      </c>
-      <c r="O112">
-        <v>3.8</v>
-      </c>
-      <c r="P112">
-        <v>4.75</v>
-      </c>
-      <c r="Q112">
-        <v>-0.75</v>
-      </c>
-      <c r="R112">
-        <v>1.775</v>
-      </c>
-      <c r="S112">
-        <v>2.025</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.571</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10502,16 +10502,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5569305</v>
+        <v>6604510</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11599,76 +11599,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N125">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>1.8</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
         <v>1.9</v>
       </c>
-      <c r="V125">
-        <v>1.9</v>
-      </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
-      <c r="X125">
-        <v>2.3</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5578988</v>
+        <v>5578987</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11777,58 +11777,58 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
         <v>55</v>
       </c>
       <c r="K127">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L127">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M127">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N127">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O127">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P127">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R127">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
         <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
-        <v>1.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11837,16 +11837,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11854,7 +11854,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5574590</v>
+        <v>5578988</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11866,58 +11866,58 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
         <v>55</v>
       </c>
       <c r="K128">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N128">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
+        <v>1.875</v>
+      </c>
+      <c r="V128">
         <v>1.925</v>
       </c>
-      <c r="V128">
-        <v>1.875</v>
-      </c>
       <c r="W128">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11926,16 +11926,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC128">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11943,7 +11943,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5578987</v>
+        <v>5574590</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11955,28 +11955,28 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>55</v>
       </c>
       <c r="K129">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M129">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N129">
         <v>1.533</v>
@@ -11985,25 +11985,25 @@
         <v>4</v>
       </c>
       <c r="P129">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q129">
         <v>-1</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
         <v>0.5329999999999999</v>
@@ -12021,10 +12021,10 @@
         <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12032,7 +12032,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5574591</v>
+        <v>5569305</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12044,76 +12044,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K130">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N130">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O130">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q130">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12121,7 +12121,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6604510</v>
+        <v>5574591</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12133,76 +12133,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K131">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="L131">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="O131">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P131">
-        <v>2.9</v>
+        <v>9.5</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U131">
+        <v>1.8</v>
+      </c>
+      <c r="V131">
         <v>2</v>
       </c>
-      <c r="V131">
-        <v>1.8</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12210,7 +12210,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5603142</v>
+        <v>5608074</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12222,40 +12222,40 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>2</v>
       </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
       <c r="J132" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K132">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P132">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q132">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R132">
         <v>1.825</v>
@@ -12264,34 +12264,34 @@
         <v>1.975</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12299,7 +12299,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5603143</v>
+        <v>5603142</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12311,76 +12311,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K133">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="L133">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="N133">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P133">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X133">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5608075</v>
+        <v>5603143</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,40 +12578,40 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K136">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M136">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
         <v>1.875</v>
@@ -12623,31 +12623,31 @@
         <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>0.35</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5608074</v>
+        <v>5636763</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,55 +12667,55 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
         <v>1</v>
-      </c>
-      <c r="I137">
-        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>53</v>
       </c>
       <c r="K137">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="L137">
         <v>3.5</v>
       </c>
       <c r="M137">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N137">
+        <v>1.727</v>
+      </c>
+      <c r="O137">
         <v>3.75</v>
       </c>
-      <c r="O137">
+      <c r="P137">
         <v>4</v>
       </c>
-      <c r="P137">
-        <v>1.727</v>
-      </c>
       <c r="Q137">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12724,19 +12724,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.7270000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5636763</v>
+        <v>5608075</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K138">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L138">
+        <v>3.4</v>
+      </c>
+      <c r="M138">
+        <v>2.875</v>
+      </c>
+      <c r="N138">
+        <v>2.1</v>
+      </c>
+      <c r="O138">
         <v>3.5</v>
       </c>
-      <c r="M138">
-        <v>3.5</v>
-      </c>
-      <c r="N138">
-        <v>1.727</v>
-      </c>
-      <c r="O138">
-        <v>3.75</v>
-      </c>
       <c r="P138">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S138">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AC138">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5636764</v>
+        <v>5705512</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,58 +12934,58 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>55</v>
       </c>
       <c r="K140">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M140">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N140">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
         <v>4</v>
       </c>
       <c r="P140">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12994,16 +12994,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5638761</v>
+        <v>5641728</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,10 +13023,10 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13038,61 +13038,61 @@
         <v>54</v>
       </c>
       <c r="K141">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L141">
+        <v>3.3</v>
+      </c>
+      <c r="M141">
         <v>3.4</v>
       </c>
-      <c r="M141">
-        <v>2.6</v>
-      </c>
       <c r="N141">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
         <v>2</v>
       </c>
-      <c r="V141">
-        <v>1.8</v>
-      </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5705512</v>
+        <v>5638761</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>54</v>
+      </c>
+      <c r="K143">
+        <v>2.3</v>
+      </c>
+      <c r="L143">
+        <v>3.4</v>
+      </c>
+      <c r="M143">
+        <v>2.6</v>
+      </c>
+      <c r="N143">
+        <v>2.875</v>
+      </c>
+      <c r="O143">
+        <v>3.4</v>
+      </c>
+      <c r="P143">
+        <v>2.15</v>
+      </c>
+      <c r="Q143">
+        <v>0.25</v>
+      </c>
+      <c r="R143">
+        <v>1.85</v>
+      </c>
+      <c r="S143">
+        <v>1.95</v>
+      </c>
+      <c r="T143">
+        <v>3</v>
+      </c>
+      <c r="U143">
         <v>2</v>
       </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143" t="s">
-        <v>55</v>
-      </c>
-      <c r="K143">
-        <v>2.25</v>
-      </c>
-      <c r="L143">
-        <v>3.25</v>
-      </c>
-      <c r="M143">
-        <v>2.8</v>
-      </c>
-      <c r="N143">
-        <v>1.4</v>
-      </c>
-      <c r="O143">
-        <v>4</v>
-      </c>
-      <c r="P143">
-        <v>6.5</v>
-      </c>
-      <c r="Q143">
-        <v>-1.25</v>
-      </c>
-      <c r="R143">
-        <v>1.975</v>
-      </c>
-      <c r="S143">
-        <v>1.825</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.875</v>
-      </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5641728</v>
+        <v>5636764</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,76 +13290,76 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K144">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N144">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P144">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S144">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X144">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC144">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -14168,7 +14168,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6963260</v>
+        <v>6963162</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14180,73 +14180,73 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K154">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L154">
         <v>3.4</v>
       </c>
       <c r="M154">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N154">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="O154">
         <v>3.4</v>
       </c>
       <c r="P154">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q154">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R154">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
         <v>1.825</v>
       </c>
-      <c r="V154">
-        <v>1.975</v>
-      </c>
       <c r="W154">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z154">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14257,7 +14257,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6963162</v>
+        <v>6963260</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14269,73 +14269,73 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K155">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L155">
         <v>3.4</v>
       </c>
       <c r="M155">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="N155">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O155">
         <v>3.4</v>
       </c>
       <c r="P155">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R155">
+        <v>1.75</v>
+      </c>
+      <c r="S155">
+        <v>2.05</v>
+      </c>
+      <c r="T155">
+        <v>2.5</v>
+      </c>
+      <c r="U155">
         <v>1.825</v>
       </c>
-      <c r="S155">
+      <c r="V155">
         <v>1.975</v>
       </c>
-      <c r="T155">
-        <v>2.25</v>
-      </c>
-      <c r="U155">
-        <v>1.975</v>
-      </c>
-      <c r="V155">
-        <v>1.825</v>
-      </c>
       <c r="W155">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14969,7 +14969,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6963166</v>
+        <v>6963167</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14981,10 +14981,10 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -14996,31 +14996,31 @@
         <v>54</v>
       </c>
       <c r="K163">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L163">
+        <v>3.75</v>
+      </c>
+      <c r="M163">
+        <v>2.625</v>
+      </c>
+      <c r="N163">
+        <v>1.85</v>
+      </c>
+      <c r="O163">
+        <v>3.8</v>
+      </c>
+      <c r="P163">
         <v>3.6</v>
       </c>
-      <c r="M163">
-        <v>3.6</v>
-      </c>
-      <c r="N163">
-        <v>1.7</v>
-      </c>
-      <c r="O163">
-        <v>3.6</v>
-      </c>
-      <c r="P163">
-        <v>4.333</v>
-      </c>
       <c r="Q163">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S163">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T163">
         <v>2.5</v>
@@ -15035,7 +15035,7 @@
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y163">
         <v>-1</v>
@@ -15044,7 +15044,7 @@
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB163">
         <v>-1</v>
@@ -15058,7 +15058,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6963167</v>
+        <v>6963166</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15070,10 +15070,10 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15085,31 +15085,31 @@
         <v>54</v>
       </c>
       <c r="K164">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L164">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N164">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O164">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S164">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
         <v>2.5</v>
@@ -15124,7 +15124,7 @@
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y164">
         <v>-1</v>
@@ -15133,7 +15133,7 @@
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB164">
         <v>-1</v>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6963180</v>
+        <v>6963265</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,58 +18986,58 @@
         <v>45200.3125</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
         <v>1</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>55</v>
       </c>
       <c r="K208">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M208">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N208">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O208">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P208">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S208">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
+        <v>1.925</v>
+      </c>
+      <c r="V208">
         <v>1.875</v>
       </c>
-      <c r="V208">
-        <v>1.925</v>
-      </c>
       <c r="W208">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19046,16 +19046,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC208">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6963265</v>
+        <v>6963180</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45200.3125</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G209" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>55</v>
       </c>
       <c r="K209">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L209">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N209">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O209">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P209">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q209">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S209">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
+        <v>1.875</v>
+      </c>
+      <c r="V209">
         <v>1.925</v>
       </c>
-      <c r="V209">
-        <v>1.875</v>
-      </c>
       <c r="W209">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
         <v>0.925</v>
-      </c>
-      <c r="AC209">
-        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -20220,7 +20220,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6962917</v>
+        <v>6963186</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20232,55 +20232,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F222" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G222" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
         <v>1</v>
-      </c>
-      <c r="I222">
-        <v>2</v>
       </c>
       <c r="J222" t="s">
         <v>53</v>
       </c>
       <c r="K222">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M222">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N222">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O222">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P222">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q222">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T222">
         <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -20289,19 +20289,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB222">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20309,7 +20309,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6963186</v>
+        <v>6962917</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20321,55 +20321,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
         <v>53</v>
       </c>
       <c r="K223">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L223">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N223">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O223">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P223">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q223">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S223">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T223">
         <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W223">
         <v>-1</v>
@@ -20378,19 +20378,19 @@
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC223">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -22178,7 +22178,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6963195</v>
+        <v>6962982</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22190,10 +22190,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F244" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G244" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22205,43 +22205,43 @@
         <v>55</v>
       </c>
       <c r="K244">
+        <v>1.333</v>
+      </c>
+      <c r="L244">
+        <v>4.5</v>
+      </c>
+      <c r="M244">
+        <v>8</v>
+      </c>
+      <c r="N244">
+        <v>1.285</v>
+      </c>
+      <c r="O244">
+        <v>5</v>
+      </c>
+      <c r="P244">
+        <v>9</v>
+      </c>
+      <c r="Q244">
+        <v>-1.5</v>
+      </c>
+      <c r="R244">
+        <v>1.9</v>
+      </c>
+      <c r="S244">
+        <v>1.9</v>
+      </c>
+      <c r="T244">
+        <v>3</v>
+      </c>
+      <c r="U244">
         <v>1.95</v>
       </c>
-      <c r="L244">
-        <v>3.4</v>
-      </c>
-      <c r="M244">
-        <v>3.75</v>
-      </c>
-      <c r="N244">
-        <v>1.909</v>
-      </c>
-      <c r="O244">
-        <v>3.3</v>
-      </c>
-      <c r="P244">
-        <v>3.8</v>
-      </c>
-      <c r="Q244">
-        <v>-0.5</v>
-      </c>
-      <c r="R244">
-        <v>1.95</v>
-      </c>
-      <c r="S244">
+      <c r="V244">
         <v>1.85</v>
       </c>
-      <c r="T244">
-        <v>2.25</v>
-      </c>
-      <c r="U244">
-        <v>1.825</v>
-      </c>
-      <c r="V244">
-        <v>1.975</v>
-      </c>
       <c r="W244">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22250,16 +22250,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22267,7 +22267,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6962982</v>
+        <v>6963195</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22279,10 +22279,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F245" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G245" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H245">
         <v>2</v>
@@ -22294,43 +22294,43 @@
         <v>55</v>
       </c>
       <c r="K245">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="L245">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M245">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N245">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O245">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P245">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q245">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S245">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T245">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U245">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>0.2849999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22339,16 +22339,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC245">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22712,7 +22712,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6963198</v>
+        <v>6963199</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22724,46 +22724,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F250" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G250" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K250">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L250">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M250">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N250">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O250">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P250">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q250">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R250">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S250">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T250">
         <v>2.25</v>
@@ -22775,25 +22775,25 @@
         <v>1.95</v>
       </c>
       <c r="W250">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X250">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA250">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB250">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC250">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22801,7 +22801,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6963199</v>
+        <v>6963198</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22813,46 +22813,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G251" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K251">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L251">
+        <v>3.1</v>
+      </c>
+      <c r="M251">
+        <v>2.375</v>
+      </c>
+      <c r="N251">
         <v>3.4</v>
       </c>
-      <c r="M251">
-        <v>3.8</v>
-      </c>
-      <c r="N251">
-        <v>1.95</v>
-      </c>
       <c r="O251">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P251">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q251">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R251">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S251">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
         <v>2.25</v>
@@ -22864,25 +22864,25 @@
         <v>1.95</v>
       </c>
       <c r="W251">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB251">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -26806,7 +26806,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6962998</v>
+        <v>6962933</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26818,73 +26818,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F296" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G296" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I296">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K296">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L296">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M296">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N296">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O296">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P296">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q296">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R296">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S296">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T296">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U296">
+        <v>1.9</v>
+      </c>
+      <c r="V296">
+        <v>1.9</v>
+      </c>
+      <c r="W296">
         <v>1.8</v>
       </c>
-      <c r="V296">
-        <v>2</v>
-      </c>
-      <c r="W296">
-        <v>-1</v>
-      </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA296">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26895,7 +26895,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6962933</v>
+        <v>6962998</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26907,73 +26907,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F297" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G297" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H297">
+        <v>2</v>
+      </c>
+      <c r="I297">
         <v>3</v>
       </c>
-      <c r="I297">
-        <v>0</v>
-      </c>
       <c r="J297" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K297">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L297">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M297">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N297">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O297">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P297">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q297">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R297">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S297">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T297">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U297">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V297">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W297">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z297">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB297">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -28586,7 +28586,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6963223</v>
+        <v>6963004</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28598,76 +28598,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F316" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G316" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K316">
+        <v>1.85</v>
+      </c>
+      <c r="L316">
         <v>3.4</v>
       </c>
-      <c r="L316">
-        <v>3.25</v>
-      </c>
       <c r="M316">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N316">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O316">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P316">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q316">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S316">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T316">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U316">
+        <v>2.025</v>
+      </c>
+      <c r="V316">
         <v>1.775</v>
       </c>
-      <c r="V316">
-        <v>2.025</v>
-      </c>
       <c r="W316">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X316">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA316">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28675,7 +28675,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6963004</v>
+        <v>6963223</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28687,76 +28687,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F317" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G317" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K317">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="L317">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M317">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N317">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O317">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P317">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q317">
+        <v>0</v>
+      </c>
+      <c r="R317">
+        <v>2.05</v>
+      </c>
+      <c r="S317">
+        <v>1.75</v>
+      </c>
+      <c r="T317">
+        <v>2.25</v>
+      </c>
+      <c r="U317">
+        <v>1.775</v>
+      </c>
+      <c r="V317">
+        <v>2.025</v>
+      </c>
+      <c r="W317">
+        <v>-1</v>
+      </c>
+      <c r="X317">
+        <v>2.2</v>
+      </c>
+      <c r="Y317">
+        <v>-1</v>
+      </c>
+      <c r="Z317">
+        <v>0</v>
+      </c>
+      <c r="AA317">
+        <v>-0</v>
+      </c>
+      <c r="AB317">
         <v>-0.5</v>
       </c>
-      <c r="R317">
-        <v>1.775</v>
-      </c>
-      <c r="S317">
-        <v>2.025</v>
-      </c>
-      <c r="T317">
-        <v>2.5</v>
-      </c>
-      <c r="U317">
-        <v>2.025</v>
-      </c>
-      <c r="V317">
-        <v>1.775</v>
-      </c>
-      <c r="W317">
-        <v>0.8</v>
-      </c>
-      <c r="X317">
-        <v>-1</v>
-      </c>
-      <c r="Y317">
-        <v>-1</v>
-      </c>
-      <c r="Z317">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA317">
-        <v>-1</v>
-      </c>
-      <c r="AB317">
-        <v>-1</v>
-      </c>
       <c r="AC317">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -29387,7 +29387,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7732507</v>
+        <v>6963271</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29399,13 +29399,13 @@
         <v>45319.3125</v>
       </c>
       <c r="F325" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G325" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H325">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I325">
         <v>0</v>
@@ -29414,43 +29414,43 @@
         <v>55</v>
       </c>
       <c r="K325">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="L325">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M325">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="N325">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="O325">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P325">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="Q325">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R325">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S325">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T325">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U325">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V325">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W325">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="X325">
         <v>-1</v>
@@ -29459,16 +29459,16 @@
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA325">
         <v>-1</v>
       </c>
       <c r="AB325">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29476,7 +29476,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6963271</v>
+        <v>7732507</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29488,13 +29488,13 @@
         <v>45319.3125</v>
       </c>
       <c r="F326" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G326" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I326">
         <v>0</v>
@@ -29503,43 +29503,43 @@
         <v>55</v>
       </c>
       <c r="K326">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="L326">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M326">
-        <v>3.8</v>
+        <v>23</v>
       </c>
       <c r="N326">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="O326">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P326">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="Q326">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R326">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S326">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T326">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U326">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V326">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W326">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="X326">
         <v>-1</v>
@@ -29548,16 +29548,16 @@
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA326">
         <v>-1</v>
       </c>
       <c r="AB326">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC326">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -30989,7 +30989,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6962943</v>
+        <v>6963009</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -31001,76 +31001,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F343" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G343" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J343" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K343">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L343">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M343">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N343">
         <v>2.375</v>
       </c>
       <c r="O343">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P343">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q343">
         <v>-0.25</v>
       </c>
       <c r="R343">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S343">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T343">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U343">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V343">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W343">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X343">
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z343">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA343">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB343">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC343">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31078,7 +31078,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6963009</v>
+        <v>6962943</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31090,76 +31090,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F344" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G344" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
         <v>2</v>
       </c>
-      <c r="I344">
-        <v>1</v>
-      </c>
       <c r="J344" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K344">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L344">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M344">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N344">
         <v>2.375</v>
       </c>
       <c r="O344">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P344">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q344">
         <v>-0.25</v>
       </c>
       <c r="R344">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S344">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T344">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U344">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V344">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W344">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z344">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA344">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB344">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC344">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31790,7 +31790,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6963011</v>
+        <v>6963013</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31802,13 +31802,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F352" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G352" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I352">
         <v>0</v>
@@ -31817,43 +31817,43 @@
         <v>55</v>
       </c>
       <c r="K352">
-        <v>1.727</v>
+        <v>1.181</v>
       </c>
       <c r="L352">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M352">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N352">
-        <v>1.7</v>
+        <v>1.166</v>
       </c>
       <c r="O352">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P352">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q352">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R352">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S352">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T352">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U352">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V352">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W352">
-        <v>0.7</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -31862,16 +31862,16 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AA352">
+        <v>-1</v>
+      </c>
+      <c r="AB352">
+        <v>0.4</v>
+      </c>
+      <c r="AC352">
         <v>-0.5</v>
-      </c>
-      <c r="AB352">
-        <v>-1</v>
-      </c>
-      <c r="AC352">
-        <v>0.95</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31879,7 +31879,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6963013</v>
+        <v>6963011</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31891,13 +31891,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F353" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G353" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H353">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I353">
         <v>0</v>
@@ -31906,43 +31906,43 @@
         <v>55</v>
       </c>
       <c r="K353">
-        <v>1.181</v>
+        <v>1.727</v>
       </c>
       <c r="L353">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M353">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N353">
-        <v>1.166</v>
+        <v>1.7</v>
       </c>
       <c r="O353">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P353">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q353">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R353">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S353">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T353">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U353">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V353">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W353">
-        <v>0.1659999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X353">
         <v>-1</v>
@@ -31951,16 +31951,16 @@
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA353">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB353">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC353">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32262,31 +32262,31 @@
         <v>4.333</v>
       </c>
       <c r="N357">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O357">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P357">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q357">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R357">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S357">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T357">
         <v>2.5</v>
       </c>
       <c r="U357">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V357">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W357">
         <v>0</v>
@@ -32348,19 +32348,19 @@
         <v>-0.75</v>
       </c>
       <c r="R358">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S358">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T358">
         <v>2.5</v>
       </c>
       <c r="U358">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V358">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W358">
         <v>0</v>
@@ -32410,22 +32410,22 @@
         <v>3</v>
       </c>
       <c r="N359">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O359">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P359">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q359">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R359">
+        <v>2.05</v>
+      </c>
+      <c r="S359">
         <v>1.75</v>
-      </c>
-      <c r="S359">
-        <v>2.05</v>
       </c>
       <c r="T359">
         <v>2.25</v>
@@ -32484,22 +32484,22 @@
         <v>1.65</v>
       </c>
       <c r="N360">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="O360">
         <v>4</v>
       </c>
       <c r="P360">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="Q360">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R360">
+        <v>1.775</v>
+      </c>
+      <c r="S360">
         <v>2.025</v>
-      </c>
-      <c r="S360">
-        <v>1.775</v>
       </c>
       <c r="T360">
         <v>2.5</v>
@@ -32558,22 +32558,22 @@
         <v>3.5</v>
       </c>
       <c r="N361">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O361">
+        <v>3.1</v>
+      </c>
+      <c r="P361">
         <v>3.2</v>
-      </c>
-      <c r="P361">
-        <v>3.5</v>
       </c>
       <c r="Q361">
         <v>-0.25</v>
       </c>
       <c r="R361">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S361">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T361">
         <v>2.25</v>
@@ -32632,31 +32632,31 @@
         <v>1.95</v>
       </c>
       <c r="N362">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O362">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P362">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="Q362">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R362">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S362">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T362">
         <v>2.25</v>
       </c>
       <c r="U362">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V362">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W362">
         <v>0</v>
@@ -32727,10 +32727,10 @@
         <v>2.25</v>
       </c>
       <c r="U363">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V363">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W363">
         <v>0</v>
@@ -32866,10 +32866,10 @@
         <v>-0.5</v>
       </c>
       <c r="R365">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S365">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T365">
         <v>2.25</v>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -133,10 +133,10 @@
     <t>Sakaryaspor</t>
   </si>
   <si>
-    <t>Erzurum BB</t>
+    <t>Bandirmaspor</t>
   </si>
   <si>
-    <t>Bandirmaspor</t>
+    <t>Erzurum BB</t>
   </si>
   <si>
     <t>Genclerbirligi</t>
@@ -1367,7 +1367,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5281400</v>
+        <v>5284173</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1545,37 +1545,37 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N12">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O12">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1584,34 +1584,34 @@
         <v>1.875</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5284173</v>
+        <v>5281400</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1634,37 +1634,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M13">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
         <v>1.925</v>
@@ -1673,34 +1673,34 @@
         <v>1.875</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2257,7 +2257,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2969,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3144,7 +3144,7 @@
         <v>44961.3125</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3233,7 +3233,7 @@
         <v>44961.3125</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
@@ -3844,7 +3844,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6287641</v>
+        <v>6287640</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3856,76 +3856,76 @@
         <v>44988.58333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O38">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P38">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6287640</v>
+        <v>6287641</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3945,76 +3945,76 @@
         <v>44988.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="L39">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N39">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P39">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4022,7 +4022,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6287642</v>
+        <v>6287645</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4034,58 +4034,58 @@
         <v>44989.3125</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>55</v>
       </c>
       <c r="K40">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N40">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4094,16 +4094,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
+        <v>0.75</v>
+      </c>
+      <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>0.875</v>
-      </c>
-      <c r="AC40">
-        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4111,7 +4111,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6287645</v>
+        <v>6287642</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4123,58 +4123,58 @@
         <v>44989.3125</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
         <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>55</v>
       </c>
       <c r="K41">
+        <v>2.375</v>
+      </c>
+      <c r="L41">
+        <v>3.25</v>
+      </c>
+      <c r="M41">
+        <v>2.75</v>
+      </c>
+      <c r="N41">
         <v>2.2</v>
       </c>
-      <c r="L41">
-        <v>3.4</v>
-      </c>
-      <c r="M41">
-        <v>2.9</v>
-      </c>
-      <c r="N41">
-        <v>2.3</v>
-      </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P41">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4183,16 +4183,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4645,7 +4645,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6287650</v>
+        <v>6287649</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4657,76 +4657,76 @@
         <v>44993.35416666666</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K47">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L47">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="N47">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O47">
         <v>3.1</v>
       </c>
       <c r="P47">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S47">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4734,7 +4734,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6287649</v>
+        <v>6287650</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4746,76 +4746,76 @@
         <v>44993.35416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K48">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O48">
         <v>3.1</v>
       </c>
       <c r="P48">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S48">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z48">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4924,7 +4924,7 @@
         <v>44994.35416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
         <v>44</v>
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6287655</v>
+        <v>6287656</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,40 +5280,40 @@
         <v>44997.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K54">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N54">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P54">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q54">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
         <v>1.9</v>
@@ -5322,31 +5322,31 @@
         <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W54">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA54">
-        <v>-1</v>
-      </c>
       <c r="AB54">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5357,7 +5357,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6287656</v>
+        <v>6287655</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5369,40 +5369,40 @@
         <v>44997.3125</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M55">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N55">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O55">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R55">
         <v>1.9</v>
@@ -5411,31 +5411,31 @@
         <v>1.9</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5461,7 +5461,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>5</v>
@@ -6336,7 +6336,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5281429</v>
+        <v>5281430</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6348,76 +6348,76 @@
         <v>45009.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K66">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="L66">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M66">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="N66">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="O66">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P66">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R66">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S66">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA66">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6425,7 +6425,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5281430</v>
+        <v>5281429</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6437,76 +6437,76 @@
         <v>45009.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
         <v>2</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
       <c r="J67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K67">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L67">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M67">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="N67">
+        <v>2.875</v>
+      </c>
+      <c r="O67">
+        <v>3.25</v>
+      </c>
+      <c r="P67">
+        <v>2.3</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>2.05</v>
+      </c>
+      <c r="S67">
+        <v>1.75</v>
+      </c>
+      <c r="T67">
+        <v>2.5</v>
+      </c>
+      <c r="U67">
+        <v>1.975</v>
+      </c>
+      <c r="V67">
+        <v>1.825</v>
+      </c>
+      <c r="W67">
+        <v>-1</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
         <v>1.3</v>
       </c>
-      <c r="O67">
-        <v>5</v>
-      </c>
-      <c r="P67">
-        <v>8</v>
-      </c>
-      <c r="Q67">
-        <v>-1.5</v>
-      </c>
-      <c r="R67">
-        <v>1.925</v>
-      </c>
-      <c r="S67">
-        <v>1.875</v>
-      </c>
-      <c r="T67">
-        <v>2.75</v>
-      </c>
-      <c r="U67">
-        <v>1.9</v>
-      </c>
-      <c r="V67">
-        <v>1.9</v>
-      </c>
-      <c r="W67">
-        <v>0.3</v>
-      </c>
-      <c r="X67">
-        <v>-1</v>
-      </c>
-      <c r="Y67">
-        <v>-1</v>
-      </c>
       <c r="Z67">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6796,7 +6796,7 @@
         <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5284199</v>
+        <v>5281437</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7060,58 +7060,58 @@
         <v>45013.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
         <v>2</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>55</v>
       </c>
       <c r="K74">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L74">
         <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N74">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q74">
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7120,13 +7120,13 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7137,7 +7137,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5281437</v>
+        <v>5284199</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7149,58 +7149,58 @@
         <v>45013.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>55</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L75">
         <v>3.4</v>
       </c>
       <c r="M75">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7209,13 +7209,13 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7238,7 +7238,7 @@
         <v>45014.3125</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
         <v>43</v>
@@ -7505,7 +7505,7 @@
         <v>45015.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
         <v>42</v>
@@ -7849,7 +7849,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5284200</v>
+        <v>5284202</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7861,31 +7861,31 @@
         <v>45018.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K83">
         <v>1.666</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N83">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O83">
         <v>3.5</v>
@@ -7894,43 +7894,43 @@
         <v>4.2</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
+        <v>1.8</v>
+      </c>
+      <c r="S83">
         <v>2</v>
       </c>
-      <c r="S83">
-        <v>1.8</v>
-      </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
+        <v>1.925</v>
+      </c>
+      <c r="V83">
         <v>1.875</v>
       </c>
-      <c r="V83">
-        <v>1.925</v>
-      </c>
       <c r="W83">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z83">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>0.875</v>
-      </c>
-      <c r="AC83">
-        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7938,7 +7938,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5284202</v>
+        <v>5284200</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7950,31 +7950,31 @@
         <v>45018.3125</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K84">
         <v>1.666</v>
       </c>
       <c r="L84">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N84">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O84">
         <v>3.5</v>
@@ -7983,43 +7983,43 @@
         <v>4.2</v>
       </c>
       <c r="Q84">
+        <v>-0.75</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>1.8</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
+        <v>1.875</v>
+      </c>
+      <c r="V84">
+        <v>1.925</v>
+      </c>
+      <c r="W84">
+        <v>0.75</v>
+      </c>
+      <c r="X84">
+        <v>-1</v>
+      </c>
+      <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
+        <v>0.5</v>
+      </c>
+      <c r="AA84">
         <v>-0.5</v>
       </c>
-      <c r="R84">
-        <v>1.8</v>
-      </c>
-      <c r="S84">
-        <v>2</v>
-      </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
-      <c r="U84">
-        <v>1.925</v>
-      </c>
-      <c r="V84">
-        <v>1.875</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
-      <c r="Y84">
-        <v>3.2</v>
-      </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
-      <c r="AA84">
-        <v>1</v>
-      </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8042,7 +8042,7 @@
         <v>46</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5281587</v>
+        <v>5284203</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,76 +8128,76 @@
         <v>45019.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K86">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L86">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N86">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P86">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="Q86">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="V86">
-        <v>1.85</v>
-      </c>
       <c r="W86">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
+        <v>-1</v>
+      </c>
+      <c r="AC86">
         <v>0.95</v>
-      </c>
-      <c r="AC86">
-        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5284203</v>
+        <v>5281587</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,76 +8217,76 @@
         <v>45019.60416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K87">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L87">
+        <v>3.3</v>
+      </c>
+      <c r="M87">
+        <v>2.3</v>
+      </c>
+      <c r="N87">
         <v>3.75</v>
       </c>
-      <c r="M87">
-        <v>4.75</v>
-      </c>
-      <c r="N87">
-        <v>1.363</v>
-      </c>
       <c r="O87">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
+        <v>1.95</v>
+      </c>
+      <c r="V87">
         <v>1.85</v>
       </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X87">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8751,7 +8751,7 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
         <v>42</v>
@@ -8840,7 +8840,7 @@
         <v>45025.60416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
         <v>46</v>
@@ -9199,7 +9199,7 @@
         <v>47</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
         <v>47</v>
@@ -9908,7 +9908,7 @@
         <v>45033.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
         <v>38</v>
@@ -10252,7 +10252,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5495158</v>
+        <v>5505122</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10264,58 +10264,58 @@
         <v>45039.3125</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>55</v>
       </c>
       <c r="K110">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L110">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="M110">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N110">
-        <v>1.45</v>
+        <v>1.045</v>
       </c>
       <c r="O110">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="P110">
-        <v>4.75</v>
+        <v>29</v>
       </c>
       <c r="Q110">
-        <v>-1.25</v>
+        <v>-3</v>
       </c>
       <c r="R110">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U110">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
-        <v>0.45</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10324,16 +10324,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10341,7 +10341,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5499322</v>
+        <v>5495158</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10353,58 +10353,58 @@
         <v>45039.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
         <v>55</v>
       </c>
       <c r="K111">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L111">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M111">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N111">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="O111">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P111">
         <v>4.75</v>
       </c>
       <c r="Q111">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R111">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
-        <v>0.571</v>
+        <v>0.45</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10413,13 +10413,13 @@
         <v>-1</v>
       </c>
       <c r="Z111">
+        <v>1.05</v>
+      </c>
+      <c r="AA111">
+        <v>-1</v>
+      </c>
+      <c r="AB111">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
-      <c r="AB111">
-        <v>0.825</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10430,7 +10430,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5505122</v>
+        <v>5499322</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10442,58 +10442,58 @@
         <v>45039.3125</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H112">
+        <v>4</v>
+      </c>
+      <c r="I112">
         <v>1</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>55</v>
       </c>
       <c r="K112">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="L112">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="M112">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N112">
-        <v>1.045</v>
+        <v>1.571</v>
       </c>
       <c r="O112">
-        <v>15</v>
+        <v>3.8</v>
       </c>
       <c r="P112">
-        <v>29</v>
+        <v>4.75</v>
       </c>
       <c r="Q112">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>0.04499999999999993</v>
+        <v>0.571</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10502,16 +10502,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10620,10 +10620,10 @@
         <v>45040.41666666666</v>
       </c>
       <c r="F114" t="s">
+        <v>39</v>
+      </c>
+      <c r="G114" t="s">
         <v>40</v>
-      </c>
-      <c r="G114" t="s">
-        <v>39</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -11335,7 +11335,7 @@
         <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11510,7 +11510,7 @@
         <v>45048.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
         <v>38</v>
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6604510</v>
+        <v>5569305</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11599,76 +11599,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K125">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N125">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y125">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11676,7 +11676,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5578989</v>
+        <v>5574590</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11688,13 +11688,13 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11703,43 +11703,43 @@
         <v>55</v>
       </c>
       <c r="K126">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="L126">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="N126">
-        <v>1.142</v>
+        <v>1.533</v>
       </c>
       <c r="O126">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="Q126">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
-        <v>0.1419999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11748,16 +11748,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5578987</v>
+        <v>5574591</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11777,58 +11777,58 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H127">
+        <v>4</v>
+      </c>
+      <c r="I127">
         <v>2</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
       </c>
       <c r="J127" t="s">
         <v>55</v>
       </c>
       <c r="K127">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L127">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M127">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N127">
-        <v>1.533</v>
+        <v>1.285</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P127">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>0.5329999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11837,16 +11837,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11943,7 +11943,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5574590</v>
+        <v>5578989</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11955,13 +11955,13 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11970,43 +11970,43 @@
         <v>55</v>
       </c>
       <c r="K129">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M129">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N129">
-        <v>1.533</v>
+        <v>1.142</v>
       </c>
       <c r="O129">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P129">
-        <v>5.25</v>
+        <v>13</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>0.5329999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12015,16 +12015,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12032,7 +12032,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5569305</v>
+        <v>6604510</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12044,76 +12044,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K130">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L130">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M130">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N130">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P130">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q130">
         <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
+        <v>1.8</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
         <v>1.9</v>
       </c>
-      <c r="V130">
-        <v>1.9</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
-      <c r="X130">
-        <v>2.3</v>
-      </c>
-      <c r="Y130">
-        <v>-1</v>
-      </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12121,7 +12121,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5574591</v>
+        <v>5578987</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12133,58 +12133,58 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>55</v>
       </c>
       <c r="K131">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="N131">
-        <v>1.285</v>
+        <v>1.533</v>
       </c>
       <c r="O131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q131">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>0.2849999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12193,16 +12193,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA131">
+        <v>-0</v>
+      </c>
+      <c r="AB131">
+        <v>0.475</v>
+      </c>
+      <c r="AC131">
         <v>-0.5</v>
-      </c>
-      <c r="AB131">
-        <v>0.8</v>
-      </c>
-      <c r="AC131">
-        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12210,7 +12210,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5608074</v>
+        <v>5610598</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12222,55 +12222,55 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
         <v>1</v>
-      </c>
-      <c r="I132">
-        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>53</v>
       </c>
       <c r="K132">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N132">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O132">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q132">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12279,19 +12279,19 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.7270000000000001</v>
+        <v>4.75</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12299,7 +12299,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5603142</v>
+        <v>5608075</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12311,58 +12311,58 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H133">
         <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>55</v>
       </c>
       <c r="K133">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="N133">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q133">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="W133">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12371,16 +12371,16 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12388,7 +12388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5615110</v>
+        <v>5608074</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12400,76 +12400,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
         <v>2</v>
       </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
       <c r="J134" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K134">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
         <v>3.75</v>
       </c>
-      <c r="N134">
-        <v>1.7</v>
-      </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P134">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
         <v>3.25</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z134">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB134">
         <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,7 +12477,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5610598</v>
+        <v>5603143</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12489,40 +12489,40 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K135">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N135">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R135">
         <v>1.875</v>
@@ -12534,31 +12534,31 @@
         <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y135">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA135">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5603143</v>
+        <v>5615110</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K136">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L136">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N136">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O136">
+        <v>4.2</v>
+      </c>
+      <c r="P136">
+        <v>3.75</v>
+      </c>
+      <c r="Q136">
+        <v>-0.75</v>
+      </c>
+      <c r="R136">
+        <v>1.925</v>
+      </c>
+      <c r="S136">
+        <v>1.875</v>
+      </c>
+      <c r="T136">
         <v>3.25</v>
       </c>
-      <c r="P136">
-        <v>2.55</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
+      <c r="U136">
         <v>1.875</v>
       </c>
-      <c r="S136">
+      <c r="V136">
         <v>1.925</v>
       </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.975</v>
-      </c>
-      <c r="V136">
-        <v>1.825</v>
-      </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X136">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12670,7 +12670,7 @@
         <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5608075</v>
+        <v>5603142</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,58 +12756,58 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H138">
         <v>2</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>55</v>
       </c>
       <c r="K138">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="N138">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O138">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P138">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R138">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S138">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="V138">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12816,16 +12816,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5705512</v>
+        <v>5641728</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,76 +12934,76 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K140">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P140">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
+        <v>1.825</v>
+      </c>
+      <c r="S140">
         <v>1.975</v>
-      </c>
-      <c r="S140">
-        <v>1.825</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5641728</v>
+        <v>5705512</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K141">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N141">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="O141">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
+        <v>1.975</v>
+      </c>
+      <c r="S141">
         <v>1.825</v>
-      </c>
-      <c r="S141">
-        <v>1.975</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X141">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5641727</v>
+        <v>5638761</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,49 +13112,49 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K142">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N142">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="Q142">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U142">
         <v>2</v>
@@ -13166,22 +13166,22 @@
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5638761</v>
+        <v>5641727</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,49 +13201,49 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K143">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N143">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P143">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
         <v>2</v>
@@ -13255,22 +13255,22 @@
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z143">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5636764</v>
+        <v>5702788</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,76 +13290,76 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144" t="s">
+        <v>54</v>
+      </c>
+      <c r="K144">
+        <v>1.533</v>
+      </c>
+      <c r="L144">
+        <v>4.333</v>
+      </c>
+      <c r="M144">
+        <v>4.5</v>
+      </c>
+      <c r="N144">
+        <v>1.363</v>
+      </c>
+      <c r="O144">
+        <v>5</v>
+      </c>
+      <c r="P144">
+        <v>5.75</v>
+      </c>
+      <c r="Q144">
+        <v>-1.5</v>
+      </c>
+      <c r="R144">
         <v>2</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-      <c r="J144" t="s">
-        <v>55</v>
-      </c>
-      <c r="K144">
-        <v>1.5</v>
-      </c>
-      <c r="L144">
+      <c r="S144">
+        <v>1.8</v>
+      </c>
+      <c r="T144">
+        <v>3.5</v>
+      </c>
+      <c r="U144">
+        <v>1.975</v>
+      </c>
+      <c r="V144">
+        <v>1.825</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
         <v>4</v>
       </c>
-      <c r="M144">
-        <v>5.25</v>
-      </c>
-      <c r="N144">
-        <v>1.5</v>
-      </c>
-      <c r="O144">
-        <v>4</v>
-      </c>
-      <c r="P144">
-        <v>5</v>
-      </c>
-      <c r="Q144">
-        <v>-1</v>
-      </c>
-      <c r="R144">
-        <v>1.925</v>
-      </c>
-      <c r="S144">
-        <v>1.875</v>
-      </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
-      <c r="U144">
-        <v>1.9</v>
-      </c>
-      <c r="V144">
-        <v>1.9</v>
-      </c>
-      <c r="W144">
-        <v>0.5</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB144">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13367,7 +13367,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5702788</v>
+        <v>5636764</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13379,76 +13379,76 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L145">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N145">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
         <v>5</v>
       </c>
-      <c r="P145">
-        <v>5.75</v>
-      </c>
       <c r="Q145">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X145">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -14358,10 +14358,10 @@
         <v>45151.55208333334</v>
       </c>
       <c r="F156" t="s">
+        <v>40</v>
+      </c>
+      <c r="G156" t="s">
         <v>39</v>
-      </c>
-      <c r="G156" t="s">
-        <v>40</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14717,7 +14717,7 @@
         <v>43</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15070,7 +15070,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G164" t="s">
         <v>31</v>
@@ -15426,7 +15426,7 @@
         <v>45163.625</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G168" t="s">
         <v>47</v>
@@ -16141,7 +16141,7 @@
         <v>52</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16316,7 +16316,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
         <v>38</v>
@@ -16838,7 +16838,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6962908</v>
+        <v>6963033</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16850,76 +16850,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F184" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>0</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K184">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L184">
+        <v>3.6</v>
+      </c>
+      <c r="M184">
+        <v>4.5</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184">
         <v>3.3</v>
       </c>
-      <c r="M184">
-        <v>2.25</v>
-      </c>
-      <c r="N184">
+      <c r="P184">
         <v>3.4</v>
       </c>
-      <c r="O184">
-        <v>3.4</v>
-      </c>
-      <c r="P184">
+      <c r="Q184">
+        <v>-0.5</v>
+      </c>
+      <c r="R184">
         <v>2</v>
       </c>
-      <c r="Q184">
-        <v>0.5</v>
-      </c>
-      <c r="R184">
+      <c r="S184">
         <v>1.8</v>
-      </c>
-      <c r="S184">
-        <v>2</v>
       </c>
       <c r="T184">
         <v>2.5</v>
       </c>
       <c r="U184">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16927,7 +16927,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6963033</v>
+        <v>6962908</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16939,76 +16939,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F185" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K185">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M185">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N185">
+        <v>3.4</v>
+      </c>
+      <c r="O185">
+        <v>3.4</v>
+      </c>
+      <c r="P185">
         <v>2</v>
       </c>
-      <c r="O185">
-        <v>3.3</v>
-      </c>
-      <c r="P185">
-        <v>3.4</v>
-      </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
+        <v>1.8</v>
+      </c>
+      <c r="S185">
         <v>2</v>
-      </c>
-      <c r="S185">
-        <v>1.8</v>
       </c>
       <c r="T185">
         <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
+        <v>1</v>
+      </c>
+      <c r="AB185">
+        <v>-1</v>
+      </c>
+      <c r="AC185">
         <v>0.8</v>
-      </c>
-      <c r="AB185">
-        <v>-1</v>
-      </c>
-      <c r="AC185">
-        <v>0.875</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17028,7 +17028,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17550,7 +17550,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6963174</v>
+        <v>6962910</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17562,76 +17562,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K192">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L192">
+        <v>3.25</v>
+      </c>
+      <c r="M192">
+        <v>2.875</v>
+      </c>
+      <c r="N192">
+        <v>2.375</v>
+      </c>
+      <c r="O192">
         <v>3.2</v>
       </c>
-      <c r="M192">
-        <v>1.95</v>
-      </c>
-      <c r="N192">
-        <v>4</v>
-      </c>
-      <c r="O192">
-        <v>3.3</v>
-      </c>
       <c r="P192">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q192">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y192">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB192">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17639,7 +17639,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6962910</v>
+        <v>6963174</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17651,76 +17651,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H193">
         <v>1</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K193">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L193">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M193">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N193">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O193">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P193">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R193">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC193">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17817,7 +17817,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6963176</v>
+        <v>6963179</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17829,58 +17829,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H195">
         <v>2</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>55</v>
       </c>
       <c r="K195">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L195">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N195">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P195">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U195">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W195">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17889,16 +17889,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17906,7 +17906,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6963179</v>
+        <v>6963176</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17918,58 +17918,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>2</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
         <v>55</v>
       </c>
       <c r="K196">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L196">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N196">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O196">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
+        <v>1.8</v>
+      </c>
+      <c r="S196">
+        <v>2</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
+        <v>1.875</v>
+      </c>
+      <c r="V196">
         <v>1.925</v>
       </c>
-      <c r="S196">
-        <v>1.875</v>
-      </c>
-      <c r="T196">
-        <v>2.75</v>
-      </c>
-      <c r="U196">
-        <v>1.975</v>
-      </c>
-      <c r="V196">
-        <v>1.825</v>
-      </c>
       <c r="W196">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17978,16 +17978,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18274,7 +18274,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G200" t="s">
         <v>41</v>
@@ -18366,7 +18366,7 @@
         <v>45</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18633,7 +18633,7 @@
         <v>51</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -19075,7 +19075,7 @@
         <v>45200.3125</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
         <v>31</v>
@@ -19434,7 +19434,7 @@
         <v>48</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19609,7 +19609,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
         <v>50</v>
@@ -20220,7 +20220,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6963186</v>
+        <v>6962917</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20232,55 +20232,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F222" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G222" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
         <v>53</v>
       </c>
       <c r="K222">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L222">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M222">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N222">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O222">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q222">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R222">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S222">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T222">
         <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -20289,19 +20289,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20309,7 +20309,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6962917</v>
+        <v>6963186</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20321,55 +20321,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G223" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
         <v>1</v>
-      </c>
-      <c r="I223">
-        <v>2</v>
       </c>
       <c r="J223" t="s">
         <v>53</v>
       </c>
       <c r="K223">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M223">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N223">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O223">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P223">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q223">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R223">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T223">
         <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V223">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W223">
         <v>-1</v>
@@ -20378,19 +20378,19 @@
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB223">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20591,7 +20591,7 @@
         <v>43</v>
       </c>
       <c r="G226" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -21214,7 +21214,7 @@
         <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21555,7 +21555,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6962980</v>
+        <v>6962979</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21567,76 +21567,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G237" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K237">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L237">
         <v>3.2</v>
       </c>
       <c r="M237">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N237">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O237">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P237">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q237">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S237">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T237">
         <v>2.5</v>
       </c>
       <c r="U237">
+        <v>1.875</v>
+      </c>
+      <c r="V237">
+        <v>1.925</v>
+      </c>
+      <c r="W237">
         <v>2</v>
       </c>
-      <c r="V237">
-        <v>1.8</v>
-      </c>
-      <c r="W237">
-        <v>-1</v>
-      </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA237">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6962979</v>
+        <v>6962980</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G238" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H238">
         <v>1</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K238">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L238">
         <v>3.2</v>
       </c>
       <c r="M238">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N238">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O238">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P238">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R238">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T238">
         <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V238">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z238">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC238">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21748,7 +21748,7 @@
         <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -22178,7 +22178,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6962982</v>
+        <v>6963195</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22190,10 +22190,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F244" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G244" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22205,43 +22205,43 @@
         <v>55</v>
       </c>
       <c r="K244">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="L244">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M244">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N244">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O244">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P244">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q244">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R244">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S244">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T244">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V244">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W244">
-        <v>0.2849999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22250,16 +22250,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC244">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22267,7 +22267,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6963195</v>
+        <v>6962982</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22279,10 +22279,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F245" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H245">
         <v>2</v>
@@ -22294,43 +22294,43 @@
         <v>55</v>
       </c>
       <c r="K245">
+        <v>1.333</v>
+      </c>
+      <c r="L245">
+        <v>4.5</v>
+      </c>
+      <c r="M245">
+        <v>8</v>
+      </c>
+      <c r="N245">
+        <v>1.285</v>
+      </c>
+      <c r="O245">
+        <v>5</v>
+      </c>
+      <c r="P245">
+        <v>9</v>
+      </c>
+      <c r="Q245">
+        <v>-1.5</v>
+      </c>
+      <c r="R245">
+        <v>1.9</v>
+      </c>
+      <c r="S245">
+        <v>1.9</v>
+      </c>
+      <c r="T245">
+        <v>3</v>
+      </c>
+      <c r="U245">
         <v>1.95</v>
       </c>
-      <c r="L245">
-        <v>3.4</v>
-      </c>
-      <c r="M245">
-        <v>3.75</v>
-      </c>
-      <c r="N245">
-        <v>1.909</v>
-      </c>
-      <c r="O245">
-        <v>3.3</v>
-      </c>
-      <c r="P245">
-        <v>3.8</v>
-      </c>
-      <c r="Q245">
-        <v>-0.5</v>
-      </c>
-      <c r="R245">
-        <v>1.95</v>
-      </c>
-      <c r="S245">
+      <c r="V245">
         <v>1.85</v>
       </c>
-      <c r="T245">
-        <v>2.25</v>
-      </c>
-      <c r="U245">
-        <v>1.825</v>
-      </c>
-      <c r="V245">
-        <v>1.975</v>
-      </c>
       <c r="W245">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22339,16 +22339,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22371,7 +22371,7 @@
         <v>52</v>
       </c>
       <c r="G246" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -22712,7 +22712,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6963199</v>
+        <v>6963198</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22724,46 +22724,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G250" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K250">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L250">
+        <v>3.1</v>
+      </c>
+      <c r="M250">
+        <v>2.375</v>
+      </c>
+      <c r="N250">
         <v>3.4</v>
       </c>
-      <c r="M250">
-        <v>3.8</v>
-      </c>
-      <c r="N250">
-        <v>1.95</v>
-      </c>
       <c r="O250">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P250">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q250">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R250">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S250">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T250">
         <v>2.25</v>
@@ -22775,25 +22775,25 @@
         <v>1.95</v>
       </c>
       <c r="W250">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB250">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC250">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22801,7 +22801,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6963198</v>
+        <v>6963199</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22813,46 +22813,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F251" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K251">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L251">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M251">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N251">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O251">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P251">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q251">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T251">
         <v>2.25</v>
@@ -22864,25 +22864,25 @@
         <v>1.95</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X251">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC251">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23068,7 +23068,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7437372</v>
+        <v>7437371</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23080,37 +23080,37 @@
         <v>45242.3125</v>
       </c>
       <c r="F254" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G254" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
         <v>2</v>
-      </c>
-      <c r="I254">
-        <v>3</v>
       </c>
       <c r="J254" t="s">
         <v>53</v>
       </c>
       <c r="K254">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L254">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M254">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N254">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O254">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P254">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -23122,7 +23122,7 @@
         <v>2</v>
       </c>
       <c r="T254">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U254">
         <v>2</v>
@@ -23137,7 +23137,7 @@
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>1.8</v>
+        <v>1.625</v>
       </c>
       <c r="Z254">
         <v>-1</v>
@@ -23146,10 +23146,10 @@
         <v>1</v>
       </c>
       <c r="AB254">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC254">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7437371</v>
+        <v>7437372</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,37 +23169,37 @@
         <v>45242.3125</v>
       </c>
       <c r="F255" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G255" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J255" t="s">
         <v>53</v>
       </c>
       <c r="K255">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L255">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M255">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N255">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O255">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P255">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -23211,7 +23211,7 @@
         <v>2</v>
       </c>
       <c r="T255">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U255">
         <v>2</v>
@@ -23226,7 +23226,7 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>1.625</v>
+        <v>1.8</v>
       </c>
       <c r="Z255">
         <v>-1</v>
@@ -23235,10 +23235,10 @@
         <v>1</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC255">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23258,7 +23258,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G256" t="s">
         <v>33</v>
@@ -23439,7 +23439,7 @@
         <v>38</v>
       </c>
       <c r="G258" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H258">
         <v>2</v>
@@ -23513,7 +23513,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7482211</v>
+        <v>7482213</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23525,10 +23525,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F259" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G259" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23540,40 +23540,40 @@
         <v>53</v>
       </c>
       <c r="K259">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M259">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N259">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="O259">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P259">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q259">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R259">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S259">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T259">
         <v>2.75</v>
       </c>
       <c r="U259">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V259">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W259">
         <v>-1</v>
@@ -23582,19 +23582,19 @@
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23602,7 +23602,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7482213</v>
+        <v>7482211</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23614,10 +23614,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G260" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -23629,40 +23629,40 @@
         <v>53</v>
       </c>
       <c r="K260">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L260">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M260">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N260">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="O260">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P260">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q260">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R260">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S260">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T260">
         <v>2.75</v>
       </c>
       <c r="U260">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V260">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W260">
         <v>-1</v>
@@ -23671,19 +23671,19 @@
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z260">
         <v>-1</v>
       </c>
       <c r="AA260">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB260">
         <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -24507,7 +24507,7 @@
         <v>34</v>
       </c>
       <c r="G270" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H270">
         <v>1</v>
@@ -24860,7 +24860,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G274" t="s">
         <v>41</v>
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6962929</v>
+        <v>6963207</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,76 +25038,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F276" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G276" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K276">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L276">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M276">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N276">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O276">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P276">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q276">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R276">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S276">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T276">
         <v>2.5</v>
       </c>
       <c r="U276">
+        <v>1.8</v>
+      </c>
+      <c r="V276">
         <v>2</v>
       </c>
-      <c r="V276">
-        <v>1.8</v>
-      </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y276">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB276">
+        <v>-1</v>
+      </c>
+      <c r="AC276">
         <v>1</v>
-      </c>
-      <c r="AC276">
-        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25115,7 +25115,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6963207</v>
+        <v>6962929</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25127,76 +25127,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F277" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G277" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J277" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K277">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L277">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M277">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N277">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O277">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P277">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q277">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R277">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S277">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T277">
         <v>2.5</v>
       </c>
       <c r="U277">
+        <v>2</v>
+      </c>
+      <c r="V277">
         <v>1.8</v>
       </c>
-      <c r="V277">
-        <v>2</v>
-      </c>
       <c r="W277">
         <v>-1</v>
       </c>
       <c r="X277">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC277">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25382,7 +25382,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6963208</v>
+        <v>6962995</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25394,76 +25394,76 @@
         <v>45270.3125</v>
       </c>
       <c r="F280" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G280" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H280">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I280">
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K280">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L280">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M280">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N280">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O280">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P280">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q280">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R280">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S280">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T280">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U280">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V280">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W280">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X280">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB280">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC280">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25471,7 +25471,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6962995</v>
+        <v>6963208</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25483,76 +25483,76 @@
         <v>45270.3125</v>
       </c>
       <c r="F281" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G281" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I281">
         <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K281">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L281">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M281">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N281">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O281">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P281">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q281">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R281">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S281">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T281">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V281">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X281">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA281">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC281">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -26094,7 +26094,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6963211</v>
+        <v>7589522</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26106,76 +26106,76 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G288" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H288">
         <v>1</v>
       </c>
       <c r="I288">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K288">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L288">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M288">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N288">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O288">
         <v>3.25</v>
       </c>
       <c r="P288">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="Q288">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R288">
+        <v>1.85</v>
+      </c>
+      <c r="S288">
+        <v>1.95</v>
+      </c>
+      <c r="T288">
+        <v>2.5</v>
+      </c>
+      <c r="U288">
         <v>2</v>
       </c>
-      <c r="S288">
+      <c r="V288">
         <v>1.8</v>
       </c>
-      <c r="T288">
+      <c r="W288">
+        <v>-1</v>
+      </c>
+      <c r="X288">
         <v>2.25</v>
       </c>
-      <c r="U288">
-        <v>1.8</v>
-      </c>
-      <c r="V288">
-        <v>2</v>
-      </c>
-      <c r="W288">
-        <v>-1</v>
-      </c>
-      <c r="X288">
-        <v>-1</v>
-      </c>
       <c r="Y288">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA288">
+        <v>0.475</v>
+      </c>
+      <c r="AB288">
+        <v>-1</v>
+      </c>
+      <c r="AC288">
         <v>0.8</v>
-      </c>
-      <c r="AB288">
-        <v>0.8</v>
-      </c>
-      <c r="AC288">
-        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26183,7 +26183,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7589522</v>
+        <v>6963211</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26195,76 +26195,76 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F289" t="s">
+        <v>30</v>
+      </c>
+      <c r="G289" t="s">
         <v>39</v>
-      </c>
-      <c r="G289" t="s">
-        <v>51</v>
       </c>
       <c r="H289">
         <v>1</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J289" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K289">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L289">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M289">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N289">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O289">
         <v>3.25</v>
       </c>
       <c r="P289">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q289">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R289">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S289">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T289">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U289">
+        <v>1.8</v>
+      </c>
+      <c r="V289">
         <v>2</v>
       </c>
-      <c r="V289">
-        <v>1.8</v>
-      </c>
       <c r="W289">
         <v>-1</v>
       </c>
       <c r="X289">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y289">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z289">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA289">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AB289">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC289">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26907,7 +26907,7 @@
         <v>45284.3125</v>
       </c>
       <c r="F297" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G297" t="s">
         <v>45</v>
@@ -27355,7 +27355,7 @@
         <v>44</v>
       </c>
       <c r="G302" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H302">
         <v>3</v>
@@ -27619,10 +27619,10 @@
         <v>45304.3125</v>
       </c>
       <c r="F305" t="s">
+        <v>39</v>
+      </c>
+      <c r="G305" t="s">
         <v>40</v>
-      </c>
-      <c r="G305" t="s">
-        <v>39</v>
       </c>
       <c r="H305">
         <v>0</v>
@@ -28331,7 +28331,7 @@
         <v>45311.3125</v>
       </c>
       <c r="F313" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G313" t="s">
         <v>43</v>
@@ -28423,7 +28423,7 @@
         <v>31</v>
       </c>
       <c r="G314" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H314">
         <v>2</v>
@@ -28586,7 +28586,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6963004</v>
+        <v>6963223</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28598,76 +28598,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F316" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G316" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K316">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="L316">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M316">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N316">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O316">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P316">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q316">
+        <v>0</v>
+      </c>
+      <c r="R316">
+        <v>2.05</v>
+      </c>
+      <c r="S316">
+        <v>1.75</v>
+      </c>
+      <c r="T316">
+        <v>2.25</v>
+      </c>
+      <c r="U316">
+        <v>1.775</v>
+      </c>
+      <c r="V316">
+        <v>2.025</v>
+      </c>
+      <c r="W316">
+        <v>-1</v>
+      </c>
+      <c r="X316">
+        <v>2.2</v>
+      </c>
+      <c r="Y316">
+        <v>-1</v>
+      </c>
+      <c r="Z316">
+        <v>0</v>
+      </c>
+      <c r="AA316">
+        <v>-0</v>
+      </c>
+      <c r="AB316">
         <v>-0.5</v>
       </c>
-      <c r="R316">
-        <v>1.775</v>
-      </c>
-      <c r="S316">
-        <v>2.025</v>
-      </c>
-      <c r="T316">
-        <v>2.5</v>
-      </c>
-      <c r="U316">
-        <v>2.025</v>
-      </c>
-      <c r="V316">
-        <v>1.775</v>
-      </c>
-      <c r="W316">
-        <v>0.8</v>
-      </c>
-      <c r="X316">
-        <v>-1</v>
-      </c>
-      <c r="Y316">
-        <v>-1</v>
-      </c>
-      <c r="Z316">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA316">
-        <v>-1</v>
-      </c>
-      <c r="AB316">
-        <v>-1</v>
-      </c>
       <c r="AC316">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28675,7 +28675,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6963223</v>
+        <v>6963004</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28687,76 +28687,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F317" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G317" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K317">
+        <v>1.85</v>
+      </c>
+      <c r="L317">
         <v>3.4</v>
       </c>
-      <c r="L317">
-        <v>3.25</v>
-      </c>
       <c r="M317">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N317">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O317">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P317">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q317">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S317">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T317">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U317">
+        <v>2.025</v>
+      </c>
+      <c r="V317">
         <v>1.775</v>
       </c>
-      <c r="V317">
-        <v>2.025</v>
-      </c>
       <c r="W317">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X317">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA317">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -29135,7 +29135,7 @@
         <v>47</v>
       </c>
       <c r="G322" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -29387,7 +29387,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6963271</v>
+        <v>7732507</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29399,13 +29399,13 @@
         <v>45319.3125</v>
       </c>
       <c r="F325" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G325" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I325">
         <v>0</v>
@@ -29414,43 +29414,43 @@
         <v>55</v>
       </c>
       <c r="K325">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="L325">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M325">
-        <v>3.8</v>
+        <v>23</v>
       </c>
       <c r="N325">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="O325">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P325">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="Q325">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R325">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S325">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T325">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U325">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V325">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W325">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="X325">
         <v>-1</v>
@@ -29459,16 +29459,16 @@
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA325">
         <v>-1</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC325">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29476,7 +29476,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7732507</v>
+        <v>6963271</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29488,13 +29488,13 @@
         <v>45319.3125</v>
       </c>
       <c r="F326" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G326" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H326">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I326">
         <v>0</v>
@@ -29503,43 +29503,43 @@
         <v>55</v>
       </c>
       <c r="K326">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="L326">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M326">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="N326">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="O326">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P326">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="Q326">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R326">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S326">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T326">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U326">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V326">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W326">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="X326">
         <v>-1</v>
@@ -29548,16 +29548,16 @@
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA326">
         <v>-1</v>
       </c>
       <c r="AB326">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC326">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29847,7 +29847,7 @@
         <v>38</v>
       </c>
       <c r="G330" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H330">
         <v>1</v>
@@ -30277,7 +30277,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6963045</v>
+        <v>6963229</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30289,58 +30289,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F335" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G335" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H335">
         <v>2</v>
       </c>
       <c r="I335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335" t="s">
         <v>55</v>
       </c>
       <c r="K335">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L335">
+        <v>3.4</v>
+      </c>
+      <c r="M335">
+        <v>2.05</v>
+      </c>
+      <c r="N335">
         <v>3.5</v>
       </c>
-      <c r="M335">
-        <v>3.75</v>
-      </c>
-      <c r="N335">
-        <v>1.95</v>
-      </c>
       <c r="O335">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P335">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q335">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R335">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S335">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T335">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U335">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V335">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W335">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X335">
         <v>-1</v>
@@ -30349,16 +30349,16 @@
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA335">
         <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC335">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30366,7 +30366,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6963229</v>
+        <v>6963045</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30378,58 +30378,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F336" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G336" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H336">
         <v>2</v>
       </c>
       <c r="I336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336" t="s">
         <v>55</v>
       </c>
       <c r="K336">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L336">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M336">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="N336">
+        <v>1.95</v>
+      </c>
+      <c r="O336">
         <v>3.5</v>
       </c>
-      <c r="O336">
-        <v>3.4</v>
-      </c>
       <c r="P336">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q336">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R336">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S336">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T336">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U336">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V336">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W336">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X336">
         <v>-1</v>
@@ -30438,16 +30438,16 @@
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA336">
         <v>-1</v>
       </c>
       <c r="AB336">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC336">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30915,7 +30915,7 @@
         <v>42</v>
       </c>
       <c r="G342" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H342">
         <v>0</v>
@@ -31090,7 +31090,7 @@
         <v>45333.3125</v>
       </c>
       <c r="F344" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G344" t="s">
         <v>33</v>
@@ -31790,7 +31790,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6963013</v>
+        <v>6963011</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31802,13 +31802,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F352" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G352" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H352">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I352">
         <v>0</v>
@@ -31817,43 +31817,43 @@
         <v>55</v>
       </c>
       <c r="K352">
-        <v>1.181</v>
+        <v>1.727</v>
       </c>
       <c r="L352">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M352">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N352">
-        <v>1.166</v>
+        <v>1.7</v>
       </c>
       <c r="O352">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P352">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q352">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R352">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S352">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T352">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U352">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V352">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W352">
-        <v>0.1659999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -31862,16 +31862,16 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB352">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC352">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31879,7 +31879,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6963011</v>
+        <v>6963013</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31891,13 +31891,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F353" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G353" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I353">
         <v>0</v>
@@ -31906,43 +31906,43 @@
         <v>55</v>
       </c>
       <c r="K353">
-        <v>1.727</v>
+        <v>1.181</v>
       </c>
       <c r="L353">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M353">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N353">
-        <v>1.7</v>
+        <v>1.166</v>
       </c>
       <c r="O353">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P353">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q353">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R353">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S353">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T353">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U353">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V353">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W353">
-        <v>0.7</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X353">
         <v>-1</v>
@@ -31951,16 +31951,16 @@
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AA353">
+        <v>-1</v>
+      </c>
+      <c r="AB353">
+        <v>0.4</v>
+      </c>
+      <c r="AC353">
         <v>-0.5</v>
-      </c>
-      <c r="AB353">
-        <v>-1</v>
-      </c>
-      <c r="AC353">
-        <v>0.95</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32161,7 +32161,7 @@
         <v>41</v>
       </c>
       <c r="G356" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H356">
         <v>0</v>
@@ -32252,6 +32252,15 @@
       <c r="G357" t="s">
         <v>52</v>
       </c>
+      <c r="H357">
+        <v>1</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357" t="s">
+        <v>55</v>
+      </c>
       <c r="K357">
         <v>1.8</v>
       </c>
@@ -32262,46 +32271,52 @@
         <v>4.333</v>
       </c>
       <c r="N357">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O357">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P357">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q357">
         <v>-0.5</v>
       </c>
       <c r="R357">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S357">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T357">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U357">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V357">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W357">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X357">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y357">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z357">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA357">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB357">
+        <v>-1</v>
+      </c>
+      <c r="AC357">
+        <v>0.825</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -32321,7 +32336,7 @@
         <v>45346.3125</v>
       </c>
       <c r="F358" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G358" t="s">
         <v>51</v>
@@ -32493,13 +32508,13 @@
         <v>1.615</v>
       </c>
       <c r="Q360">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R360">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S360">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T360">
         <v>2.5</v>
@@ -32531,7 +32546,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6963238</v>
+        <v>6962946</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32543,46 +32558,46 @@
         <v>45347.3125</v>
       </c>
       <c r="F361" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G361" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K361">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="L361">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M361">
+        <v>1.95</v>
+      </c>
+      <c r="N361">
+        <v>4.2</v>
+      </c>
+      <c r="O361">
         <v>3.5</v>
       </c>
-      <c r="N361">
-        <v>2.3</v>
-      </c>
-      <c r="O361">
-        <v>3.1</v>
-      </c>
       <c r="P361">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q361">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R361">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S361">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T361">
         <v>2.25</v>
       </c>
       <c r="U361">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V361">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W361">
         <v>0</v>
@@ -32605,7 +32620,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6962946</v>
+        <v>6963238</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32617,46 +32632,46 @@
         <v>45347.3125</v>
       </c>
       <c r="F362" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G362" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K362">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="L362">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M362">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="N362">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O362">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P362">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q362">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R362">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S362">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T362">
         <v>2.25</v>
       </c>
       <c r="U362">
+        <v>2</v>
+      </c>
+      <c r="V362">
         <v>1.8</v>
-      </c>
-      <c r="V362">
-        <v>2</v>
       </c>
       <c r="W362">
         <v>0</v>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Denizlispor</t>
   </si>
   <si>
-    <t>Keciorengucu</t>
+    <t>Boluspor</t>
   </si>
   <si>
-    <t>Boluspor</t>
+    <t>Keciorengucu</t>
   </si>
   <si>
     <t>Samsunspor</t>
@@ -178,10 +178,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC365"/>
+  <dimension ref="A1:AC363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5281397</v>
+        <v>5284170</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,10 +744,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -756,61 +756,61 @@
         <v>54</v>
       </c>
       <c r="K3">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P3">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X3">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5284170</v>
+        <v>5281397</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,10 +833,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -845,61 +845,61 @@
         <v>55</v>
       </c>
       <c r="K4">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O4">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5">
         <v>1.45</v>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9">
         <v>2.25</v>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10">
         <v>1.85</v>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11">
         <v>1.666</v>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12">
         <v>1.727</v>
@@ -1723,7 +1723,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14">
         <v>3.1</v>
@@ -1901,7 +1901,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2088,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18">
         <v>1.833</v>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20">
         <v>2.3</v>
@@ -2435,7 +2435,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2444,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2598,7 +2598,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5281576</v>
+        <v>5281403</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2610,76 +2610,76 @@
         <v>44955.3125</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
+        <v>2.1</v>
+      </c>
+      <c r="N24">
+        <v>3.4</v>
+      </c>
+      <c r="O24">
         <v>3.5</v>
       </c>
-      <c r="M24">
-        <v>4.333</v>
-      </c>
-      <c r="N24">
-        <v>1.55</v>
-      </c>
-      <c r="O24">
-        <v>3.8</v>
-      </c>
       <c r="P24">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
+        <v>1.85</v>
+      </c>
+      <c r="V24">
         <v>1.95</v>
       </c>
-      <c r="V24">
-        <v>1.85</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2687,7 +2687,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5281403</v>
+        <v>5281576</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2699,76 +2699,76 @@
         <v>44955.3125</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25">
+        <v>1.727</v>
+      </c>
+      <c r="L25">
+        <v>3.5</v>
+      </c>
+      <c r="M25">
+        <v>4.333</v>
+      </c>
+      <c r="N25">
+        <v>1.55</v>
+      </c>
+      <c r="O25">
+        <v>3.8</v>
+      </c>
+      <c r="P25">
+        <v>5.25</v>
+      </c>
+      <c r="Q25">
+        <v>-1</v>
+      </c>
+      <c r="R25">
         <v>2</v>
       </c>
-      <c r="J25" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>3.4</v>
-      </c>
-      <c r="M25">
-        <v>2.1</v>
-      </c>
-      <c r="N25">
-        <v>3.4</v>
-      </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
-      <c r="P25">
-        <v>1.95</v>
-      </c>
-      <c r="Q25">
-        <v>0.5</v>
-      </c>
-      <c r="R25">
-        <v>1.775</v>
-      </c>
       <c r="S25">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
+        <v>1.95</v>
+      </c>
+      <c r="V25">
         <v>1.85</v>
       </c>
-      <c r="V25">
-        <v>1.95</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB25">
+        <v>-1</v>
+      </c>
+      <c r="AC25">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC25">
-        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26">
         <v>4.5</v>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27">
         <v>3.2</v>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K28">
         <v>1.6</v>
@@ -3322,7 +3322,7 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33">
         <v>1.5</v>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>2.8</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35">
         <v>3.6</v>
@@ -3681,7 +3681,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36">
         <v>2.1</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3859,7 +3859,7 @@
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3868,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38">
         <v>2.2</v>
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
         <v>1.55</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40">
         <v>2.2</v>
@@ -4123,7 +4123,7 @@
         <v>44989.3125</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
         <v>2.375</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42">
         <v>1.833</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4491,7 +4491,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
         <v>1.5</v>
@@ -4669,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K47">
         <v>2.4</v>
@@ -4749,7 +4749,7 @@
         <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K49">
         <v>1.909</v>
@@ -5105,7 +5105,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K52">
         <v>2.5</v>
@@ -5203,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K53">
         <v>2.5</v>
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6287656</v>
+        <v>6287655</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,40 +5280,40 @@
         <v>44997.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L54">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M54">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O54">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R54">
         <v>1.9</v>
@@ -5322,31 +5322,31 @@
         <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5357,7 +5357,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6287655</v>
+        <v>6287656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5369,40 +5369,40 @@
         <v>44997.3125</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K55">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M55">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N55">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P55">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q55">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
         <v>1.9</v>
@@ -5411,31 +5411,31 @@
         <v>1.9</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W55">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA55">
-        <v>-1</v>
-      </c>
       <c r="AB55">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5535,7 +5535,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6288641</v>
+        <v>6288653</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5547,76 +5547,76 @@
         <v>44998.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K57">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M57">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="N57">
-        <v>1.55</v>
+        <v>1.285</v>
       </c>
       <c r="O57">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P57">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R57">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
+        <v>1.975</v>
+      </c>
+      <c r="V57">
         <v>1.825</v>
       </c>
-      <c r="V57">
-        <v>1.975</v>
-      </c>
       <c r="W57">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB57">
+        <v>-1</v>
+      </c>
+      <c r="AC57">
         <v>0.825</v>
-      </c>
-      <c r="AC57">
-        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5624,7 +5624,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6288653</v>
+        <v>6288641</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5636,76 +5636,76 @@
         <v>44998.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K58">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L58">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N58">
-        <v>1.285</v>
+        <v>1.55</v>
       </c>
       <c r="O58">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P58">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q58">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R58">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
+        <v>1.825</v>
+      </c>
+      <c r="V58">
         <v>1.975</v>
       </c>
-      <c r="V58">
-        <v>1.825</v>
-      </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA58">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5737,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K59">
         <v>2.45</v>
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K60">
         <v>1.615</v>
@@ -6081,10 +6081,10 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
         <v>31</v>
-      </c>
-      <c r="G63" t="s">
-        <v>30</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -6093,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K63">
         <v>2.25</v>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K64">
         <v>1.363</v>
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K65">
         <v>2.7</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K66">
         <v>1.363</v>
@@ -6440,7 +6440,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6514,7 +6514,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5281431</v>
+        <v>5284195</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6526,76 +6526,76 @@
         <v>45010.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K68">
+        <v>1.7</v>
+      </c>
+      <c r="L68">
+        <v>3.8</v>
+      </c>
+      <c r="M68">
+        <v>4.2</v>
+      </c>
+      <c r="N68">
+        <v>1.85</v>
+      </c>
+      <c r="O68">
+        <v>3.6</v>
+      </c>
+      <c r="P68">
+        <v>3.6</v>
+      </c>
+      <c r="Q68">
+        <v>-0.5</v>
+      </c>
+      <c r="R68">
+        <v>1.9</v>
+      </c>
+      <c r="S68">
+        <v>1.9</v>
+      </c>
+      <c r="T68">
         <v>2.5</v>
       </c>
-      <c r="L68">
-        <v>3.4</v>
-      </c>
-      <c r="M68">
-        <v>2.5</v>
-      </c>
-      <c r="N68">
-        <v>2.75</v>
-      </c>
-      <c r="O68">
-        <v>3.3</v>
-      </c>
-      <c r="P68">
-        <v>2.3</v>
-      </c>
-      <c r="Q68">
-        <v>0.25</v>
-      </c>
-      <c r="R68">
-        <v>1.75</v>
-      </c>
-      <c r="S68">
-        <v>2.05</v>
-      </c>
-      <c r="T68">
-        <v>2.25</v>
-      </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y68">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC68">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6603,7 +6603,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5284195</v>
+        <v>5281431</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6615,76 +6615,76 @@
         <v>45010.3125</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K69">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L69">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N69">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P69">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q69">
+        <v>0.25</v>
+      </c>
+      <c r="R69">
+        <v>1.75</v>
+      </c>
+      <c r="S69">
+        <v>2.05</v>
+      </c>
+      <c r="T69">
+        <v>2.25</v>
+      </c>
+      <c r="U69">
+        <v>1.825</v>
+      </c>
+      <c r="V69">
+        <v>1.975</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
+        <v>1.3</v>
+      </c>
+      <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
+        <v>1.05</v>
+      </c>
+      <c r="AB69">
         <v>-0.5</v>
       </c>
-      <c r="R69">
-        <v>1.9</v>
-      </c>
-      <c r="S69">
-        <v>1.9</v>
-      </c>
-      <c r="T69">
-        <v>2.5</v>
-      </c>
-      <c r="U69">
-        <v>1.9</v>
-      </c>
-      <c r="V69">
-        <v>1.9</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>2.6</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
-      <c r="Z69">
-        <v>-1</v>
-      </c>
-      <c r="AA69">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB69">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K71">
         <v>1.75</v>
@@ -6971,7 +6971,7 @@
         <v>45013.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
         <v>32</v>
@@ -7048,7 +7048,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5281437</v>
+        <v>5284199</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7060,58 +7060,58 @@
         <v>45013.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K74">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L74">
         <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q74">
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7120,13 +7120,13 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7137,7 +7137,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5284199</v>
+        <v>5281437</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7149,58 +7149,58 @@
         <v>45013.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
         <v>2</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
       <c r="J75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K75">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L75">
         <v>3.4</v>
       </c>
       <c r="M75">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N75">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q75">
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7209,13 +7209,13 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7339,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K77">
         <v>1.909</v>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K78">
         <v>2.5</v>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K80">
         <v>3.2</v>
@@ -7784,7 +7784,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K82">
         <v>1.727</v>
@@ -7861,7 +7861,7 @@
         <v>45018.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -7962,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K84">
         <v>1.666</v>
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K85">
         <v>1.8</v>
@@ -8140,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K86">
         <v>1.571</v>
@@ -8229,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K87">
         <v>2.625</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K88">
         <v>1.7</v>
@@ -8395,7 +8395,7 @@
         <v>45023.60416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>43</v>
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K90">
         <v>3.5</v>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K91">
         <v>1.909</v>
@@ -8763,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K93">
         <v>1.75</v>
@@ -8852,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K94">
         <v>3.2</v>
@@ -8929,7 +8929,7 @@
         <v>45027.3125</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -9030,7 +9030,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K96">
         <v>2.375</v>
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K97">
         <v>1.363</v>
@@ -9386,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K100">
         <v>1.65</v>
@@ -9644,7 +9644,7 @@
         <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K105">
         <v>3</v>
@@ -9920,7 +9920,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K106">
         <v>2.375</v>
@@ -9985,7 +9985,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5465855</v>
+        <v>5467336</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9997,76 +9997,76 @@
         <v>45033.60416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K107">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L107">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M107">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N107">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q107">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10074,7 +10074,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5467336</v>
+        <v>5465855</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10086,76 +10086,76 @@
         <v>45033.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K108">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L108">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M108">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N108">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O108">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q108">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10187,7 +10187,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K109">
         <v>1.6</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K110">
         <v>1.222</v>
@@ -10365,7 +10365,7 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K111">
         <v>1.4</v>
@@ -10445,7 +10445,7 @@
         <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -10454,7 +10454,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K112">
         <v>1.6</v>
@@ -10543,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K113">
         <v>3</v>
@@ -10721,7 +10721,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K115">
         <v>1.615</v>
@@ -10801,7 +10801,7 @@
         <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10810,7 +10810,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K116">
         <v>1.85</v>
@@ -10899,7 +10899,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10976,7 +10976,7 @@
         <v>45045.3125</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>47</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K119">
         <v>4.5</v>
@@ -11166,7 +11166,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K120">
         <v>2.375</v>
@@ -11243,7 +11243,7 @@
         <v>45046.3125</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>42</v>
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K121">
         <v>1.666</v>
@@ -11344,7 +11344,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K122">
         <v>2.7</v>
@@ -11611,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K125">
         <v>2.15</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K126">
         <v>1.55</v>
@@ -11789,7 +11789,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K127">
         <v>1.363</v>
@@ -11878,7 +11878,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K128">
         <v>2.375</v>
@@ -11967,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K129">
         <v>1.45</v>
@@ -12136,7 +12136,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12145,7 +12145,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K131">
         <v>1.909</v>
@@ -12210,7 +12210,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5610598</v>
+        <v>5603142</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12222,76 +12222,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>54</v>
+      </c>
+      <c r="K132">
+        <v>4.333</v>
+      </c>
+      <c r="L132">
+        <v>3.6</v>
+      </c>
+      <c r="M132">
+        <v>1.7</v>
+      </c>
+      <c r="N132">
+        <v>4.5</v>
+      </c>
+      <c r="O132">
+        <v>4.2</v>
+      </c>
+      <c r="P132">
+        <v>1.6</v>
+      </c>
+      <c r="Q132">
         <v>1</v>
       </c>
-      <c r="J132" t="s">
-        <v>53</v>
-      </c>
-      <c r="K132">
-        <v>1.65</v>
-      </c>
-      <c r="L132">
-        <v>3.75</v>
-      </c>
-      <c r="M132">
-        <v>4.5</v>
-      </c>
-      <c r="N132">
-        <v>1.5</v>
-      </c>
-      <c r="O132">
-        <v>3.6</v>
-      </c>
-      <c r="P132">
-        <v>5.75</v>
-      </c>
-      <c r="Q132">
-        <v>-1</v>
-      </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
+        <v>-1</v>
+      </c>
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
         <v>0.925</v>
-      </c>
-      <c r="AB132">
-        <v>-1</v>
-      </c>
-      <c r="AC132">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12299,7 +12299,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5608075</v>
+        <v>5610598</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12311,40 +12311,40 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K133">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N133">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R133">
         <v>1.875</v>
@@ -12356,31 +12356,31 @@
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12388,7 +12388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5608074</v>
+        <v>5608075</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12400,76 +12400,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
         <v>1</v>
       </c>
-      <c r="I134">
-        <v>2</v>
-      </c>
       <c r="J134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K134">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="L134">
+        <v>3.4</v>
+      </c>
+      <c r="M134">
+        <v>2.875</v>
+      </c>
+      <c r="N134">
+        <v>2.1</v>
+      </c>
+      <c r="O134">
         <v>3.5</v>
       </c>
-      <c r="M134">
-        <v>2</v>
-      </c>
-      <c r="N134">
-        <v>3.75</v>
-      </c>
-      <c r="O134">
-        <v>4</v>
-      </c>
       <c r="P134">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="Q134">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S134">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
+        <v>0.875</v>
+      </c>
+      <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
+        <v>0.35</v>
+      </c>
+      <c r="AC134">
         <v>-0.5</v>
-      </c>
-      <c r="AA134">
-        <v>0.4875</v>
-      </c>
-      <c r="AB134">
-        <v>-0.5</v>
-      </c>
-      <c r="AC134">
-        <v>0.45</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,7 +12477,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5603143</v>
+        <v>5608074</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12489,76 +12489,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K135">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N135">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O135">
+        <v>4</v>
+      </c>
+      <c r="P135">
+        <v>1.727</v>
+      </c>
+      <c r="Q135">
+        <v>0.75</v>
+      </c>
+      <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
+        <v>1.975</v>
+      </c>
+      <c r="T135">
         <v>3.25</v>
       </c>
-      <c r="P135">
-        <v>2.55</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>1.875</v>
-      </c>
-      <c r="S135">
-        <v>1.925</v>
-      </c>
-      <c r="T135">
-        <v>2.75</v>
-      </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB135">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5615110</v>
+        <v>5603143</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
         <v>55</v>
       </c>
       <c r="K136">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M136">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N136">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O136">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q136">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R136">
+        <v>1.875</v>
+      </c>
+      <c r="S136">
         <v>1.925</v>
       </c>
-      <c r="S136">
-        <v>1.875</v>
-      </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC136">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5636763</v>
+        <v>5615110</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,49 +12667,49 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K137">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N137">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O137">
+        <v>4.2</v>
+      </c>
+      <c r="P137">
         <v>3.75</v>
-      </c>
-      <c r="P137">
-        <v>4</v>
       </c>
       <c r="Q137">
         <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U137">
         <v>1.875</v>
@@ -12718,25 +12718,25 @@
         <v>1.925</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA137">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5603142</v>
+        <v>5636763</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,46 +12756,46 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M138">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="N138">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O138">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P138">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Q138">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T138">
         <v>2.75</v>
@@ -12807,19 +12807,19 @@
         <v>1.925</v>
       </c>
       <c r="W138">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB138">
         <v>-1</v>
@@ -12857,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K139">
         <v>1.909</v>
@@ -12946,7 +12946,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K140">
         <v>1.909</v>
@@ -13026,7 +13026,7 @@
         <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K141">
         <v>2.25</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K142">
         <v>2.3</v>
@@ -13302,7 +13302,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K144">
         <v>1.533</v>
@@ -13382,7 +13382,7 @@
         <v>44</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13391,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K145">
         <v>1.5</v>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K146">
         <v>1.909</v>
@@ -13658,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K148">
         <v>1.909</v>
@@ -13747,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K149">
         <v>2.25</v>
@@ -13836,7 +13836,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K150">
         <v>2.25</v>
@@ -13913,7 +13913,7 @@
         <v>45149.625</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
         <v>45</v>
@@ -14002,7 +14002,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
         <v>44</v>
@@ -14168,7 +14168,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6963162</v>
+        <v>6963260</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14180,73 +14180,73 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K154">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L154">
         <v>3.4</v>
       </c>
       <c r="M154">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="N154">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O154">
         <v>3.4</v>
       </c>
       <c r="P154">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
+        <v>1.75</v>
+      </c>
+      <c r="S154">
+        <v>2.05</v>
+      </c>
+      <c r="T154">
+        <v>2.5</v>
+      </c>
+      <c r="U154">
         <v>1.825</v>
       </c>
-      <c r="S154">
+      <c r="V154">
         <v>1.975</v>
       </c>
-      <c r="T154">
-        <v>2.25</v>
-      </c>
-      <c r="U154">
-        <v>1.975</v>
-      </c>
-      <c r="V154">
-        <v>1.825</v>
-      </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14257,7 +14257,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6963260</v>
+        <v>6963162</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14269,73 +14269,73 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K155">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L155">
         <v>3.4</v>
       </c>
       <c r="M155">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N155">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="O155">
         <v>3.4</v>
       </c>
       <c r="P155">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q155">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
+        <v>1.975</v>
+      </c>
+      <c r="V155">
         <v>1.825</v>
       </c>
-      <c r="V155">
-        <v>1.975</v>
-      </c>
       <c r="W155">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z155">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB155">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14370,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K156">
         <v>2.5</v>
@@ -14548,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K158">
         <v>2</v>
@@ -14726,7 +14726,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K160">
         <v>1.5</v>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K161">
         <v>2.15</v>
@@ -14984,7 +14984,7 @@
         <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K163">
         <v>2.375</v>
@@ -15073,7 +15073,7 @@
         <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15082,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K164">
         <v>1.833</v>
@@ -15171,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K165">
         <v>2</v>
@@ -15260,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K166">
         <v>1.85</v>
@@ -15349,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K167">
         <v>1.75</v>
@@ -15616,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K170">
         <v>2.9</v>
@@ -15705,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K171">
         <v>2.375</v>
@@ -15871,7 +15871,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
         <v>45</v>
@@ -15883,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K173">
         <v>1.727</v>
@@ -15960,7 +15960,7 @@
         <v>45165.55208333334</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
         <v>49</v>
@@ -15972,7 +15972,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K174">
         <v>2.5</v>
@@ -16061,7 +16061,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K175">
         <v>1.833</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K178">
         <v>2.1</v>
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6963173</v>
+        <v>6963171</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,13 +16405,13 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16420,61 +16420,61 @@
         <v>55</v>
       </c>
       <c r="K179">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N179">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O179">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P179">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R179">
+        <v>1.725</v>
+      </c>
+      <c r="S179">
+        <v>2.075</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
+        <v>1.775</v>
+      </c>
+      <c r="V179">
         <v>2.025</v>
       </c>
-      <c r="S179">
-        <v>1.775</v>
-      </c>
-      <c r="T179">
-        <v>2.75</v>
-      </c>
-      <c r="U179">
-        <v>1.925</v>
-      </c>
-      <c r="V179">
-        <v>1.875</v>
-      </c>
       <c r="W179">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>-0</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>1.025</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.925</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6963171</v>
+        <v>6963173</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,13 +16494,13 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -16509,61 +16509,61 @@
         <v>54</v>
       </c>
       <c r="K180">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M180">
+        <v>5.5</v>
+      </c>
+      <c r="N180">
+        <v>1.45</v>
+      </c>
+      <c r="O180">
+        <v>4.2</v>
+      </c>
+      <c r="P180">
+        <v>7</v>
+      </c>
+      <c r="Q180">
+        <v>-1.25</v>
+      </c>
+      <c r="R180">
+        <v>2.025</v>
+      </c>
+      <c r="S180">
+        <v>1.775</v>
+      </c>
+      <c r="T180">
         <v>2.75</v>
       </c>
-      <c r="N180">
-        <v>2.45</v>
-      </c>
-      <c r="O180">
-        <v>3.1</v>
-      </c>
-      <c r="P180">
-        <v>2.8</v>
-      </c>
-      <c r="Q180">
-        <v>0</v>
-      </c>
-      <c r="R180">
-        <v>1.725</v>
-      </c>
-      <c r="S180">
-        <v>2.075</v>
-      </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X180">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16595,7 +16595,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K181">
         <v>1.2</v>
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K182">
         <v>1.95</v>
@@ -16862,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K184">
         <v>1.666</v>
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K186">
         <v>1.95</v>
@@ -17117,7 +17117,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
         <v>49</v>
@@ -17129,7 +17129,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K187">
         <v>2.1</v>
@@ -17194,7 +17194,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6963264</v>
+        <v>6962909</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17206,73 +17206,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G188" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K188">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L188">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M188">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N188">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O188">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P188">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
+        <v>1.775</v>
+      </c>
+      <c r="S188">
         <v>2.025</v>
       </c>
-      <c r="S188">
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
         <v>1.775</v>
       </c>
-      <c r="T188">
-        <v>2.5</v>
-      </c>
-      <c r="U188">
-        <v>1.925</v>
-      </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB188">
-        <v>0.925</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17283,7 +17283,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6962909</v>
+        <v>6963264</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17295,73 +17295,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K189">
+        <v>2.1</v>
+      </c>
+      <c r="L189">
+        <v>3.25</v>
+      </c>
+      <c r="M189">
+        <v>3.1</v>
+      </c>
+      <c r="N189">
+        <v>2.3</v>
+      </c>
+      <c r="O189">
+        <v>3.25</v>
+      </c>
+      <c r="P189">
+        <v>2.75</v>
+      </c>
+      <c r="Q189">
+        <v>-0.25</v>
+      </c>
+      <c r="R189">
+        <v>2.025</v>
+      </c>
+      <c r="S189">
+        <v>1.775</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>1.925</v>
+      </c>
+      <c r="V189">
+        <v>1.875</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.75</v>
       </c>
-      <c r="L189">
-        <v>3.2</v>
-      </c>
-      <c r="M189">
-        <v>4.333</v>
-      </c>
-      <c r="N189">
-        <v>1.75</v>
-      </c>
-      <c r="O189">
-        <v>3.2</v>
-      </c>
-      <c r="P189">
-        <v>4.333</v>
-      </c>
-      <c r="Q189">
-        <v>-0.5</v>
-      </c>
-      <c r="R189">
-        <v>1.775</v>
-      </c>
-      <c r="S189">
-        <v>2.025</v>
-      </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>1.775</v>
-      </c>
-      <c r="V189">
-        <v>2.025</v>
-      </c>
-      <c r="W189">
-        <v>0.75</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
+        <v>-1</v>
+      </c>
+      <c r="AA189">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA189">
-        <v>-1</v>
-      </c>
       <c r="AB189">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17396,7 +17396,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K190">
         <v>2.55</v>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K191">
         <v>3.5</v>
@@ -17574,7 +17574,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K192">
         <v>2.2</v>
@@ -17841,7 +17841,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K195">
         <v>1.571</v>
@@ -17918,7 +17918,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
         <v>34</v>
@@ -17930,7 +17930,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K196">
         <v>1.8</v>
@@ -18007,7 +18007,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G197" t="s">
         <v>52</v>
@@ -18019,7 +18019,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K197">
         <v>1.4</v>
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6962911</v>
+        <v>6962970</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,76 +18096,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F198" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K198">
         <v>2.1</v>
       </c>
       <c r="L198">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M198">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N198">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O198">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P198">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S198">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T198">
         <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA198">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6962970</v>
+        <v>6962911</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,76 +18185,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G199" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
         <v>1</v>
       </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
       <c r="J199" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K199">
         <v>2.1</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M199">
+        <v>3.25</v>
+      </c>
+      <c r="N199">
+        <v>2.2</v>
+      </c>
+      <c r="O199">
+        <v>3.2</v>
+      </c>
+      <c r="P199">
         <v>3.1</v>
       </c>
-      <c r="N199">
-        <v>1.909</v>
-      </c>
-      <c r="O199">
-        <v>3.5</v>
-      </c>
-      <c r="P199">
-        <v>3.6</v>
-      </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S199">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V199">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W199">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z199">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18286,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K200">
         <v>1.909</v>
@@ -18375,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K201">
         <v>2.6</v>
@@ -18553,7 +18553,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K203">
         <v>3.75</v>
@@ -18731,7 +18731,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K205">
         <v>2.8</v>
@@ -18820,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K206">
         <v>2.7</v>
@@ -18909,7 +18909,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K207">
         <v>2.4</v>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6963265</v>
+        <v>6963180</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,58 +18986,58 @@
         <v>45200.3125</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K208">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L208">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M208">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N208">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O208">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P208">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q208">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S208">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
+        <v>1.875</v>
+      </c>
+      <c r="V208">
         <v>1.925</v>
       </c>
-      <c r="V208">
-        <v>1.875</v>
-      </c>
       <c r="W208">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19046,16 +19046,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.925</v>
-      </c>
-      <c r="AC208">
-        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6963180</v>
+        <v>6963265</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45200.3125</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
         <v>1</v>
       </c>
-      <c r="I209">
-        <v>0</v>
-      </c>
       <c r="J209" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K209">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L209">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M209">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N209">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O209">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P209">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
+        <v>1.925</v>
+      </c>
+      <c r="V209">
         <v>1.875</v>
       </c>
-      <c r="V209">
-        <v>1.925</v>
-      </c>
       <c r="W209">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC209">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19167,7 +19167,7 @@
         <v>48</v>
       </c>
       <c r="G210" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H210">
         <v>3</v>
@@ -19176,7 +19176,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K210">
         <v>2.2</v>
@@ -19265,7 +19265,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K211">
         <v>4.5</v>
@@ -19354,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K212">
         <v>1.65</v>
@@ -19443,7 +19443,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K213">
         <v>1.8</v>
@@ -19532,7 +19532,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K214">
         <v>1.8</v>
@@ -19621,7 +19621,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K215">
         <v>1.8</v>
@@ -19799,7 +19799,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K217">
         <v>1.909</v>
@@ -19876,7 +19876,7 @@
         <v>45207.3125</v>
       </c>
       <c r="F218" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G218" t="s">
         <v>34</v>
@@ -19965,7 +19965,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G219" t="s">
         <v>33</v>
@@ -20066,7 +20066,7 @@
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K220">
         <v>2.1</v>
@@ -20324,7 +20324,7 @@
         <v>40</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -20422,7 +20422,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K224">
         <v>1.666</v>
@@ -20511,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K225">
         <v>1.909</v>
@@ -20600,7 +20600,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K226">
         <v>1.95</v>
@@ -20689,7 +20689,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K227">
         <v>2.75</v>
@@ -20769,7 +20769,7 @@
         <v>52</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20956,7 +20956,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K230">
         <v>1.75</v>
@@ -21045,7 +21045,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K231">
         <v>1.7</v>
@@ -21122,7 +21122,7 @@
         <v>45227.3125</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G232" t="s">
         <v>33</v>
@@ -21300,7 +21300,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G234" t="s">
         <v>43</v>
@@ -21312,7 +21312,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K234">
         <v>3.3</v>
@@ -21401,7 +21401,7 @@
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K235">
         <v>2.15</v>
@@ -21490,7 +21490,7 @@
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K236">
         <v>2</v>
@@ -21579,7 +21579,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K237">
         <v>2.5</v>
@@ -21846,7 +21846,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K240">
         <v>1.85</v>
@@ -21926,7 +21926,7 @@
         <v>50</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H241">
         <v>2</v>
@@ -22015,7 +22015,7 @@
         <v>41</v>
       </c>
       <c r="G242" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -22024,7 +22024,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K242">
         <v>1.909</v>
@@ -22178,7 +22178,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6963195</v>
+        <v>6962982</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22190,10 +22190,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F244" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G244" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22202,46 +22202,46 @@
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K244">
+        <v>1.333</v>
+      </c>
+      <c r="L244">
+        <v>4.5</v>
+      </c>
+      <c r="M244">
+        <v>8</v>
+      </c>
+      <c r="N244">
+        <v>1.285</v>
+      </c>
+      <c r="O244">
+        <v>5</v>
+      </c>
+      <c r="P244">
+        <v>9</v>
+      </c>
+      <c r="Q244">
+        <v>-1.5</v>
+      </c>
+      <c r="R244">
+        <v>1.9</v>
+      </c>
+      <c r="S244">
+        <v>1.9</v>
+      </c>
+      <c r="T244">
+        <v>3</v>
+      </c>
+      <c r="U244">
         <v>1.95</v>
       </c>
-      <c r="L244">
-        <v>3.4</v>
-      </c>
-      <c r="M244">
-        <v>3.75</v>
-      </c>
-      <c r="N244">
-        <v>1.909</v>
-      </c>
-      <c r="O244">
-        <v>3.3</v>
-      </c>
-      <c r="P244">
-        <v>3.8</v>
-      </c>
-      <c r="Q244">
-        <v>-0.5</v>
-      </c>
-      <c r="R244">
-        <v>1.95</v>
-      </c>
-      <c r="S244">
+      <c r="V244">
         <v>1.85</v>
       </c>
-      <c r="T244">
-        <v>2.25</v>
-      </c>
-      <c r="U244">
-        <v>1.825</v>
-      </c>
-      <c r="V244">
-        <v>1.975</v>
-      </c>
       <c r="W244">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22250,16 +22250,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22267,7 +22267,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6962982</v>
+        <v>6963195</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22279,10 +22279,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G245" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H245">
         <v>2</v>
@@ -22291,46 +22291,46 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K245">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="L245">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M245">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N245">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O245">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P245">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q245">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S245">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T245">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U245">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V245">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W245">
-        <v>0.2849999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22339,16 +22339,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC245">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22380,7 +22380,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K246">
         <v>2.625</v>
@@ -22469,7 +22469,7 @@
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K247">
         <v>1.25</v>
@@ -22558,7 +22558,7 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K248">
         <v>1.666</v>
@@ -22724,7 +22724,7 @@
         <v>45241.3125</v>
       </c>
       <c r="F250" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G250" t="s">
         <v>43</v>
@@ -22736,7 +22736,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K250">
         <v>2.875</v>
@@ -22825,7 +22825,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K251">
         <v>1.85</v>
@@ -23169,7 +23169,7 @@
         <v>45242.3125</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G255" t="s">
         <v>38</v>
@@ -23270,7 +23270,7 @@
         <v>2</v>
       </c>
       <c r="J256" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K256">
         <v>3.6</v>
@@ -23359,7 +23359,7 @@
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K257">
         <v>1.85</v>
@@ -23448,7 +23448,7 @@
         <v>2</v>
       </c>
       <c r="J258" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K258">
         <v>1.7</v>
@@ -23706,7 +23706,7 @@
         <v>51</v>
       </c>
       <c r="G261" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K263">
         <v>1.363</v>
@@ -23982,7 +23982,7 @@
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K264">
         <v>1.533</v>
@@ -24071,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K265">
         <v>1.533</v>
@@ -24151,7 +24151,7 @@
         <v>41</v>
       </c>
       <c r="G266" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -24160,7 +24160,7 @@
         <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K266">
         <v>2</v>
@@ -24225,7 +24225,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6962926</v>
+        <v>6962990</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24237,10 +24237,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F267" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G267" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -24252,40 +24252,40 @@
         <v>53</v>
       </c>
       <c r="K267">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="L267">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M267">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N267">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O267">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P267">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q267">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R267">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S267">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T267">
         <v>2.5</v>
       </c>
       <c r="U267">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V267">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24294,16 +24294,16 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB267">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC267">
         <v>-1</v>
@@ -24314,7 +24314,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6962990</v>
+        <v>6962926</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24326,10 +24326,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G268" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24341,40 +24341,40 @@
         <v>53</v>
       </c>
       <c r="K268">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="L268">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M268">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N268">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="O268">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P268">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q268">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R268">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S268">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T268">
         <v>2.5</v>
       </c>
       <c r="U268">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V268">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W268">
         <v>-1</v>
@@ -24383,16 +24383,16 @@
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB268">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC268">
         <v>-1</v>
@@ -24415,7 +24415,7 @@
         <v>45262.3125</v>
       </c>
       <c r="F269" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G269" t="s">
         <v>38</v>
@@ -24516,7 +24516,7 @@
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K270">
         <v>4.333</v>
@@ -24593,7 +24593,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G271" t="s">
         <v>44</v>
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K273">
         <v>1.4</v>
@@ -24872,7 +24872,7 @@
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K274">
         <v>2.875</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K275">
         <v>1.333</v>
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6963207</v>
+        <v>6962929</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,76 +25038,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F276" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G276" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J276" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K276">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L276">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M276">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N276">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O276">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P276">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q276">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S276">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T276">
         <v>2.5</v>
       </c>
       <c r="U276">
+        <v>2</v>
+      </c>
+      <c r="V276">
         <v>1.8</v>
       </c>
-      <c r="V276">
-        <v>2</v>
-      </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC276">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25115,7 +25115,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6962929</v>
+        <v>6963207</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25127,76 +25127,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F277" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G277" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K277">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L277">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M277">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N277">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O277">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P277">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q277">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R277">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S277">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T277">
         <v>2.5</v>
       </c>
       <c r="U277">
+        <v>1.8</v>
+      </c>
+      <c r="V277">
         <v>2</v>
       </c>
-      <c r="V277">
-        <v>1.8</v>
-      </c>
       <c r="W277">
         <v>-1</v>
       </c>
       <c r="X277">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y277">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB277">
+        <v>-1</v>
+      </c>
+      <c r="AC277">
         <v>1</v>
-      </c>
-      <c r="AC277">
-        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25219,7 +25219,7 @@
         <v>51</v>
       </c>
       <c r="G278" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H278">
         <v>2</v>
@@ -25228,7 +25228,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K278">
         <v>2.1</v>
@@ -25317,7 +25317,7 @@
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K279">
         <v>1.4</v>
@@ -25406,7 +25406,7 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K280">
         <v>1.571</v>
@@ -25495,7 +25495,7 @@
         <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K281">
         <v>1.7</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K283">
         <v>1.222</v>
@@ -25753,7 +25753,7 @@
         <v>42</v>
       </c>
       <c r="G284" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K287">
         <v>2.4</v>
@@ -26118,7 +26118,7 @@
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K288">
         <v>2.7</v>
@@ -26195,7 +26195,7 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G289" t="s">
         <v>39</v>
@@ -26385,7 +26385,7 @@
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K291">
         <v>3.25</v>
@@ -26462,7 +26462,7 @@
         <v>45281.33333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G292" t="s">
         <v>47</v>
@@ -26474,7 +26474,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K292">
         <v>2.75</v>
@@ -26563,7 +26563,7 @@
         <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K293">
         <v>3.5</v>
@@ -26741,7 +26741,7 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K295">
         <v>2.45</v>
@@ -26806,7 +26806,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6962933</v>
+        <v>6962998</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26818,73 +26818,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F296" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G296" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H296">
+        <v>2</v>
+      </c>
+      <c r="I296">
         <v>3</v>
       </c>
-      <c r="I296">
-        <v>0</v>
-      </c>
       <c r="J296" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K296">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L296">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M296">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N296">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O296">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P296">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q296">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R296">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T296">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U296">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V296">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W296">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z296">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB296">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26895,7 +26895,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6962998</v>
+        <v>6962933</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26907,73 +26907,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F297" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G297" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I297">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K297">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L297">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M297">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N297">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O297">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P297">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q297">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T297">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U297">
+        <v>1.9</v>
+      </c>
+      <c r="V297">
+        <v>1.9</v>
+      </c>
+      <c r="W297">
         <v>1.8</v>
       </c>
-      <c r="V297">
-        <v>2</v>
-      </c>
-      <c r="W297">
-        <v>-1</v>
-      </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA297">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -27008,7 +27008,7 @@
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K298">
         <v>1.333</v>
@@ -27088,7 +27088,7 @@
         <v>42</v>
       </c>
       <c r="G299" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H299">
         <v>2</v>
@@ -27097,7 +27097,7 @@
         <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K299">
         <v>3.8</v>
@@ -27186,7 +27186,7 @@
         <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K300">
         <v>1.727</v>
@@ -27266,7 +27266,7 @@
         <v>50</v>
       </c>
       <c r="G301" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H301">
         <v>2</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K301">
         <v>2.15</v>
@@ -27364,7 +27364,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K302">
         <v>1.3</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K304">
         <v>1.285</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K305">
         <v>1.65</v>
@@ -27711,7 +27711,7 @@
         <v>45</v>
       </c>
       <c r="G306" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H306">
         <v>1</v>
@@ -27720,7 +27720,7 @@
         <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K306">
         <v>2.9</v>
@@ -27800,7 +27800,7 @@
         <v>44</v>
       </c>
       <c r="G307" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H307">
         <v>2</v>
@@ -27809,7 +27809,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K307">
         <v>1.363</v>
@@ -27898,7 +27898,7 @@
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K308">
         <v>2.25</v>
@@ -27987,7 +27987,7 @@
         <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K309">
         <v>1.615</v>
@@ -28076,7 +28076,7 @@
         <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K310">
         <v>2.25</v>
@@ -28165,7 +28165,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K311">
         <v>2.45</v>
@@ -28343,7 +28343,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K313">
         <v>3.4</v>
@@ -28420,7 +28420,7 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G314" t="s">
         <v>39</v>
@@ -28432,7 +28432,7 @@
         <v>1</v>
       </c>
       <c r="J314" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K314">
         <v>2.9</v>
@@ -28521,7 +28521,7 @@
         <v>1</v>
       </c>
       <c r="J315" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K315">
         <v>3.75</v>
@@ -28598,7 +28598,7 @@
         <v>45312.3125</v>
       </c>
       <c r="F316" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G316" t="s">
         <v>47</v>
@@ -28610,7 +28610,7 @@
         <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K316">
         <v>3.4</v>
@@ -28699,7 +28699,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K317">
         <v>1.85</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K318">
         <v>2.2</v>
@@ -28877,7 +28877,7 @@
         <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K319">
         <v>2.3</v>
@@ -28966,7 +28966,7 @@
         <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K320">
         <v>1.7</v>
@@ -29046,7 +29046,7 @@
         <v>45</v>
       </c>
       <c r="G321" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29233,7 +29233,7 @@
         <v>1</v>
       </c>
       <c r="J323" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K323">
         <v>2.7</v>
@@ -29322,7 +29322,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K324">
         <v>1.25</v>
@@ -29411,7 +29411,7 @@
         <v>0</v>
       </c>
       <c r="J325" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K325">
         <v>1.111</v>
@@ -29500,7 +29500,7 @@
         <v>0</v>
       </c>
       <c r="J326" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K326">
         <v>1.833</v>
@@ -29589,7 +29589,7 @@
         <v>1</v>
       </c>
       <c r="J327" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K327">
         <v>2.4</v>
@@ -29758,7 +29758,7 @@
         <v>49</v>
       </c>
       <c r="G329" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -29856,7 +29856,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K330">
         <v>2.4</v>
@@ -30022,10 +30022,10 @@
         <v>45325.3125</v>
       </c>
       <c r="F332" t="s">
+        <v>31</v>
+      </c>
+      <c r="G332" t="s">
         <v>30</v>
-      </c>
-      <c r="G332" t="s">
-        <v>31</v>
       </c>
       <c r="H332">
         <v>1</v>
@@ -30123,7 +30123,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K333">
         <v>1.444</v>
@@ -30212,7 +30212,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K334">
         <v>1.125</v>
@@ -30301,7 +30301,7 @@
         <v>1</v>
       </c>
       <c r="J335" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K335">
         <v>3.6</v>
@@ -30390,7 +30390,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K336">
         <v>1.95</v>
@@ -30479,7 +30479,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K337">
         <v>2.375</v>
@@ -30568,7 +30568,7 @@
         <v>0</v>
       </c>
       <c r="J338" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K338">
         <v>13</v>
@@ -30746,7 +30746,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K340">
         <v>1.727</v>
@@ -30826,7 +30826,7 @@
         <v>49</v>
       </c>
       <c r="G341" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H341">
         <v>0</v>
@@ -30924,7 +30924,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K342">
         <v>5</v>
@@ -30989,7 +30989,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6963009</v>
+        <v>6962943</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -31001,76 +31001,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F343" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G343" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
         <v>2</v>
       </c>
-      <c r="I343">
-        <v>1</v>
-      </c>
       <c r="J343" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K343">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L343">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M343">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N343">
         <v>2.375</v>
       </c>
       <c r="O343">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P343">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q343">
         <v>-0.25</v>
       </c>
       <c r="R343">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S343">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T343">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U343">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V343">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W343">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X343">
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z343">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA343">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB343">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC343">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31078,7 +31078,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6962943</v>
+        <v>6963009</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31090,76 +31090,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F344" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G344" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J344" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K344">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L344">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M344">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N344">
         <v>2.375</v>
       </c>
       <c r="O344">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P344">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q344">
         <v>-0.25</v>
       </c>
       <c r="R344">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S344">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T344">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U344">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V344">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W344">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z344">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA344">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB344">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC344">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31179,7 +31179,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F345" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G345" t="s">
         <v>48</v>
@@ -31191,7 +31191,7 @@
         <v>1</v>
       </c>
       <c r="J345" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K345">
         <v>3.8</v>
@@ -31280,7 +31280,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K346">
         <v>1.222</v>
@@ -31369,7 +31369,7 @@
         <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K347">
         <v>1.5</v>
@@ -31458,7 +31458,7 @@
         <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K348">
         <v>1.8</v>
@@ -31538,7 +31538,7 @@
         <v>34</v>
       </c>
       <c r="G349" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H349">
         <v>1</v>
@@ -31627,7 +31627,7 @@
         <v>52</v>
       </c>
       <c r="G350" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H350">
         <v>0</v>
@@ -31814,7 +31814,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K352">
         <v>1.727</v>
@@ -31903,7 +31903,7 @@
         <v>0</v>
       </c>
       <c r="J353" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K353">
         <v>1.181</v>
@@ -31992,7 +31992,7 @@
         <v>1</v>
       </c>
       <c r="J354" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K354">
         <v>2.2</v>
@@ -32259,7 +32259,7 @@
         <v>0</v>
       </c>
       <c r="J357" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K357">
         <v>1.8</v>
@@ -32324,7 +32324,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7855603</v>
+        <v>6962947</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32333,49 +32333,49 @@
         <v>28</v>
       </c>
       <c r="E358" s="2">
-        <v>45346.3125</v>
+        <v>45346.54166666666</v>
       </c>
       <c r="F358" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G358" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="K358">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="L358">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M358">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="N358">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="O358">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P358">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="Q358">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R358">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S358">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T358">
         <v>2.5</v>
       </c>
       <c r="U358">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V358">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W358">
         <v>0</v>
@@ -32398,7 +32398,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>6963275</v>
+        <v>6962946</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32407,49 +32407,49 @@
         <v>28</v>
       </c>
       <c r="E359" s="2">
-        <v>45346.41666666666</v>
+        <v>45347.3125</v>
       </c>
       <c r="F359" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G359" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K359">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="L359">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M359">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N359">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="O359">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P359">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q359">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R359">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S359">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T359">
         <v>2.25</v>
       </c>
       <c r="U359">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V359">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W359">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>6962947</v>
+        <v>6963238</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32481,49 +32481,49 @@
         <v>28</v>
       </c>
       <c r="E360" s="2">
-        <v>45346.54166666666</v>
+        <v>45347.3125</v>
       </c>
       <c r="F360" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G360" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K360">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L360">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M360">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="N360">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="O360">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P360">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="Q360">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R360">
+        <v>1.925</v>
+      </c>
+      <c r="S360">
+        <v>1.875</v>
+      </c>
+      <c r="T360">
+        <v>2.25</v>
+      </c>
+      <c r="U360">
         <v>2</v>
       </c>
-      <c r="S360">
+      <c r="V360">
         <v>1.8</v>
-      </c>
-      <c r="T360">
-        <v>2.5</v>
-      </c>
-      <c r="U360">
-        <v>1.95</v>
-      </c>
-      <c r="V360">
-        <v>1.85</v>
       </c>
       <c r="W360">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6962946</v>
+        <v>6963236</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32555,40 +32555,40 @@
         <v>28</v>
       </c>
       <c r="E361" s="2">
-        <v>45347.3125</v>
+        <v>45347.41666666666</v>
       </c>
       <c r="F361" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G361" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K361">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="L361">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M361">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="N361">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O361">
+        <v>3.3</v>
+      </c>
+      <c r="P361">
         <v>3.5</v>
       </c>
-      <c r="P361">
-        <v>1.85</v>
-      </c>
       <c r="Q361">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R361">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S361">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T361">
         <v>2.25</v>
@@ -32620,7 +32620,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6963238</v>
+        <v>6963014</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32629,49 +32629,49 @@
         <v>28</v>
       </c>
       <c r="E362" s="2">
-        <v>45347.3125</v>
+        <v>45347.54166666666</v>
       </c>
       <c r="F362" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G362" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K362">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L362">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M362">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N362">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O362">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P362">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q362">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R362">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S362">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T362">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U362">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V362">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W362">
         <v>0</v>
@@ -32694,7 +32694,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6963236</v>
+        <v>6963047</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32703,16 +32703,16 @@
         <v>28</v>
       </c>
       <c r="E363" s="2">
-        <v>45347.41666666666</v>
+        <v>45348.58333333334</v>
       </c>
       <c r="F363" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G363" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K363">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L363">
         <v>3.3</v>
@@ -32721,31 +32721,31 @@
         <v>3.5</v>
       </c>
       <c r="N363">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O363">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P363">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q363">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R363">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S363">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T363">
         <v>2.25</v>
       </c>
       <c r="U363">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V363">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W363">
         <v>0</v>
@@ -32760,154 +32760,6 @@
         <v>0</v>
       </c>
       <c r="AA363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:29">
-      <c r="A364" s="1">
-        <v>362</v>
-      </c>
-      <c r="B364">
-        <v>6963014</v>
-      </c>
-      <c r="C364" t="s">
-        <v>28</v>
-      </c>
-      <c r="D364" t="s">
-        <v>28</v>
-      </c>
-      <c r="E364" s="2">
-        <v>45347.54166666666</v>
-      </c>
-      <c r="F364" t="s">
-        <v>44</v>
-      </c>
-      <c r="G364" t="s">
-        <v>38</v>
-      </c>
-      <c r="K364">
-        <v>1.363</v>
-      </c>
-      <c r="L364">
-        <v>4.75</v>
-      </c>
-      <c r="M364">
-        <v>7.5</v>
-      </c>
-      <c r="N364">
-        <v>1.333</v>
-      </c>
-      <c r="O364">
-        <v>5</v>
-      </c>
-      <c r="P364">
-        <v>8</v>
-      </c>
-      <c r="Q364">
-        <v>-1.5</v>
-      </c>
-      <c r="R364">
-        <v>1.975</v>
-      </c>
-      <c r="S364">
-        <v>1.825</v>
-      </c>
-      <c r="T364">
-        <v>2.75</v>
-      </c>
-      <c r="U364">
-        <v>1.8</v>
-      </c>
-      <c r="V364">
-        <v>2</v>
-      </c>
-      <c r="W364">
-        <v>0</v>
-      </c>
-      <c r="X364">
-        <v>0</v>
-      </c>
-      <c r="Y364">
-        <v>0</v>
-      </c>
-      <c r="Z364">
-        <v>0</v>
-      </c>
-      <c r="AA364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:29">
-      <c r="A365" s="1">
-        <v>363</v>
-      </c>
-      <c r="B365">
-        <v>6963047</v>
-      </c>
-      <c r="C365" t="s">
-        <v>28</v>
-      </c>
-      <c r="D365" t="s">
-        <v>28</v>
-      </c>
-      <c r="E365" s="2">
-        <v>45348.58333333334</v>
-      </c>
-      <c r="F365" t="s">
-        <v>49</v>
-      </c>
-      <c r="G365" t="s">
-        <v>34</v>
-      </c>
-      <c r="K365">
-        <v>2</v>
-      </c>
-      <c r="L365">
-        <v>3.3</v>
-      </c>
-      <c r="M365">
-        <v>3.5</v>
-      </c>
-      <c r="N365">
-        <v>1.85</v>
-      </c>
-      <c r="O365">
-        <v>3.4</v>
-      </c>
-      <c r="P365">
-        <v>4</v>
-      </c>
-      <c r="Q365">
-        <v>-0.5</v>
-      </c>
-      <c r="R365">
-        <v>1.875</v>
-      </c>
-      <c r="S365">
-        <v>1.925</v>
-      </c>
-      <c r="T365">
-        <v>2.25</v>
-      </c>
-      <c r="U365">
-        <v>1.8</v>
-      </c>
-      <c r="V365">
-        <v>2</v>
-      </c>
-      <c r="W365">
-        <v>0</v>
-      </c>
-      <c r="X365">
-        <v>0</v>
-      </c>
-      <c r="Y365">
-        <v>0</v>
-      </c>
-      <c r="Z365">
-        <v>0</v>
-      </c>
-      <c r="AA365">
         <v>0</v>
       </c>
     </row>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Denizlispor</t>
   </si>
   <si>
-    <t>Boluspor</t>
+    <t>Keciorengucu</t>
   </si>
   <si>
-    <t>Keciorengucu</t>
+    <t>Boluspor</t>
   </si>
   <si>
     <t>Samsunspor</t>
@@ -178,10 +178,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC363"/>
+  <dimension ref="A1:AC365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5284170</v>
+        <v>5281397</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,10 +744,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -756,61 +756,61 @@
         <v>54</v>
       </c>
       <c r="K3">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O3">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5281397</v>
+        <v>5284170</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,10 +833,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -845,61 +845,61 @@
         <v>55</v>
       </c>
       <c r="K4">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N4">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P4">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X4">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>1.45</v>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>2.25</v>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10">
         <v>1.85</v>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>1.666</v>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <v>1.727</v>
@@ -1723,7 +1723,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14">
         <v>3.1</v>
@@ -1901,7 +1901,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2088,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18">
         <v>1.833</v>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20">
         <v>2.3</v>
@@ -2435,7 +2435,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2444,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2598,7 +2598,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5281403</v>
+        <v>5281576</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2610,76 +2610,76 @@
         <v>44955.3125</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24">
+        <v>1.727</v>
+      </c>
+      <c r="L24">
+        <v>3.5</v>
+      </c>
+      <c r="M24">
+        <v>4.333</v>
+      </c>
+      <c r="N24">
+        <v>1.55</v>
+      </c>
+      <c r="O24">
+        <v>3.8</v>
+      </c>
+      <c r="P24">
+        <v>5.25</v>
+      </c>
+      <c r="Q24">
+        <v>-1</v>
+      </c>
+      <c r="R24">
         <v>2</v>
       </c>
-      <c r="J24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>3.4</v>
-      </c>
-      <c r="M24">
-        <v>2.1</v>
-      </c>
-      <c r="N24">
-        <v>3.4</v>
-      </c>
-      <c r="O24">
-        <v>3.5</v>
-      </c>
-      <c r="P24">
-        <v>1.95</v>
-      </c>
-      <c r="Q24">
-        <v>0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.775</v>
-      </c>
       <c r="S24">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
+        <v>1.95</v>
+      </c>
+      <c r="V24">
         <v>1.85</v>
       </c>
-      <c r="V24">
-        <v>1.95</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2687,7 +2687,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5281576</v>
+        <v>5281403</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2699,76 +2699,76 @@
         <v>44955.3125</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L25">
+        <v>3.4</v>
+      </c>
+      <c r="M25">
+        <v>2.1</v>
+      </c>
+      <c r="N25">
+        <v>3.4</v>
+      </c>
+      <c r="O25">
         <v>3.5</v>
       </c>
-      <c r="M25">
-        <v>4.333</v>
-      </c>
-      <c r="N25">
-        <v>1.55</v>
-      </c>
-      <c r="O25">
-        <v>3.8</v>
-      </c>
       <c r="P25">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
+        <v>1.85</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="V25">
-        <v>1.85</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
         <v>4.5</v>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27">
         <v>3.2</v>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28">
         <v>1.6</v>
@@ -3322,7 +3322,7 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33">
         <v>1.5</v>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>2.8</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
         <v>3.6</v>
@@ -3681,7 +3681,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
         <v>2.1</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3859,7 +3859,7 @@
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3868,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38">
         <v>2.2</v>
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
         <v>1.55</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40">
         <v>2.2</v>
@@ -4123,7 +4123,7 @@
         <v>44989.3125</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41">
         <v>2.375</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42">
         <v>1.833</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4491,7 +4491,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
         <v>1.5</v>
@@ -4669,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K47">
         <v>2.4</v>
@@ -4749,7 +4749,7 @@
         <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K49">
         <v>1.909</v>
@@ -5105,7 +5105,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K52">
         <v>2.5</v>
@@ -5203,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K53">
         <v>2.5</v>
@@ -5280,7 +5280,7 @@
         <v>44997.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
         <v>36</v>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K54">
         <v>1.571</v>
@@ -5648,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K58">
         <v>1.727</v>
@@ -5737,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K59">
         <v>2.45</v>
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K60">
         <v>1.615</v>
@@ -6081,10 +6081,10 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
         <v>30</v>
-      </c>
-      <c r="G63" t="s">
-        <v>31</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -6093,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K63">
         <v>2.25</v>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K64">
         <v>1.363</v>
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K65">
         <v>2.7</v>
@@ -6336,7 +6336,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5281430</v>
+        <v>5281429</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6348,76 +6348,76 @@
         <v>45009.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
         <v>2</v>
       </c>
-      <c r="I66">
+      <c r="J66" t="s">
+        <v>53</v>
+      </c>
+      <c r="K66">
+        <v>3.1</v>
+      </c>
+      <c r="L66">
+        <v>3.3</v>
+      </c>
+      <c r="M66">
+        <v>2.15</v>
+      </c>
+      <c r="N66">
+        <v>2.875</v>
+      </c>
+      <c r="O66">
+        <v>3.25</v>
+      </c>
+      <c r="P66">
+        <v>2.3</v>
+      </c>
+      <c r="Q66">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
-        <v>54</v>
-      </c>
-      <c r="K66">
-        <v>1.363</v>
-      </c>
-      <c r="L66">
-        <v>4.75</v>
-      </c>
-      <c r="M66">
-        <v>6.5</v>
-      </c>
-      <c r="N66">
+      <c r="R66">
+        <v>2.05</v>
+      </c>
+      <c r="S66">
+        <v>1.75</v>
+      </c>
+      <c r="T66">
+        <v>2.5</v>
+      </c>
+      <c r="U66">
+        <v>1.975</v>
+      </c>
+      <c r="V66">
+        <v>1.825</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
         <v>1.3</v>
       </c>
-      <c r="O66">
-        <v>5</v>
-      </c>
-      <c r="P66">
-        <v>8</v>
-      </c>
-      <c r="Q66">
-        <v>-1.5</v>
-      </c>
-      <c r="R66">
-        <v>1.925</v>
-      </c>
-      <c r="S66">
-        <v>1.875</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.9</v>
-      </c>
-      <c r="V66">
-        <v>1.9</v>
-      </c>
-      <c r="W66">
-        <v>0.3</v>
-      </c>
-      <c r="X66">
-        <v>-1</v>
-      </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
       <c r="Z66">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6425,7 +6425,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5281429</v>
+        <v>5281430</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6437,76 +6437,76 @@
         <v>45009.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K67">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="L67">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M67">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="N67">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="O67">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R67">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S67">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA67">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6526,7 +6526,7 @@
         <v>45010.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
         <v>41</v>
@@ -6538,7 +6538,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K68">
         <v>1.7</v>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K71">
         <v>1.75</v>
@@ -6971,7 +6971,7 @@
         <v>45013.35416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>32</v>
@@ -7048,7 +7048,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5284199</v>
+        <v>5281437</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7060,58 +7060,58 @@
         <v>45013.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
         <v>2</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
       <c r="J74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K74">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L74">
         <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N74">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q74">
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7120,13 +7120,13 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7137,7 +7137,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5281437</v>
+        <v>5284199</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7149,58 +7149,58 @@
         <v>45013.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L75">
         <v>3.4</v>
       </c>
       <c r="M75">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7209,13 +7209,13 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7339,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K77">
         <v>1.909</v>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K78">
         <v>2.5</v>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K80">
         <v>3.2</v>
@@ -7784,7 +7784,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K82">
         <v>1.727</v>
@@ -7849,7 +7849,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5284202</v>
+        <v>5284200</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7861,31 +7861,31 @@
         <v>45018.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K83">
         <v>1.666</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N83">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O83">
         <v>3.5</v>
@@ -7894,43 +7894,43 @@
         <v>4.2</v>
       </c>
       <c r="Q83">
+        <v>-0.75</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1.8</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>1.875</v>
+      </c>
+      <c r="V83">
+        <v>1.925</v>
+      </c>
+      <c r="W83">
+        <v>0.75</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>0.5</v>
+      </c>
+      <c r="AA83">
         <v>-0.5</v>
       </c>
-      <c r="R83">
-        <v>1.8</v>
-      </c>
-      <c r="S83">
-        <v>2</v>
-      </c>
-      <c r="T83">
-        <v>2.75</v>
-      </c>
-      <c r="U83">
-        <v>1.925</v>
-      </c>
-      <c r="V83">
-        <v>1.875</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>3.2</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
-      <c r="AA83">
-        <v>1</v>
-      </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7938,7 +7938,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5284200</v>
+        <v>5284202</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7950,31 +7950,31 @@
         <v>45018.3125</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K84">
         <v>1.666</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N84">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O84">
         <v>3.5</v>
@@ -7983,43 +7983,43 @@
         <v>4.2</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.8</v>
+      </c>
+      <c r="S84">
         <v>2</v>
       </c>
-      <c r="S84">
-        <v>1.8</v>
-      </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
+        <v>1.925</v>
+      </c>
+      <c r="V84">
         <v>1.875</v>
       </c>
-      <c r="V84">
-        <v>1.925</v>
-      </c>
       <c r="W84">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
         <v>0.875</v>
-      </c>
-      <c r="AC84">
-        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K85">
         <v>1.8</v>
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5284203</v>
+        <v>5281587</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,13 +8128,13 @@
         <v>45019.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -8143,61 +8143,61 @@
         <v>55</v>
       </c>
       <c r="K86">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L86">
+        <v>3.3</v>
+      </c>
+      <c r="M86">
+        <v>2.3</v>
+      </c>
+      <c r="N86">
         <v>3.75</v>
       </c>
-      <c r="M86">
-        <v>4.75</v>
-      </c>
-      <c r="N86">
-        <v>1.363</v>
-      </c>
       <c r="O86">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
+        <v>1.95</v>
+      </c>
+      <c r="V86">
         <v>1.85</v>
       </c>
-      <c r="V86">
-        <v>1.95</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X86">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5281587</v>
+        <v>5284203</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,13 +8217,13 @@
         <v>45019.60416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -8232,61 +8232,61 @@
         <v>54</v>
       </c>
       <c r="K87">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L87">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N87">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P87">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="Q87">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
+        <v>1.85</v>
+      </c>
+      <c r="V87">
         <v>1.95</v>
       </c>
-      <c r="V87">
-        <v>1.85</v>
-      </c>
       <c r="W87">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.95</v>
-      </c>
-      <c r="AC87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K88">
         <v>1.7</v>
@@ -8383,7 +8383,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5284205</v>
+        <v>5281446</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8395,76 +8395,76 @@
         <v>45023.60416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K89">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M89">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N89">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P89">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
         <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8472,7 +8472,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5281446</v>
+        <v>5284205</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8484,76 +8484,76 @@
         <v>45023.60416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90" t="s">
+        <v>53</v>
+      </c>
+      <c r="K90">
+        <v>2.625</v>
+      </c>
+      <c r="L90">
+        <v>3.1</v>
+      </c>
+      <c r="M90">
+        <v>2.5</v>
+      </c>
+      <c r="N90">
+        <v>2.6</v>
+      </c>
+      <c r="O90">
+        <v>3.2</v>
+      </c>
+      <c r="P90">
+        <v>2.5</v>
+      </c>
+      <c r="Q90">
         <v>0</v>
       </c>
-      <c r="J90" t="s">
-        <v>54</v>
-      </c>
-      <c r="K90">
-        <v>3.5</v>
-      </c>
-      <c r="L90">
-        <v>3.3</v>
-      </c>
-      <c r="M90">
+      <c r="R90">
         <v>1.95</v>
       </c>
-      <c r="N90">
-        <v>3</v>
-      </c>
-      <c r="O90">
-        <v>3.25</v>
-      </c>
-      <c r="P90">
-        <v>2.15</v>
-      </c>
-      <c r="Q90">
-        <v>0.25</v>
-      </c>
-      <c r="R90">
-        <v>1.875</v>
-      </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
         <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W90">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K91">
         <v>1.909</v>
@@ -8763,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K93">
         <v>1.75</v>
@@ -8852,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K94">
         <v>3.2</v>
@@ -8929,7 +8929,7 @@
         <v>45027.3125</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -9030,7 +9030,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K96">
         <v>2.375</v>
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K97">
         <v>1.363</v>
@@ -9386,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K100">
         <v>1.65</v>
@@ -9644,7 +9644,7 @@
         <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K105">
         <v>3</v>
@@ -9920,7 +9920,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K106">
         <v>2.375</v>
@@ -9985,7 +9985,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5467336</v>
+        <v>5465855</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9997,76 +9997,76 @@
         <v>45033.60416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K107">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L107">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M107">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N107">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10074,7 +10074,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5465855</v>
+        <v>5467336</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10086,76 +10086,76 @@
         <v>45033.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K108">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="L108">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M108">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N108">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P108">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10187,7 +10187,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K109">
         <v>1.6</v>
@@ -10252,7 +10252,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5505122</v>
+        <v>5499322</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10264,58 +10264,58 @@
         <v>45039.3125</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H110">
+        <v>4</v>
+      </c>
+      <c r="I110">
         <v>1</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
       <c r="J110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K110">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="L110">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N110">
-        <v>1.045</v>
+        <v>1.571</v>
       </c>
       <c r="O110">
-        <v>15</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>29</v>
+        <v>4.75</v>
       </c>
       <c r="Q110">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T110">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W110">
-        <v>0.04499999999999993</v>
+        <v>0.571</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10324,16 +10324,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10365,7 +10365,7 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K111">
         <v>1.4</v>
@@ -10430,7 +10430,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5499322</v>
+        <v>5505122</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10442,58 +10442,58 @@
         <v>45039.3125</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K112">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="L112">
+        <v>5.25</v>
+      </c>
+      <c r="M112">
+        <v>10</v>
+      </c>
+      <c r="N112">
+        <v>1.045</v>
+      </c>
+      <c r="O112">
+        <v>15</v>
+      </c>
+      <c r="P112">
+        <v>29</v>
+      </c>
+      <c r="Q112">
+        <v>-3</v>
+      </c>
+      <c r="R112">
+        <v>1.875</v>
+      </c>
+      <c r="S112">
+        <v>1.925</v>
+      </c>
+      <c r="T112">
         <v>3.75</v>
       </c>
-      <c r="M112">
-        <v>5</v>
-      </c>
-      <c r="N112">
-        <v>1.571</v>
-      </c>
-      <c r="O112">
-        <v>3.8</v>
-      </c>
-      <c r="P112">
-        <v>4.75</v>
-      </c>
-      <c r="Q112">
-        <v>-0.75</v>
-      </c>
-      <c r="R112">
-        <v>1.775</v>
-      </c>
-      <c r="S112">
-        <v>2.025</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.571</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10502,16 +10502,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10543,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K113">
         <v>3</v>
@@ -10721,7 +10721,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K115">
         <v>1.615</v>
@@ -10801,7 +10801,7 @@
         <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10810,7 +10810,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K116">
         <v>1.85</v>
@@ -10899,7 +10899,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10976,7 +10976,7 @@
         <v>45045.3125</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>47</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K119">
         <v>4.5</v>
@@ -11166,7 +11166,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K120">
         <v>2.375</v>
@@ -11243,7 +11243,7 @@
         <v>45046.3125</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
         <v>42</v>
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K121">
         <v>1.666</v>
@@ -11344,7 +11344,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K122">
         <v>2.7</v>
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5569305</v>
+        <v>6604510</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11599,76 +11599,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N125">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>1.8</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
         <v>1.9</v>
       </c>
-      <c r="V125">
-        <v>1.9</v>
-      </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
-      <c r="X125">
-        <v>2.3</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11676,7 +11676,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5574590</v>
+        <v>5578989</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11688,58 +11688,58 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K126">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M126">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N126">
-        <v>1.533</v>
+        <v>1.142</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P126">
-        <v>5.25</v>
+        <v>13</v>
       </c>
       <c r="Q126">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
-        <v>0.5329999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11748,16 +11748,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5574591</v>
+        <v>5578988</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11777,58 +11777,58 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I127">
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K127">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="L127">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="O127">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q127">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T127">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>0.2849999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11837,13 +11837,13 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11854,7 +11854,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5578988</v>
+        <v>5574591</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11866,58 +11866,58 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I128">
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K128">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M128">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="N128">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="O128">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P128">
+        <v>9.5</v>
+      </c>
+      <c r="Q128">
+        <v>-1.75</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>1.8</v>
+      </c>
+      <c r="T128">
         <v>3</v>
       </c>
-      <c r="Q128">
-        <v>-0.25</v>
-      </c>
-      <c r="R128">
-        <v>1.875</v>
-      </c>
-      <c r="S128">
-        <v>1.925</v>
-      </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W128">
-        <v>1.1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11926,13 +11926,13 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11943,7 +11943,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5578989</v>
+        <v>5574590</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11955,58 +11955,58 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K129">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="L129">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M129">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="N129">
-        <v>1.142</v>
+        <v>1.533</v>
       </c>
       <c r="O129">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P129">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="Q129">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>0.1419999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12015,16 +12015,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12032,7 +12032,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6604510</v>
+        <v>5569305</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12044,76 +12044,76 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K130">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L130">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N130">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O130">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q130">
         <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y130">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12136,7 +12136,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12145,7 +12145,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K131">
         <v>1.909</v>
@@ -12210,7 +12210,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5603142</v>
+        <v>5608075</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12222,58 +12222,58 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K132">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="N132">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q132">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="W132">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12282,16 +12282,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12299,7 +12299,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5610598</v>
+        <v>5608074</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12311,55 +12311,55 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>53</v>
       </c>
       <c r="K133">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="L133">
+        <v>3.5</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
         <v>3.75</v>
       </c>
-      <c r="M133">
-        <v>4.5</v>
-      </c>
-      <c r="N133">
-        <v>1.5</v>
-      </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12368,19 +12368,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>4.75</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12388,7 +12388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5608075</v>
+        <v>5603142</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12400,58 +12400,58 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>55</v>
+      </c>
+      <c r="K134">
+        <v>4.333</v>
+      </c>
+      <c r="L134">
+        <v>3.6</v>
+      </c>
+      <c r="M134">
+        <v>1.7</v>
+      </c>
+      <c r="N134">
+        <v>4.5</v>
+      </c>
+      <c r="O134">
+        <v>4.2</v>
+      </c>
+      <c r="P134">
+        <v>1.6</v>
+      </c>
+      <c r="Q134">
         <v>1</v>
       </c>
-      <c r="J134" t="s">
-        <v>54</v>
-      </c>
-      <c r="K134">
-        <v>2.2</v>
-      </c>
-      <c r="L134">
-        <v>3.4</v>
-      </c>
-      <c r="M134">
-        <v>2.875</v>
-      </c>
-      <c r="N134">
-        <v>2.1</v>
-      </c>
-      <c r="O134">
-        <v>3.5</v>
-      </c>
-      <c r="P134">
-        <v>2.9</v>
-      </c>
-      <c r="Q134">
-        <v>-0.25</v>
-      </c>
       <c r="R134">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12460,16 +12460,16 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA134">
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,7 +12477,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5608074</v>
+        <v>5603143</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12489,76 +12489,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K135">
+        <v>2.8</v>
+      </c>
+      <c r="L135">
+        <v>3.3</v>
+      </c>
+      <c r="M135">
+        <v>2.3</v>
+      </c>
+      <c r="N135">
+        <v>2.55</v>
+      </c>
+      <c r="O135">
         <v>3.25</v>
       </c>
-      <c r="L135">
-        <v>3.5</v>
-      </c>
-      <c r="M135">
-        <v>2</v>
-      </c>
-      <c r="N135">
-        <v>3.75</v>
-      </c>
-      <c r="O135">
-        <v>4</v>
-      </c>
       <c r="P135">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="Q135">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R135">
+        <v>1.875</v>
+      </c>
+      <c r="S135">
+        <v>1.925</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="S135">
-        <v>1.975</v>
-      </c>
-      <c r="T135">
-        <v>3.25</v>
-      </c>
-      <c r="U135">
-        <v>1.9</v>
-      </c>
-      <c r="V135">
-        <v>1.9</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y135">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA135">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC135">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5603143</v>
+        <v>5615110</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
         <v>55</v>
       </c>
       <c r="K136">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L136">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N136">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O136">
+        <v>4.2</v>
+      </c>
+      <c r="P136">
+        <v>3.75</v>
+      </c>
+      <c r="Q136">
+        <v>-0.75</v>
+      </c>
+      <c r="R136">
+        <v>1.925</v>
+      </c>
+      <c r="S136">
+        <v>1.875</v>
+      </c>
+      <c r="T136">
         <v>3.25</v>
       </c>
-      <c r="P136">
-        <v>2.55</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
+      <c r="U136">
         <v>1.875</v>
       </c>
-      <c r="S136">
+      <c r="V136">
         <v>1.925</v>
       </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.975</v>
-      </c>
-      <c r="V136">
-        <v>1.825</v>
-      </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X136">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5615110</v>
+        <v>5636763</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,49 +12667,49 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K137">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
+        <v>3.5</v>
+      </c>
+      <c r="N137">
+        <v>1.727</v>
+      </c>
+      <c r="O137">
         <v>3.75</v>
       </c>
-      <c r="N137">
-        <v>1.7</v>
-      </c>
-      <c r="O137">
-        <v>4.2</v>
-      </c>
       <c r="P137">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q137">
         <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
         <v>1.875</v>
@@ -12718,25 +12718,25 @@
         <v>1.925</v>
       </c>
       <c r="W137">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z137">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5636763</v>
+        <v>5610598</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,10 +12756,10 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12771,40 +12771,40 @@
         <v>53</v>
       </c>
       <c r="K138">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="L138">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N138">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O138">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S138">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12813,19 +12813,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
+        <v>0.925</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB138">
-        <v>-1</v>
-      </c>
-      <c r="AC138">
-        <v>0.925</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12857,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K139">
         <v>1.909</v>
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5641728</v>
+        <v>5705512</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,76 +12934,76 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>55</v>
       </c>
       <c r="K140">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L140">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M140">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N140">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
+        <v>1.975</v>
+      </c>
+      <c r="S140">
         <v>1.825</v>
-      </c>
-      <c r="S140">
-        <v>1.975</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5705512</v>
+        <v>5702788</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,13 +13023,13 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -13038,61 +13038,61 @@
         <v>54</v>
       </c>
       <c r="K141">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="L141">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M141">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N141">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O141">
+        <v>5</v>
+      </c>
+      <c r="P141">
+        <v>5.75</v>
+      </c>
+      <c r="Q141">
+        <v>-1.5</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>1.8</v>
+      </c>
+      <c r="T141">
+        <v>3.5</v>
+      </c>
+      <c r="U141">
+        <v>1.975</v>
+      </c>
+      <c r="V141">
+        <v>1.825</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
         <v>4</v>
       </c>
-      <c r="P141">
-        <v>6.5</v>
-      </c>
-      <c r="Q141">
-        <v>-1.25</v>
-      </c>
-      <c r="R141">
-        <v>1.975</v>
-      </c>
-      <c r="S141">
-        <v>1.825</v>
-      </c>
-      <c r="T141">
-        <v>2.75</v>
-      </c>
-      <c r="U141">
-        <v>1.875</v>
-      </c>
-      <c r="V141">
-        <v>1.925</v>
-      </c>
-      <c r="W141">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5638761</v>
+        <v>5641728</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,10 +13112,10 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13124,64 +13124,64 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K142">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L142">
+        <v>3.3</v>
+      </c>
+      <c r="M142">
         <v>3.4</v>
       </c>
-      <c r="M142">
-        <v>2.6</v>
-      </c>
       <c r="N142">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P142">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
+        <v>1.8</v>
+      </c>
+      <c r="V142">
         <v>2</v>
       </c>
-      <c r="V142">
-        <v>1.8</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5702788</v>
+        <v>5638761</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,76 +13290,76 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L144">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N144">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="O144">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q144">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
+        <v>1.85</v>
+      </c>
+      <c r="S144">
+        <v>1.95</v>
+      </c>
+      <c r="T144">
+        <v>3</v>
+      </c>
+      <c r="U144">
         <v>2</v>
       </c>
-      <c r="S144">
+      <c r="V144">
         <v>1.8</v>
       </c>
-      <c r="T144">
-        <v>3.5</v>
-      </c>
-      <c r="U144">
-        <v>1.975</v>
-      </c>
-      <c r="V144">
-        <v>1.825</v>
-      </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA144">
+        <v>-0.5</v>
+      </c>
+      <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
         <v>0.8</v>
-      </c>
-      <c r="AB144">
-        <v>-1</v>
-      </c>
-      <c r="AC144">
-        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13382,7 +13382,7 @@
         <v>44</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13391,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K145">
         <v>1.5</v>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K146">
         <v>1.909</v>
@@ -13658,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K148">
         <v>1.909</v>
@@ -13747,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K149">
         <v>2.25</v>
@@ -13836,7 +13836,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K150">
         <v>2.25</v>
@@ -13913,7 +13913,7 @@
         <v>45149.625</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
         <v>45</v>
@@ -14002,7 +14002,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
         <v>44</v>
@@ -14192,7 +14192,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K154">
         <v>2.4</v>
@@ -14370,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K156">
         <v>2.5</v>
@@ -14548,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K158">
         <v>2</v>
@@ -14726,7 +14726,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K160">
         <v>1.5</v>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K161">
         <v>2.15</v>
@@ -14984,7 +14984,7 @@
         <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K163">
         <v>2.375</v>
@@ -15073,7 +15073,7 @@
         <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15082,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K164">
         <v>1.833</v>
@@ -15171,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K165">
         <v>2</v>
@@ -15260,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K166">
         <v>1.85</v>
@@ -15349,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K167">
         <v>1.75</v>
@@ -15616,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K170">
         <v>2.9</v>
@@ -15705,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K171">
         <v>2.375</v>
@@ -15871,7 +15871,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
         <v>45</v>
@@ -15883,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K173">
         <v>1.727</v>
@@ -15960,7 +15960,7 @@
         <v>45165.55208333334</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
         <v>49</v>
@@ -15972,7 +15972,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K174">
         <v>2.5</v>
@@ -16061,7 +16061,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K175">
         <v>1.833</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K178">
         <v>2.1</v>
@@ -16405,10 +16405,10 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F179" t="s">
+        <v>31</v>
+      </c>
+      <c r="G179" t="s">
         <v>30</v>
-      </c>
-      <c r="G179" t="s">
-        <v>31</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16417,7 +16417,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K179">
         <v>2.45</v>
@@ -16506,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K180">
         <v>1.533</v>
@@ -16595,7 +16595,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K181">
         <v>1.2</v>
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K182">
         <v>1.95</v>
@@ -16862,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K184">
         <v>1.666</v>
@@ -17016,7 +17016,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6962966</v>
+        <v>6963034</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17028,58 +17028,58 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K186">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186">
         <v>3.25</v>
       </c>
-      <c r="M186">
-        <v>3.4</v>
-      </c>
       <c r="N186">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O186">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P186">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q186">
         <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17088,16 +17088,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17105,7 +17105,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6963034</v>
+        <v>6962966</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17117,58 +17117,58 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K187">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M187">
+        <v>3.4</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187">
         <v>3.25</v>
       </c>
-      <c r="N187">
-        <v>2.2</v>
-      </c>
-      <c r="O187">
-        <v>2.9</v>
-      </c>
       <c r="P187">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q187">
         <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W187">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17177,16 +17177,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC187">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17209,7 +17209,7 @@
         <v>48</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K188">
         <v>1.75</v>
@@ -17372,7 +17372,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6962968</v>
+        <v>6963175</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17384,76 +17384,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G190" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>54</v>
       </c>
       <c r="K190">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L190">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N190">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O190">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P190">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
+        <v>1.825</v>
+      </c>
+      <c r="V190">
         <v>1.975</v>
       </c>
-      <c r="V190">
-        <v>1.825</v>
-      </c>
       <c r="W190">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC190">
-        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17461,7 +17461,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6963175</v>
+        <v>6962968</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17473,76 +17473,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G191" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>55</v>
       </c>
       <c r="K191">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L191">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M191">
+        <v>2.5</v>
+      </c>
+      <c r="N191">
+        <v>2.55</v>
+      </c>
+      <c r="O191">
+        <v>3.2</v>
+      </c>
+      <c r="P191">
+        <v>2.5</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>1.95</v>
+      </c>
+      <c r="S191">
         <v>1.85</v>
-      </c>
-      <c r="N191">
-        <v>4.5</v>
-      </c>
-      <c r="O191">
-        <v>3.75</v>
-      </c>
-      <c r="P191">
-        <v>1.615</v>
-      </c>
-      <c r="Q191">
-        <v>0.75</v>
-      </c>
-      <c r="R191">
-        <v>1.975</v>
-      </c>
-      <c r="S191">
-        <v>1.825</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
+        <v>1.975</v>
+      </c>
+      <c r="V191">
         <v>1.825</v>
       </c>
-      <c r="V191">
-        <v>1.975</v>
-      </c>
       <c r="W191">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X191">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
+        <v>0.95</v>
+      </c>
+      <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA191">
-        <v>-1</v>
-      </c>
-      <c r="AB191">
-        <v>-1</v>
-      </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17574,7 +17574,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K192">
         <v>2.2</v>
@@ -17817,7 +17817,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6963179</v>
+        <v>6963176</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17829,58 +17829,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>2</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K195">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L195">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M195">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N195">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O195">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q195">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
+        <v>1.8</v>
+      </c>
+      <c r="S195">
+        <v>2</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
+        <v>1.875</v>
+      </c>
+      <c r="V195">
         <v>1.925</v>
       </c>
-      <c r="S195">
-        <v>1.875</v>
-      </c>
-      <c r="T195">
-        <v>2.75</v>
-      </c>
-      <c r="U195">
-        <v>1.975</v>
-      </c>
-      <c r="V195">
-        <v>1.825</v>
-      </c>
       <c r="W195">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17889,16 +17889,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC195">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17906,7 +17906,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6963176</v>
+        <v>6963179</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17918,58 +17918,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H196">
         <v>2</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K196">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L196">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M196">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N196">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P196">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q196">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W196">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17978,16 +17978,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18007,7 +18007,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
         <v>52</v>
@@ -18019,7 +18019,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K197">
         <v>1.4</v>
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6962970</v>
+        <v>6962911</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,76 +18096,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F198" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G198" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
         <v>1</v>
       </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
       <c r="J198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K198">
         <v>2.1</v>
       </c>
       <c r="L198">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
+        <v>3.25</v>
+      </c>
+      <c r="N198">
+        <v>2.2</v>
+      </c>
+      <c r="O198">
+        <v>3.2</v>
+      </c>
+      <c r="P198">
         <v>3.1</v>
       </c>
-      <c r="N198">
-        <v>1.909</v>
-      </c>
-      <c r="O198">
-        <v>3.5</v>
-      </c>
-      <c r="P198">
-        <v>3.6</v>
-      </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S198">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
         <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V198">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W198">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6962911</v>
+        <v>6962970</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,76 +18185,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
         <v>0</v>
       </c>
-      <c r="I199">
-        <v>1</v>
-      </c>
       <c r="J199" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K199">
         <v>2.1</v>
       </c>
       <c r="L199">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N199">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O199">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P199">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V199">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA199">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18286,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K200">
         <v>1.909</v>
@@ -18375,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K201">
         <v>2.6</v>
@@ -18553,7 +18553,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K203">
         <v>3.75</v>
@@ -18731,7 +18731,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K205">
         <v>2.8</v>
@@ -18820,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K206">
         <v>2.7</v>
@@ -18909,7 +18909,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K207">
         <v>2.4</v>
@@ -18989,7 +18989,7 @@
         <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -18998,7 +18998,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K208">
         <v>2.3</v>
@@ -19087,7 +19087,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K209">
         <v>1.909</v>
@@ -19167,7 +19167,7 @@
         <v>48</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H210">
         <v>3</v>
@@ -19176,7 +19176,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K210">
         <v>2.2</v>
@@ -19265,7 +19265,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K211">
         <v>4.5</v>
@@ -19354,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K212">
         <v>1.65</v>
@@ -19443,7 +19443,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K213">
         <v>1.8</v>
@@ -19532,7 +19532,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K214">
         <v>1.8</v>
@@ -19621,7 +19621,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K215">
         <v>1.8</v>
@@ -19799,7 +19799,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K217">
         <v>1.909</v>
@@ -19876,7 +19876,7 @@
         <v>45207.3125</v>
       </c>
       <c r="F218" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G218" t="s">
         <v>34</v>
@@ -19965,7 +19965,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G219" t="s">
         <v>33</v>
@@ -20066,7 +20066,7 @@
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K220">
         <v>2.1</v>
@@ -20324,7 +20324,7 @@
         <v>40</v>
       </c>
       <c r="G223" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -20422,7 +20422,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K224">
         <v>1.666</v>
@@ -20511,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K225">
         <v>1.909</v>
@@ -20600,7 +20600,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K226">
         <v>1.95</v>
@@ -20689,7 +20689,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K227">
         <v>2.75</v>
@@ -20769,7 +20769,7 @@
         <v>52</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20956,7 +20956,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K230">
         <v>1.75</v>
@@ -21045,7 +21045,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K231">
         <v>1.7</v>
@@ -21122,7 +21122,7 @@
         <v>45227.3125</v>
       </c>
       <c r="F232" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
         <v>33</v>
@@ -21300,7 +21300,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G234" t="s">
         <v>43</v>
@@ -21312,7 +21312,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K234">
         <v>3.3</v>
@@ -21401,7 +21401,7 @@
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K235">
         <v>2.15</v>
@@ -21490,7 +21490,7 @@
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K236">
         <v>2</v>
@@ -21555,7 +21555,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6962979</v>
+        <v>6962980</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21567,76 +21567,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G237" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K237">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L237">
         <v>3.2</v>
       </c>
       <c r="M237">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N237">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O237">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P237">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R237">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S237">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T237">
         <v>2.5</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V237">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W237">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z237">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC237">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6962980</v>
+        <v>6962979</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G238" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H238">
         <v>1</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K238">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L238">
         <v>3.2</v>
       </c>
       <c r="M238">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N238">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O238">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P238">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q238">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T238">
         <v>2.5</v>
       </c>
       <c r="U238">
+        <v>1.875</v>
+      </c>
+      <c r="V238">
+        <v>1.925</v>
+      </c>
+      <c r="W238">
         <v>2</v>
       </c>
-      <c r="V238">
-        <v>1.8</v>
-      </c>
-      <c r="W238">
-        <v>-1</v>
-      </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA238">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21846,7 +21846,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K240">
         <v>1.85</v>
@@ -21926,7 +21926,7 @@
         <v>50</v>
       </c>
       <c r="G241" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H241">
         <v>2</v>
@@ -22015,7 +22015,7 @@
         <v>41</v>
       </c>
       <c r="G242" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -22024,7 +22024,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K242">
         <v>1.909</v>
@@ -22178,7 +22178,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6962982</v>
+        <v>6963195</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22190,10 +22190,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F244" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G244" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22202,46 +22202,46 @@
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K244">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="L244">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M244">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N244">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O244">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P244">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q244">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R244">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S244">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T244">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V244">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W244">
-        <v>0.2849999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22250,16 +22250,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC244">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22267,7 +22267,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6963195</v>
+        <v>6962982</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22279,10 +22279,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F245" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H245">
         <v>2</v>
@@ -22291,46 +22291,46 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K245">
+        <v>1.333</v>
+      </c>
+      <c r="L245">
+        <v>4.5</v>
+      </c>
+      <c r="M245">
+        <v>8</v>
+      </c>
+      <c r="N245">
+        <v>1.285</v>
+      </c>
+      <c r="O245">
+        <v>5</v>
+      </c>
+      <c r="P245">
+        <v>9</v>
+      </c>
+      <c r="Q245">
+        <v>-1.5</v>
+      </c>
+      <c r="R245">
+        <v>1.9</v>
+      </c>
+      <c r="S245">
+        <v>1.9</v>
+      </c>
+      <c r="T245">
+        <v>3</v>
+      </c>
+      <c r="U245">
         <v>1.95</v>
       </c>
-      <c r="L245">
-        <v>3.4</v>
-      </c>
-      <c r="M245">
-        <v>3.75</v>
-      </c>
-      <c r="N245">
-        <v>1.909</v>
-      </c>
-      <c r="O245">
-        <v>3.3</v>
-      </c>
-      <c r="P245">
-        <v>3.8</v>
-      </c>
-      <c r="Q245">
-        <v>-0.5</v>
-      </c>
-      <c r="R245">
-        <v>1.95</v>
-      </c>
-      <c r="S245">
+      <c r="V245">
         <v>1.85</v>
       </c>
-      <c r="T245">
-        <v>2.25</v>
-      </c>
-      <c r="U245">
-        <v>1.825</v>
-      </c>
-      <c r="V245">
-        <v>1.975</v>
-      </c>
       <c r="W245">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22339,16 +22339,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22380,7 +22380,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K246">
         <v>2.625</v>
@@ -22469,7 +22469,7 @@
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K247">
         <v>1.25</v>
@@ -22558,7 +22558,7 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K248">
         <v>1.666</v>
@@ -22724,7 +22724,7 @@
         <v>45241.3125</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G250" t="s">
         <v>43</v>
@@ -22736,7 +22736,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K250">
         <v>2.875</v>
@@ -22825,7 +22825,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K251">
         <v>1.85</v>
@@ -23068,7 +23068,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7437371</v>
+        <v>7437372</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23080,37 +23080,37 @@
         <v>45242.3125</v>
       </c>
       <c r="F254" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G254" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J254" t="s">
         <v>53</v>
       </c>
       <c r="K254">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L254">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M254">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N254">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O254">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P254">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -23122,7 +23122,7 @@
         <v>2</v>
       </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U254">
         <v>2</v>
@@ -23137,7 +23137,7 @@
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>1.625</v>
+        <v>1.8</v>
       </c>
       <c r="Z254">
         <v>-1</v>
@@ -23146,10 +23146,10 @@
         <v>1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC254">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7437372</v>
+        <v>7437371</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,37 +23169,37 @@
         <v>45242.3125</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G255" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
         <v>2</v>
-      </c>
-      <c r="I255">
-        <v>3</v>
       </c>
       <c r="J255" t="s">
         <v>53</v>
       </c>
       <c r="K255">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L255">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M255">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N255">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O255">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P255">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -23211,7 +23211,7 @@
         <v>2</v>
       </c>
       <c r="T255">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U255">
         <v>2</v>
@@ -23226,7 +23226,7 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>1.8</v>
+        <v>1.625</v>
       </c>
       <c r="Z255">
         <v>-1</v>
@@ -23235,10 +23235,10 @@
         <v>1</v>
       </c>
       <c r="AB255">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23270,7 +23270,7 @@
         <v>2</v>
       </c>
       <c r="J256" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K256">
         <v>3.6</v>
@@ -23359,7 +23359,7 @@
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K257">
         <v>1.85</v>
@@ -23448,7 +23448,7 @@
         <v>2</v>
       </c>
       <c r="J258" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K258">
         <v>1.7</v>
@@ -23513,7 +23513,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7482213</v>
+        <v>7482211</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23525,10 +23525,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F259" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G259" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23540,40 +23540,40 @@
         <v>53</v>
       </c>
       <c r="K259">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L259">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M259">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N259">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="O259">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P259">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q259">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R259">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S259">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T259">
         <v>2.75</v>
       </c>
       <c r="U259">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V259">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W259">
         <v>-1</v>
@@ -23582,19 +23582,19 @@
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23602,7 +23602,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7482211</v>
+        <v>7482213</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23614,10 +23614,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F260" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G260" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -23629,40 +23629,40 @@
         <v>53</v>
       </c>
       <c r="K260">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M260">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N260">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="O260">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P260">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q260">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R260">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S260">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T260">
         <v>2.75</v>
       </c>
       <c r="U260">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V260">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W260">
         <v>-1</v>
@@ -23671,19 +23671,19 @@
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z260">
         <v>-1</v>
       </c>
       <c r="AA260">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB260">
         <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23706,7 +23706,7 @@
         <v>51</v>
       </c>
       <c r="G261" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K263">
         <v>1.363</v>
@@ -23982,7 +23982,7 @@
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K264">
         <v>1.533</v>
@@ -24071,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K265">
         <v>1.533</v>
@@ -24151,7 +24151,7 @@
         <v>41</v>
       </c>
       <c r="G266" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -24160,7 +24160,7 @@
         <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K266">
         <v>2</v>
@@ -24225,7 +24225,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6962990</v>
+        <v>6962926</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24237,10 +24237,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F267" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G267" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -24252,40 +24252,40 @@
         <v>53</v>
       </c>
       <c r="K267">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="L267">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M267">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N267">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="O267">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P267">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q267">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R267">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S267">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T267">
         <v>2.5</v>
       </c>
       <c r="U267">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V267">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24294,16 +24294,16 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB267">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC267">
         <v>-1</v>
@@ -24314,7 +24314,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6962926</v>
+        <v>6962990</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24326,10 +24326,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G268" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24341,40 +24341,40 @@
         <v>53</v>
       </c>
       <c r="K268">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="L268">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M268">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N268">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O268">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P268">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q268">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R268">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S268">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T268">
         <v>2.5</v>
       </c>
       <c r="U268">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V268">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W268">
         <v>-1</v>
@@ -24383,16 +24383,16 @@
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB268">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC268">
         <v>-1</v>
@@ -24415,7 +24415,7 @@
         <v>45262.3125</v>
       </c>
       <c r="F269" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G269" t="s">
         <v>38</v>
@@ -24516,7 +24516,7 @@
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K270">
         <v>4.333</v>
@@ -24593,7 +24593,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G271" t="s">
         <v>44</v>
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K273">
         <v>1.4</v>
@@ -24872,7 +24872,7 @@
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K274">
         <v>2.875</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K275">
         <v>1.333</v>
@@ -25139,7 +25139,7 @@
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K277">
         <v>1.4</v>
@@ -25219,7 +25219,7 @@
         <v>51</v>
       </c>
       <c r="G278" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H278">
         <v>2</v>
@@ -25228,7 +25228,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K278">
         <v>2.1</v>
@@ -25317,7 +25317,7 @@
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K279">
         <v>1.4</v>
@@ -25406,7 +25406,7 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K280">
         <v>1.571</v>
@@ -25495,7 +25495,7 @@
         <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K281">
         <v>1.7</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K283">
         <v>1.222</v>
@@ -25753,7 +25753,7 @@
         <v>42</v>
       </c>
       <c r="G284" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K287">
         <v>2.4</v>
@@ -26118,7 +26118,7 @@
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K288">
         <v>2.7</v>
@@ -26195,7 +26195,7 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F289" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G289" t="s">
         <v>39</v>
@@ -26385,7 +26385,7 @@
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K291">
         <v>3.25</v>
@@ -26462,7 +26462,7 @@
         <v>45281.33333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G292" t="s">
         <v>47</v>
@@ -26474,7 +26474,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K292">
         <v>2.75</v>
@@ -26563,7 +26563,7 @@
         <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K293">
         <v>3.5</v>
@@ -26741,7 +26741,7 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K295">
         <v>2.45</v>
@@ -26806,7 +26806,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6962998</v>
+        <v>6962933</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26818,73 +26818,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F296" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G296" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I296">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K296">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L296">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M296">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N296">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O296">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P296">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q296">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R296">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S296">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T296">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U296">
+        <v>1.9</v>
+      </c>
+      <c r="V296">
+        <v>1.9</v>
+      </c>
+      <c r="W296">
         <v>1.8</v>
       </c>
-      <c r="V296">
-        <v>2</v>
-      </c>
-      <c r="W296">
-        <v>-1</v>
-      </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA296">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26895,7 +26895,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6962933</v>
+        <v>6962998</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26907,73 +26907,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F297" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G297" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H297">
+        <v>2</v>
+      </c>
+      <c r="I297">
         <v>3</v>
       </c>
-      <c r="I297">
-        <v>0</v>
-      </c>
       <c r="J297" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K297">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L297">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M297">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N297">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O297">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P297">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q297">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R297">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S297">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T297">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U297">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V297">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W297">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z297">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB297">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -27008,7 +27008,7 @@
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K298">
         <v>1.333</v>
@@ -27088,7 +27088,7 @@
         <v>42</v>
       </c>
       <c r="G299" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H299">
         <v>2</v>
@@ -27097,7 +27097,7 @@
         <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K299">
         <v>3.8</v>
@@ -27186,7 +27186,7 @@
         <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K300">
         <v>1.727</v>
@@ -27266,7 +27266,7 @@
         <v>50</v>
       </c>
       <c r="G301" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H301">
         <v>2</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K301">
         <v>2.15</v>
@@ -27364,7 +27364,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K302">
         <v>1.3</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K304">
         <v>1.285</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K305">
         <v>1.65</v>
@@ -27711,7 +27711,7 @@
         <v>45</v>
       </c>
       <c r="G306" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H306">
         <v>1</v>
@@ -27720,7 +27720,7 @@
         <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K306">
         <v>2.9</v>
@@ -27800,7 +27800,7 @@
         <v>44</v>
       </c>
       <c r="G307" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H307">
         <v>2</v>
@@ -27809,7 +27809,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K307">
         <v>1.363</v>
@@ -27898,7 +27898,7 @@
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K308">
         <v>2.25</v>
@@ -27987,7 +27987,7 @@
         <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K309">
         <v>1.615</v>
@@ -28076,7 +28076,7 @@
         <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K310">
         <v>2.25</v>
@@ -28165,7 +28165,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K311">
         <v>2.45</v>
@@ -28343,7 +28343,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K313">
         <v>3.4</v>
@@ -28420,7 +28420,7 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G314" t="s">
         <v>39</v>
@@ -28432,7 +28432,7 @@
         <v>1</v>
       </c>
       <c r="J314" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K314">
         <v>2.9</v>
@@ -28521,7 +28521,7 @@
         <v>1</v>
       </c>
       <c r="J315" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K315">
         <v>3.75</v>
@@ -28598,7 +28598,7 @@
         <v>45312.3125</v>
       </c>
       <c r="F316" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G316" t="s">
         <v>47</v>
@@ -28610,7 +28610,7 @@
         <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K316">
         <v>3.4</v>
@@ -28699,7 +28699,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K317">
         <v>1.85</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K318">
         <v>2.2</v>
@@ -28877,7 +28877,7 @@
         <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K319">
         <v>2.3</v>
@@ -28966,7 +28966,7 @@
         <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K320">
         <v>1.7</v>
@@ -29046,7 +29046,7 @@
         <v>45</v>
       </c>
       <c r="G321" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29233,7 +29233,7 @@
         <v>1</v>
       </c>
       <c r="J323" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K323">
         <v>2.7</v>
@@ -29322,7 +29322,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K324">
         <v>1.25</v>
@@ -29387,7 +29387,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7732507</v>
+        <v>6963271</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29399,58 +29399,58 @@
         <v>45319.3125</v>
       </c>
       <c r="F325" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G325" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H325">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I325">
         <v>0</v>
       </c>
       <c r="J325" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K325">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="L325">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M325">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="N325">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="O325">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P325">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="Q325">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R325">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S325">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T325">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U325">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V325">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W325">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="X325">
         <v>-1</v>
@@ -29459,16 +29459,16 @@
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA325">
         <v>-1</v>
       </c>
       <c r="AB325">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29476,7 +29476,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6963271</v>
+        <v>7732507</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29488,58 +29488,58 @@
         <v>45319.3125</v>
       </c>
       <c r="F326" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G326" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I326">
         <v>0</v>
       </c>
       <c r="J326" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K326">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="L326">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M326">
-        <v>3.8</v>
+        <v>23</v>
       </c>
       <c r="N326">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="O326">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P326">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="Q326">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R326">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S326">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T326">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U326">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V326">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W326">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="X326">
         <v>-1</v>
@@ -29548,16 +29548,16 @@
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA326">
         <v>-1</v>
       </c>
       <c r="AB326">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC326">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29589,7 +29589,7 @@
         <v>1</v>
       </c>
       <c r="J327" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K327">
         <v>2.4</v>
@@ -29758,7 +29758,7 @@
         <v>49</v>
       </c>
       <c r="G329" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -29856,7 +29856,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K330">
         <v>2.4</v>
@@ -29921,7 +29921,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6963272</v>
+        <v>6963227</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29933,10 +29933,10 @@
         <v>45325.3125</v>
       </c>
       <c r="F331" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G331" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H331">
         <v>1</v>
@@ -29948,40 +29948,40 @@
         <v>53</v>
       </c>
       <c r="K331">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L331">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M331">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N331">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O331">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P331">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q331">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R331">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S331">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T331">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U331">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V331">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W331">
         <v>-1</v>
@@ -29990,16 +29990,16 @@
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB331">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC331">
         <v>-1</v>
@@ -30010,7 +30010,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6963227</v>
+        <v>6963272</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30022,10 +30022,10 @@
         <v>45325.3125</v>
       </c>
       <c r="F332" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G332" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H332">
         <v>1</v>
@@ -30037,40 +30037,40 @@
         <v>53</v>
       </c>
       <c r="K332">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L332">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M332">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N332">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O332">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P332">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q332">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R332">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S332">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T332">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U332">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V332">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W332">
         <v>-1</v>
@@ -30079,16 +30079,16 @@
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="Z332">
         <v>-1</v>
       </c>
       <c r="AA332">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB332">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC332">
         <v>-1</v>
@@ -30123,7 +30123,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K333">
         <v>1.444</v>
@@ -30212,7 +30212,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K334">
         <v>1.125</v>
@@ -30301,7 +30301,7 @@
         <v>1</v>
       </c>
       <c r="J335" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K335">
         <v>3.6</v>
@@ -30390,7 +30390,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K336">
         <v>1.95</v>
@@ -30479,7 +30479,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K337">
         <v>2.375</v>
@@ -30568,7 +30568,7 @@
         <v>0</v>
       </c>
       <c r="J338" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K338">
         <v>13</v>
@@ -30746,7 +30746,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K340">
         <v>1.727</v>
@@ -30826,7 +30826,7 @@
         <v>49</v>
       </c>
       <c r="G341" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H341">
         <v>0</v>
@@ -30924,7 +30924,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K342">
         <v>5</v>
@@ -30989,7 +30989,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6962943</v>
+        <v>6963009</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -31001,76 +31001,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F343" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G343" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J343" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K343">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L343">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M343">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N343">
         <v>2.375</v>
       </c>
       <c r="O343">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P343">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q343">
         <v>-0.25</v>
       </c>
       <c r="R343">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S343">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T343">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U343">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V343">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W343">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X343">
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z343">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA343">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB343">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC343">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31078,7 +31078,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6963009</v>
+        <v>6962943</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31090,76 +31090,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F344" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G344" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
         <v>2</v>
       </c>
-      <c r="I344">
-        <v>1</v>
-      </c>
       <c r="J344" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K344">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L344">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M344">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N344">
         <v>2.375</v>
       </c>
       <c r="O344">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P344">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q344">
         <v>-0.25</v>
       </c>
       <c r="R344">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S344">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T344">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U344">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V344">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W344">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z344">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA344">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB344">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC344">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31179,7 +31179,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F345" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G345" t="s">
         <v>48</v>
@@ -31191,7 +31191,7 @@
         <v>1</v>
       </c>
       <c r="J345" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K345">
         <v>3.8</v>
@@ -31280,7 +31280,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K346">
         <v>1.222</v>
@@ -31369,7 +31369,7 @@
         <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K347">
         <v>1.5</v>
@@ -31458,7 +31458,7 @@
         <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K348">
         <v>1.8</v>
@@ -31538,7 +31538,7 @@
         <v>34</v>
       </c>
       <c r="G349" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H349">
         <v>1</v>
@@ -31627,7 +31627,7 @@
         <v>52</v>
       </c>
       <c r="G350" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H350">
         <v>0</v>
@@ -31814,7 +31814,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K352">
         <v>1.727</v>
@@ -31903,7 +31903,7 @@
         <v>0</v>
       </c>
       <c r="J353" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K353">
         <v>1.181</v>
@@ -31992,7 +31992,7 @@
         <v>1</v>
       </c>
       <c r="J354" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K354">
         <v>2.2</v>
@@ -32259,7 +32259,7 @@
         <v>0</v>
       </c>
       <c r="J357" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K357">
         <v>1.8</v>
@@ -32324,7 +32324,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>6962947</v>
+        <v>7855603</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32333,64 +32333,79 @@
         <v>28</v>
       </c>
       <c r="E358" s="2">
-        <v>45346.54166666666</v>
+        <v>45346.3125</v>
       </c>
       <c r="F358" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G358" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="H358">
+        <v>4</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358" t="s">
+        <v>55</v>
       </c>
       <c r="K358">
+        <v>1.7</v>
+      </c>
+      <c r="L358">
+        <v>3.6</v>
+      </c>
+      <c r="M358">
+        <v>4.75</v>
+      </c>
+      <c r="N358">
+        <v>1.666</v>
+      </c>
+      <c r="O358">
+        <v>3.8</v>
+      </c>
+      <c r="P358">
         <v>5</v>
       </c>
-      <c r="L358">
-        <v>3.8</v>
-      </c>
-      <c r="M358">
-        <v>1.65</v>
-      </c>
-      <c r="N358">
-        <v>6</v>
-      </c>
-      <c r="O358">
-        <v>4.2</v>
-      </c>
-      <c r="P358">
-        <v>1.533</v>
-      </c>
       <c r="Q358">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R358">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S358">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T358">
         <v>2.5</v>
       </c>
       <c r="U358">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V358">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W358">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X358">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y358">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z358">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA358">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB358">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC358">
+        <v>-1</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32398,7 +32413,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>6962946</v>
+        <v>6963275</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32407,64 +32422,79 @@
         <v>28</v>
       </c>
       <c r="E359" s="2">
-        <v>45347.3125</v>
+        <v>45346.41666666666</v>
       </c>
       <c r="F359" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G359" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="H359">
+        <v>2</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359" t="s">
+        <v>55</v>
       </c>
       <c r="K359">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="L359">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M359">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N359">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="O359">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P359">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q359">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R359">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S359">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T359">
         <v>2.25</v>
       </c>
       <c r="U359">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V359">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W359">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X359">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y359">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z359">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA359">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB359">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC359">
+        <v>-1</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32472,7 +32502,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>6963238</v>
+        <v>6962947</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32481,64 +32511,79 @@
         <v>28</v>
       </c>
       <c r="E360" s="2">
-        <v>45347.3125</v>
+        <v>45346.54166666666</v>
       </c>
       <c r="F360" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G360" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="I360">
+        <v>3</v>
+      </c>
+      <c r="J360" t="s">
+        <v>53</v>
       </c>
       <c r="K360">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L360">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M360">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="N360">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="O360">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P360">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="Q360">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R360">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S360">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T360">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U360">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V360">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W360">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X360">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y360">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Z360">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="AB360">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC360">
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32546,7 +32591,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6963236</v>
+        <v>6962946</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32555,49 +32600,49 @@
         <v>28</v>
       </c>
       <c r="E361" s="2">
-        <v>45347.41666666666</v>
+        <v>45347.3125</v>
       </c>
       <c r="F361" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G361" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K361">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="L361">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M361">
+        <v>1.95</v>
+      </c>
+      <c r="N361">
+        <v>4.2</v>
+      </c>
+      <c r="O361">
         <v>3.5</v>
       </c>
-      <c r="N361">
-        <v>2.1</v>
-      </c>
-      <c r="O361">
-        <v>3.3</v>
-      </c>
       <c r="P361">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q361">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R361">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S361">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T361">
         <v>2.25</v>
       </c>
       <c r="U361">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V361">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W361">
         <v>0</v>
@@ -32620,7 +32665,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6963014</v>
+        <v>6963238</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32629,49 +32674,49 @@
         <v>28</v>
       </c>
       <c r="E362" s="2">
-        <v>45347.54166666666</v>
+        <v>45347.3125</v>
       </c>
       <c r="F362" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G362" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K362">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L362">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M362">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N362">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O362">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P362">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q362">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R362">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S362">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T362">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U362">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V362">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W362">
         <v>0</v>
@@ -32694,7 +32739,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6963047</v>
+        <v>6963236</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32703,16 +32748,16 @@
         <v>28</v>
       </c>
       <c r="E363" s="2">
-        <v>45348.58333333334</v>
+        <v>45347.41666666666</v>
       </c>
       <c r="F363" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G363" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K363">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L363">
         <v>3.3</v>
@@ -32721,31 +32766,31 @@
         <v>3.5</v>
       </c>
       <c r="N363">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O363">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P363">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q363">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R363">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S363">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T363">
         <v>2.25</v>
       </c>
       <c r="U363">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V363">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W363">
         <v>0</v>
@@ -32760,6 +32805,154 @@
         <v>0</v>
       </c>
       <c r="AA363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>6963014</v>
+      </c>
+      <c r="C364" t="s">
+        <v>28</v>
+      </c>
+      <c r="D364" t="s">
+        <v>28</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45347.54166666666</v>
+      </c>
+      <c r="F364" t="s">
+        <v>44</v>
+      </c>
+      <c r="G364" t="s">
+        <v>38</v>
+      </c>
+      <c r="K364">
+        <v>1.363</v>
+      </c>
+      <c r="L364">
+        <v>4.75</v>
+      </c>
+      <c r="M364">
+        <v>7.5</v>
+      </c>
+      <c r="N364">
+        <v>1.3</v>
+      </c>
+      <c r="O364">
+        <v>5.25</v>
+      </c>
+      <c r="P364">
+        <v>8.5</v>
+      </c>
+      <c r="Q364">
+        <v>-1.5</v>
+      </c>
+      <c r="R364">
+        <v>1.875</v>
+      </c>
+      <c r="S364">
+        <v>1.925</v>
+      </c>
+      <c r="T364">
+        <v>3</v>
+      </c>
+      <c r="U364">
+        <v>2.025</v>
+      </c>
+      <c r="V364">
+        <v>1.775</v>
+      </c>
+      <c r="W364">
+        <v>0</v>
+      </c>
+      <c r="X364">
+        <v>0</v>
+      </c>
+      <c r="Y364">
+        <v>0</v>
+      </c>
+      <c r="Z364">
+        <v>0</v>
+      </c>
+      <c r="AA364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>6963047</v>
+      </c>
+      <c r="C365" t="s">
+        <v>28</v>
+      </c>
+      <c r="D365" t="s">
+        <v>28</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45348.58333333334</v>
+      </c>
+      <c r="F365" t="s">
+        <v>49</v>
+      </c>
+      <c r="G365" t="s">
+        <v>34</v>
+      </c>
+      <c r="K365">
+        <v>2</v>
+      </c>
+      <c r="L365">
+        <v>3.3</v>
+      </c>
+      <c r="M365">
+        <v>3.5</v>
+      </c>
+      <c r="N365">
+        <v>1.85</v>
+      </c>
+      <c r="O365">
+        <v>3.4</v>
+      </c>
+      <c r="P365">
+        <v>4</v>
+      </c>
+      <c r="Q365">
+        <v>-0.5</v>
+      </c>
+      <c r="R365">
+        <v>1.825</v>
+      </c>
+      <c r="S365">
+        <v>1.975</v>
+      </c>
+      <c r="T365">
+        <v>2.25</v>
+      </c>
+      <c r="U365">
+        <v>1.8</v>
+      </c>
+      <c r="V365">
+        <v>2</v>
+      </c>
+      <c r="W365">
+        <v>0</v>
+      </c>
+      <c r="X365">
+        <v>0</v>
+      </c>
+      <c r="Y365">
+        <v>0</v>
+      </c>
+      <c r="Z365">
+        <v>0</v>
+      </c>
+      <c r="AA365">
         <v>0</v>
       </c>
     </row>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -26806,7 +26806,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6962933</v>
+        <v>6962998</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26818,73 +26818,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F296" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G296" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H296">
+        <v>2</v>
+      </c>
+      <c r="I296">
         <v>3</v>
       </c>
-      <c r="I296">
-        <v>0</v>
-      </c>
       <c r="J296" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K296">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L296">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M296">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N296">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O296">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P296">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q296">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R296">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T296">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U296">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V296">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W296">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z296">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB296">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26895,7 +26895,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6962998</v>
+        <v>6962933</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26907,73 +26907,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F297" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G297" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I297">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K297">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L297">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M297">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N297">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O297">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P297">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q297">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T297">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U297">
+        <v>1.9</v>
+      </c>
+      <c r="V297">
+        <v>1.9</v>
+      </c>
+      <c r="W297">
         <v>1.8</v>
       </c>
-      <c r="V297">
-        <v>2</v>
-      </c>
-      <c r="W297">
-        <v>-1</v>
-      </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA297">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC297">
         <v>-1</v>
@@ -30277,7 +30277,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6963229</v>
+        <v>6963045</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30289,58 +30289,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F335" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G335" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H335">
         <v>2</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
         <v>55</v>
       </c>
       <c r="K335">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L335">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M335">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="N335">
+        <v>1.95</v>
+      </c>
+      <c r="O335">
         <v>3.5</v>
       </c>
-      <c r="O335">
-        <v>3.4</v>
-      </c>
       <c r="P335">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q335">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R335">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S335">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T335">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U335">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V335">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W335">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X335">
         <v>-1</v>
@@ -30349,16 +30349,16 @@
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA335">
         <v>-1</v>
       </c>
       <c r="AB335">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC335">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30366,7 +30366,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6963045</v>
+        <v>6963229</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30378,58 +30378,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F336" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G336" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H336">
         <v>2</v>
       </c>
       <c r="I336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336" t="s">
         <v>55</v>
       </c>
       <c r="K336">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L336">
+        <v>3.4</v>
+      </c>
+      <c r="M336">
+        <v>2.05</v>
+      </c>
+      <c r="N336">
         <v>3.5</v>
       </c>
-      <c r="M336">
-        <v>3.75</v>
-      </c>
-      <c r="N336">
-        <v>1.95</v>
-      </c>
       <c r="O336">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P336">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q336">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R336">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S336">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T336">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U336">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V336">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W336">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X336">
         <v>-1</v>
@@ -30438,16 +30438,16 @@
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA336">
         <v>-1</v>
       </c>
       <c r="AB336">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC336">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -32591,7 +32591,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6962946</v>
+        <v>6963238</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32603,46 +32603,46 @@
         <v>45347.3125</v>
       </c>
       <c r="F361" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G361" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K361">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="L361">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M361">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="N361">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="O361">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P361">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q361">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R361">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S361">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T361">
         <v>2.25</v>
       </c>
       <c r="U361">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V361">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W361">
         <v>0</v>
@@ -32665,7 +32665,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6963238</v>
+        <v>6962946</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32677,46 +32677,46 @@
         <v>45347.3125</v>
       </c>
       <c r="F362" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G362" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K362">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="L362">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M362">
+        <v>1.95</v>
+      </c>
+      <c r="N362">
+        <v>4.2</v>
+      </c>
+      <c r="O362">
         <v>3.5</v>
       </c>
-      <c r="N362">
-        <v>2.3</v>
-      </c>
-      <c r="O362">
-        <v>3.1</v>
-      </c>
       <c r="P362">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q362">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R362">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S362">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T362">
         <v>2.25</v>
       </c>
       <c r="U362">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V362">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W362">
         <v>0</v>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Kocaelispor</t>
   </si>
   <si>
-    <t>Genclerbirligi</t>
+    <t>Tuzlaspor</t>
   </si>
   <si>
-    <t>Tuzlaspor</t>
+    <t>Genclerbirligi</t>
   </si>
   <si>
     <t>Erzurum BB</t>
@@ -142,10 +142,10 @@
     <t>Adanaspor</t>
   </si>
   <si>
-    <t>Manisa BBSK</t>
+    <t>Bandirmaspor</t>
   </si>
   <si>
-    <t>Bandirmaspor</t>
+    <t>Manisa BBSK</t>
   </si>
   <si>
     <t>Sakaryaspor</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC218"/>
+  <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,7 +996,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6963260</v>
+        <v>6963162</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1085,70 +1085,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
         <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
         <v>3.4</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6963162</v>
+        <v>6963260</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,70 +1174,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O8">
         <v>3.4</v>
       </c>
       <c r="P8">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
+        <v>1.75</v>
+      </c>
+      <c r="S8">
+        <v>2.05</v>
+      </c>
+      <c r="T8">
+        <v>2.5</v>
+      </c>
+      <c r="U8">
         <v>1.825</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.975</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
-      <c r="V8">
-        <v>1.825</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1263,7 +1263,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6963167</v>
+        <v>6963166</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1886,7 +1886,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1898,31 +1898,31 @@
         <v>50</v>
       </c>
       <c r="K16">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N16">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
         <v>2.5</v>
@@ -1937,7 +1937,7 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -1946,7 +1946,7 @@
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB16">
         <v>-1</v>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6963166</v>
+        <v>6963167</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1975,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1987,31 +1987,31 @@
         <v>50</v>
       </c>
       <c r="K17">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L17">
+        <v>3.75</v>
+      </c>
+      <c r="M17">
+        <v>2.625</v>
+      </c>
+      <c r="N17">
+        <v>1.85</v>
+      </c>
+      <c r="O17">
+        <v>3.8</v>
+      </c>
+      <c r="P17">
         <v>3.6</v>
       </c>
-      <c r="M17">
-        <v>3.6</v>
-      </c>
-      <c r="N17">
-        <v>1.7</v>
-      </c>
-      <c r="O17">
-        <v>3.6</v>
-      </c>
-      <c r="P17">
-        <v>4.333</v>
-      </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
         <v>2.5</v>
@@ -2026,7 +2026,7 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2035,7 +2035,7 @@
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -2064,7 +2064,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2331,7 +2331,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7102510</v>
+        <v>6963169</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2420,73 +2420,73 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P22">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
+        <v>1.975</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
         <v>1.9</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>1.9</v>
       </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.8</v>
-      </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
       <c r="W22">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB22">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
       <c r="AC22">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6963169</v>
+        <v>7102510</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,73 +2509,73 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N23">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="Q23">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3043,7 +3043,7 @@
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6963173</v>
+        <v>6963171</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N32">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P32">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R32">
+        <v>1.725</v>
+      </c>
+      <c r="S32">
+        <v>2.075</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.775</v>
+      </c>
+      <c r="V32">
         <v>2.025</v>
       </c>
-      <c r="S32">
-        <v>1.775</v>
-      </c>
-      <c r="T32">
-        <v>2.75</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.875</v>
-      </c>
       <c r="W32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>-0</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>1.025</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
-      <c r="AB32">
-        <v>0.925</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6963171</v>
+        <v>6963173</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M33">
+        <v>5.5</v>
+      </c>
+      <c r="N33">
+        <v>1.45</v>
+      </c>
+      <c r="O33">
+        <v>4.2</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+      <c r="Q33">
+        <v>-1.25</v>
+      </c>
+      <c r="R33">
+        <v>2.025</v>
+      </c>
+      <c r="S33">
+        <v>1.775</v>
+      </c>
+      <c r="T33">
         <v>2.75</v>
       </c>
-      <c r="N33">
-        <v>2.45</v>
-      </c>
-      <c r="O33">
-        <v>3.1</v>
-      </c>
-      <c r="P33">
-        <v>2.8</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>1.725</v>
-      </c>
-      <c r="S33">
-        <v>2.075</v>
-      </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
       <c r="U33">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X33">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3666,7 +3666,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6963175</v>
+        <v>6962968</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,76 +4286,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
+        <v>2.5</v>
+      </c>
+      <c r="N43">
+        <v>2.55</v>
+      </c>
+      <c r="O43">
+        <v>3.2</v>
+      </c>
+      <c r="P43">
+        <v>2.5</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
         <v>1.85</v>
-      </c>
-      <c r="N43">
-        <v>4.5</v>
-      </c>
-      <c r="O43">
-        <v>3.75</v>
-      </c>
-      <c r="P43">
-        <v>1.615</v>
-      </c>
-      <c r="Q43">
-        <v>0.75</v>
-      </c>
-      <c r="R43">
-        <v>1.975</v>
-      </c>
-      <c r="S43">
-        <v>1.825</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
+        <v>1.975</v>
+      </c>
+      <c r="V43">
         <v>1.825</v>
       </c>
-      <c r="V43">
-        <v>1.975</v>
-      </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X43">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>0.95</v>
+      </c>
+      <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
       <c r="AC43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6962968</v>
+        <v>6963175</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N44">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
+        <v>1.825</v>
+      </c>
+      <c r="V44">
         <v>1.975</v>
       </c>
-      <c r="V44">
-        <v>1.825</v>
-      </c>
       <c r="W44">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
+        <v>-1</v>
+      </c>
+      <c r="AC44">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC44">
-        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4464,7 +4464,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4556,7 +4556,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4734,7 +4734,7 @@
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6962911</v>
+        <v>6962970</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,76 +4998,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K51">
         <v>2.1</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N51">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6962970</v>
+        <v>6962911</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,76 +5087,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52">
         <v>2.1</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
+        <v>3.25</v>
+      </c>
+      <c r="N52">
+        <v>2.2</v>
+      </c>
+      <c r="O52">
+        <v>3.2</v>
+      </c>
+      <c r="P52">
         <v>3.1</v>
       </c>
-      <c r="N52">
-        <v>1.909</v>
-      </c>
-      <c r="O52">
-        <v>3.5</v>
-      </c>
-      <c r="P52">
-        <v>3.6</v>
-      </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5176,10 +5176,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>4</v>
@@ -5253,7 +5253,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6962969</v>
+        <v>6962912</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5265,76 +5265,76 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K54">
+        <v>2.375</v>
+      </c>
+      <c r="L54">
+        <v>3.25</v>
+      </c>
+      <c r="M54">
+        <v>2.75</v>
+      </c>
+      <c r="N54">
         <v>2.6</v>
       </c>
-      <c r="L54">
-        <v>3.1</v>
-      </c>
-      <c r="M54">
-        <v>2.6</v>
-      </c>
-      <c r="N54">
-        <v>2.625</v>
-      </c>
       <c r="O54">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P54">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6962912</v>
+        <v>6962969</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,76 +5354,76 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M55">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N55">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O55">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5535,7 +5535,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5621,7 +5621,7 @@
         <v>45199.3125</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -5799,10 +5799,10 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6422,7 +6422,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
         <v>39</v>
@@ -6511,7 +6511,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6603,7 +6603,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6781,7 +6781,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>45220.3125</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -7493,7 +7493,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7671,7 +7671,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7846,7 +7846,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>45</v>
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6963191</v>
+        <v>6962919</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,10 +8024,10 @@
         <v>45227.3125</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8039,40 +8039,40 @@
         <v>49</v>
       </c>
       <c r="K85">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
+        <v>2.3</v>
+      </c>
+      <c r="N85">
         <v>3</v>
-      </c>
-      <c r="N85">
-        <v>2.375</v>
       </c>
       <c r="O85">
         <v>3.1</v>
       </c>
       <c r="P85">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8081,19 +8081,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6962919</v>
+        <v>6963191</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,10 +8113,10 @@
         <v>45227.3125</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8128,40 +8128,40 @@
         <v>49</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O86">
         <v>3.1</v>
       </c>
       <c r="P86">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8170,19 +8170,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8294,7 +8294,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8380,7 +8380,7 @@
         <v>45228.3125</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s">
         <v>39</v>
@@ -8650,7 +8650,7 @@
         <v>46</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8914,7 +8914,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
@@ -9080,7 +9080,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6962982</v>
+        <v>6963195</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9092,10 +9092,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F97" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" t="s">
         <v>43</v>
-      </c>
-      <c r="G97" t="s">
-        <v>45</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9107,43 +9107,43 @@
         <v>48</v>
       </c>
       <c r="K97">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="L97">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N97">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>0.2849999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9152,16 +9152,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6963195</v>
+        <v>6962982</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,10 +9181,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9196,43 +9196,43 @@
         <v>48</v>
       </c>
       <c r="K98">
+        <v>1.333</v>
+      </c>
+      <c r="L98">
+        <v>4.5</v>
+      </c>
+      <c r="M98">
+        <v>8</v>
+      </c>
+      <c r="N98">
+        <v>1.285</v>
+      </c>
+      <c r="O98">
+        <v>5</v>
+      </c>
+      <c r="P98">
+        <v>9</v>
+      </c>
+      <c r="Q98">
+        <v>-1.5</v>
+      </c>
+      <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>1.9</v>
+      </c>
+      <c r="T98">
+        <v>3</v>
+      </c>
+      <c r="U98">
         <v>1.95</v>
       </c>
-      <c r="L98">
-        <v>3.4</v>
-      </c>
-      <c r="M98">
-        <v>3.75</v>
-      </c>
-      <c r="N98">
-        <v>1.909</v>
-      </c>
-      <c r="O98">
-        <v>3.3</v>
-      </c>
-      <c r="P98">
-        <v>3.8</v>
-      </c>
-      <c r="Q98">
-        <v>-0.5</v>
-      </c>
-      <c r="R98">
-        <v>1.95</v>
-      </c>
-      <c r="S98">
+      <c r="V98">
         <v>1.85</v>
       </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
-      <c r="U98">
-        <v>1.825</v>
-      </c>
-      <c r="V98">
-        <v>1.975</v>
-      </c>
       <c r="W98">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9241,16 +9241,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9451,7 +9451,7 @@
         <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9540,7 +9540,7 @@
         <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9626,7 +9626,7 @@
         <v>45241.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>47</v>
@@ -10071,10 +10071,10 @@
         <v>45242.3125</v>
       </c>
       <c r="F108" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108" t="s">
         <v>42</v>
-      </c>
-      <c r="G108" t="s">
-        <v>43</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10516,7 +10516,7 @@
         <v>45255.3125</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
         <v>38</v>
@@ -10875,7 +10875,7 @@
         <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10964,7 +10964,7 @@
         <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11050,7 +11050,7 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
         <v>32</v>
@@ -11305,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6962991</v>
+        <v>7526759</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11317,46 +11317,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K122">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N122">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
         <v>2.5</v>
@@ -11371,22 +11371,22 @@
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y122">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7526759</v>
+        <v>6962991</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,46 +11406,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N123">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q123">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11460,22 +11460,22 @@
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB123">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA123">
-        <v>-1</v>
-      </c>
-      <c r="AB123">
-        <v>-1</v>
-      </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>45263.3125</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
@@ -11765,7 +11765,7 @@
         <v>36</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11943,7 +11943,7 @@
         <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12029,7 +12029,7 @@
         <v>45269.3125</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
         <v>33</v>
@@ -12385,7 +12385,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
         <v>41</v>
@@ -12474,7 +12474,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
         <v>37</v>
@@ -12741,7 +12741,7 @@
         <v>45279.33333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
         <v>44</v>
@@ -12833,7 +12833,7 @@
         <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13367,7 +13367,7 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13542,10 +13542,10 @@
         <v>45283.3125</v>
       </c>
       <c r="F147" t="s">
+        <v>35</v>
+      </c>
+      <c r="G147" t="s">
         <v>34</v>
-      </c>
-      <c r="G147" t="s">
-        <v>35</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6962933</v>
+        <v>6962998</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,73 +13720,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
         <v>3</v>
       </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L149">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M149">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N149">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O149">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P149">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z149">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13797,7 +13797,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6962998</v>
+        <v>6962933</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13809,73 +13809,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F150" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L150">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M150">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N150">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O150">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q150">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
+        <v>1.9</v>
+      </c>
+      <c r="V150">
+        <v>1.9</v>
+      </c>
+      <c r="W150">
         <v>1.8</v>
       </c>
-      <c r="V150">
-        <v>2</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA150">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -14076,7 +14076,7 @@
         <v>45285.33333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
         <v>38</v>
@@ -14432,7 +14432,7 @@
         <v>45304.3125</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
         <v>36</v>
@@ -14788,7 +14788,7 @@
         <v>45305.3125</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -14880,7 +14880,7 @@
         <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15325,7 +15325,7 @@
         <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6963004</v>
+        <v>6963223</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,76 +15500,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K169">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="L169">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M169">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N169">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P169">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>2.05</v>
+      </c>
+      <c r="S169">
+        <v>1.75</v>
+      </c>
+      <c r="T169">
+        <v>2.25</v>
+      </c>
+      <c r="U169">
+        <v>1.775</v>
+      </c>
+      <c r="V169">
+        <v>2.025</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>2.2</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>-0</v>
+      </c>
+      <c r="AB169">
         <v>-0.5</v>
       </c>
-      <c r="R169">
-        <v>1.775</v>
-      </c>
-      <c r="S169">
-        <v>2.025</v>
-      </c>
-      <c r="T169">
-        <v>2.5</v>
-      </c>
-      <c r="U169">
-        <v>2.025</v>
-      </c>
-      <c r="V169">
-        <v>1.775</v>
-      </c>
-      <c r="W169">
-        <v>0.8</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
-      <c r="AB169">
-        <v>-1</v>
-      </c>
       <c r="AC169">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6963223</v>
+        <v>6963004</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,76 +15589,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K170">
+        <v>1.85</v>
+      </c>
+      <c r="L170">
         <v>3.4</v>
       </c>
-      <c r="L170">
-        <v>3.25</v>
-      </c>
       <c r="M170">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N170">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P170">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S170">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
+        <v>2.025</v>
+      </c>
+      <c r="V170">
         <v>1.775</v>
       </c>
-      <c r="V170">
-        <v>2.025</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X170">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>45312.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
         <v>44</v>
@@ -16034,7 +16034,7 @@
         <v>45318.3125</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
         <v>36</v>
@@ -16215,7 +16215,7 @@
         <v>46</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>4</v>
@@ -16289,7 +16289,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7732507</v>
+        <v>6963271</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16301,13 +16301,13 @@
         <v>45319.3125</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H178">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16316,43 +16316,43 @@
         <v>48</v>
       </c>
       <c r="K178">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="L178">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="N178">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="O178">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P178">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="Q178">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W178">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16361,16 +16361,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16378,7 +16378,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6963271</v>
+        <v>7732507</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16390,13 +16390,13 @@
         <v>45319.3125</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16405,43 +16405,43 @@
         <v>48</v>
       </c>
       <c r="K179">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M179">
-        <v>3.8</v>
+        <v>23</v>
       </c>
       <c r="N179">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="O179">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P179">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16450,16 +16450,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16749,7 +16749,7 @@
         <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -17280,10 +17280,10 @@
         <v>45326.3125</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17369,7 +17369,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
         <v>39</v>
@@ -17906,7 +17906,7 @@
         <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17992,7 +17992,7 @@
         <v>45333.3125</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G197" t="s">
         <v>37</v>
@@ -18170,7 +18170,7 @@
         <v>45333.54166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G199" t="s">
         <v>47</v>
@@ -18262,7 +18262,7 @@
         <v>46</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18351,7 +18351,7 @@
         <v>37</v>
       </c>
       <c r="G201" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18437,7 +18437,7 @@
         <v>45339.3125</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G202" t="s">
         <v>31</v>
@@ -19060,10 +19060,10 @@
         <v>45341.33333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19238,7 +19238,7 @@
         <v>45346.3125</v>
       </c>
       <c r="F211" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -19683,10 +19683,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G216" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19864,7 +19864,16 @@
         <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>50</v>
       </c>
       <c r="K218">
         <v>2</v>
@@ -19876,45 +19885,569 @@
         <v>3.5</v>
       </c>
       <c r="N218">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O218">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q218">
         <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S218">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T218">
         <v>2.25</v>
       </c>
       <c r="U218">
+        <v>2.025</v>
+      </c>
+      <c r="V218">
+        <v>1.775</v>
+      </c>
+      <c r="W218">
+        <v>-1</v>
+      </c>
+      <c r="X218">
+        <v>2.2</v>
+      </c>
+      <c r="Y218">
+        <v>-1</v>
+      </c>
+      <c r="Z218">
+        <v>-1</v>
+      </c>
+      <c r="AA218">
+        <v>0.8</v>
+      </c>
+      <c r="AB218">
+        <v>-1</v>
+      </c>
+      <c r="AC218">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>6963017</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45352.58333333334</v>
+      </c>
+      <c r="F219" t="s">
+        <v>40</v>
+      </c>
+      <c r="G219" t="s">
+        <v>45</v>
+      </c>
+      <c r="K219">
+        <v>1.363</v>
+      </c>
+      <c r="L219">
+        <v>4.75</v>
+      </c>
+      <c r="M219">
+        <v>7</v>
+      </c>
+      <c r="N219">
+        <v>1.363</v>
+      </c>
+      <c r="O219">
+        <v>4.75</v>
+      </c>
+      <c r="P219">
+        <v>7</v>
+      </c>
+      <c r="Q219">
+        <v>-1.25</v>
+      </c>
+      <c r="R219">
+        <v>1.825</v>
+      </c>
+      <c r="S219">
+        <v>1.975</v>
+      </c>
+      <c r="T219">
+        <v>2.75</v>
+      </c>
+      <c r="U219">
+        <v>1.85</v>
+      </c>
+      <c r="V219">
+        <v>1.95</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>6963241</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45353.3125</v>
+      </c>
+      <c r="F220" t="s">
+        <v>29</v>
+      </c>
+      <c r="G220" t="s">
+        <v>46</v>
+      </c>
+      <c r="K220">
+        <v>3.1</v>
+      </c>
+      <c r="L220">
+        <v>3.4</v>
+      </c>
+      <c r="M220">
+        <v>2.2</v>
+      </c>
+      <c r="N220">
+        <v>3.1</v>
+      </c>
+      <c r="O220">
+        <v>3.4</v>
+      </c>
+      <c r="P220">
+        <v>2.2</v>
+      </c>
+      <c r="Q220">
+        <v>0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.85</v>
+      </c>
+      <c r="S220">
+        <v>1.95</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>1.95</v>
+      </c>
+      <c r="V220">
+        <v>1.85</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>6962949</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F221" t="s">
+        <v>36</v>
+      </c>
+      <c r="G221" t="s">
+        <v>33</v>
+      </c>
+      <c r="K221">
+        <v>3.25</v>
+      </c>
+      <c r="L221">
+        <v>3.25</v>
+      </c>
+      <c r="M221">
+        <v>2.15</v>
+      </c>
+      <c r="N221">
+        <v>3.2</v>
+      </c>
+      <c r="O221">
+        <v>3.25</v>
+      </c>
+      <c r="P221">
+        <v>2.25</v>
+      </c>
+      <c r="Q221">
+        <v>0.25</v>
+      </c>
+      <c r="R221">
+        <v>1.85</v>
+      </c>
+      <c r="S221">
+        <v>1.95</v>
+      </c>
+      <c r="T221">
+        <v>2.25</v>
+      </c>
+      <c r="U221">
+        <v>2</v>
+      </c>
+      <c r="V221">
         <v>1.8</v>
       </c>
-      <c r="V218">
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>6963018</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45353.54166666666</v>
+      </c>
+      <c r="F222" t="s">
+        <v>44</v>
+      </c>
+      <c r="G222" t="s">
+        <v>43</v>
+      </c>
+      <c r="K222">
+        <v>2.1</v>
+      </c>
+      <c r="L222">
+        <v>3.25</v>
+      </c>
+      <c r="M222">
+        <v>3.4</v>
+      </c>
+      <c r="N222">
+        <v>2.1</v>
+      </c>
+      <c r="O222">
+        <v>3.25</v>
+      </c>
+      <c r="P222">
+        <v>3.4</v>
+      </c>
+      <c r="Q222">
+        <v>-0.25</v>
+      </c>
+      <c r="R222">
+        <v>1.85</v>
+      </c>
+      <c r="S222">
+        <v>1.95</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
+        <v>1.95</v>
+      </c>
+      <c r="V222">
+        <v>1.85</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>6963016</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45354.3125</v>
+      </c>
+      <c r="F223" t="s">
+        <v>47</v>
+      </c>
+      <c r="G223" t="s">
+        <v>41</v>
+      </c>
+      <c r="K223">
+        <v>5</v>
+      </c>
+      <c r="L223">
+        <v>3.6</v>
+      </c>
+      <c r="M223">
+        <v>1.65</v>
+      </c>
+      <c r="N223">
+        <v>4.75</v>
+      </c>
+      <c r="O223">
+        <v>3.6</v>
+      </c>
+      <c r="P223">
+        <v>1.7</v>
+      </c>
+      <c r="Q223">
+        <v>0.75</v>
+      </c>
+      <c r="R223">
+        <v>1.85</v>
+      </c>
+      <c r="S223">
+        <v>1.95</v>
+      </c>
+      <c r="T223">
+        <v>2.25</v>
+      </c>
+      <c r="U223">
+        <v>1.85</v>
+      </c>
+      <c r="V223">
+        <v>1.95</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>6962948</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45354.41666666666</v>
+      </c>
+      <c r="F224" t="s">
+        <v>37</v>
+      </c>
+      <c r="G224" t="s">
+        <v>31</v>
+      </c>
+      <c r="K224">
+        <v>1.45</v>
+      </c>
+      <c r="L224">
+        <v>4.333</v>
+      </c>
+      <c r="M224">
+        <v>6</v>
+      </c>
+      <c r="N224">
+        <v>1.45</v>
+      </c>
+      <c r="O224">
+        <v>4.333</v>
+      </c>
+      <c r="P224">
+        <v>6</v>
+      </c>
+      <c r="Q224">
+        <v>-1</v>
+      </c>
+      <c r="R224">
+        <v>1.825</v>
+      </c>
+      <c r="S224">
+        <v>1.975</v>
+      </c>
+      <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
+        <v>1.9</v>
+      </c>
+      <c r="V224">
+        <v>1.9</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>6963240</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45354.54166666666</v>
+      </c>
+      <c r="F225" t="s">
+        <v>39</v>
+      </c>
+      <c r="G225" t="s">
+        <v>42</v>
+      </c>
+      <c r="K225">
+        <v>2.375</v>
+      </c>
+      <c r="L225">
+        <v>3.2</v>
+      </c>
+      <c r="M225">
+        <v>2.9</v>
+      </c>
+      <c r="N225">
+        <v>2.375</v>
+      </c>
+      <c r="O225">
+        <v>3.2</v>
+      </c>
+      <c r="P225">
+        <v>2.9</v>
+      </c>
+      <c r="Q225">
+        <v>-0.25</v>
+      </c>
+      <c r="R225">
         <v>2</v>
       </c>
-      <c r="W218">
-        <v>0</v>
-      </c>
-      <c r="X218">
-        <v>0</v>
-      </c>
-      <c r="Y218">
-        <v>0</v>
-      </c>
-      <c r="Z218">
-        <v>0</v>
-      </c>
-      <c r="AA218">
+      <c r="S225">
+        <v>1.8</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
+        <v>2</v>
+      </c>
+      <c r="V225">
+        <v>1.8</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
         <v>0</v>
       </c>
     </row>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Adanaspor</t>
   </si>
   <si>
-    <t>Bandirmaspor</t>
+    <t>Manisa BBSK</t>
   </si>
   <si>
-    <t>Manisa BBSK</t>
+    <t>Bandirmaspor</t>
   </si>
   <si>
     <t>Sakaryaspor</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC225"/>
+  <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,7 +996,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6963166</v>
+        <v>6963167</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1886,7 +1886,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1898,31 +1898,31 @@
         <v>50</v>
       </c>
       <c r="K16">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L16">
+        <v>3.75</v>
+      </c>
+      <c r="M16">
+        <v>2.625</v>
+      </c>
+      <c r="N16">
+        <v>1.85</v>
+      </c>
+      <c r="O16">
+        <v>3.8</v>
+      </c>
+      <c r="P16">
         <v>3.6</v>
       </c>
-      <c r="M16">
-        <v>3.6</v>
-      </c>
-      <c r="N16">
-        <v>1.7</v>
-      </c>
-      <c r="O16">
-        <v>3.6</v>
-      </c>
-      <c r="P16">
-        <v>4.333</v>
-      </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
         <v>2.5</v>
@@ -1937,7 +1937,7 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -1946,7 +1946,7 @@
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB16">
         <v>-1</v>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6963167</v>
+        <v>6963166</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1975,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1987,31 +1987,31 @@
         <v>50</v>
       </c>
       <c r="K17">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
         <v>2.5</v>
@@ -2026,7 +2026,7 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2035,7 +2035,7 @@
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -2331,7 +2331,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6963169</v>
+        <v>7102510</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N22">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="O22">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P22">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="Q22">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7102510</v>
+        <v>6963169</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,76 +2506,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P23">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R23">
+        <v>1.825</v>
+      </c>
+      <c r="S23">
+        <v>1.975</v>
+      </c>
+      <c r="T23">
+        <v>2.5</v>
+      </c>
+      <c r="U23">
         <v>1.9</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>1.9</v>
       </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
       <c r="W23">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB23">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
       <c r="AC23">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3043,7 +3043,7 @@
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6963171</v>
+        <v>6963173</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M32">
+        <v>5.5</v>
+      </c>
+      <c r="N32">
+        <v>1.45</v>
+      </c>
+      <c r="O32">
+        <v>4.2</v>
+      </c>
+      <c r="P32">
+        <v>7</v>
+      </c>
+      <c r="Q32">
+        <v>-1.25</v>
+      </c>
+      <c r="R32">
+        <v>2.025</v>
+      </c>
+      <c r="S32">
+        <v>1.775</v>
+      </c>
+      <c r="T32">
         <v>2.75</v>
       </c>
-      <c r="N32">
-        <v>2.45</v>
-      </c>
-      <c r="O32">
-        <v>3.1</v>
-      </c>
-      <c r="P32">
-        <v>2.8</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.725</v>
-      </c>
-      <c r="S32">
-        <v>2.075</v>
-      </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
       <c r="U32">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X32">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA32">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC32">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6963173</v>
+        <v>6963171</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P33">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q33">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R33">
+        <v>1.725</v>
+      </c>
+      <c r="S33">
+        <v>2.075</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>1.775</v>
+      </c>
+      <c r="V33">
         <v>2.025</v>
       </c>
-      <c r="S33">
-        <v>1.775</v>
-      </c>
-      <c r="T33">
-        <v>2.75</v>
-      </c>
-      <c r="U33">
-        <v>1.925</v>
-      </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
       <c r="W33">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>-0</v>
+      </c>
+      <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>1.025</v>
-      </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
-      <c r="AB33">
-        <v>0.925</v>
-      </c>
-      <c r="AC33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6963033</v>
+        <v>6962908</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,76 +3752,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N37">
+        <v>3.4</v>
+      </c>
+      <c r="O37">
+        <v>3.4</v>
+      </c>
+      <c r="P37">
         <v>2</v>
       </c>
-      <c r="O37">
-        <v>3.3</v>
-      </c>
-      <c r="P37">
-        <v>3.4</v>
-      </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
         <v>2</v>
-      </c>
-      <c r="S37">
-        <v>1.8</v>
       </c>
       <c r="T37">
         <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6962908</v>
+        <v>6963033</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L38">
+        <v>3.6</v>
+      </c>
+      <c r="M38">
+        <v>4.5</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
         <v>3.3</v>
       </c>
-      <c r="M38">
-        <v>2.25</v>
-      </c>
-      <c r="N38">
+      <c r="P38">
         <v>3.4</v>
       </c>
-      <c r="O38">
-        <v>3.4</v>
-      </c>
-      <c r="P38">
+      <c r="Q38">
+        <v>-0.5</v>
+      </c>
+      <c r="R38">
         <v>2</v>
       </c>
-      <c r="Q38">
-        <v>0.5</v>
-      </c>
-      <c r="R38">
+      <c r="S38">
         <v>1.8</v>
-      </c>
-      <c r="S38">
-        <v>2</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6962966</v>
+        <v>6963034</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,13 +3930,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3945,43 +3945,43 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
         <v>3.25</v>
       </c>
-      <c r="M39">
-        <v>3.4</v>
-      </c>
       <c r="N39">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P39">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3990,16 +3990,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4007,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6963034</v>
+        <v>6962966</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4019,13 +4019,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4034,43 +4034,43 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
+        <v>3.4</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
         <v>3.25</v>
       </c>
-      <c r="N40">
-        <v>2.2</v>
-      </c>
-      <c r="O40">
-        <v>2.9</v>
-      </c>
       <c r="P40">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q40">
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4079,16 +4079,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4378,7 +4378,7 @@
         <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4719,7 +4719,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6963176</v>
+        <v>6963179</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4731,58 +4731,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>48</v>
       </c>
       <c r="K48">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P48">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4791,16 +4791,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6963179</v>
+        <v>6963176</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,58 +4820,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>48</v>
       </c>
       <c r="K49">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L49">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O49">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P49">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
+        <v>1.8</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>2.5</v>
+      </c>
+      <c r="U49">
+        <v>1.875</v>
+      </c>
+      <c r="V49">
         <v>1.925</v>
       </c>
-      <c r="S49">
-        <v>1.875</v>
-      </c>
-      <c r="T49">
-        <v>2.75</v>
-      </c>
-      <c r="U49">
-        <v>1.975</v>
-      </c>
-      <c r="V49">
-        <v>1.825</v>
-      </c>
       <c r="W49">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4880,16 +4880,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5087,7 +5087,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5176,7 +5176,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
         <v>35</v>
@@ -5253,7 +5253,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6962912</v>
+        <v>6962969</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5265,76 +5265,76 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K54">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="L54">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M54">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N54">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O54">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6962969</v>
+        <v>6962912</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,76 +5354,76 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55">
+        <v>2.375</v>
+      </c>
+      <c r="L55">
+        <v>3.25</v>
+      </c>
+      <c r="M55">
+        <v>2.75</v>
+      </c>
+      <c r="N55">
         <v>2.6</v>
       </c>
-      <c r="L55">
-        <v>3.1</v>
-      </c>
-      <c r="M55">
-        <v>2.6</v>
-      </c>
-      <c r="N55">
-        <v>2.625</v>
-      </c>
       <c r="O55">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P55">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W55">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5535,7 +5535,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6422,7 +6422,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
         <v>39</v>
@@ -6511,7 +6511,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6855,7 +6855,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6962974</v>
+        <v>6962915</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6867,76 +6867,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L72">
+        <v>3.2</v>
+      </c>
+      <c r="M72">
+        <v>2.3</v>
+      </c>
+      <c r="N72">
+        <v>2.75</v>
+      </c>
+      <c r="O72">
         <v>3.25</v>
       </c>
-      <c r="M72">
-        <v>3</v>
-      </c>
-      <c r="N72">
-        <v>2.05</v>
-      </c>
-      <c r="O72">
-        <v>3.1</v>
-      </c>
       <c r="P72">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="S72">
         <v>1.8</v>
-      </c>
-      <c r="S72">
-        <v>2</v>
       </c>
       <c r="T72">
         <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W72">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z72">
+        <v>-1</v>
+      </c>
+      <c r="AA72">
         <v>0.8</v>
       </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6944,7 +6944,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6962915</v>
+        <v>6962974</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6956,76 +6956,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K73">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P73">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
         <v>2</v>
-      </c>
-      <c r="S73">
-        <v>1.8</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6963186</v>
+        <v>6962917</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,55 +7134,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>49</v>
       </c>
       <c r="K75">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N75">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7191,19 +7191,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6962917</v>
+        <v>6963186</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,55 +7223,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>1</v>
-      </c>
-      <c r="I76">
-        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>49</v>
       </c>
       <c r="K76">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N76">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7280,19 +7280,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7493,7 +7493,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7671,7 +7671,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6962919</v>
+        <v>6963191</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,10 +8024,10 @@
         <v>45227.3125</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8039,40 +8039,40 @@
         <v>49</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O85">
         <v>3.1</v>
       </c>
       <c r="P85">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8081,19 +8081,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6963191</v>
+        <v>6962919</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,10 +8113,10 @@
         <v>45227.3125</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8128,40 +8128,40 @@
         <v>49</v>
       </c>
       <c r="K86">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
+        <v>2.3</v>
+      </c>
+      <c r="N86">
         <v>3</v>
-      </c>
-      <c r="N86">
-        <v>2.375</v>
       </c>
       <c r="O86">
         <v>3.1</v>
       </c>
       <c r="P86">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S86">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8170,19 +8170,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8380,7 +8380,7 @@
         <v>45228.3125</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
         <v>39</v>
@@ -8457,7 +8457,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6962979</v>
+        <v>6962980</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,76 +8469,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L90">
         <v>3.2</v>
       </c>
       <c r="M90">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P90">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T90">
         <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z90">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6962980</v>
+        <v>6962979</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
         <v>3.2</v>
       </c>
       <c r="M91">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N91">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
         <v>2.5</v>
       </c>
       <c r="U91">
+        <v>1.875</v>
+      </c>
+      <c r="V91">
+        <v>1.925</v>
+      </c>
+      <c r="W91">
         <v>2</v>
       </c>
-      <c r="V91">
-        <v>1.8</v>
-      </c>
-      <c r="W91">
-        <v>-1</v>
-      </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8650,7 +8650,7 @@
         <v>46</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9181,7 +9181,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7437372</v>
+        <v>7437371</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,37 +9982,37 @@
         <v>45242.3125</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
         <v>2</v>
-      </c>
-      <c r="I107">
-        <v>3</v>
       </c>
       <c r="J107" t="s">
         <v>49</v>
       </c>
       <c r="K107">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L107">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M107">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N107">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -10024,7 +10024,7 @@
         <v>2</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
         <v>2</v>
@@ -10039,7 +10039,7 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.8</v>
+        <v>1.625</v>
       </c>
       <c r="Z107">
         <v>-1</v>
@@ -10048,10 +10048,10 @@
         <v>1</v>
       </c>
       <c r="AB107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7437371</v>
+        <v>7437372</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,37 +10071,37 @@
         <v>45242.3125</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
         <v>49</v>
       </c>
       <c r="K108">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M108">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N108">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -10113,7 +10113,7 @@
         <v>2</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
         <v>2</v>
@@ -10128,7 +10128,7 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.625</v>
+        <v>1.8</v>
       </c>
       <c r="Z108">
         <v>-1</v>
@@ -10137,10 +10137,10 @@
         <v>1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7482211</v>
+        <v>7482213</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,10 +10427,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10442,40 +10442,40 @@
         <v>49</v>
       </c>
       <c r="K112">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N112">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="O112">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P112">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q112">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,19 +10484,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7482213</v>
+        <v>7482211</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,10 +10516,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10531,40 +10531,40 @@
         <v>49</v>
       </c>
       <c r="K113">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L113">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N113">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="O113">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P113">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q113">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,19 +10573,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10875,7 +10875,7 @@
         <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11305,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7526759</v>
+        <v>6962991</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11317,46 +11317,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K122">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N122">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O122">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P122">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q122">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T122">
         <v>2.5</v>
@@ -11371,22 +11371,22 @@
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB122">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6962991</v>
+        <v>7526759</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,46 +11406,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K123">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N123">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11460,22 +11460,22 @@
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y123">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>45263.3125</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
@@ -12029,7 +12029,7 @@
         <v>45269.3125</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
         <v>33</v>
@@ -12385,7 +12385,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
         <v>41</v>
@@ -13011,7 +13011,7 @@
         <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13367,7 +13367,7 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13720,7 +13720,7 @@
         <v>45284.3125</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
         <v>41</v>
@@ -14076,7 +14076,7 @@
         <v>45285.33333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
         <v>38</v>
@@ -14420,7 +14420,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7656973</v>
+        <v>6963219</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14432,76 +14432,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K157">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M157">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N157">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="O157">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P157">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X157">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6963219</v>
+        <v>7656973</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="L158">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M158">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N158">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="O158">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q158">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14788,7 +14788,7 @@
         <v>45305.3125</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -15325,7 +15325,7 @@
         <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6963223</v>
+        <v>6963004</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,76 +15500,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K169">
+        <v>1.85</v>
+      </c>
+      <c r="L169">
         <v>3.4</v>
       </c>
-      <c r="L169">
-        <v>3.25</v>
-      </c>
       <c r="M169">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N169">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O169">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S169">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
+        <v>2.025</v>
+      </c>
+      <c r="V169">
         <v>1.775</v>
       </c>
-      <c r="V169">
-        <v>2.025</v>
-      </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X169">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6963004</v>
+        <v>6963223</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,76 +15589,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K170">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="L170">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M170">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N170">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O170">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P170">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>2.05</v>
+      </c>
+      <c r="S170">
+        <v>1.75</v>
+      </c>
+      <c r="T170">
+        <v>2.25</v>
+      </c>
+      <c r="U170">
+        <v>1.775</v>
+      </c>
+      <c r="V170">
+        <v>2.025</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>2.2</v>
+      </c>
+      <c r="Y170">
+        <v>-1</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>-0</v>
+      </c>
+      <c r="AB170">
         <v>-0.5</v>
       </c>
-      <c r="R170">
-        <v>1.775</v>
-      </c>
-      <c r="S170">
-        <v>2.025</v>
-      </c>
-      <c r="T170">
-        <v>2.5</v>
-      </c>
-      <c r="U170">
-        <v>2.025</v>
-      </c>
-      <c r="V170">
-        <v>1.775</v>
-      </c>
-      <c r="W170">
-        <v>0.8</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
-      <c r="Z170">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA170">
-        <v>-1</v>
-      </c>
-      <c r="AB170">
-        <v>-1</v>
-      </c>
       <c r="AC170">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16034,7 +16034,7 @@
         <v>45318.3125</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
         <v>36</v>
@@ -16289,7 +16289,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6963271</v>
+        <v>7732507</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16301,13 +16301,13 @@
         <v>45319.3125</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16316,43 +16316,43 @@
         <v>48</v>
       </c>
       <c r="K178">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M178">
-        <v>3.8</v>
+        <v>23</v>
       </c>
       <c r="N178">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="O178">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P178">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16361,16 +16361,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC178">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16378,7 +16378,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7732507</v>
+        <v>6963271</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16390,13 +16390,13 @@
         <v>45319.3125</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H179">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16405,43 +16405,43 @@
         <v>48</v>
       </c>
       <c r="K179">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="L179">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="N179">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="O179">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P179">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="Q179">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16450,16 +16450,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16749,7 +16749,7 @@
         <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6963045</v>
+        <v>6963229</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,58 +17191,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H188">
         <v>2</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L188">
+        <v>3.4</v>
+      </c>
+      <c r="M188">
+        <v>2.05</v>
+      </c>
+      <c r="N188">
         <v>3.5</v>
       </c>
-      <c r="M188">
-        <v>3.75</v>
-      </c>
-      <c r="N188">
-        <v>1.95</v>
-      </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V188">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W188">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17251,16 +17251,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC188">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17268,7 +17268,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6963229</v>
+        <v>6963045</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17280,58 +17280,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L189">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M189">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="N189">
+        <v>1.95</v>
+      </c>
+      <c r="O189">
         <v>3.5</v>
       </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
       <c r="P189">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17340,16 +17340,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17891,7 +17891,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6963009</v>
+        <v>6962943</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17903,76 +17903,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
         <v>2</v>
       </c>
-      <c r="I196">
-        <v>1</v>
-      </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L196">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M196">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N196">
         <v>2.375</v>
       </c>
       <c r="O196">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P196">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q196">
         <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S196">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W196">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17980,7 +17980,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6962943</v>
+        <v>6963009</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17992,76 +17992,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K197">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L197">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M197">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N197">
         <v>2.375</v>
       </c>
       <c r="O197">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P197">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q197">
         <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S197">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V197">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA197">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC197">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18170,7 +18170,7 @@
         <v>45333.54166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G199" t="s">
         <v>47</v>
@@ -18351,7 +18351,7 @@
         <v>37</v>
       </c>
       <c r="G201" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18692,7 +18692,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6963011</v>
+        <v>6963013</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,13 +18704,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -18719,43 +18719,43 @@
         <v>48</v>
       </c>
       <c r="K205">
-        <v>1.727</v>
+        <v>1.181</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M205">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N205">
-        <v>1.7</v>
+        <v>1.166</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P205">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R205">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>0.7</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18764,16 +18764,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>0.4</v>
+      </c>
+      <c r="AC205">
         <v>-0.5</v>
-      </c>
-      <c r="AB205">
-        <v>-1</v>
-      </c>
-      <c r="AC205">
-        <v>0.95</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6963013</v>
+        <v>6963011</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,13 +18793,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -18808,43 +18808,43 @@
         <v>48</v>
       </c>
       <c r="K206">
-        <v>1.181</v>
+        <v>1.727</v>
       </c>
       <c r="L206">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N206">
-        <v>1.166</v>
+        <v>1.7</v>
       </c>
       <c r="O206">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q206">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W206">
-        <v>0.1659999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18853,16 +18853,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB206">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>35</v>
       </c>
       <c r="G209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19238,7 +19238,7 @@
         <v>45346.3125</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -19493,7 +19493,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6962946</v>
+        <v>6963238</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19505,76 +19505,76 @@
         <v>45347.3125</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214" t="s">
+        <v>48</v>
+      </c>
+      <c r="K214">
+        <v>2.15</v>
+      </c>
+      <c r="L214">
+        <v>3.2</v>
+      </c>
+      <c r="M214">
+        <v>3.5</v>
+      </c>
+      <c r="N214">
+        <v>2.3</v>
+      </c>
+      <c r="O214">
+        <v>3.1</v>
+      </c>
+      <c r="P214">
+        <v>3.25</v>
+      </c>
+      <c r="Q214">
+        <v>-0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
+        <v>1.85</v>
+      </c>
+      <c r="T214">
         <v>2</v>
       </c>
-      <c r="I214">
+      <c r="U214">
+        <v>1.8</v>
+      </c>
+      <c r="V214">
         <v>2</v>
       </c>
-      <c r="J214" t="s">
-        <v>50</v>
-      </c>
-      <c r="K214">
-        <v>3.8</v>
-      </c>
-      <c r="L214">
-        <v>3.4</v>
-      </c>
-      <c r="M214">
-        <v>1.95</v>
-      </c>
-      <c r="N214">
-        <v>4</v>
-      </c>
-      <c r="O214">
-        <v>3.4</v>
-      </c>
-      <c r="P214">
-        <v>1.909</v>
-      </c>
-      <c r="Q214">
-        <v>0.5</v>
-      </c>
-      <c r="R214">
-        <v>1.825</v>
-      </c>
-      <c r="S214">
-        <v>1.975</v>
-      </c>
-      <c r="T214">
-        <v>2.25</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
-      <c r="V214">
-        <v>1.9</v>
-      </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X214">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19582,7 +19582,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6963238</v>
+        <v>6962946</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19594,76 +19594,76 @@
         <v>45347.3125</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K215">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="N215">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O215">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S215">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC215">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19683,7 +19683,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G216" t="s">
         <v>35</v>
@@ -19965,31 +19965,31 @@
         <v>7</v>
       </c>
       <c r="N219">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O219">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P219">
         <v>7</v>
       </c>
       <c r="Q219">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R219">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S219">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U219">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -20051,19 +20051,19 @@
         <v>0.25</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T220">
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20086,7 +20086,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6962949</v>
+        <v>6963239</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20095,40 +20095,40 @@
         <v>28</v>
       </c>
       <c r="E221" s="2">
-        <v>45353.41666666666</v>
+        <v>45353.3125</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K221">
-        <v>3.25</v>
+        <v>2.35</v>
       </c>
       <c r="L221">
         <v>3.25</v>
       </c>
       <c r="M221">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N221">
+        <v>2.6</v>
+      </c>
+      <c r="O221">
         <v>3.2</v>
       </c>
-      <c r="O221">
-        <v>3.25</v>
-      </c>
       <c r="P221">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T221">
         <v>2.25</v>
@@ -20160,7 +20160,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6963018</v>
+        <v>6962949</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20169,34 +20169,34 @@
         <v>28</v>
       </c>
       <c r="E222" s="2">
-        <v>45353.54166666666</v>
+        <v>45353.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K222">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L222">
         <v>3.25</v>
       </c>
       <c r="M222">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="N222">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="O222">
         <v>3.25</v>
       </c>
       <c r="P222">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
         <v>1.85</v>
@@ -20205,13 +20205,13 @@
         <v>1.95</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W222">
         <v>0</v>
@@ -20234,7 +20234,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6963016</v>
+        <v>6963018</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20243,49 +20243,49 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45354.3125</v>
+        <v>45353.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G223" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K223">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L223">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M223">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="N223">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="O223">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P223">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q223">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
+        <v>1.825</v>
+      </c>
+      <c r="S223">
+        <v>1.975</v>
+      </c>
+      <c r="T223">
+        <v>2.5</v>
+      </c>
+      <c r="U223">
+        <v>1.95</v>
+      </c>
+      <c r="V223">
         <v>1.85</v>
-      </c>
-      <c r="S223">
-        <v>1.95</v>
-      </c>
-      <c r="T223">
-        <v>2.25</v>
-      </c>
-      <c r="U223">
-        <v>1.85</v>
-      </c>
-      <c r="V223">
-        <v>1.95</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20308,7 +20308,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6962948</v>
+        <v>6963016</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20317,49 +20317,49 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45354.41666666666</v>
+        <v>45354.3125</v>
       </c>
       <c r="F224" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G224" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K224">
-        <v>1.45</v>
+        <v>5</v>
       </c>
       <c r="L224">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M224">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="N224">
-        <v>1.45</v>
+        <v>5.5</v>
       </c>
       <c r="O224">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P224">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="Q224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R224">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S224">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V224">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20382,7 +20382,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6963240</v>
+        <v>6962948</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20391,63 +20391,211 @@
         <v>28</v>
       </c>
       <c r="E225" s="2">
-        <v>45354.54166666666</v>
+        <v>45354.41666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G225" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K225">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="L225">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M225">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N225">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="O225">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P225">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R225">
+        <v>1.8</v>
+      </c>
+      <c r="S225">
         <v>2</v>
-      </c>
-      <c r="S225">
-        <v>1.8</v>
       </c>
       <c r="T225">
         <v>2.5</v>
       </c>
       <c r="U225">
+        <v>1.9</v>
+      </c>
+      <c r="V225">
+        <v>1.9</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>6963240</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45354.54166666666</v>
+      </c>
+      <c r="F226" t="s">
+        <v>39</v>
+      </c>
+      <c r="G226" t="s">
+        <v>43</v>
+      </c>
+      <c r="K226">
+        <v>2.375</v>
+      </c>
+      <c r="L226">
+        <v>3.2</v>
+      </c>
+      <c r="M226">
+        <v>2.9</v>
+      </c>
+      <c r="N226">
+        <v>2.375</v>
+      </c>
+      <c r="O226">
+        <v>3.2</v>
+      </c>
+      <c r="P226">
+        <v>2.9</v>
+      </c>
+      <c r="Q226">
+        <v>-0.25</v>
+      </c>
+      <c r="R226">
         <v>2</v>
       </c>
-      <c r="V225">
+      <c r="S226">
         <v>1.8</v>
       </c>
-      <c r="W225">
-        <v>0</v>
-      </c>
-      <c r="X225">
-        <v>0</v>
-      </c>
-      <c r="Y225">
-        <v>0</v>
-      </c>
-      <c r="Z225">
-        <v>0</v>
-      </c>
-      <c r="AA225">
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
+        <v>2</v>
+      </c>
+      <c r="V226">
+        <v>1.8</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>6963048</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45355.58333333334</v>
+      </c>
+      <c r="F227" t="s">
+        <v>35</v>
+      </c>
+      <c r="G227" t="s">
+        <v>38</v>
+      </c>
+      <c r="K227">
+        <v>1.8</v>
+      </c>
+      <c r="L227">
+        <v>3.4</v>
+      </c>
+      <c r="M227">
+        <v>4.2</v>
+      </c>
+      <c r="N227">
+        <v>1.85</v>
+      </c>
+      <c r="O227">
+        <v>3.3</v>
+      </c>
+      <c r="P227">
+        <v>4</v>
+      </c>
+      <c r="Q227">
+        <v>-0.5</v>
+      </c>
+      <c r="R227">
+        <v>1.95</v>
+      </c>
+      <c r="S227">
+        <v>1.85</v>
+      </c>
+      <c r="T227">
+        <v>2.25</v>
+      </c>
+      <c r="U227">
+        <v>1.85</v>
+      </c>
+      <c r="V227">
+        <v>1.95</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
         <v>0</v>
       </c>
     </row>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Adanaspor</t>
   </si>
   <si>
-    <t>Manisa BBSK</t>
+    <t>Bandirmaspor</t>
   </si>
   <si>
-    <t>Bandirmaspor</t>
+    <t>Manisa BBSK</t>
   </si>
   <si>
     <t>Sakaryaspor</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC227"/>
+  <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,7 +996,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6963167</v>
+        <v>6963166</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1886,7 +1886,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1898,31 +1898,31 @@
         <v>50</v>
       </c>
       <c r="K16">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N16">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
         <v>2.5</v>
@@ -1937,7 +1937,7 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -1946,7 +1946,7 @@
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB16">
         <v>-1</v>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6963166</v>
+        <v>6963167</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1975,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1987,31 +1987,31 @@
         <v>50</v>
       </c>
       <c r="K17">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L17">
+        <v>3.75</v>
+      </c>
+      <c r="M17">
+        <v>2.625</v>
+      </c>
+      <c r="N17">
+        <v>1.85</v>
+      </c>
+      <c r="O17">
+        <v>3.8</v>
+      </c>
+      <c r="P17">
         <v>3.6</v>
       </c>
-      <c r="M17">
-        <v>3.6</v>
-      </c>
-      <c r="N17">
-        <v>1.7</v>
-      </c>
-      <c r="O17">
-        <v>3.6</v>
-      </c>
-      <c r="P17">
-        <v>4.333</v>
-      </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
         <v>2.5</v>
@@ -2026,7 +2026,7 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2035,7 +2035,7 @@
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -2331,7 +2331,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6963173</v>
+        <v>6963171</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N32">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P32">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R32">
+        <v>1.725</v>
+      </c>
+      <c r="S32">
+        <v>2.075</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.775</v>
+      </c>
+      <c r="V32">
         <v>2.025</v>
       </c>
-      <c r="S32">
-        <v>1.775</v>
-      </c>
-      <c r="T32">
-        <v>2.75</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.875</v>
-      </c>
       <c r="W32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>-0</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>1.025</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
-      <c r="AB32">
-        <v>0.925</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6963171</v>
+        <v>6963173</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M33">
+        <v>5.5</v>
+      </c>
+      <c r="N33">
+        <v>1.45</v>
+      </c>
+      <c r="O33">
+        <v>4.2</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+      <c r="Q33">
+        <v>-1.25</v>
+      </c>
+      <c r="R33">
+        <v>2.025</v>
+      </c>
+      <c r="S33">
+        <v>1.775</v>
+      </c>
+      <c r="T33">
         <v>2.75</v>
       </c>
-      <c r="N33">
-        <v>2.45</v>
-      </c>
-      <c r="O33">
-        <v>3.1</v>
-      </c>
-      <c r="P33">
-        <v>2.8</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>1.725</v>
-      </c>
-      <c r="S33">
-        <v>2.075</v>
-      </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
       <c r="U33">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X33">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6962908</v>
+        <v>6963033</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,76 +3752,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L37">
+        <v>3.6</v>
+      </c>
+      <c r="M37">
+        <v>4.5</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
         <v>3.3</v>
       </c>
-      <c r="M37">
-        <v>2.25</v>
-      </c>
-      <c r="N37">
+      <c r="P37">
         <v>3.4</v>
       </c>
-      <c r="O37">
-        <v>3.4</v>
-      </c>
-      <c r="P37">
+      <c r="Q37">
+        <v>-0.5</v>
+      </c>
+      <c r="R37">
         <v>2</v>
       </c>
-      <c r="Q37">
-        <v>0.5</v>
-      </c>
-      <c r="R37">
+      <c r="S37">
         <v>1.8</v>
-      </c>
-      <c r="S37">
-        <v>2</v>
       </c>
       <c r="T37">
         <v>2.5</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6963033</v>
+        <v>6962908</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N38">
+        <v>3.4</v>
+      </c>
+      <c r="O38">
+        <v>3.4</v>
+      </c>
+      <c r="P38">
         <v>2</v>
       </c>
-      <c r="O38">
-        <v>3.3</v>
-      </c>
-      <c r="P38">
-        <v>3.4</v>
-      </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
+        <v>1.8</v>
+      </c>
+      <c r="S38">
         <v>2</v>
-      </c>
-      <c r="S38">
-        <v>1.8</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4378,7 +4378,7 @@
         <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6962970</v>
+        <v>6962911</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,76 +4998,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51">
         <v>2.1</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
+        <v>3.25</v>
+      </c>
+      <c r="N51">
+        <v>2.2</v>
+      </c>
+      <c r="O51">
+        <v>3.2</v>
+      </c>
+      <c r="P51">
         <v>3.1</v>
       </c>
-      <c r="N51">
-        <v>1.909</v>
-      </c>
-      <c r="O51">
-        <v>3.5</v>
-      </c>
-      <c r="P51">
-        <v>3.6</v>
-      </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6962911</v>
+        <v>6962970</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,76 +5087,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>2.1</v>
       </c>
       <c r="L52">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N52">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5176,7 +5176,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
         <v>35</v>
@@ -5535,7 +5535,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6422,7 +6422,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
         <v>39</v>
@@ -6511,7 +6511,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6962917</v>
+        <v>6963186</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,55 +7134,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>1</v>
-      </c>
-      <c r="I75">
-        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>49</v>
       </c>
       <c r="K75">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N75">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7191,19 +7191,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6963186</v>
+        <v>6962917</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,55 +7223,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>49</v>
       </c>
       <c r="K76">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N76">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7280,19 +7280,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7493,7 +7493,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7671,7 +7671,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -8380,7 +8380,7 @@
         <v>45228.3125</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s">
         <v>39</v>
@@ -8650,7 +8650,7 @@
         <v>46</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9181,7 +9181,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9982,10 +9982,10 @@
         <v>45242.3125</v>
       </c>
       <c r="F107" t="s">
+        <v>43</v>
+      </c>
+      <c r="G107" t="s">
         <v>42</v>
-      </c>
-      <c r="G107" t="s">
-        <v>43</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>45255.3125</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
         <v>38</v>
@@ -10875,7 +10875,7 @@
         <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6962926</v>
+        <v>6962990</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,10 +11139,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11154,40 +11154,40 @@
         <v>49</v>
       </c>
       <c r="K120">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N120">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11196,16 +11196,16 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6962990</v>
+        <v>6962926</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,10 +11228,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11243,40 +11243,40 @@
         <v>49</v>
       </c>
       <c r="K121">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N121">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="O121">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11285,16 +11285,16 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11305,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6962991</v>
+        <v>7526759</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11317,46 +11317,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K122">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N122">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
         <v>2.5</v>
@@ -11371,22 +11371,22 @@
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y122">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7526759</v>
+        <v>6962991</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,46 +11406,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N123">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q123">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11460,22 +11460,22 @@
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB123">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA123">
-        <v>-1</v>
-      </c>
-      <c r="AB123">
-        <v>-1</v>
-      </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>45263.3125</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6963207</v>
+        <v>6962929</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,76 +11940,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L129">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N129">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O129">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
+        <v>2</v>
+      </c>
+      <c r="V129">
         <v>1.8</v>
       </c>
-      <c r="V129">
-        <v>2</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC129">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6962929</v>
+        <v>6963207</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,76 +12029,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K130">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M130">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N130">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O130">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
+        <v>1.8</v>
+      </c>
+      <c r="V130">
         <v>2</v>
       </c>
-      <c r="V130">
-        <v>1.8</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>1</v>
-      </c>
-      <c r="AC130">
-        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6963208</v>
+        <v>6962995</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,76 +12296,76 @@
         <v>45270.3125</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K133">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M133">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P133">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6962995</v>
+        <v>6963208</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,76 +12385,76 @@
         <v>45270.3125</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L134">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N134">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O134">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P134">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X134">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13367,7 +13367,7 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13720,7 +13720,7 @@
         <v>45284.3125</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
         <v>41</v>
@@ -14076,7 +14076,7 @@
         <v>45285.33333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
         <v>38</v>
@@ -14420,7 +14420,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6963219</v>
+        <v>7656973</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14432,76 +14432,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K157">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="L157">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N157">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="O157">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P157">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q157">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7656973</v>
+        <v>6963219</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K158">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M158">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N158">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="O158">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P158">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X158">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14788,7 +14788,7 @@
         <v>45305.3125</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -15325,7 +15325,7 @@
         <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15592,7 +15592,7 @@
         <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -16034,7 +16034,7 @@
         <v>45318.3125</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
         <v>36</v>
@@ -16289,7 +16289,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7732507</v>
+        <v>6963271</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16301,13 +16301,13 @@
         <v>45319.3125</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H178">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16316,43 +16316,43 @@
         <v>48</v>
       </c>
       <c r="K178">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="L178">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="N178">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="O178">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P178">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="Q178">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W178">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16361,16 +16361,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16378,7 +16378,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6963271</v>
+        <v>7732507</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16390,13 +16390,13 @@
         <v>45319.3125</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16405,43 +16405,43 @@
         <v>48</v>
       </c>
       <c r="K179">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M179">
-        <v>3.8</v>
+        <v>23</v>
       </c>
       <c r="N179">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="O179">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P179">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16450,16 +16450,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16749,7 +16749,7 @@
         <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6963229</v>
+        <v>6963045</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,58 +17191,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H188">
         <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L188">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M188">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="N188">
+        <v>1.95</v>
+      </c>
+      <c r="O188">
         <v>3.5</v>
       </c>
-      <c r="O188">
-        <v>3.4</v>
-      </c>
       <c r="P188">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V188">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W188">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17251,16 +17251,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17268,7 +17268,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6963045</v>
+        <v>6963229</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17280,58 +17280,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L189">
+        <v>3.4</v>
+      </c>
+      <c r="M189">
+        <v>2.05</v>
+      </c>
+      <c r="N189">
         <v>3.5</v>
       </c>
-      <c r="M189">
-        <v>3.75</v>
-      </c>
-      <c r="N189">
-        <v>1.95</v>
-      </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S189">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W189">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17340,16 +17340,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC189">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17891,7 +17891,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6962943</v>
+        <v>6963009</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17903,76 +17903,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K196">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L196">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M196">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N196">
         <v>2.375</v>
       </c>
       <c r="O196">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P196">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q196">
         <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S196">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V196">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA196">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC196">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17980,7 +17980,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6963009</v>
+        <v>6962943</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17992,76 +17992,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
         <v>2</v>
       </c>
-      <c r="I197">
-        <v>1</v>
-      </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K197">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L197">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M197">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N197">
         <v>2.375</v>
       </c>
       <c r="O197">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P197">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q197">
         <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W197">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z197">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18170,7 +18170,7 @@
         <v>45333.54166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G199" t="s">
         <v>47</v>
@@ -18351,7 +18351,7 @@
         <v>37</v>
       </c>
       <c r="G201" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -19063,7 +19063,7 @@
         <v>35</v>
       </c>
       <c r="G209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19238,7 +19238,7 @@
         <v>45346.3125</v>
       </c>
       <c r="F211" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -19493,7 +19493,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6963238</v>
+        <v>6962946</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19505,76 +19505,76 @@
         <v>45347.3125</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K214">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="N214">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O214">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19582,7 +19582,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6962946</v>
+        <v>6963238</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19594,76 +19594,76 @@
         <v>45347.3125</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215" t="s">
+        <v>48</v>
+      </c>
+      <c r="K215">
+        <v>2.15</v>
+      </c>
+      <c r="L215">
+        <v>3.2</v>
+      </c>
+      <c r="M215">
+        <v>3.5</v>
+      </c>
+      <c r="N215">
+        <v>2.3</v>
+      </c>
+      <c r="O215">
+        <v>3.1</v>
+      </c>
+      <c r="P215">
+        <v>3.25</v>
+      </c>
+      <c r="Q215">
+        <v>-0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.95</v>
+      </c>
+      <c r="S215">
+        <v>1.85</v>
+      </c>
+      <c r="T215">
         <v>2</v>
       </c>
-      <c r="I215">
+      <c r="U215">
+        <v>1.8</v>
+      </c>
+      <c r="V215">
         <v>2</v>
       </c>
-      <c r="J215" t="s">
-        <v>50</v>
-      </c>
-      <c r="K215">
-        <v>3.8</v>
-      </c>
-      <c r="L215">
-        <v>3.4</v>
-      </c>
-      <c r="M215">
-        <v>1.95</v>
-      </c>
-      <c r="N215">
-        <v>4</v>
-      </c>
-      <c r="O215">
-        <v>3.4</v>
-      </c>
-      <c r="P215">
-        <v>1.909</v>
-      </c>
-      <c r="Q215">
-        <v>0.5</v>
-      </c>
-      <c r="R215">
-        <v>1.825</v>
-      </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
-      <c r="U215">
-        <v>1.9</v>
-      </c>
-      <c r="V215">
-        <v>1.9</v>
-      </c>
       <c r="W215">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X215">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19683,7 +19683,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G216" t="s">
         <v>35</v>
@@ -19955,6 +19955,15 @@
       <c r="G219" t="s">
         <v>45</v>
       </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219" t="s">
+        <v>48</v>
+      </c>
       <c r="K219">
         <v>1.363</v>
       </c>
@@ -19965,46 +19974,52 @@
         <v>7</v>
       </c>
       <c r="N219">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O219">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P219">
         <v>7</v>
       </c>
       <c r="Q219">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R219">
+        <v>1.8</v>
+      </c>
+      <c r="S219">
         <v>2</v>
       </c>
-      <c r="S219">
-        <v>1.8</v>
-      </c>
       <c r="T219">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V219">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W219">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="X219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA219">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB219">
+        <v>-1</v>
+      </c>
+      <c r="AC219">
+        <v>1.025</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20012,7 +20027,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6963241</v>
+        <v>6962949</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20021,49 +20036,49 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45353.3125</v>
+        <v>45353.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G220" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K220">
+        <v>3.25</v>
+      </c>
+      <c r="L220">
+        <v>3.25</v>
+      </c>
+      <c r="M220">
+        <v>2.15</v>
+      </c>
+      <c r="N220">
+        <v>3</v>
+      </c>
+      <c r="O220">
         <v>3.1</v>
       </c>
-      <c r="L220">
-        <v>3.4</v>
-      </c>
-      <c r="M220">
-        <v>2.2</v>
-      </c>
-      <c r="N220">
-        <v>3.1</v>
-      </c>
-      <c r="O220">
-        <v>3.4</v>
-      </c>
       <c r="P220">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q220">
         <v>0.25</v>
       </c>
       <c r="R220">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S220">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U220">
+        <v>1.825</v>
+      </c>
+      <c r="V220">
         <v>1.975</v>
-      </c>
-      <c r="V220">
-        <v>1.825</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20086,7 +20101,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6963239</v>
+        <v>6963018</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20095,49 +20110,49 @@
         <v>28</v>
       </c>
       <c r="E221" s="2">
-        <v>45353.3125</v>
+        <v>45353.54166666666</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G221" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K221">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="L221">
         <v>3.25</v>
       </c>
       <c r="M221">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N221">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O221">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P221">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S221">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W221">
         <v>0</v>
@@ -20160,7 +20175,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6962949</v>
+        <v>6963016</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20169,49 +20184,49 @@
         <v>28</v>
       </c>
       <c r="E222" s="2">
-        <v>45353.41666666666</v>
+        <v>45354.3125</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G222" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K222">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L222">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="N222">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="O222">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R222">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S222">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T222">
         <v>2.25</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W222">
         <v>0</v>
@@ -20234,7 +20249,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6963018</v>
+        <v>6962948</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20243,49 +20258,49 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45353.54166666666</v>
+        <v>45354.41666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K223">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="L223">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M223">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N223">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="O223">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P223">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T223">
         <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20308,7 +20323,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6963016</v>
+        <v>6963240</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20317,49 +20332,49 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45354.3125</v>
+        <v>45354.54166666666</v>
       </c>
       <c r="F224" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G224" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K224">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="L224">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M224">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="N224">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="O224">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P224">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="Q224">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S224">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
+        <v>2</v>
+      </c>
+      <c r="V224">
         <v>1.8</v>
-      </c>
-      <c r="V224">
-        <v>2</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20382,7 +20397,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6962948</v>
+        <v>6963048</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20391,49 +20406,49 @@
         <v>28</v>
       </c>
       <c r="E225" s="2">
-        <v>45354.41666666666</v>
+        <v>45355.58333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G225" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K225">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="L225">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M225">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N225">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="O225">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P225">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q225">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S225">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20448,154 +20463,6 @@
         <v>0</v>
       </c>
       <c r="AA225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226">
-        <v>6963240</v>
-      </c>
-      <c r="C226" t="s">
-        <v>28</v>
-      </c>
-      <c r="D226" t="s">
-        <v>28</v>
-      </c>
-      <c r="E226" s="2">
-        <v>45354.54166666666</v>
-      </c>
-      <c r="F226" t="s">
-        <v>39</v>
-      </c>
-      <c r="G226" t="s">
-        <v>43</v>
-      </c>
-      <c r="K226">
-        <v>2.375</v>
-      </c>
-      <c r="L226">
-        <v>3.2</v>
-      </c>
-      <c r="M226">
-        <v>2.9</v>
-      </c>
-      <c r="N226">
-        <v>2.375</v>
-      </c>
-      <c r="O226">
-        <v>3.2</v>
-      </c>
-      <c r="P226">
-        <v>2.9</v>
-      </c>
-      <c r="Q226">
-        <v>-0.25</v>
-      </c>
-      <c r="R226">
-        <v>2</v>
-      </c>
-      <c r="S226">
-        <v>1.8</v>
-      </c>
-      <c r="T226">
-        <v>2.5</v>
-      </c>
-      <c r="U226">
-        <v>2</v>
-      </c>
-      <c r="V226">
-        <v>1.8</v>
-      </c>
-      <c r="W226">
-        <v>0</v>
-      </c>
-      <c r="X226">
-        <v>0</v>
-      </c>
-      <c r="Y226">
-        <v>0</v>
-      </c>
-      <c r="Z226">
-        <v>0</v>
-      </c>
-      <c r="AA226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227">
-        <v>6963048</v>
-      </c>
-      <c r="C227" t="s">
-        <v>28</v>
-      </c>
-      <c r="D227" t="s">
-        <v>28</v>
-      </c>
-      <c r="E227" s="2">
-        <v>45355.58333333334</v>
-      </c>
-      <c r="F227" t="s">
-        <v>35</v>
-      </c>
-      <c r="G227" t="s">
-        <v>38</v>
-      </c>
-      <c r="K227">
-        <v>1.8</v>
-      </c>
-      <c r="L227">
-        <v>3.4</v>
-      </c>
-      <c r="M227">
-        <v>4.2</v>
-      </c>
-      <c r="N227">
-        <v>1.85</v>
-      </c>
-      <c r="O227">
-        <v>3.3</v>
-      </c>
-      <c r="P227">
-        <v>4</v>
-      </c>
-      <c r="Q227">
-        <v>-0.5</v>
-      </c>
-      <c r="R227">
-        <v>1.95</v>
-      </c>
-      <c r="S227">
-        <v>1.85</v>
-      </c>
-      <c r="T227">
-        <v>2.25</v>
-      </c>
-      <c r="U227">
-        <v>1.85</v>
-      </c>
-      <c r="V227">
-        <v>1.95</v>
-      </c>
-      <c r="W227">
-        <v>0</v>
-      </c>
-      <c r="X227">
-        <v>0</v>
-      </c>
-      <c r="Y227">
-        <v>0</v>
-      </c>
-      <c r="Z227">
-        <v>0</v>
-      </c>
-      <c r="AA227">
         <v>0</v>
       </c>
     </row>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Kocaelispor</t>
   </si>
   <si>
-    <t>Tuzlaspor</t>
+    <t>Genclerbirligi</t>
   </si>
   <si>
-    <t>Genclerbirligi</t>
+    <t>Tuzlaspor</t>
   </si>
   <si>
     <t>Erzurum BB</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC225"/>
+  <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6963162</v>
+        <v>6963260</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1085,70 +1085,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L7">
         <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O7">
         <v>3.4</v>
       </c>
       <c r="P7">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
+        <v>1.75</v>
+      </c>
+      <c r="S7">
+        <v>2.05</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
         <v>1.825</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6963260</v>
+        <v>6963162</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,70 +1174,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N8">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="O8">
         <v>3.4</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
+        <v>1.975</v>
+      </c>
+      <c r="V8">
         <v>1.825</v>
       </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -2064,7 +2064,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7102510</v>
+        <v>6963169</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2420,73 +2420,73 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P22">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
+        <v>1.975</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
         <v>1.9</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>1.9</v>
       </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.8</v>
-      </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
       <c r="W22">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB22">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
       <c r="AC22">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6963169</v>
+        <v>7102510</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,73 +2509,73 @@
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N23">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="Q23">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3399,7 +3399,7 @@
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>4</v>
@@ -3666,7 +3666,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6963033</v>
+        <v>6962908</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,76 +3752,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N37">
+        <v>3.4</v>
+      </c>
+      <c r="O37">
+        <v>3.4</v>
+      </c>
+      <c r="P37">
         <v>2</v>
       </c>
-      <c r="O37">
-        <v>3.3</v>
-      </c>
-      <c r="P37">
-        <v>3.4</v>
-      </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
         <v>2</v>
-      </c>
-      <c r="S37">
-        <v>1.8</v>
       </c>
       <c r="T37">
         <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6962908</v>
+        <v>6963033</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L38">
+        <v>3.6</v>
+      </c>
+      <c r="M38">
+        <v>4.5</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
         <v>3.3</v>
       </c>
-      <c r="M38">
-        <v>2.25</v>
-      </c>
-      <c r="N38">
+      <c r="P38">
         <v>3.4</v>
       </c>
-      <c r="O38">
-        <v>3.4</v>
-      </c>
-      <c r="P38">
+      <c r="Q38">
+        <v>-0.5</v>
+      </c>
+      <c r="R38">
         <v>2</v>
       </c>
-      <c r="Q38">
-        <v>0.5</v>
-      </c>
-      <c r="R38">
+      <c r="S38">
         <v>1.8</v>
-      </c>
-      <c r="S38">
-        <v>2</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6963034</v>
+        <v>6962966</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,13 +3930,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3945,43 +3945,43 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
+        <v>3.4</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
         <v>3.25</v>
       </c>
-      <c r="N39">
-        <v>2.2</v>
-      </c>
-      <c r="O39">
-        <v>2.9</v>
-      </c>
       <c r="P39">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3990,16 +3990,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC39">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4007,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6962966</v>
+        <v>6963034</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4019,13 +4019,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4034,43 +4034,43 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
         <v>3.25</v>
       </c>
-      <c r="M40">
-        <v>3.4</v>
-      </c>
       <c r="N40">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P40">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q40">
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4079,16 +4079,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>41</v>
@@ -4452,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6963174</v>
+        <v>6962910</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4464,76 +4464,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L45">
+        <v>3.25</v>
+      </c>
+      <c r="M45">
+        <v>2.875</v>
+      </c>
+      <c r="N45">
+        <v>2.375</v>
+      </c>
+      <c r="O45">
         <v>3.2</v>
       </c>
-      <c r="M45">
-        <v>1.95</v>
-      </c>
-      <c r="N45">
-        <v>4</v>
-      </c>
-      <c r="O45">
-        <v>3.3</v>
-      </c>
       <c r="P45">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4541,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6962910</v>
+        <v>6963174</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4553,76 +4553,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N46">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O46">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P46">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4719,7 +4719,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6963179</v>
+        <v>6963176</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4731,58 +4731,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
         <v>48</v>
       </c>
       <c r="K48">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L48">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O48">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
+        <v>1.8</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
+        <v>1.875</v>
+      </c>
+      <c r="V48">
         <v>1.925</v>
       </c>
-      <c r="S48">
-        <v>1.875</v>
-      </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
-      <c r="V48">
-        <v>1.825</v>
-      </c>
       <c r="W48">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4791,16 +4791,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6963176</v>
+        <v>6963179</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,58 +4820,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>48</v>
       </c>
       <c r="K49">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P49">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4880,16 +4880,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>4</v>
@@ -5621,7 +5621,7 @@
         <v>45199.3125</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -5799,7 +5799,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>43</v>
@@ -6603,7 +6603,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6781,7 +6781,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6962915</v>
+        <v>6962974</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6867,76 +6867,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P72">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
+        <v>1.8</v>
+      </c>
+      <c r="S72">
         <v>2</v>
-      </c>
-      <c r="S72">
-        <v>1.8</v>
       </c>
       <c r="T72">
         <v>2.25</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6944,7 +6944,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6962974</v>
+        <v>6962915</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6956,76 +6956,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L73">
+        <v>3.2</v>
+      </c>
+      <c r="M73">
+        <v>2.3</v>
+      </c>
+      <c r="N73">
+        <v>2.75</v>
+      </c>
+      <c r="O73">
         <v>3.25</v>
       </c>
-      <c r="M73">
-        <v>3</v>
-      </c>
-      <c r="N73">
-        <v>2.05</v>
-      </c>
-      <c r="O73">
-        <v>3.1</v>
-      </c>
       <c r="P73">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
         <v>1.8</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
         <v>0.8</v>
       </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6963186</v>
+        <v>6962917</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,55 +7134,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>49</v>
       </c>
       <c r="K75">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N75">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7191,19 +7191,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6962917</v>
+        <v>6963186</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,55 +7223,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>1</v>
-      </c>
-      <c r="I76">
-        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>49</v>
       </c>
       <c r="K76">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N76">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7280,19 +7280,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6963190</v>
+        <v>6963187</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,76 +7579,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K80">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L80">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
         <v>2.375</v>
       </c>
       <c r="N80">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P80">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q80">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA80">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6963187</v>
+        <v>6963190</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,76 +7668,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M81">
         <v>2.375</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S81">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z81">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
         <v>45</v>
@@ -8024,7 +8024,7 @@
         <v>45227.3125</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>36</v>
@@ -8294,7 +8294,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8914,7 +8914,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
@@ -9451,7 +9451,7 @@
         <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9540,7 +9540,7 @@
         <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6963199</v>
+        <v>6963198</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,46 +9626,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L103">
+        <v>3.1</v>
+      </c>
+      <c r="M103">
+        <v>2.375</v>
+      </c>
+      <c r="N103">
         <v>3.4</v>
       </c>
-      <c r="M103">
-        <v>3.8</v>
-      </c>
-      <c r="N103">
-        <v>1.95</v>
-      </c>
       <c r="O103">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
         <v>2.25</v>
@@ -9677,25 +9677,25 @@
         <v>1.95</v>
       </c>
       <c r="W103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6963198</v>
+        <v>6963199</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,46 +9715,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K104">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N104">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O104">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P104">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.25</v>
@@ -9766,25 +9766,25 @@
         <v>1.95</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X104">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7482213</v>
+        <v>7482211</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,10 +10427,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10442,40 +10442,40 @@
         <v>49</v>
       </c>
       <c r="K112">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N112">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="O112">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P112">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q112">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,19 +10484,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7482211</v>
+        <v>7482213</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,10 +10516,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10531,40 +10531,40 @@
         <v>49</v>
       </c>
       <c r="K113">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="O113">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P113">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q113">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,19 +10573,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10964,7 +10964,7 @@
         <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11050,7 +11050,7 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
         <v>32</v>
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6962990</v>
+        <v>6962926</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,10 +11139,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11154,40 +11154,40 @@
         <v>49</v>
       </c>
       <c r="K120">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N120">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11196,16 +11196,16 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6962926</v>
+        <v>6962990</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,10 +11228,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11243,40 +11243,40 @@
         <v>49</v>
       </c>
       <c r="K121">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N121">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P121">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11285,16 +11285,16 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11317,7 +11317,7 @@
         <v>45262.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>42</v>
@@ -11765,7 +11765,7 @@
         <v>36</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6962929</v>
+        <v>6963207</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,76 +11940,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M129">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O129">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
+        <v>1.8</v>
+      </c>
+      <c r="V129">
         <v>2</v>
       </c>
-      <c r="V129">
-        <v>1.8</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y129">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
         <v>1</v>
-      </c>
-      <c r="AC129">
-        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6963207</v>
+        <v>6962929</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,76 +12029,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L130">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M130">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N130">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P130">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
         <v>1.8</v>
       </c>
-      <c r="V130">
-        <v>2</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12474,7 +12474,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
         <v>37</v>
@@ -12741,7 +12741,7 @@
         <v>45279.33333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
         <v>44</v>
@@ -12833,7 +12833,7 @@
         <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6963211</v>
+        <v>7589522</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M141">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N141">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O141">
         <v>3.25</v>
       </c>
       <c r="P141">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
+        <v>1.85</v>
+      </c>
+      <c r="S141">
+        <v>1.95</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
         <v>2</v>
       </c>
-      <c r="S141">
+      <c r="V141">
         <v>1.8</v>
       </c>
-      <c r="T141">
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
         <v>2.25</v>
       </c>
-      <c r="U141">
-        <v>1.8</v>
-      </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
-      <c r="W141">
-        <v>-1</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
       <c r="Y141">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
+        <v>0.475</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
         <v>0.8</v>
-      </c>
-      <c r="AB141">
-        <v>0.8</v>
-      </c>
-      <c r="AC141">
-        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7589522</v>
+        <v>6963211</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L142">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O142">
         <v>3.25</v>
       </c>
       <c r="P142">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
+        <v>1.8</v>
+      </c>
+      <c r="V142">
         <v>2</v>
       </c>
-      <c r="V142">
-        <v>1.8</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13542,10 +13542,10 @@
         <v>45283.3125</v>
       </c>
       <c r="F147" t="s">
+        <v>34</v>
+      </c>
+      <c r="G147" t="s">
         <v>35</v>
-      </c>
-      <c r="G147" t="s">
-        <v>34</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -14880,7 +14880,7 @@
         <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15500,7 +15500,7 @@
         <v>45312.3125</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>45</v>
@@ -15767,7 +15767,7 @@
         <v>45312.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
         <v>44</v>
@@ -16215,7 +16215,7 @@
         <v>46</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>4</v>
@@ -16304,7 +16304,7 @@
         <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16823,7 +16823,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6963227</v>
+        <v>6963272</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16835,10 +16835,10 @@
         <v>45325.3125</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16850,40 +16850,40 @@
         <v>49</v>
       </c>
       <c r="K184">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L184">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N184">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P184">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q184">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16892,16 +16892,16 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16912,7 +16912,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6963272</v>
+        <v>6963227</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16924,10 +16924,10 @@
         <v>45325.3125</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16939,40 +16939,40 @@
         <v>49</v>
       </c>
       <c r="K185">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L185">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M185">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N185">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P185">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S185">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16981,16 +16981,16 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17280,7 +17280,7 @@
         <v>45326.3125</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17369,7 +17369,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
         <v>39</v>
@@ -17906,7 +17906,7 @@
         <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18262,7 +18262,7 @@
         <v>46</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18437,7 +18437,7 @@
         <v>45339.3125</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
         <v>31</v>
@@ -18692,7 +18692,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6963013</v>
+        <v>6963011</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,13 +18704,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -18719,43 +18719,43 @@
         <v>48</v>
       </c>
       <c r="K205">
-        <v>1.181</v>
+        <v>1.727</v>
       </c>
       <c r="L205">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M205">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N205">
-        <v>1.166</v>
+        <v>1.7</v>
       </c>
       <c r="O205">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q205">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S205">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
-        <v>0.1659999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18764,16 +18764,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB205">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6963011</v>
+        <v>6963013</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,13 +18793,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -18808,43 +18808,43 @@
         <v>48</v>
       </c>
       <c r="K206">
-        <v>1.727</v>
+        <v>1.181</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M206">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N206">
-        <v>1.7</v>
+        <v>1.166</v>
       </c>
       <c r="O206">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P206">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R206">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>0.7</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18853,16 +18853,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
+        <v>0.4</v>
+      </c>
+      <c r="AC206">
         <v>-0.5</v>
-      </c>
-      <c r="AB206">
-        <v>-1</v>
-      </c>
-      <c r="AC206">
-        <v>0.95</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19060,7 +19060,7 @@
         <v>45341.33333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
         <v>42</v>
@@ -19686,7 +19686,7 @@
         <v>43</v>
       </c>
       <c r="G216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19864,7 +19864,7 @@
         <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -20027,7 +20027,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6962949</v>
+        <v>6963239</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,64 +20036,79 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45353.41666666666</v>
+        <v>45353.3125</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="s">
+        <v>50</v>
       </c>
       <c r="K220">
-        <v>3.25</v>
+        <v>2.35</v>
       </c>
       <c r="L220">
         <v>3.25</v>
       </c>
       <c r="M220">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N220">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O220">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P220">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S220">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="T220">
+        <v>2.25</v>
+      </c>
+      <c r="U220">
         <v>2</v>
       </c>
-      <c r="U220">
-        <v>1.825</v>
-      </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA220">
-        <v>0</v>
+        <v>0.375</v>
+      </c>
+      <c r="AB220">
+        <v>-0.5</v>
+      </c>
+      <c r="AC220">
+        <v>0.4</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20101,7 +20116,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6963018</v>
+        <v>6963241</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20110,34 +20125,43 @@
         <v>28</v>
       </c>
       <c r="E221" s="2">
-        <v>45353.54166666666</v>
+        <v>45353.3125</v>
       </c>
       <c r="F221" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L221">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N221">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O221">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
         <v>1.85</v>
@@ -20146,28 +20170,34 @@
         <v>1.95</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V221">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB221">
+        <v>-1</v>
+      </c>
+      <c r="AC221">
+        <v>0.95</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20175,7 +20205,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6963016</v>
+        <v>6962949</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20184,64 +20214,79 @@
         <v>28</v>
       </c>
       <c r="E222" s="2">
-        <v>45354.3125</v>
+        <v>45353.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222" t="s">
+        <v>50</v>
       </c>
       <c r="K222">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M222">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="N222">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P222">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q222">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S222">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U222">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V222">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA222">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
+        <v>0.95</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20249,7 +20294,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6962948</v>
+        <v>6963018</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20258,64 +20303,79 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45354.41666666666</v>
+        <v>45353.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G223" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223" t="s">
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="L223">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M223">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N223">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O223">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P223">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
         <v>1.8</v>
-      </c>
-      <c r="S223">
-        <v>2</v>
       </c>
       <c r="T223">
         <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V223">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA223">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB223">
+        <v>-1</v>
+      </c>
+      <c r="AC223">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20323,7 +20383,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6963240</v>
+        <v>6963016</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20332,49 +20392,49 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45354.54166666666</v>
+        <v>45354.3125</v>
       </c>
       <c r="F224" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G224" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K224">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="L224">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M224">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="N224">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="O224">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P224">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R224">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V224">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20397,72 +20457,220 @@
         <v>223</v>
       </c>
       <c r="B225">
+        <v>6962948</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45354.41666666666</v>
+      </c>
+      <c r="F225" t="s">
+        <v>37</v>
+      </c>
+      <c r="G225" t="s">
+        <v>31</v>
+      </c>
+      <c r="K225">
+        <v>1.45</v>
+      </c>
+      <c r="L225">
+        <v>4.333</v>
+      </c>
+      <c r="M225">
+        <v>6</v>
+      </c>
+      <c r="N225">
+        <v>1.5</v>
+      </c>
+      <c r="O225">
+        <v>4.2</v>
+      </c>
+      <c r="P225">
+        <v>6</v>
+      </c>
+      <c r="Q225">
+        <v>-1</v>
+      </c>
+      <c r="R225">
+        <v>1.85</v>
+      </c>
+      <c r="S225">
+        <v>1.95</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
+        <v>2</v>
+      </c>
+      <c r="V225">
+        <v>1.8</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>6963240</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45354.54166666666</v>
+      </c>
+      <c r="F226" t="s">
+        <v>39</v>
+      </c>
+      <c r="G226" t="s">
+        <v>42</v>
+      </c>
+      <c r="K226">
+        <v>2.375</v>
+      </c>
+      <c r="L226">
+        <v>3.2</v>
+      </c>
+      <c r="M226">
+        <v>2.9</v>
+      </c>
+      <c r="N226">
+        <v>2.2</v>
+      </c>
+      <c r="O226">
+        <v>3.25</v>
+      </c>
+      <c r="P226">
+        <v>3.2</v>
+      </c>
+      <c r="Q226">
+        <v>-0.25</v>
+      </c>
+      <c r="R226">
+        <v>1.9</v>
+      </c>
+      <c r="S226">
+        <v>1.9</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
+        <v>1.975</v>
+      </c>
+      <c r="V226">
+        <v>1.825</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
         <v>6963048</v>
       </c>
-      <c r="C225" t="s">
-        <v>28</v>
-      </c>
-      <c r="D225" t="s">
-        <v>28</v>
-      </c>
-      <c r="E225" s="2">
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
         <v>45355.58333333334</v>
       </c>
-      <c r="F225" t="s">
-        <v>35</v>
-      </c>
-      <c r="G225" t="s">
+      <c r="F227" t="s">
+        <v>34</v>
+      </c>
+      <c r="G227" t="s">
         <v>38</v>
       </c>
-      <c r="K225">
+      <c r="K227">
         <v>1.8</v>
       </c>
-      <c r="L225">
+      <c r="L227">
         <v>3.4</v>
       </c>
-      <c r="M225">
+      <c r="M227">
         <v>4.2</v>
       </c>
-      <c r="N225">
+      <c r="N227">
         <v>1.85</v>
       </c>
-      <c r="O225">
+      <c r="O227">
         <v>3.3</v>
       </c>
-      <c r="P225">
+      <c r="P227">
         <v>4</v>
       </c>
-      <c r="Q225">
+      <c r="Q227">
         <v>-0.5</v>
       </c>
-      <c r="R225">
+      <c r="R227">
         <v>1.95</v>
       </c>
-      <c r="S225">
+      <c r="S227">
         <v>1.85</v>
       </c>
-      <c r="T225">
+      <c r="T227">
         <v>2.25</v>
       </c>
-      <c r="U225">
+      <c r="U227">
         <v>1.85</v>
       </c>
-      <c r="V225">
+      <c r="V227">
         <v>1.95</v>
       </c>
-      <c r="W225">
-        <v>0</v>
-      </c>
-      <c r="X225">
-        <v>0</v>
-      </c>
-      <c r="Y225">
-        <v>0</v>
-      </c>
-      <c r="Z225">
-        <v>0</v>
-      </c>
-      <c r="AA225">
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
         <v>0</v>
       </c>
     </row>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Adanaspor</t>
   </si>
   <si>
-    <t>Bandirmaspor</t>
+    <t>Manisa BBSK</t>
   </si>
   <si>
-    <t>Manisa BBSK</t>
+    <t>Bandirmaspor</t>
   </si>
   <si>
     <t>Sakaryaspor</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC227"/>
+  <dimension ref="A1:AC236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,7 +996,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6963166</v>
+        <v>6963167</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1886,7 +1886,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1898,31 +1898,31 @@
         <v>50</v>
       </c>
       <c r="K16">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L16">
+        <v>3.75</v>
+      </c>
+      <c r="M16">
+        <v>2.625</v>
+      </c>
+      <c r="N16">
+        <v>1.85</v>
+      </c>
+      <c r="O16">
+        <v>3.8</v>
+      </c>
+      <c r="P16">
         <v>3.6</v>
       </c>
-      <c r="M16">
-        <v>3.6</v>
-      </c>
-      <c r="N16">
-        <v>1.7</v>
-      </c>
-      <c r="O16">
-        <v>3.6</v>
-      </c>
-      <c r="P16">
-        <v>4.333</v>
-      </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
         <v>2.5</v>
@@ -1937,7 +1937,7 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -1946,7 +1946,7 @@
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB16">
         <v>-1</v>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6963167</v>
+        <v>6963166</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1975,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1987,31 +1987,31 @@
         <v>50</v>
       </c>
       <c r="K17">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
         <v>2.5</v>
@@ -2026,7 +2026,7 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2035,7 +2035,7 @@
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -2331,7 +2331,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6963169</v>
+        <v>7102510</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N22">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="O22">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P22">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="Q22">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7102510</v>
+        <v>6963169</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,76 +2506,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P23">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R23">
+        <v>1.825</v>
+      </c>
+      <c r="S23">
+        <v>1.975</v>
+      </c>
+      <c r="T23">
+        <v>2.5</v>
+      </c>
+      <c r="U23">
         <v>1.9</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>1.9</v>
       </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
       <c r="W23">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB23">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
       <c r="AC23">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3043,7 +3043,7 @@
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6963171</v>
+        <v>6963173</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M32">
+        <v>5.5</v>
+      </c>
+      <c r="N32">
+        <v>1.45</v>
+      </c>
+      <c r="O32">
+        <v>4.2</v>
+      </c>
+      <c r="P32">
+        <v>7</v>
+      </c>
+      <c r="Q32">
+        <v>-1.25</v>
+      </c>
+      <c r="R32">
+        <v>2.025</v>
+      </c>
+      <c r="S32">
+        <v>1.775</v>
+      </c>
+      <c r="T32">
         <v>2.75</v>
       </c>
-      <c r="N32">
-        <v>2.45</v>
-      </c>
-      <c r="O32">
-        <v>3.1</v>
-      </c>
-      <c r="P32">
-        <v>2.8</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.725</v>
-      </c>
-      <c r="S32">
-        <v>2.075</v>
-      </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
       <c r="U32">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X32">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA32">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC32">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6963173</v>
+        <v>6963171</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P33">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q33">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R33">
+        <v>1.725</v>
+      </c>
+      <c r="S33">
+        <v>2.075</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>1.775</v>
+      </c>
+      <c r="V33">
         <v>2.025</v>
       </c>
-      <c r="S33">
-        <v>1.775</v>
-      </c>
-      <c r="T33">
-        <v>2.75</v>
-      </c>
-      <c r="U33">
-        <v>1.925</v>
-      </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
       <c r="W33">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>-0</v>
+      </c>
+      <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>1.025</v>
-      </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
-      <c r="AB33">
-        <v>0.925</v>
-      </c>
-      <c r="AC33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6962908</v>
+        <v>6963033</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,76 +3752,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L37">
+        <v>3.6</v>
+      </c>
+      <c r="M37">
+        <v>4.5</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
         <v>3.3</v>
       </c>
-      <c r="M37">
-        <v>2.25</v>
-      </c>
-      <c r="N37">
+      <c r="P37">
         <v>3.4</v>
       </c>
-      <c r="O37">
-        <v>3.4</v>
-      </c>
-      <c r="P37">
+      <c r="Q37">
+        <v>-0.5</v>
+      </c>
+      <c r="R37">
         <v>2</v>
       </c>
-      <c r="Q37">
-        <v>0.5</v>
-      </c>
-      <c r="R37">
+      <c r="S37">
         <v>1.8</v>
-      </c>
-      <c r="S37">
-        <v>2</v>
       </c>
       <c r="T37">
         <v>2.5</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6963033</v>
+        <v>6962908</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N38">
+        <v>3.4</v>
+      </c>
+      <c r="O38">
+        <v>3.4</v>
+      </c>
+      <c r="P38">
         <v>2</v>
       </c>
-      <c r="O38">
-        <v>3.3</v>
-      </c>
-      <c r="P38">
-        <v>3.4</v>
-      </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
+        <v>1.8</v>
+      </c>
+      <c r="S38">
         <v>2</v>
-      </c>
-      <c r="S38">
-        <v>1.8</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6962966</v>
+        <v>6963034</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,13 +3930,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3945,43 +3945,43 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
         <v>3.25</v>
       </c>
-      <c r="M39">
-        <v>3.4</v>
-      </c>
       <c r="N39">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P39">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3990,16 +3990,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4007,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6963034</v>
+        <v>6962966</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4019,13 +4019,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4034,43 +4034,43 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
+        <v>3.4</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
         <v>3.25</v>
       </c>
-      <c r="N40">
-        <v>2.2</v>
-      </c>
-      <c r="O40">
-        <v>2.9</v>
-      </c>
       <c r="P40">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q40">
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4079,16 +4079,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4096,7 +4096,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6962909</v>
+        <v>6963264</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4108,73 +4108,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
+        <v>2.1</v>
+      </c>
+      <c r="L41">
+        <v>3.25</v>
+      </c>
+      <c r="M41">
+        <v>3.1</v>
+      </c>
+      <c r="N41">
+        <v>2.3</v>
+      </c>
+      <c r="O41">
+        <v>3.25</v>
+      </c>
+      <c r="P41">
+        <v>2.75</v>
+      </c>
+      <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>2.025</v>
+      </c>
+      <c r="S41">
+        <v>1.775</v>
+      </c>
+      <c r="T41">
+        <v>2.5</v>
+      </c>
+      <c r="U41">
+        <v>1.925</v>
+      </c>
+      <c r="V41">
+        <v>1.875</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>-1</v>
+      </c>
+      <c r="Y41">
         <v>1.75</v>
       </c>
-      <c r="L41">
-        <v>3.2</v>
-      </c>
-      <c r="M41">
-        <v>4.333</v>
-      </c>
-      <c r="N41">
-        <v>1.75</v>
-      </c>
-      <c r="O41">
-        <v>3.2</v>
-      </c>
-      <c r="P41">
-        <v>4.333</v>
-      </c>
-      <c r="Q41">
-        <v>-0.5</v>
-      </c>
-      <c r="R41">
-        <v>1.775</v>
-      </c>
-      <c r="S41">
-        <v>2.025</v>
-      </c>
-      <c r="T41">
-        <v>2.25</v>
-      </c>
-      <c r="U41">
-        <v>1.775</v>
-      </c>
-      <c r="V41">
-        <v>2.025</v>
-      </c>
-      <c r="W41">
-        <v>0.75</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
-      <c r="Y41">
-        <v>-1</v>
-      </c>
       <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
       <c r="AB41">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4185,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6963264</v>
+        <v>6962909</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4197,73 +4197,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M42">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N42">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O42">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
+        <v>1.775</v>
+      </c>
+      <c r="S42">
         <v>2.025</v>
       </c>
-      <c r="S42">
+      <c r="T42">
+        <v>2.25</v>
+      </c>
+      <c r="U42">
         <v>1.775</v>
       </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
-      <c r="U42">
-        <v>1.925</v>
-      </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB42">
-        <v>0.925</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6962968</v>
+        <v>6963175</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,76 +4286,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N43">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O43">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P43">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
+        <v>1.825</v>
+      </c>
+      <c r="V43">
         <v>1.975</v>
       </c>
-      <c r="V43">
-        <v>1.825</v>
-      </c>
       <c r="W43">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6963175</v>
+        <v>6962968</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
+        <v>2.5</v>
+      </c>
+      <c r="N44">
+        <v>2.55</v>
+      </c>
+      <c r="O44">
+        <v>3.2</v>
+      </c>
+      <c r="P44">
+        <v>2.5</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
         <v>1.85</v>
-      </c>
-      <c r="N44">
-        <v>4.5</v>
-      </c>
-      <c r="O44">
-        <v>3.75</v>
-      </c>
-      <c r="P44">
-        <v>1.615</v>
-      </c>
-      <c r="Q44">
-        <v>0.75</v>
-      </c>
-      <c r="R44">
-        <v>1.975</v>
-      </c>
-      <c r="S44">
-        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
+        <v>1.975</v>
+      </c>
+      <c r="V44">
         <v>1.825</v>
       </c>
-      <c r="V44">
-        <v>1.975</v>
-      </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
+        <v>0.95</v>
+      </c>
+      <c r="AA44">
+        <v>-1</v>
+      </c>
+      <c r="AB44">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA44">
-        <v>-1</v>
-      </c>
-      <c r="AB44">
-        <v>-1</v>
-      </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4467,7 +4467,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6962911</v>
+        <v>6962970</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,76 +4998,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K51">
         <v>2.1</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N51">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6962970</v>
+        <v>6962911</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,76 +5087,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52">
         <v>2.1</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
+        <v>3.25</v>
+      </c>
+      <c r="N52">
+        <v>2.2</v>
+      </c>
+      <c r="O52">
+        <v>3.2</v>
+      </c>
+      <c r="P52">
         <v>3.1</v>
       </c>
-      <c r="N52">
-        <v>1.909</v>
-      </c>
-      <c r="O52">
-        <v>3.5</v>
-      </c>
-      <c r="P52">
-        <v>3.6</v>
-      </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5176,7 +5176,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5535,7 +5535,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6963265</v>
+        <v>6963180</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,58 +5888,58 @@
         <v>45200.3125</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>48</v>
       </c>
       <c r="K61">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N61">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O61">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
+        <v>1.875</v>
+      </c>
+      <c r="V61">
         <v>1.925</v>
       </c>
-      <c r="V61">
-        <v>1.875</v>
-      </c>
       <c r="W61">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5948,16 +5948,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.925</v>
-      </c>
-      <c r="AC61">
-        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6963180</v>
+        <v>6963265</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,58 +5977,58 @@
         <v>45200.3125</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
         <v>1</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>48</v>
       </c>
       <c r="K62">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N62">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
+        <v>1.925</v>
+      </c>
+      <c r="V62">
         <v>1.875</v>
       </c>
-      <c r="V62">
-        <v>1.925</v>
-      </c>
       <c r="W62">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6037,16 +6037,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6422,7 +6422,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
         <v>39</v>
@@ -6511,7 +6511,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6962917</v>
+        <v>6963186</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,55 +7134,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>1</v>
-      </c>
-      <c r="I75">
-        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>49</v>
       </c>
       <c r="K75">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N75">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7191,19 +7191,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6963186</v>
+        <v>6962917</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,55 +7223,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>49</v>
       </c>
       <c r="K76">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N76">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7280,19 +7280,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7493,7 +7493,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6963187</v>
+        <v>6963190</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,76 +7579,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M80">
         <v>2.375</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O80">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z80">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6963190</v>
+        <v>6963187</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,76 +7668,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L81">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
         <v>2.375</v>
       </c>
       <c r="N81">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P81">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA81">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6963191</v>
+        <v>6962919</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,10 +8024,10 @@
         <v>45227.3125</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8039,40 +8039,40 @@
         <v>49</v>
       </c>
       <c r="K85">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
+        <v>2.3</v>
+      </c>
+      <c r="N85">
         <v>3</v>
-      </c>
-      <c r="N85">
-        <v>2.375</v>
       </c>
       <c r="O85">
         <v>3.1</v>
       </c>
       <c r="P85">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8081,19 +8081,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6962919</v>
+        <v>6963191</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,10 +8113,10 @@
         <v>45227.3125</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8128,40 +8128,40 @@
         <v>49</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O86">
         <v>3.1</v>
       </c>
       <c r="P86">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8170,19 +8170,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8380,7 +8380,7 @@
         <v>45228.3125</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
         <v>39</v>
@@ -8650,7 +8650,7 @@
         <v>46</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9181,7 +9181,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6963198</v>
+        <v>6963199</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,46 +9626,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N103">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P103">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T103">
         <v>2.25</v>
@@ -9677,25 +9677,25 @@
         <v>1.95</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6963199</v>
+        <v>6963198</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,46 +9715,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K104">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L104">
+        <v>3.1</v>
+      </c>
+      <c r="M104">
+        <v>2.375</v>
+      </c>
+      <c r="N104">
         <v>3.4</v>
       </c>
-      <c r="M104">
-        <v>3.8</v>
-      </c>
-      <c r="N104">
-        <v>1.95</v>
-      </c>
       <c r="O104">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P104">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
         <v>2.25</v>
@@ -9766,25 +9766,25 @@
         <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7437371</v>
+        <v>7437372</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,37 +9982,37 @@
         <v>45242.3125</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
         <v>49</v>
       </c>
       <c r="K107">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M107">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N107">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -10024,7 +10024,7 @@
         <v>2</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
         <v>2</v>
@@ -10039,7 +10039,7 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.625</v>
+        <v>1.8</v>
       </c>
       <c r="Z107">
         <v>-1</v>
@@ -10048,10 +10048,10 @@
         <v>1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7437372</v>
+        <v>7437371</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,37 +10071,37 @@
         <v>45242.3125</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
         <v>2</v>
-      </c>
-      <c r="I108">
-        <v>3</v>
       </c>
       <c r="J108" t="s">
         <v>49</v>
       </c>
       <c r="K108">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L108">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N108">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -10113,7 +10113,7 @@
         <v>2</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
         <v>2</v>
@@ -10128,7 +10128,7 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.8</v>
+        <v>1.625</v>
       </c>
       <c r="Z108">
         <v>-1</v>
@@ -10137,10 +10137,10 @@
         <v>1</v>
       </c>
       <c r="AB108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10516,7 +10516,7 @@
         <v>45255.3125</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
         <v>38</v>
@@ -10875,7 +10875,7 @@
         <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11305,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7526759</v>
+        <v>6962991</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11317,46 +11317,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K122">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N122">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O122">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P122">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q122">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T122">
         <v>2.5</v>
@@ -11371,22 +11371,22 @@
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB122">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6962991</v>
+        <v>7526759</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,46 +11406,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K123">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N123">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11460,22 +11460,22 @@
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y123">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>45263.3125</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6963207</v>
+        <v>6962929</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,76 +11940,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L129">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N129">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O129">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
+        <v>2</v>
+      </c>
+      <c r="V129">
         <v>1.8</v>
       </c>
-      <c r="V129">
-        <v>2</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC129">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6962929</v>
+        <v>6963207</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,76 +12029,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K130">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M130">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N130">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O130">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
+        <v>1.8</v>
+      </c>
+      <c r="V130">
         <v>2</v>
       </c>
-      <c r="V130">
-        <v>1.8</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>1</v>
-      </c>
-      <c r="AC130">
-        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6962995</v>
+        <v>6963208</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,76 +12296,76 @@
         <v>45270.3125</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L133">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M133">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N133">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O133">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X133">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12373,7 +12373,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6963208</v>
+        <v>6962995</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12385,76 +12385,76 @@
         <v>45270.3125</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K134">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M134">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N134">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O134">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13367,7 +13367,7 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13720,7 +13720,7 @@
         <v>45284.3125</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
         <v>41</v>
@@ -14076,7 +14076,7 @@
         <v>45285.33333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
         <v>38</v>
@@ -14432,7 +14432,7 @@
         <v>45304.3125</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
         <v>36</v>
@@ -14788,7 +14788,7 @@
         <v>45305.3125</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -15325,7 +15325,7 @@
         <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6963004</v>
+        <v>6963223</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,76 +15500,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K169">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="L169">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M169">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N169">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P169">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>2.05</v>
+      </c>
+      <c r="S169">
+        <v>1.75</v>
+      </c>
+      <c r="T169">
+        <v>2.25</v>
+      </c>
+      <c r="U169">
+        <v>1.775</v>
+      </c>
+      <c r="V169">
+        <v>2.025</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>2.2</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>-0</v>
+      </c>
+      <c r="AB169">
         <v>-0.5</v>
       </c>
-      <c r="R169">
-        <v>1.775</v>
-      </c>
-      <c r="S169">
-        <v>2.025</v>
-      </c>
-      <c r="T169">
-        <v>2.5</v>
-      </c>
-      <c r="U169">
-        <v>2.025</v>
-      </c>
-      <c r="V169">
-        <v>1.775</v>
-      </c>
-      <c r="W169">
-        <v>0.8</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
-      <c r="AB169">
-        <v>-1</v>
-      </c>
       <c r="AC169">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6963223</v>
+        <v>6963004</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,76 +15589,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K170">
+        <v>1.85</v>
+      </c>
+      <c r="L170">
         <v>3.4</v>
       </c>
-      <c r="L170">
-        <v>3.25</v>
-      </c>
       <c r="M170">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N170">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P170">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S170">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
+        <v>2.025</v>
+      </c>
+      <c r="V170">
         <v>1.775</v>
       </c>
-      <c r="V170">
-        <v>2.025</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X170">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16034,7 +16034,7 @@
         <v>45318.3125</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
         <v>36</v>
@@ -16390,7 +16390,7 @@
         <v>45319.3125</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
         <v>47</v>
@@ -16749,7 +16749,7 @@
         <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6963045</v>
+        <v>6963229</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,58 +17191,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H188">
         <v>2</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L188">
+        <v>3.4</v>
+      </c>
+      <c r="M188">
+        <v>2.05</v>
+      </c>
+      <c r="N188">
         <v>3.5</v>
       </c>
-      <c r="M188">
-        <v>3.75</v>
-      </c>
-      <c r="N188">
-        <v>1.95</v>
-      </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V188">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W188">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17251,16 +17251,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC188">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17268,7 +17268,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6963229</v>
+        <v>6963045</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17280,58 +17280,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L189">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M189">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="N189">
+        <v>1.95</v>
+      </c>
+      <c r="O189">
         <v>3.5</v>
       </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
       <c r="P189">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17340,16 +17340,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17992,7 +17992,7 @@
         <v>45333.3125</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s">
         <v>37</v>
@@ -18170,7 +18170,7 @@
         <v>45333.54166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G199" t="s">
         <v>47</v>
@@ -18351,7 +18351,7 @@
         <v>37</v>
       </c>
       <c r="G201" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18692,7 +18692,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6963011</v>
+        <v>6963013</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,13 +18704,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -18719,43 +18719,43 @@
         <v>48</v>
       </c>
       <c r="K205">
-        <v>1.727</v>
+        <v>1.181</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M205">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N205">
-        <v>1.7</v>
+        <v>1.166</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P205">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R205">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>0.7</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18764,16 +18764,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>0.4</v>
+      </c>
+      <c r="AC205">
         <v>-0.5</v>
-      </c>
-      <c r="AB205">
-        <v>-1</v>
-      </c>
-      <c r="AC205">
-        <v>0.95</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6963013</v>
+        <v>6963011</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,13 +18793,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -18808,43 +18808,43 @@
         <v>48</v>
       </c>
       <c r="K206">
-        <v>1.181</v>
+        <v>1.727</v>
       </c>
       <c r="L206">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N206">
-        <v>1.166</v>
+        <v>1.7</v>
       </c>
       <c r="O206">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q206">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W206">
-        <v>0.1659999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18853,16 +18853,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB206">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19238,7 +19238,7 @@
         <v>45346.3125</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -19683,7 +19683,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -20309,7 +20309,7 @@
         <v>44</v>
       </c>
       <c r="G223" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20400,6 +20400,15 @@
       <c r="G224" t="s">
         <v>41</v>
       </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224" t="s">
+        <v>49</v>
+      </c>
       <c r="K224">
         <v>5</v>
       </c>
@@ -20410,49 +20419,55 @@
         <v>1.65</v>
       </c>
       <c r="N224">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O224">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q224">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R224">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S224">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V224">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
+        <v>0.45</v>
+      </c>
+      <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -20474,6 +20489,15 @@
       <c r="G225" t="s">
         <v>31</v>
       </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225" t="s">
+        <v>48</v>
+      </c>
       <c r="K225">
         <v>1.45</v>
       </c>
@@ -20502,31 +20526,37 @@
         <v>1.95</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V225">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W225">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB225">
+        <v>-0.5</v>
+      </c>
+      <c r="AC225">
+        <v>0.5125</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -20546,7 +20576,16 @@
         <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226" t="s">
+        <v>50</v>
       </c>
       <c r="K226">
         <v>2.375</v>
@@ -20558,49 +20597,55 @@
         <v>2.9</v>
       </c>
       <c r="N226">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O226">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P226">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q226">
         <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V226">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27">
+        <v>0.375</v>
+      </c>
+      <c r="AB226">
+        <v>-1</v>
+      </c>
+      <c r="AC226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -20614,7 +20659,7 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45355.58333333334</v>
+        <v>45355.33333333334</v>
       </c>
       <c r="F227" t="s">
         <v>34</v>
@@ -20622,6 +20667,15 @@
       <c r="G227" t="s">
         <v>38</v>
       </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227" t="s">
+        <v>50</v>
+      </c>
       <c r="K227">
         <v>1.8</v>
       </c>
@@ -20632,45 +20686,717 @@
         <v>4.2</v>
       </c>
       <c r="N227">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O227">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P227">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q227">
         <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S227">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T227">
         <v>2.25</v>
       </c>
       <c r="U227">
+        <v>2</v>
+      </c>
+      <c r="V227">
+        <v>1.8</v>
+      </c>
+      <c r="W227">
+        <v>-1</v>
+      </c>
+      <c r="X227">
+        <v>2.1</v>
+      </c>
+      <c r="Y227">
+        <v>-1</v>
+      </c>
+      <c r="Z227">
+        <v>-1</v>
+      </c>
+      <c r="AA227">
+        <v>0.8</v>
+      </c>
+      <c r="AB227">
+        <v>-0.5</v>
+      </c>
+      <c r="AC227">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>6963246</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45359.58333333334</v>
+      </c>
+      <c r="F228" t="s">
+        <v>31</v>
+      </c>
+      <c r="G228" t="s">
+        <v>47</v>
+      </c>
+      <c r="K228">
+        <v>1.222</v>
+      </c>
+      <c r="L228">
+        <v>5.5</v>
+      </c>
+      <c r="M228">
+        <v>13</v>
+      </c>
+      <c r="N228">
+        <v>1.222</v>
+      </c>
+      <c r="O228">
+        <v>5.5</v>
+      </c>
+      <c r="P228">
+        <v>13</v>
+      </c>
+      <c r="Q228">
+        <v>-1.75</v>
+      </c>
+      <c r="R228">
+        <v>1.925</v>
+      </c>
+      <c r="S228">
+        <v>1.875</v>
+      </c>
+      <c r="T228">
+        <v>2.75</v>
+      </c>
+      <c r="U228">
+        <v>1.925</v>
+      </c>
+      <c r="V228">
+        <v>1.875</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>6963243</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45360.3125</v>
+      </c>
+      <c r="F229" t="s">
+        <v>43</v>
+      </c>
+      <c r="G229" t="s">
+        <v>29</v>
+      </c>
+      <c r="K229">
+        <v>2.2</v>
+      </c>
+      <c r="L229">
+        <v>3.25</v>
+      </c>
+      <c r="M229">
+        <v>3.2</v>
+      </c>
+      <c r="N229">
+        <v>2.2</v>
+      </c>
+      <c r="O229">
+        <v>3.25</v>
+      </c>
+      <c r="P229">
+        <v>3.2</v>
+      </c>
+      <c r="Q229">
+        <v>-0.25</v>
+      </c>
+      <c r="R229">
+        <v>1.9</v>
+      </c>
+      <c r="S229">
+        <v>1.9</v>
+      </c>
+      <c r="T229">
+        <v>2.25</v>
+      </c>
+      <c r="U229">
+        <v>1.875</v>
+      </c>
+      <c r="V229">
+        <v>1.925</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>6963020</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F230" t="s">
+        <v>41</v>
+      </c>
+      <c r="G230" t="s">
+        <v>44</v>
+      </c>
+      <c r="K230">
+        <v>3.4</v>
+      </c>
+      <c r="L230">
+        <v>3.3</v>
+      </c>
+      <c r="M230">
+        <v>2.1</v>
+      </c>
+      <c r="N230">
+        <v>3.5</v>
+      </c>
+      <c r="O230">
+        <v>3.3</v>
+      </c>
+      <c r="P230">
+        <v>2.1</v>
+      </c>
+      <c r="Q230">
+        <v>0.25</v>
+      </c>
+      <c r="R230">
+        <v>2</v>
+      </c>
+      <c r="S230">
+        <v>1.8</v>
+      </c>
+      <c r="T230">
+        <v>2.5</v>
+      </c>
+      <c r="U230">
+        <v>1.975</v>
+      </c>
+      <c r="V230">
+        <v>1.825</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>6963244</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45360.54166666666</v>
+      </c>
+      <c r="F231" t="s">
+        <v>46</v>
+      </c>
+      <c r="G231" t="s">
+        <v>39</v>
+      </c>
+      <c r="K231">
+        <v>1.4</v>
+      </c>
+      <c r="L231">
+        <v>4.5</v>
+      </c>
+      <c r="M231">
+        <v>7</v>
+      </c>
+      <c r="N231">
+        <v>1.533</v>
+      </c>
+      <c r="O231">
+        <v>4</v>
+      </c>
+      <c r="P231">
+        <v>5.75</v>
+      </c>
+      <c r="Q231">
+        <v>-1</v>
+      </c>
+      <c r="R231">
+        <v>1.95</v>
+      </c>
+      <c r="S231">
         <v>1.85</v>
       </c>
-      <c r="V227">
+      <c r="T231">
+        <v>2.5</v>
+      </c>
+      <c r="U231">
+        <v>1.8</v>
+      </c>
+      <c r="V231">
+        <v>2</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>6963245</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45361.3125</v>
+      </c>
+      <c r="F232" t="s">
+        <v>32</v>
+      </c>
+      <c r="G232" t="s">
+        <v>36</v>
+      </c>
+      <c r="K232">
+        <v>2.2</v>
+      </c>
+      <c r="L232">
+        <v>3.2</v>
+      </c>
+      <c r="M232">
+        <v>3.3</v>
+      </c>
+      <c r="N232">
+        <v>2.2</v>
+      </c>
+      <c r="O232">
+        <v>3.2</v>
+      </c>
+      <c r="P232">
+        <v>3.4</v>
+      </c>
+      <c r="Q232">
+        <v>-0.25</v>
+      </c>
+      <c r="R232">
+        <v>1.9</v>
+      </c>
+      <c r="S232">
+        <v>1.9</v>
+      </c>
+      <c r="T232">
+        <v>2.25</v>
+      </c>
+      <c r="U232">
+        <v>2.05</v>
+      </c>
+      <c r="V232">
+        <v>1.75</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>6963019</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45361.3125</v>
+      </c>
+      <c r="F233" t="s">
+        <v>45</v>
+      </c>
+      <c r="G233" t="s">
+        <v>34</v>
+      </c>
+      <c r="K233">
+        <v>4.75</v>
+      </c>
+      <c r="L233">
+        <v>3.6</v>
+      </c>
+      <c r="M233">
+        <v>1.7</v>
+      </c>
+      <c r="N233">
+        <v>6</v>
+      </c>
+      <c r="O233">
+        <v>4</v>
+      </c>
+      <c r="P233">
+        <v>1.533</v>
+      </c>
+      <c r="Q233">
+        <v>1</v>
+      </c>
+      <c r="R233">
+        <v>1.85</v>
+      </c>
+      <c r="S233">
         <v>1.95</v>
       </c>
-      <c r="W227">
-        <v>0</v>
-      </c>
-      <c r="X227">
-        <v>0</v>
-      </c>
-      <c r="Y227">
-        <v>0</v>
-      </c>
-      <c r="Z227">
-        <v>0</v>
-      </c>
-      <c r="AA227">
+      <c r="T233">
+        <v>2.5</v>
+      </c>
+      <c r="U233">
+        <v>1.975</v>
+      </c>
+      <c r="V233">
+        <v>1.825</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>6962951</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F234" t="s">
+        <v>38</v>
+      </c>
+      <c r="G234" t="s">
+        <v>37</v>
+      </c>
+      <c r="K234">
+        <v>4.75</v>
+      </c>
+      <c r="L234">
+        <v>3.5</v>
+      </c>
+      <c r="M234">
+        <v>1.727</v>
+      </c>
+      <c r="N234">
+        <v>4.5</v>
+      </c>
+      <c r="O234">
+        <v>3.4</v>
+      </c>
+      <c r="P234">
+        <v>1.8</v>
+      </c>
+      <c r="Q234">
+        <v>0.5</v>
+      </c>
+      <c r="R234">
+        <v>1.975</v>
+      </c>
+      <c r="S234">
+        <v>1.825</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
+        <v>1.85</v>
+      </c>
+      <c r="V234">
+        <v>1.95</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>6962950</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45361.54166666666</v>
+      </c>
+      <c r="F235" t="s">
+        <v>33</v>
+      </c>
+      <c r="G235" t="s">
+        <v>35</v>
+      </c>
+      <c r="K235">
+        <v>1.5</v>
+      </c>
+      <c r="L235">
+        <v>4</v>
+      </c>
+      <c r="M235">
+        <v>6.5</v>
+      </c>
+      <c r="N235">
+        <v>1.6</v>
+      </c>
+      <c r="O235">
+        <v>3.75</v>
+      </c>
+      <c r="P235">
+        <v>5.75</v>
+      </c>
+      <c r="Q235">
+        <v>-0.75</v>
+      </c>
+      <c r="R235">
+        <v>1.8</v>
+      </c>
+      <c r="S235">
+        <v>2</v>
+      </c>
+      <c r="T235">
+        <v>2.25</v>
+      </c>
+      <c r="U235">
+        <v>1.875</v>
+      </c>
+      <c r="V235">
+        <v>1.925</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>6963242</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45362.60416666666</v>
+      </c>
+      <c r="F236" t="s">
+        <v>42</v>
+      </c>
+      <c r="G236" t="s">
+        <v>40</v>
+      </c>
+      <c r="K236">
+        <v>1.95</v>
+      </c>
+      <c r="L236">
+        <v>3.4</v>
+      </c>
+      <c r="M236">
+        <v>3.8</v>
+      </c>
+      <c r="N236">
+        <v>1.85</v>
+      </c>
+      <c r="O236">
+        <v>3.4</v>
+      </c>
+      <c r="P236">
+        <v>4</v>
+      </c>
+      <c r="Q236">
+        <v>-0.5</v>
+      </c>
+      <c r="R236">
+        <v>1.875</v>
+      </c>
+      <c r="S236">
+        <v>1.925</v>
+      </c>
+      <c r="T236">
+        <v>2.5</v>
+      </c>
+      <c r="U236">
+        <v>1.95</v>
+      </c>
+      <c r="V236">
+        <v>1.85</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
         <v>0</v>
       </c>
     </row>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Adanaspor</t>
   </si>
   <si>
-    <t>Manisa BBSK</t>
+    <t>Bandirmaspor</t>
   </si>
   <si>
-    <t>Bandirmaspor</t>
+    <t>Manisa BBSK</t>
   </si>
   <si>
     <t>Sakaryaspor</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC236"/>
+  <dimension ref="A1:AC234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,7 +996,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6963167</v>
+        <v>6963166</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1886,7 +1886,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1898,31 +1898,31 @@
         <v>50</v>
       </c>
       <c r="K16">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N16">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
         <v>2.5</v>
@@ -1937,7 +1937,7 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -1946,7 +1946,7 @@
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB16">
         <v>-1</v>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6963166</v>
+        <v>6963167</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1975,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1987,31 +1987,31 @@
         <v>50</v>
       </c>
       <c r="K17">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L17">
+        <v>3.75</v>
+      </c>
+      <c r="M17">
+        <v>2.625</v>
+      </c>
+      <c r="N17">
+        <v>1.85</v>
+      </c>
+      <c r="O17">
+        <v>3.8</v>
+      </c>
+      <c r="P17">
         <v>3.6</v>
       </c>
-      <c r="M17">
-        <v>3.6</v>
-      </c>
-      <c r="N17">
-        <v>1.7</v>
-      </c>
-      <c r="O17">
-        <v>3.6</v>
-      </c>
-      <c r="P17">
-        <v>4.333</v>
-      </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
         <v>2.5</v>
@@ -2026,7 +2026,7 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2035,7 +2035,7 @@
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -2331,7 +2331,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -3307,7 +3307,7 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6963175</v>
+        <v>6962968</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,76 +4286,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
+        <v>2.5</v>
+      </c>
+      <c r="N43">
+        <v>2.55</v>
+      </c>
+      <c r="O43">
+        <v>3.2</v>
+      </c>
+      <c r="P43">
+        <v>2.5</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
         <v>1.85</v>
-      </c>
-      <c r="N43">
-        <v>4.5</v>
-      </c>
-      <c r="O43">
-        <v>3.75</v>
-      </c>
-      <c r="P43">
-        <v>1.615</v>
-      </c>
-      <c r="Q43">
-        <v>0.75</v>
-      </c>
-      <c r="R43">
-        <v>1.975</v>
-      </c>
-      <c r="S43">
-        <v>1.825</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
+        <v>1.975</v>
+      </c>
+      <c r="V43">
         <v>1.825</v>
       </c>
-      <c r="V43">
-        <v>1.975</v>
-      </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X43">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>0.95</v>
+      </c>
+      <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
       <c r="AC43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6962968</v>
+        <v>6963175</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N44">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
+        <v>1.825</v>
+      </c>
+      <c r="V44">
         <v>1.975</v>
       </c>
-      <c r="V44">
-        <v>1.825</v>
-      </c>
       <c r="W44">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
+        <v>-1</v>
+      </c>
+      <c r="AC44">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC44">
-        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4452,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6962910</v>
+        <v>6963174</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4464,76 +4464,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K45">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N45">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P45">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4541,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6963174</v>
+        <v>6962910</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4553,76 +4553,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
+        <v>3.25</v>
+      </c>
+      <c r="M46">
+        <v>2.875</v>
+      </c>
+      <c r="N46">
+        <v>2.375</v>
+      </c>
+      <c r="O46">
         <v>3.2</v>
       </c>
-      <c r="M46">
-        <v>1.95</v>
-      </c>
-      <c r="N46">
-        <v>4</v>
-      </c>
-      <c r="O46">
-        <v>3.3</v>
-      </c>
       <c r="P46">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5087,7 +5087,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5176,7 +5176,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5535,7 +5535,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7291537</v>
+        <v>6962976</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,13 +6425,13 @@
         <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>50</v>
@@ -6446,37 +6446,37 @@
         <v>4</v>
       </c>
       <c r="N67">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P67">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
         <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6485,13 +6485,13 @@
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6962976</v>
+        <v>7291537</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,13 +6514,13 @@
         <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>50</v>
@@ -6535,37 +6535,37 @@
         <v>4</v>
       </c>
       <c r="N68">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O68">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
         <v>2.5</v>
       </c>
       <c r="U68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y68">
         <v>-1</v>
@@ -6574,13 +6574,13 @@
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6963186</v>
+        <v>6962917</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,55 +7134,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>49</v>
       </c>
       <c r="K75">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N75">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7191,19 +7191,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6962917</v>
+        <v>6963186</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,55 +7223,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>1</v>
-      </c>
-      <c r="I76">
-        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>49</v>
       </c>
       <c r="K76">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N76">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7280,19 +7280,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7493,7 +7493,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6963190</v>
+        <v>6963187</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,76 +7579,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K80">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L80">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
         <v>2.375</v>
       </c>
       <c r="N80">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P80">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q80">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA80">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6963187</v>
+        <v>6963190</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,76 +7668,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M81">
         <v>2.375</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S81">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z81">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8380,7 +8380,7 @@
         <v>45228.3125</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s">
         <v>39</v>
@@ -8650,7 +8650,7 @@
         <v>46</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6963195</v>
+        <v>6962982</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9092,10 +9092,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9107,43 +9107,43 @@
         <v>48</v>
       </c>
       <c r="K97">
+        <v>1.333</v>
+      </c>
+      <c r="L97">
+        <v>4.5</v>
+      </c>
+      <c r="M97">
+        <v>8</v>
+      </c>
+      <c r="N97">
+        <v>1.285</v>
+      </c>
+      <c r="O97">
+        <v>5</v>
+      </c>
+      <c r="P97">
+        <v>9</v>
+      </c>
+      <c r="Q97">
+        <v>-1.5</v>
+      </c>
+      <c r="R97">
+        <v>1.9</v>
+      </c>
+      <c r="S97">
+        <v>1.9</v>
+      </c>
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
         <v>1.95</v>
       </c>
-      <c r="L97">
-        <v>3.4</v>
-      </c>
-      <c r="M97">
-        <v>3.75</v>
-      </c>
-      <c r="N97">
-        <v>1.909</v>
-      </c>
-      <c r="O97">
-        <v>3.3</v>
-      </c>
-      <c r="P97">
-        <v>3.8</v>
-      </c>
-      <c r="Q97">
-        <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.95</v>
-      </c>
-      <c r="S97">
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="T97">
-        <v>2.25</v>
-      </c>
-      <c r="U97">
-        <v>1.825</v>
-      </c>
-      <c r="V97">
-        <v>1.975</v>
-      </c>
       <c r="W97">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9152,16 +9152,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6962982</v>
+        <v>6963195</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,10 +9181,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F98" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" t="s">
         <v>43</v>
-      </c>
-      <c r="G98" t="s">
-        <v>45</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9196,43 +9196,43 @@
         <v>48</v>
       </c>
       <c r="K98">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="L98">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N98">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O98">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
-        <v>0.2849999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9241,16 +9241,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -10071,10 +10071,10 @@
         <v>45242.3125</v>
       </c>
       <c r="F108" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108" t="s">
         <v>42</v>
-      </c>
-      <c r="G108" t="s">
-        <v>43</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10516,7 +10516,7 @@
         <v>45255.3125</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
         <v>38</v>
@@ -10875,7 +10875,7 @@
         <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11305,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6962991</v>
+        <v>7526759</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11317,46 +11317,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K122">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N122">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
         <v>2.5</v>
@@ -11371,22 +11371,22 @@
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y122">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7526759</v>
+        <v>6962991</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,46 +11406,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N123">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q123">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11460,22 +11460,22 @@
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB123">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA123">
-        <v>-1</v>
-      </c>
-      <c r="AB123">
-        <v>-1</v>
-      </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>45263.3125</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6962929</v>
+        <v>6963207</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,76 +11940,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M129">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O129">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
+        <v>1.8</v>
+      </c>
+      <c r="V129">
         <v>2</v>
       </c>
-      <c r="V129">
-        <v>1.8</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y129">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
         <v>1</v>
-      </c>
-      <c r="AC129">
-        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6963207</v>
+        <v>6962929</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,76 +12029,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L130">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M130">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N130">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P130">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
         <v>1.8</v>
       </c>
-      <c r="V130">
-        <v>2</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12385,7 +12385,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
         <v>41</v>
@@ -13100,7 +13100,7 @@
         <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13367,7 +13367,7 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13720,7 +13720,7 @@
         <v>45284.3125</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
         <v>41</v>
@@ -14076,7 +14076,7 @@
         <v>45285.33333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
         <v>38</v>
@@ -14420,7 +14420,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7656973</v>
+        <v>6963219</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14432,76 +14432,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K157">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M157">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N157">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="O157">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P157">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X157">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6963219</v>
+        <v>7656973</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="L158">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M158">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N158">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="O158">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q158">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14788,7 +14788,7 @@
         <v>45305.3125</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -15325,7 +15325,7 @@
         <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6963223</v>
+        <v>6963004</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,76 +15500,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K169">
+        <v>1.85</v>
+      </c>
+      <c r="L169">
         <v>3.4</v>
       </c>
-      <c r="L169">
-        <v>3.25</v>
-      </c>
       <c r="M169">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N169">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O169">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S169">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
+        <v>2.025</v>
+      </c>
+      <c r="V169">
         <v>1.775</v>
       </c>
-      <c r="V169">
-        <v>2.025</v>
-      </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X169">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6963004</v>
+        <v>6963223</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,76 +15589,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K170">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="L170">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M170">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N170">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O170">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P170">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>2.05</v>
+      </c>
+      <c r="S170">
+        <v>1.75</v>
+      </c>
+      <c r="T170">
+        <v>2.25</v>
+      </c>
+      <c r="U170">
+        <v>1.775</v>
+      </c>
+      <c r="V170">
+        <v>2.025</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>2.2</v>
+      </c>
+      <c r="Y170">
+        <v>-1</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>-0</v>
+      </c>
+      <c r="AB170">
         <v>-0.5</v>
       </c>
-      <c r="R170">
-        <v>1.775</v>
-      </c>
-      <c r="S170">
-        <v>2.025</v>
-      </c>
-      <c r="T170">
-        <v>2.5</v>
-      </c>
-      <c r="U170">
-        <v>2.025</v>
-      </c>
-      <c r="V170">
-        <v>1.775</v>
-      </c>
-      <c r="W170">
-        <v>0.8</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
-      <c r="Z170">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA170">
-        <v>-1</v>
-      </c>
-      <c r="AB170">
-        <v>-1</v>
-      </c>
       <c r="AC170">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16034,7 +16034,7 @@
         <v>45318.3125</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
         <v>36</v>
@@ -16390,7 +16390,7 @@
         <v>45319.3125</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
         <v>47</v>
@@ -16749,7 +16749,7 @@
         <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6963229</v>
+        <v>6963045</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,58 +17191,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H188">
         <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L188">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M188">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="N188">
+        <v>1.95</v>
+      </c>
+      <c r="O188">
         <v>3.5</v>
       </c>
-      <c r="O188">
-        <v>3.4</v>
-      </c>
       <c r="P188">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V188">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W188">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17251,16 +17251,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17268,7 +17268,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6963045</v>
+        <v>6963229</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17280,58 +17280,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L189">
+        <v>3.4</v>
+      </c>
+      <c r="M189">
+        <v>2.05</v>
+      </c>
+      <c r="N189">
         <v>3.5</v>
       </c>
-      <c r="M189">
-        <v>3.75</v>
-      </c>
-      <c r="N189">
-        <v>1.95</v>
-      </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S189">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W189">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17340,16 +17340,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC189">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17891,7 +17891,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6963009</v>
+        <v>6962943</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17903,76 +17903,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
         <v>2</v>
       </c>
-      <c r="I196">
-        <v>1</v>
-      </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L196">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M196">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N196">
         <v>2.375</v>
       </c>
       <c r="O196">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P196">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q196">
         <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S196">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W196">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17980,7 +17980,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6962943</v>
+        <v>6963009</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17992,76 +17992,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K197">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L197">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M197">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N197">
         <v>2.375</v>
       </c>
       <c r="O197">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P197">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q197">
         <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S197">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V197">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA197">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC197">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18170,7 +18170,7 @@
         <v>45333.54166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G199" t="s">
         <v>47</v>
@@ -18351,7 +18351,7 @@
         <v>37</v>
       </c>
       <c r="G201" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18692,7 +18692,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6963013</v>
+        <v>6963011</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,13 +18704,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -18719,43 +18719,43 @@
         <v>48</v>
       </c>
       <c r="K205">
-        <v>1.181</v>
+        <v>1.727</v>
       </c>
       <c r="L205">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M205">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N205">
-        <v>1.166</v>
+        <v>1.7</v>
       </c>
       <c r="O205">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q205">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S205">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
-        <v>0.1659999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18764,16 +18764,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB205">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6963011</v>
+        <v>6963013</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,13 +18793,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -18808,43 +18808,43 @@
         <v>48</v>
       </c>
       <c r="K206">
-        <v>1.727</v>
+        <v>1.181</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M206">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N206">
-        <v>1.7</v>
+        <v>1.166</v>
       </c>
       <c r="O206">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P206">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R206">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>0.7</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18853,16 +18853,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
+        <v>0.4</v>
+      </c>
+      <c r="AC206">
         <v>-0.5</v>
-      </c>
-      <c r="AB206">
-        <v>-1</v>
-      </c>
-      <c r="AC206">
-        <v>0.95</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19238,7 +19238,7 @@
         <v>45346.3125</v>
       </c>
       <c r="F211" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -19683,7 +19683,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -20309,7 +20309,7 @@
         <v>44</v>
       </c>
       <c r="G223" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20576,7 +20576,7 @@
         <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20756,6 +20756,15 @@
       <c r="G228" t="s">
         <v>47</v>
       </c>
+      <c r="H228">
+        <v>2</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228" t="s">
+        <v>48</v>
+      </c>
       <c r="K228">
         <v>1.222</v>
       </c>
@@ -20766,46 +20775,52 @@
         <v>13</v>
       </c>
       <c r="N228">
-        <v>1.222</v>
+        <v>1.2</v>
       </c>
       <c r="O228">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="P228">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q228">
         <v>-1.75</v>
       </c>
       <c r="R228">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S228">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T228">
         <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V228">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W228">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB228">
+        <v>0.4875</v>
+      </c>
+      <c r="AC228">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20813,7 +20828,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6963243</v>
+        <v>6963244</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20822,49 +20837,49 @@
         <v>28</v>
       </c>
       <c r="E229" s="2">
-        <v>45360.3125</v>
+        <v>45360.54166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G229" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K229">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L229">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M229">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="N229">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O229">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P229">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R229">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S229">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V229">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
         <v>0</v>
@@ -20887,7 +20902,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6963020</v>
+        <v>6963245</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20896,49 +20911,49 @@
         <v>28</v>
       </c>
       <c r="E230" s="2">
-        <v>45360.41666666666</v>
+        <v>45361.3125</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K230">
+        <v>2.2</v>
+      </c>
+      <c r="L230">
+        <v>3.2</v>
+      </c>
+      <c r="M230">
+        <v>3.3</v>
+      </c>
+      <c r="N230">
+        <v>2.2</v>
+      </c>
+      <c r="O230">
+        <v>3.1</v>
+      </c>
+      <c r="P230">
         <v>3.4</v>
       </c>
-      <c r="L230">
-        <v>3.3</v>
-      </c>
-      <c r="M230">
-        <v>2.1</v>
-      </c>
-      <c r="N230">
-        <v>3.5</v>
-      </c>
-      <c r="O230">
-        <v>3.3</v>
-      </c>
-      <c r="P230">
-        <v>2.1</v>
-      </c>
       <c r="Q230">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R230">
+        <v>1.9</v>
+      </c>
+      <c r="S230">
+        <v>1.9</v>
+      </c>
+      <c r="T230">
         <v>2</v>
       </c>
-      <c r="S230">
+      <c r="U230">
         <v>1.8</v>
       </c>
-      <c r="T230">
-        <v>2.5</v>
-      </c>
-      <c r="U230">
-        <v>1.975</v>
-      </c>
       <c r="V230">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W230">
         <v>0</v>
@@ -20961,7 +20976,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6963244</v>
+        <v>6963019</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -20970,49 +20985,49 @@
         <v>28</v>
       </c>
       <c r="E231" s="2">
-        <v>45360.54166666666</v>
+        <v>45361.3125</v>
       </c>
       <c r="F231" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G231" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K231">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="L231">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="N231">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="O231">
         <v>4</v>
       </c>
       <c r="P231">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q231">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R231">
+        <v>1.85</v>
+      </c>
+      <c r="S231">
         <v>1.95</v>
-      </c>
-      <c r="S231">
-        <v>1.85</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
+        <v>2</v>
+      </c>
+      <c r="V231">
         <v>1.8</v>
-      </c>
-      <c r="V231">
-        <v>2</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21035,7 +21050,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6963245</v>
+        <v>6962951</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21044,49 +21059,49 @@
         <v>28</v>
       </c>
       <c r="E232" s="2">
-        <v>45361.3125</v>
+        <v>45361.41666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G232" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K232">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L232">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M232">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="N232">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O232">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P232">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R232">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S232">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T232">
         <v>2.25</v>
       </c>
       <c r="U232">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V232">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21109,7 +21124,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6963019</v>
+        <v>6962950</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21118,49 +21133,49 @@
         <v>28</v>
       </c>
       <c r="E233" s="2">
-        <v>45361.3125</v>
+        <v>45361.54166666666</v>
       </c>
       <c r="F233" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K233">
+        <v>1.5</v>
+      </c>
+      <c r="L233">
+        <v>4</v>
+      </c>
+      <c r="M233">
+        <v>6.5</v>
+      </c>
+      <c r="N233">
+        <v>1.727</v>
+      </c>
+      <c r="O233">
+        <v>3.5</v>
+      </c>
+      <c r="P233">
         <v>4.75</v>
       </c>
-      <c r="L233">
-        <v>3.6</v>
-      </c>
-      <c r="M233">
-        <v>1.7</v>
-      </c>
-      <c r="N233">
-        <v>6</v>
-      </c>
-      <c r="O233">
-        <v>4</v>
-      </c>
-      <c r="P233">
-        <v>1.533</v>
-      </c>
       <c r="Q233">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
+        <v>1.95</v>
+      </c>
+      <c r="S233">
         <v>1.85</v>
       </c>
-      <c r="S233">
+      <c r="T233">
+        <v>2.25</v>
+      </c>
+      <c r="U233">
+        <v>1.85</v>
+      </c>
+      <c r="V233">
         <v>1.95</v>
-      </c>
-      <c r="T233">
-        <v>2.5</v>
-      </c>
-      <c r="U233">
-        <v>1.975</v>
-      </c>
-      <c r="V233">
-        <v>1.825</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -21183,7 +21198,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6962951</v>
+        <v>6963242</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21192,50 +21207,50 @@
         <v>28</v>
       </c>
       <c r="E234" s="2">
-        <v>45361.41666666666</v>
+        <v>45362.60416666666</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G234" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K234">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="L234">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M234">
-        <v>1.727</v>
+        <v>3.8</v>
       </c>
       <c r="N234">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="O234">
         <v>3.4</v>
       </c>
       <c r="P234">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="Q234">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S234">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
+        <v>1.95</v>
+      </c>
+      <c r="V234">
         <v>1.85</v>
       </c>
-      <c r="V234">
-        <v>1.95</v>
-      </c>
       <c r="W234">
         <v>0</v>
       </c>
@@ -21249,154 +21264,6 @@
         <v>0</v>
       </c>
       <c r="AA234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:29">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235">
-        <v>6962950</v>
-      </c>
-      <c r="C235" t="s">
-        <v>28</v>
-      </c>
-      <c r="D235" t="s">
-        <v>28</v>
-      </c>
-      <c r="E235" s="2">
-        <v>45361.54166666666</v>
-      </c>
-      <c r="F235" t="s">
-        <v>33</v>
-      </c>
-      <c r="G235" t="s">
-        <v>35</v>
-      </c>
-      <c r="K235">
-        <v>1.5</v>
-      </c>
-      <c r="L235">
-        <v>4</v>
-      </c>
-      <c r="M235">
-        <v>6.5</v>
-      </c>
-      <c r="N235">
-        <v>1.6</v>
-      </c>
-      <c r="O235">
-        <v>3.75</v>
-      </c>
-      <c r="P235">
-        <v>5.75</v>
-      </c>
-      <c r="Q235">
-        <v>-0.75</v>
-      </c>
-      <c r="R235">
-        <v>1.8</v>
-      </c>
-      <c r="S235">
-        <v>2</v>
-      </c>
-      <c r="T235">
-        <v>2.25</v>
-      </c>
-      <c r="U235">
-        <v>1.875</v>
-      </c>
-      <c r="V235">
-        <v>1.925</v>
-      </c>
-      <c r="W235">
-        <v>0</v>
-      </c>
-      <c r="X235">
-        <v>0</v>
-      </c>
-      <c r="Y235">
-        <v>0</v>
-      </c>
-      <c r="Z235">
-        <v>0</v>
-      </c>
-      <c r="AA235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:29">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236">
-        <v>6963242</v>
-      </c>
-      <c r="C236" t="s">
-        <v>28</v>
-      </c>
-      <c r="D236" t="s">
-        <v>28</v>
-      </c>
-      <c r="E236" s="2">
-        <v>45362.60416666666</v>
-      </c>
-      <c r="F236" t="s">
-        <v>42</v>
-      </c>
-      <c r="G236" t="s">
-        <v>40</v>
-      </c>
-      <c r="K236">
-        <v>1.95</v>
-      </c>
-      <c r="L236">
-        <v>3.4</v>
-      </c>
-      <c r="M236">
-        <v>3.8</v>
-      </c>
-      <c r="N236">
-        <v>1.85</v>
-      </c>
-      <c r="O236">
-        <v>3.4</v>
-      </c>
-      <c r="P236">
-        <v>4</v>
-      </c>
-      <c r="Q236">
-        <v>-0.5</v>
-      </c>
-      <c r="R236">
-        <v>1.875</v>
-      </c>
-      <c r="S236">
-        <v>1.925</v>
-      </c>
-      <c r="T236">
-        <v>2.5</v>
-      </c>
-      <c r="U236">
-        <v>1.95</v>
-      </c>
-      <c r="V236">
-        <v>1.85</v>
-      </c>
-      <c r="W236">
-        <v>0</v>
-      </c>
-      <c r="X236">
-        <v>0</v>
-      </c>
-      <c r="Y236">
-        <v>0</v>
-      </c>
-      <c r="Z236">
-        <v>0</v>
-      </c>
-      <c r="AA236">
         <v>0</v>
       </c>
     </row>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Kocaelispor</t>
   </si>
   <si>
-    <t>Genclerbirligi</t>
+    <t>Tuzlaspor</t>
   </si>
   <si>
-    <t>Tuzlaspor</t>
+    <t>Genclerbirligi</t>
   </si>
   <si>
     <t>Erzurum BB</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AC243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6963260</v>
+        <v>6963162</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1085,70 +1085,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
         <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
         <v>3.4</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6963162</v>
+        <v>6963260</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,70 +1174,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O8">
         <v>3.4</v>
       </c>
       <c r="P8">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
+        <v>1.75</v>
+      </c>
+      <c r="S8">
+        <v>2.05</v>
+      </c>
+      <c r="T8">
+        <v>2.5</v>
+      </c>
+      <c r="U8">
         <v>1.825</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.975</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
-      <c r="V8">
-        <v>1.825</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -2064,7 +2064,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2417,7 +2417,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>29</v>
@@ -2506,7 +2506,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6963173</v>
+        <v>6963171</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N32">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P32">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R32">
+        <v>1.725</v>
+      </c>
+      <c r="S32">
+        <v>2.075</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.775</v>
+      </c>
+      <c r="V32">
         <v>2.025</v>
       </c>
-      <c r="S32">
-        <v>1.775</v>
-      </c>
-      <c r="T32">
-        <v>2.75</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.875</v>
-      </c>
       <c r="W32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>-0</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>1.025</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
-      <c r="AB32">
-        <v>0.925</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6963171</v>
+        <v>6963173</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M33">
+        <v>5.5</v>
+      </c>
+      <c r="N33">
+        <v>1.45</v>
+      </c>
+      <c r="O33">
+        <v>4.2</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+      <c r="Q33">
+        <v>-1.25</v>
+      </c>
+      <c r="R33">
+        <v>2.025</v>
+      </c>
+      <c r="S33">
+        <v>1.775</v>
+      </c>
+      <c r="T33">
         <v>2.75</v>
       </c>
-      <c r="N33">
-        <v>2.45</v>
-      </c>
-      <c r="O33">
-        <v>3.1</v>
-      </c>
-      <c r="P33">
-        <v>2.8</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>1.725</v>
-      </c>
-      <c r="S33">
-        <v>2.075</v>
-      </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
       <c r="U33">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X33">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3666,7 +3666,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6963034</v>
+        <v>6962966</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3930,13 +3930,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3945,43 +3945,43 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
+        <v>3.4</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
         <v>3.25</v>
       </c>
-      <c r="N39">
-        <v>2.2</v>
-      </c>
-      <c r="O39">
-        <v>2.9</v>
-      </c>
       <c r="P39">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3990,16 +3990,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC39">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4007,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6962966</v>
+        <v>6963034</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4019,13 +4019,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4034,43 +4034,43 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
         <v>3.25</v>
       </c>
-      <c r="M40">
-        <v>3.4</v>
-      </c>
       <c r="N40">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P40">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q40">
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4079,16 +4079,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
         <v>41</v>
@@ -4452,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6963174</v>
+        <v>6962910</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4464,76 +4464,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L45">
+        <v>3.25</v>
+      </c>
+      <c r="M45">
+        <v>2.875</v>
+      </c>
+      <c r="N45">
+        <v>2.375</v>
+      </c>
+      <c r="O45">
         <v>3.2</v>
       </c>
-      <c r="M45">
-        <v>1.95</v>
-      </c>
-      <c r="N45">
-        <v>4</v>
-      </c>
-      <c r="O45">
-        <v>3.3</v>
-      </c>
       <c r="P45">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4541,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6962910</v>
+        <v>6963174</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4553,76 +4553,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N46">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O46">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P46">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4719,7 +4719,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6963176</v>
+        <v>6963179</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4731,58 +4731,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>48</v>
       </c>
       <c r="K48">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P48">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4791,16 +4791,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6963179</v>
+        <v>6963176</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,58 +4820,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>48</v>
       </c>
       <c r="K49">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L49">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O49">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P49">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
+        <v>1.8</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>2.5</v>
+      </c>
+      <c r="U49">
+        <v>1.875</v>
+      </c>
+      <c r="V49">
         <v>1.925</v>
       </c>
-      <c r="S49">
-        <v>1.875</v>
-      </c>
-      <c r="T49">
-        <v>2.75</v>
-      </c>
-      <c r="U49">
-        <v>1.975</v>
-      </c>
-      <c r="V49">
-        <v>1.825</v>
-      </c>
       <c r="W49">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4880,16 +4880,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6962970</v>
+        <v>6962911</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,76 +4998,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51">
         <v>2.1</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
+        <v>3.25</v>
+      </c>
+      <c r="N51">
+        <v>2.2</v>
+      </c>
+      <c r="O51">
+        <v>3.2</v>
+      </c>
+      <c r="P51">
         <v>3.1</v>
       </c>
-      <c r="N51">
-        <v>1.909</v>
-      </c>
-      <c r="O51">
-        <v>3.5</v>
-      </c>
-      <c r="P51">
-        <v>3.6</v>
-      </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6962911</v>
+        <v>6962970</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,76 +5087,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>2.1</v>
       </c>
       <c r="L52">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N52">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>4</v>
@@ -5621,7 +5621,7 @@
         <v>45199.3125</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -5799,7 +5799,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
         <v>43</v>
@@ -6603,7 +6603,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6781,7 +6781,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6962917</v>
+        <v>6963186</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,55 +7134,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>1</v>
-      </c>
-      <c r="I75">
-        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>49</v>
       </c>
       <c r="K75">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N75">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7191,19 +7191,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6963186</v>
+        <v>6962917</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,55 +7223,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>49</v>
       </c>
       <c r="K76">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N76">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7280,19 +7280,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6963187</v>
+        <v>6963190</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,76 +7579,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M80">
         <v>2.375</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O80">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z80">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6963190</v>
+        <v>6963187</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,76 +7668,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L81">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
         <v>2.375</v>
       </c>
       <c r="N81">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P81">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA81">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>45</v>
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6962919</v>
+        <v>6963191</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,10 +8024,10 @@
         <v>45227.3125</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8039,40 +8039,40 @@
         <v>49</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O85">
         <v>3.1</v>
       </c>
       <c r="P85">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8081,19 +8081,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6963191</v>
+        <v>6962919</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,10 +8113,10 @@
         <v>45227.3125</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8128,40 +8128,40 @@
         <v>49</v>
       </c>
       <c r="K86">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
+        <v>2.3</v>
+      </c>
+      <c r="N86">
         <v>3</v>
-      </c>
-      <c r="N86">
-        <v>2.375</v>
       </c>
       <c r="O86">
         <v>3.1</v>
       </c>
       <c r="P86">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S86">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8170,19 +8170,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8294,7 +8294,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8457,7 +8457,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6962980</v>
+        <v>6962979</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,76 +8469,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L90">
         <v>3.2</v>
       </c>
       <c r="M90">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N90">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
         <v>2.5</v>
       </c>
       <c r="U90">
+        <v>1.875</v>
+      </c>
+      <c r="V90">
+        <v>1.925</v>
+      </c>
+      <c r="W90">
         <v>2</v>
       </c>
-      <c r="V90">
-        <v>1.8</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA90">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6962979</v>
+        <v>6962980</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L91">
         <v>3.2</v>
       </c>
       <c r="M91">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P91">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R91">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T91">
         <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z91">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8914,7 +8914,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
@@ -9080,7 +9080,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6962982</v>
+        <v>6963195</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9092,10 +9092,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9107,43 +9107,43 @@
         <v>48</v>
       </c>
       <c r="K97">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="L97">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N97">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>0.2849999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9152,16 +9152,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6963195</v>
+        <v>6962982</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,10 +9181,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9196,43 +9196,43 @@
         <v>48</v>
       </c>
       <c r="K98">
+        <v>1.333</v>
+      </c>
+      <c r="L98">
+        <v>4.5</v>
+      </c>
+      <c r="M98">
+        <v>8</v>
+      </c>
+      <c r="N98">
+        <v>1.285</v>
+      </c>
+      <c r="O98">
+        <v>5</v>
+      </c>
+      <c r="P98">
+        <v>9</v>
+      </c>
+      <c r="Q98">
+        <v>-1.5</v>
+      </c>
+      <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>1.9</v>
+      </c>
+      <c r="T98">
+        <v>3</v>
+      </c>
+      <c r="U98">
         <v>1.95</v>
       </c>
-      <c r="L98">
-        <v>3.4</v>
-      </c>
-      <c r="M98">
-        <v>3.75</v>
-      </c>
-      <c r="N98">
-        <v>1.909</v>
-      </c>
-      <c r="O98">
-        <v>3.3</v>
-      </c>
-      <c r="P98">
-        <v>3.8</v>
-      </c>
-      <c r="Q98">
-        <v>-0.5</v>
-      </c>
-      <c r="R98">
-        <v>1.95</v>
-      </c>
-      <c r="S98">
+      <c r="V98">
         <v>1.85</v>
       </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
-      <c r="U98">
-        <v>1.825</v>
-      </c>
-      <c r="V98">
-        <v>1.975</v>
-      </c>
       <c r="W98">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9241,16 +9241,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9451,7 +9451,7 @@
         <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9540,7 +9540,7 @@
         <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9626,7 +9626,7 @@
         <v>45241.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>47</v>
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7482211</v>
+        <v>7482213</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,10 +10427,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10442,40 +10442,40 @@
         <v>49</v>
       </c>
       <c r="K112">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N112">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="O112">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P112">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q112">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,19 +10484,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7482213</v>
+        <v>7482211</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,10 +10516,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10531,40 +10531,40 @@
         <v>49</v>
       </c>
       <c r="K113">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L113">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N113">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="O113">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P113">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q113">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,19 +10573,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10964,7 +10964,7 @@
         <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11050,7 +11050,7 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
         <v>32</v>
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6962926</v>
+        <v>6962990</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,10 +11139,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11154,40 +11154,40 @@
         <v>49</v>
       </c>
       <c r="K120">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N120">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11196,16 +11196,16 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6962990</v>
+        <v>6962926</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,10 +11228,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11243,40 +11243,40 @@
         <v>49</v>
       </c>
       <c r="K121">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N121">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="O121">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11285,16 +11285,16 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11305,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7526759</v>
+        <v>6962991</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11317,46 +11317,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K122">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N122">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O122">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P122">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q122">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T122">
         <v>2.5</v>
@@ -11371,22 +11371,22 @@
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB122">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6962991</v>
+        <v>7526759</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,46 +11406,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K123">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N123">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11460,22 +11460,22 @@
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y123">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>36</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6963207</v>
+        <v>6962929</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,76 +11940,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L129">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N129">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O129">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
+        <v>2</v>
+      </c>
+      <c r="V129">
         <v>1.8</v>
       </c>
-      <c r="V129">
-        <v>2</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC129">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6962929</v>
+        <v>6963207</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,76 +12029,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K130">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M130">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N130">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O130">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
+        <v>1.8</v>
+      </c>
+      <c r="V130">
         <v>2</v>
       </c>
-      <c r="V130">
-        <v>1.8</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>1</v>
-      </c>
-      <c r="AC130">
-        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12474,7 +12474,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
         <v>37</v>
@@ -12741,7 +12741,7 @@
         <v>45279.33333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
         <v>44</v>
@@ -12833,7 +12833,7 @@
         <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7589522</v>
+        <v>6963211</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L141">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N141">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O141">
         <v>3.25</v>
       </c>
       <c r="P141">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
         <v>2</v>
       </c>
-      <c r="V141">
-        <v>1.8</v>
-      </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6963211</v>
+        <v>7589522</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N142">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
         <v>3.25</v>
       </c>
       <c r="P142">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
+        <v>1.85</v>
+      </c>
+      <c r="S142">
+        <v>1.95</v>
+      </c>
+      <c r="T142">
+        <v>2.5</v>
+      </c>
+      <c r="U142">
         <v>2</v>
       </c>
-      <c r="S142">
+      <c r="V142">
         <v>1.8</v>
       </c>
-      <c r="T142">
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
         <v>2.25</v>
       </c>
-      <c r="U142">
-        <v>1.8</v>
-      </c>
-      <c r="V142">
-        <v>2</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
       <c r="Y142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
+        <v>0.475</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>0.8</v>
-      </c>
-      <c r="AB142">
-        <v>0.8</v>
-      </c>
-      <c r="AC142">
-        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13542,10 +13542,10 @@
         <v>45283.3125</v>
       </c>
       <c r="F147" t="s">
+        <v>35</v>
+      </c>
+      <c r="G147" t="s">
         <v>34</v>
-      </c>
-      <c r="G147" t="s">
-        <v>35</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -14420,7 +14420,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6963219</v>
+        <v>7656973</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14432,76 +14432,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K157">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="L157">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N157">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="O157">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P157">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q157">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7656973</v>
+        <v>6963219</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K158">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M158">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N158">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="O158">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P158">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X158">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14880,7 +14880,7 @@
         <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6963004</v>
+        <v>6963223</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,76 +15500,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K169">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="L169">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M169">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N169">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P169">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>2.05</v>
+      </c>
+      <c r="S169">
+        <v>1.75</v>
+      </c>
+      <c r="T169">
+        <v>2.25</v>
+      </c>
+      <c r="U169">
+        <v>1.775</v>
+      </c>
+      <c r="V169">
+        <v>2.025</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>2.2</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>-0</v>
+      </c>
+      <c r="AB169">
         <v>-0.5</v>
       </c>
-      <c r="R169">
-        <v>1.775</v>
-      </c>
-      <c r="S169">
-        <v>2.025</v>
-      </c>
-      <c r="T169">
-        <v>2.5</v>
-      </c>
-      <c r="U169">
-        <v>2.025</v>
-      </c>
-      <c r="V169">
-        <v>1.775</v>
-      </c>
-      <c r="W169">
-        <v>0.8</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
-      <c r="AB169">
-        <v>-1</v>
-      </c>
       <c r="AC169">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6963223</v>
+        <v>6963004</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,76 +15589,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K170">
+        <v>1.85</v>
+      </c>
+      <c r="L170">
         <v>3.4</v>
       </c>
-      <c r="L170">
-        <v>3.25</v>
-      </c>
       <c r="M170">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N170">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P170">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S170">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
+        <v>2.025</v>
+      </c>
+      <c r="V170">
         <v>1.775</v>
       </c>
-      <c r="V170">
-        <v>2.025</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X170">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>45312.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
         <v>44</v>
@@ -16215,7 +16215,7 @@
         <v>46</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>4</v>
@@ -16304,7 +16304,7 @@
         <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16823,7 +16823,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6963272</v>
+        <v>6963227</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16835,10 +16835,10 @@
         <v>45325.3125</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16850,40 +16850,40 @@
         <v>49</v>
       </c>
       <c r="K184">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M184">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N184">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P184">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16892,16 +16892,16 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB184">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16912,7 +16912,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6963227</v>
+        <v>6963272</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16924,10 +16924,10 @@
         <v>45325.3125</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16939,40 +16939,40 @@
         <v>49</v>
       </c>
       <c r="K185">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L185">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M185">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N185">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O185">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P185">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16981,16 +16981,16 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB185">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6963045</v>
+        <v>6963229</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,58 +17191,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H188">
         <v>2</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L188">
+        <v>3.4</v>
+      </c>
+      <c r="M188">
+        <v>2.05</v>
+      </c>
+      <c r="N188">
         <v>3.5</v>
       </c>
-      <c r="M188">
-        <v>3.75</v>
-      </c>
-      <c r="N188">
-        <v>1.95</v>
-      </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V188">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W188">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17251,16 +17251,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC188">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17268,7 +17268,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6963229</v>
+        <v>6963045</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17280,58 +17280,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L189">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M189">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="N189">
+        <v>1.95</v>
+      </c>
+      <c r="O189">
         <v>3.5</v>
       </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
       <c r="P189">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17340,16 +17340,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
         <v>39</v>
@@ -17995,7 +17995,7 @@
         <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18262,7 +18262,7 @@
         <v>46</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18437,7 +18437,7 @@
         <v>45339.3125</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G202" t="s">
         <v>31</v>
@@ -19060,7 +19060,7 @@
         <v>45341.33333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G209" t="s">
         <v>42</v>
@@ -19686,7 +19686,7 @@
         <v>43</v>
       </c>
       <c r="G216" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19864,7 +19864,7 @@
         <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -20027,7 +20027,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6963239</v>
+        <v>6963241</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20039,76 +20039,76 @@
         <v>45353.3125</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220">
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="L220">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N220">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O220">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P220">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S220">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V220">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20116,7 +20116,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6963241</v>
+        <v>6963239</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20128,76 +20128,76 @@
         <v>45353.3125</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221">
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K221">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M221">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N221">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O221">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P221">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y221">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA221">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>45355.33333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G227" t="s">
         <v>38</v>
@@ -20828,7 +20828,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6963244</v>
+        <v>6963243</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,64 +20837,79 @@
         <v>28</v>
       </c>
       <c r="E229" s="2">
-        <v>45360.54166666666</v>
+        <v>45360.3125</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229" t="s">
+        <v>50</v>
       </c>
       <c r="K229">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L229">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M229">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="N229">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O229">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P229">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q229">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>0</v>
+        <v>0.3875</v>
+      </c>
+      <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
+        <v>0.8</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20902,7 +20917,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6963245</v>
+        <v>6963020</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20911,64 +20926,79 @@
         <v>28</v>
       </c>
       <c r="E230" s="2">
-        <v>45361.3125</v>
+        <v>45360.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230" t="s">
+        <v>50</v>
       </c>
       <c r="K230">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L230">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M230">
+        <v>2.1</v>
+      </c>
+      <c r="N230">
+        <v>3.6</v>
+      </c>
+      <c r="O230">
         <v>3.3</v>
       </c>
-      <c r="N230">
-        <v>2.2</v>
-      </c>
-      <c r="O230">
-        <v>3.1</v>
-      </c>
       <c r="P230">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R230">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S230">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA230">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB230">
+        <v>-1</v>
+      </c>
+      <c r="AC230">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20976,7 +21006,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6963019</v>
+        <v>6963244</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -20985,64 +21015,79 @@
         <v>28</v>
       </c>
       <c r="E231" s="2">
-        <v>45361.3125</v>
+        <v>45360.54166666666</v>
       </c>
       <c r="F231" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>49</v>
       </c>
       <c r="K231">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M231">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="N231">
-        <v>6</v>
+        <v>1.55</v>
       </c>
       <c r="O231">
         <v>4</v>
       </c>
       <c r="P231">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="Q231">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R231">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S231">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V231">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
+        <v>0.925</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21050,7 +21095,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6962951</v>
+        <v>6963245</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21059,64 +21104,79 @@
         <v>28</v>
       </c>
       <c r="E232" s="2">
-        <v>45361.41666666666</v>
+        <v>45361.3125</v>
       </c>
       <c r="F232" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G232" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232" t="s">
+        <v>49</v>
       </c>
       <c r="K232">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L232">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M232">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="N232">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="O232">
+        <v>3</v>
+      </c>
+      <c r="P232">
         <v>3.4</v>
       </c>
-      <c r="P232">
-        <v>1.8</v>
-      </c>
       <c r="Q232">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
+        <v>1.95</v>
+      </c>
+      <c r="S232">
+        <v>1.85</v>
+      </c>
+      <c r="T232">
         <v>2</v>
       </c>
-      <c r="S232">
-        <v>1.8</v>
-      </c>
-      <c r="T232">
-        <v>2.25</v>
-      </c>
       <c r="U232">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V232">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>-0</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21124,7 +21184,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6962950</v>
+        <v>6963019</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21133,64 +21193,79 @@
         <v>28</v>
       </c>
       <c r="E233" s="2">
-        <v>45361.54166666666</v>
+        <v>45361.3125</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G233" t="s">
         <v>35</v>
       </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>4</v>
+      </c>
+      <c r="J233" t="s">
+        <v>49</v>
+      </c>
       <c r="K233">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="L233">
+        <v>3.6</v>
+      </c>
+      <c r="M233">
+        <v>1.7</v>
+      </c>
+      <c r="N233">
+        <v>6</v>
+      </c>
+      <c r="O233">
         <v>4</v>
       </c>
-      <c r="M233">
-        <v>6.5</v>
-      </c>
-      <c r="N233">
-        <v>1.727</v>
-      </c>
-      <c r="O233">
-        <v>3.5</v>
-      </c>
       <c r="P233">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q233">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R233">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB233">
+        <v>1</v>
+      </c>
+      <c r="AC233">
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21198,72 +21273,783 @@
         <v>232</v>
       </c>
       <c r="B234">
+        <v>6962951</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F234" t="s">
+        <v>38</v>
+      </c>
+      <c r="G234" t="s">
+        <v>37</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234" t="s">
+        <v>49</v>
+      </c>
+      <c r="K234">
+        <v>4.75</v>
+      </c>
+      <c r="L234">
+        <v>3.5</v>
+      </c>
+      <c r="M234">
+        <v>1.727</v>
+      </c>
+      <c r="N234">
+        <v>4</v>
+      </c>
+      <c r="O234">
+        <v>3.3</v>
+      </c>
+      <c r="P234">
+        <v>1.909</v>
+      </c>
+      <c r="Q234">
+        <v>0.5</v>
+      </c>
+      <c r="R234">
+        <v>1.825</v>
+      </c>
+      <c r="S234">
+        <v>1.975</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
+        <v>1.875</v>
+      </c>
+      <c r="V234">
+        <v>1.925</v>
+      </c>
+      <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>-1</v>
+      </c>
+      <c r="Y234">
+        <v>0.909</v>
+      </c>
+      <c r="Z234">
+        <v>-1</v>
+      </c>
+      <c r="AA234">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB234">
+        <v>-1</v>
+      </c>
+      <c r="AC234">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>6962950</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45361.54166666666</v>
+      </c>
+      <c r="F235" t="s">
+        <v>33</v>
+      </c>
+      <c r="G235" t="s">
+        <v>34</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235" t="s">
+        <v>49</v>
+      </c>
+      <c r="K235">
+        <v>1.5</v>
+      </c>
+      <c r="L235">
+        <v>4</v>
+      </c>
+      <c r="M235">
+        <v>6.5</v>
+      </c>
+      <c r="N235">
+        <v>1.727</v>
+      </c>
+      <c r="O235">
+        <v>3.5</v>
+      </c>
+      <c r="P235">
+        <v>4.75</v>
+      </c>
+      <c r="Q235">
+        <v>-0.75</v>
+      </c>
+      <c r="R235">
+        <v>1.95</v>
+      </c>
+      <c r="S235">
+        <v>1.85</v>
+      </c>
+      <c r="T235">
+        <v>2.25</v>
+      </c>
+      <c r="U235">
+        <v>1.95</v>
+      </c>
+      <c r="V235">
+        <v>1.85</v>
+      </c>
+      <c r="W235">
+        <v>-1</v>
+      </c>
+      <c r="X235">
+        <v>-1</v>
+      </c>
+      <c r="Y235">
+        <v>3.75</v>
+      </c>
+      <c r="Z235">
+        <v>-1</v>
+      </c>
+      <c r="AA235">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB235">
+        <v>0.95</v>
+      </c>
+      <c r="AC235">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
         <v>6963242</v>
       </c>
-      <c r="C234" t="s">
-        <v>28</v>
-      </c>
-      <c r="D234" t="s">
-        <v>28</v>
-      </c>
-      <c r="E234" s="2">
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
         <v>45362.60416666666</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F236" t="s">
         <v>43</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G236" t="s">
         <v>40</v>
       </c>
-      <c r="K234">
+      <c r="H236">
+        <v>3</v>
+      </c>
+      <c r="I236">
+        <v>2</v>
+      </c>
+      <c r="J236" t="s">
+        <v>48</v>
+      </c>
+      <c r="K236">
         <v>1.95</v>
       </c>
-      <c r="L234">
+      <c r="L236">
         <v>3.4</v>
       </c>
-      <c r="M234">
+      <c r="M236">
         <v>3.8</v>
       </c>
-      <c r="N234">
+      <c r="N236">
+        <v>2.05</v>
+      </c>
+      <c r="O236">
+        <v>3.3</v>
+      </c>
+      <c r="P236">
+        <v>3.5</v>
+      </c>
+      <c r="Q236">
+        <v>-0.25</v>
+      </c>
+      <c r="R236">
+        <v>1.775</v>
+      </c>
+      <c r="S236">
+        <v>2.025</v>
+      </c>
+      <c r="T236">
+        <v>2.5</v>
+      </c>
+      <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
+        <v>1.8</v>
+      </c>
+      <c r="W236">
+        <v>1.05</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
+        <v>-1</v>
+      </c>
+      <c r="Z236">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA236">
+        <v>-1</v>
+      </c>
+      <c r="AB236">
+        <v>1</v>
+      </c>
+      <c r="AC236">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>6962953</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45366.60416666666</v>
+      </c>
+      <c r="F237" t="s">
+        <v>35</v>
+      </c>
+      <c r="G237" t="s">
+        <v>33</v>
+      </c>
+      <c r="K237">
+        <v>2.6</v>
+      </c>
+      <c r="L237">
+        <v>3.1</v>
+      </c>
+      <c r="M237">
+        <v>2.625</v>
+      </c>
+      <c r="N237">
+        <v>2.7</v>
+      </c>
+      <c r="O237">
+        <v>3.1</v>
+      </c>
+      <c r="P237">
+        <v>2.55</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>1.925</v>
+      </c>
+      <c r="S237">
+        <v>1.875</v>
+      </c>
+      <c r="T237">
+        <v>2.25</v>
+      </c>
+      <c r="U237">
+        <v>1.9</v>
+      </c>
+      <c r="V237">
+        <v>1.9</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>6963248</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45367.3125</v>
+      </c>
+      <c r="F238" t="s">
+        <v>42</v>
+      </c>
+      <c r="G238" t="s">
+        <v>46</v>
+      </c>
+      <c r="K238">
+        <v>3.8</v>
+      </c>
+      <c r="L238">
+        <v>3.4</v>
+      </c>
+      <c r="M238">
+        <v>1.909</v>
+      </c>
+      <c r="N238">
+        <v>3.8</v>
+      </c>
+      <c r="O238">
+        <v>3.4</v>
+      </c>
+      <c r="P238">
+        <v>1.909</v>
+      </c>
+      <c r="Q238">
+        <v>0.5</v>
+      </c>
+      <c r="R238">
         <v>1.85</v>
       </c>
-      <c r="O234">
+      <c r="S238">
+        <v>1.95</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
+        <v>1.925</v>
+      </c>
+      <c r="V238">
+        <v>1.875</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>6962952</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45367.60416666666</v>
+      </c>
+      <c r="F239" t="s">
+        <v>37</v>
+      </c>
+      <c r="G239" t="s">
+        <v>32</v>
+      </c>
+      <c r="K239">
+        <v>1.45</v>
+      </c>
+      <c r="L239">
+        <v>4</v>
+      </c>
+      <c r="M239">
+        <v>6.5</v>
+      </c>
+      <c r="N239">
+        <v>1.4</v>
+      </c>
+      <c r="O239">
+        <v>4.2</v>
+      </c>
+      <c r="P239">
+        <v>7.5</v>
+      </c>
+      <c r="Q239">
+        <v>-1.25</v>
+      </c>
+      <c r="R239">
+        <v>1.975</v>
+      </c>
+      <c r="S239">
+        <v>1.825</v>
+      </c>
+      <c r="T239">
+        <v>2.5</v>
+      </c>
+      <c r="U239">
+        <v>1.825</v>
+      </c>
+      <c r="V239">
+        <v>1.975</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>7948784</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45368.3125</v>
+      </c>
+      <c r="F240" t="s">
+        <v>36</v>
+      </c>
+      <c r="G240" t="s">
+        <v>34</v>
+      </c>
+      <c r="K240">
+        <v>1.8</v>
+      </c>
+      <c r="L240">
+        <v>3.2</v>
+      </c>
+      <c r="M240">
+        <v>4.5</v>
+      </c>
+      <c r="N240">
+        <v>1.8</v>
+      </c>
+      <c r="O240">
+        <v>3.2</v>
+      </c>
+      <c r="P240">
+        <v>4.5</v>
+      </c>
+      <c r="Q240">
+        <v>-0.5</v>
+      </c>
+      <c r="R240">
+        <v>1.775</v>
+      </c>
+      <c r="S240">
+        <v>2.025</v>
+      </c>
+      <c r="T240">
+        <v>2.25</v>
+      </c>
+      <c r="U240">
+        <v>2.025</v>
+      </c>
+      <c r="V240">
+        <v>1.775</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>6963276</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45368.3125</v>
+      </c>
+      <c r="F241" t="s">
+        <v>29</v>
+      </c>
+      <c r="G241" t="s">
+        <v>31</v>
+      </c>
+      <c r="K241">
+        <v>1.7</v>
+      </c>
+      <c r="L241">
         <v>3.4</v>
       </c>
-      <c r="P234">
-        <v>4</v>
-      </c>
-      <c r="Q234">
-        <v>-0.5</v>
-      </c>
-      <c r="R234">
-        <v>1.875</v>
-      </c>
-      <c r="S234">
-        <v>1.925</v>
-      </c>
-      <c r="T234">
-        <v>2.5</v>
-      </c>
-      <c r="U234">
+      <c r="M241">
+        <v>4.75</v>
+      </c>
+      <c r="N241">
+        <v>1.7</v>
+      </c>
+      <c r="O241">
+        <v>3.4</v>
+      </c>
+      <c r="P241">
+        <v>4.75</v>
+      </c>
+      <c r="Q241">
+        <v>-0.75</v>
+      </c>
+      <c r="R241">
         <v>1.95</v>
       </c>
-      <c r="V234">
+      <c r="S241">
         <v>1.85</v>
       </c>
-      <c r="W234">
-        <v>0</v>
-      </c>
-      <c r="X234">
-        <v>0</v>
-      </c>
-      <c r="Y234">
-        <v>0</v>
-      </c>
-      <c r="Z234">
-        <v>0</v>
-      </c>
-      <c r="AA234">
+      <c r="T241">
+        <v>2.25</v>
+      </c>
+      <c r="U241">
+        <v>1.975</v>
+      </c>
+      <c r="V241">
+        <v>1.825</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>6963049</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45368.41666666666</v>
+      </c>
+      <c r="F242" t="s">
+        <v>47</v>
+      </c>
+      <c r="G242" t="s">
+        <v>38</v>
+      </c>
+      <c r="K242">
+        <v>5.5</v>
+      </c>
+      <c r="L242">
+        <v>3.8</v>
+      </c>
+      <c r="M242">
+        <v>1.55</v>
+      </c>
+      <c r="N242">
+        <v>5.75</v>
+      </c>
+      <c r="O242">
+        <v>3.8</v>
+      </c>
+      <c r="P242">
+        <v>1.533</v>
+      </c>
+      <c r="Q242">
+        <v>1</v>
+      </c>
+      <c r="R242">
+        <v>1.85</v>
+      </c>
+      <c r="S242">
+        <v>1.95</v>
+      </c>
+      <c r="T242">
+        <v>2.25</v>
+      </c>
+      <c r="U242">
+        <v>1.775</v>
+      </c>
+      <c r="V242">
+        <v>2.025</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>6963022</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45368.60416666666</v>
+      </c>
+      <c r="F243" t="s">
+        <v>44</v>
+      </c>
+      <c r="G243" t="s">
+        <v>45</v>
+      </c>
+      <c r="K243">
+        <v>1.2</v>
+      </c>
+      <c r="L243">
+        <v>6</v>
+      </c>
+      <c r="M243">
+        <v>11</v>
+      </c>
+      <c r="N243">
+        <v>1.181</v>
+      </c>
+      <c r="O243">
+        <v>6.5</v>
+      </c>
+      <c r="P243">
+        <v>11</v>
+      </c>
+      <c r="Q243">
+        <v>-2</v>
+      </c>
+      <c r="R243">
+        <v>1.975</v>
+      </c>
+      <c r="S243">
+        <v>1.825</v>
+      </c>
+      <c r="T243">
+        <v>3.25</v>
+      </c>
+      <c r="U243">
+        <v>2</v>
+      </c>
+      <c r="V243">
+        <v>1.8</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6963171</v>
+        <v>6963173</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M32">
+        <v>5.5</v>
+      </c>
+      <c r="N32">
+        <v>1.45</v>
+      </c>
+      <c r="O32">
+        <v>4.2</v>
+      </c>
+      <c r="P32">
+        <v>7</v>
+      </c>
+      <c r="Q32">
+        <v>-1.25</v>
+      </c>
+      <c r="R32">
+        <v>2.025</v>
+      </c>
+      <c r="S32">
+        <v>1.775</v>
+      </c>
+      <c r="T32">
         <v>2.75</v>
       </c>
-      <c r="N32">
-        <v>2.45</v>
-      </c>
-      <c r="O32">
-        <v>3.1</v>
-      </c>
-      <c r="P32">
-        <v>2.8</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.725</v>
-      </c>
-      <c r="S32">
-        <v>2.075</v>
-      </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
       <c r="U32">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X32">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA32">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC32">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6963173</v>
+        <v>6963171</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P33">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q33">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R33">
+        <v>1.725</v>
+      </c>
+      <c r="S33">
+        <v>2.075</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>1.775</v>
+      </c>
+      <c r="V33">
         <v>2.025</v>
       </c>
-      <c r="S33">
-        <v>1.775</v>
-      </c>
-      <c r="T33">
-        <v>2.75</v>
-      </c>
-      <c r="U33">
-        <v>1.925</v>
-      </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
       <c r="W33">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>-0</v>
+      </c>
+      <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>1.025</v>
-      </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
-      <c r="AB33">
-        <v>0.925</v>
-      </c>
-      <c r="AC33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6962968</v>
+        <v>6963175</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,76 +4286,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N43">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O43">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P43">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
+        <v>1.825</v>
+      </c>
+      <c r="V43">
         <v>1.975</v>
       </c>
-      <c r="V43">
-        <v>1.825</v>
-      </c>
       <c r="W43">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6963175</v>
+        <v>6962968</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
+        <v>2.5</v>
+      </c>
+      <c r="N44">
+        <v>2.55</v>
+      </c>
+      <c r="O44">
+        <v>3.2</v>
+      </c>
+      <c r="P44">
+        <v>2.5</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
         <v>1.85</v>
-      </c>
-      <c r="N44">
-        <v>4.5</v>
-      </c>
-      <c r="O44">
-        <v>3.75</v>
-      </c>
-      <c r="P44">
-        <v>1.615</v>
-      </c>
-      <c r="Q44">
-        <v>0.75</v>
-      </c>
-      <c r="R44">
-        <v>1.975</v>
-      </c>
-      <c r="S44">
-        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
+        <v>1.975</v>
+      </c>
+      <c r="V44">
         <v>1.825</v>
       </c>
-      <c r="V44">
-        <v>1.975</v>
-      </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
+        <v>0.95</v>
+      </c>
+      <c r="AA44">
+        <v>-1</v>
+      </c>
+      <c r="AB44">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA44">
-        <v>-1</v>
-      </c>
-      <c r="AB44">
-        <v>-1</v>
-      </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4452,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6962910</v>
+        <v>6963174</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4464,76 +4464,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K45">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N45">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P45">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4541,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6963174</v>
+        <v>6962910</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4553,76 +4553,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
+        <v>3.25</v>
+      </c>
+      <c r="M46">
+        <v>2.875</v>
+      </c>
+      <c r="N46">
+        <v>2.375</v>
+      </c>
+      <c r="O46">
         <v>3.2</v>
       </c>
-      <c r="M46">
-        <v>1.95</v>
-      </c>
-      <c r="N46">
-        <v>4</v>
-      </c>
-      <c r="O46">
-        <v>3.3</v>
-      </c>
       <c r="P46">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4719,7 +4719,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6963179</v>
+        <v>6963176</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4731,58 +4731,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
         <v>48</v>
       </c>
       <c r="K48">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L48">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O48">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
+        <v>1.8</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
+        <v>1.875</v>
+      </c>
+      <c r="V48">
         <v>1.925</v>
       </c>
-      <c r="S48">
-        <v>1.875</v>
-      </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
-      <c r="V48">
-        <v>1.825</v>
-      </c>
       <c r="W48">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4791,16 +4791,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6963176</v>
+        <v>6963179</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,58 +4820,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>48</v>
       </c>
       <c r="K49">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P49">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4880,16 +4880,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6962911</v>
+        <v>6962970</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,76 +4998,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K51">
         <v>2.1</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N51">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6962970</v>
+        <v>6962911</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,76 +5087,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52">
         <v>2.1</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
+        <v>3.25</v>
+      </c>
+      <c r="N52">
+        <v>2.2</v>
+      </c>
+      <c r="O52">
+        <v>3.2</v>
+      </c>
+      <c r="P52">
         <v>3.1</v>
       </c>
-      <c r="N52">
-        <v>1.909</v>
-      </c>
-      <c r="O52">
-        <v>3.5</v>
-      </c>
-      <c r="P52">
-        <v>3.6</v>
-      </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6963190</v>
+        <v>6963187</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,76 +7579,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K80">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L80">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
         <v>2.375</v>
       </c>
       <c r="N80">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P80">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q80">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA80">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6963187</v>
+        <v>6963190</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,76 +7668,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M81">
         <v>2.375</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S81">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z81">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7437372</v>
+        <v>7437371</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,37 +9982,37 @@
         <v>45242.3125</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
         <v>2</v>
-      </c>
-      <c r="I107">
-        <v>3</v>
       </c>
       <c r="J107" t="s">
         <v>49</v>
       </c>
       <c r="K107">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L107">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M107">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N107">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -10024,7 +10024,7 @@
         <v>2</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
         <v>2</v>
@@ -10039,7 +10039,7 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.8</v>
+        <v>1.625</v>
       </c>
       <c r="Z107">
         <v>-1</v>
@@ -10048,10 +10048,10 @@
         <v>1</v>
       </c>
       <c r="AB107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7437371</v>
+        <v>7437372</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,37 +10071,37 @@
         <v>45242.3125</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
         <v>49</v>
       </c>
       <c r="K108">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M108">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N108">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -10113,7 +10113,7 @@
         <v>2</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
         <v>2</v>
@@ -10128,7 +10128,7 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.625</v>
+        <v>1.8</v>
       </c>
       <c r="Z108">
         <v>-1</v>
@@ -10137,10 +10137,10 @@
         <v>1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7482213</v>
+        <v>7482211</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,10 +10427,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10442,40 +10442,40 @@
         <v>49</v>
       </c>
       <c r="K112">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N112">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="O112">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P112">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q112">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,19 +10484,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7482211</v>
+        <v>7482213</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,10 +10516,10 @@
         <v>45255.3125</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10531,40 +10531,40 @@
         <v>49</v>
       </c>
       <c r="K113">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="O113">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P113">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q113">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,19 +10573,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6962990</v>
+        <v>6962926</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,10 +11139,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11154,40 +11154,40 @@
         <v>49</v>
       </c>
       <c r="K120">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N120">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11196,16 +11196,16 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6962926</v>
+        <v>6962990</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,10 +11228,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11243,40 +11243,40 @@
         <v>49</v>
       </c>
       <c r="K121">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N121">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P121">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11285,16 +11285,16 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11305,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6962991</v>
+        <v>7526759</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11317,46 +11317,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K122">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N122">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
         <v>2.5</v>
@@ -11371,22 +11371,22 @@
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y122">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7526759</v>
+        <v>6962991</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,46 +11406,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N123">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q123">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11460,22 +11460,22 @@
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB123">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA123">
-        <v>-1</v>
-      </c>
-      <c r="AB123">
-        <v>-1</v>
-      </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6962929</v>
+        <v>6963207</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,76 +11940,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M129">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O129">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
+        <v>1.8</v>
+      </c>
+      <c r="V129">
         <v>2</v>
       </c>
-      <c r="V129">
-        <v>1.8</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y129">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
         <v>1</v>
-      </c>
-      <c r="AC129">
-        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6963207</v>
+        <v>6962929</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,76 +12029,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L130">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M130">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N130">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P130">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
         <v>1.8</v>
       </c>
-      <c r="V130">
-        <v>2</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6962998</v>
+        <v>6962933</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,73 +13720,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L149">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M149">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N149">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O149">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q149">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U149">
+        <v>1.9</v>
+      </c>
+      <c r="V149">
+        <v>1.9</v>
+      </c>
+      <c r="W149">
         <v>1.8</v>
       </c>
-      <c r="V149">
-        <v>2</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13797,7 +13797,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6962933</v>
+        <v>6962998</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13809,73 +13809,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
         <v>3</v>
       </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K150">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L150">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M150">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N150">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O150">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P150">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R150">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB150">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -14420,7 +14420,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7656973</v>
+        <v>6963219</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14432,76 +14432,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K157">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M157">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N157">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="O157">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P157">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X157">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6963219</v>
+        <v>7656973</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="L158">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M158">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N158">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="O158">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q158">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -16289,7 +16289,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6963271</v>
+        <v>7732507</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16301,13 +16301,13 @@
         <v>45319.3125</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16316,43 +16316,43 @@
         <v>48</v>
       </c>
       <c r="K178">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M178">
-        <v>3.8</v>
+        <v>23</v>
       </c>
       <c r="N178">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="O178">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P178">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16361,16 +16361,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC178">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16378,7 +16378,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7732507</v>
+        <v>6963271</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16390,13 +16390,13 @@
         <v>45319.3125</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H179">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16405,43 +16405,43 @@
         <v>48</v>
       </c>
       <c r="K179">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="L179">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="N179">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="O179">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P179">
-        <v>19</v>
+        <v>3.8</v>
       </c>
       <c r="Q179">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16450,16 +16450,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16823,7 +16823,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6963227</v>
+        <v>6963272</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16835,10 +16835,10 @@
         <v>45325.3125</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16850,40 +16850,40 @@
         <v>49</v>
       </c>
       <c r="K184">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L184">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N184">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P184">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q184">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16892,16 +16892,16 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16912,7 +16912,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6963272</v>
+        <v>6963227</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16924,10 +16924,10 @@
         <v>45325.3125</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16939,40 +16939,40 @@
         <v>49</v>
       </c>
       <c r="K185">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L185">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M185">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N185">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P185">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S185">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16981,16 +16981,16 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -19493,7 +19493,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6962946</v>
+        <v>6963238</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19505,76 +19505,76 @@
         <v>45347.3125</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214" t="s">
+        <v>48</v>
+      </c>
+      <c r="K214">
+        <v>2.15</v>
+      </c>
+      <c r="L214">
+        <v>3.2</v>
+      </c>
+      <c r="M214">
+        <v>3.5</v>
+      </c>
+      <c r="N214">
+        <v>2.3</v>
+      </c>
+      <c r="O214">
+        <v>3.1</v>
+      </c>
+      <c r="P214">
+        <v>3.25</v>
+      </c>
+      <c r="Q214">
+        <v>-0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
+        <v>1.85</v>
+      </c>
+      <c r="T214">
         <v>2</v>
       </c>
-      <c r="I214">
+      <c r="U214">
+        <v>1.8</v>
+      </c>
+      <c r="V214">
         <v>2</v>
       </c>
-      <c r="J214" t="s">
-        <v>50</v>
-      </c>
-      <c r="K214">
-        <v>3.8</v>
-      </c>
-      <c r="L214">
-        <v>3.4</v>
-      </c>
-      <c r="M214">
-        <v>1.95</v>
-      </c>
-      <c r="N214">
-        <v>4</v>
-      </c>
-      <c r="O214">
-        <v>3.4</v>
-      </c>
-      <c r="P214">
-        <v>1.909</v>
-      </c>
-      <c r="Q214">
-        <v>0.5</v>
-      </c>
-      <c r="R214">
-        <v>1.825</v>
-      </c>
-      <c r="S214">
-        <v>1.975</v>
-      </c>
-      <c r="T214">
-        <v>2.25</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
-      <c r="V214">
-        <v>1.9</v>
-      </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X214">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19582,7 +19582,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6963238</v>
+        <v>6962946</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19594,76 +19594,76 @@
         <v>45347.3125</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K215">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="N215">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O215">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S215">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC215">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20027,7 +20027,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6963241</v>
+        <v>6963239</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20039,76 +20039,76 @@
         <v>45353.3125</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K220">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M220">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N220">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O220">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P220">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y220">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA220">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20116,7 +20116,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6963239</v>
+        <v>6963241</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20128,76 +20128,76 @@
         <v>45353.3125</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="L221">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N221">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O221">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S221">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V221">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21557,6 +21557,15 @@
       <c r="G237" t="s">
         <v>33</v>
       </c>
+      <c r="H237">
+        <v>2</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237" t="s">
+        <v>48</v>
+      </c>
       <c r="K237">
         <v>2.6</v>
       </c>
@@ -21567,46 +21576,52 @@
         <v>2.625</v>
       </c>
       <c r="N237">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O237">
         <v>3.1</v>
       </c>
       <c r="P237">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q237">
         <v>0</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V237">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W237">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="X237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA237">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB237">
+        <v>-0.5</v>
+      </c>
+      <c r="AC237">
+        <v>0.425</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21631,6 +21646,15 @@
       <c r="G238" t="s">
         <v>46</v>
       </c>
+      <c r="H238">
+        <v>2</v>
+      </c>
+      <c r="I238">
+        <v>3</v>
+      </c>
+      <c r="J238" t="s">
+        <v>49</v>
+      </c>
       <c r="K238">
         <v>3.8</v>
       </c>
@@ -21641,46 +21665,52 @@
         <v>1.909</v>
       </c>
       <c r="N238">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O238">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P238">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="Q238">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S238">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T238">
         <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB238">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC238">
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21688,7 +21718,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6962952</v>
+        <v>6963249</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21697,43 +21727,52 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45367.60416666666</v>
+        <v>45367.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="H239">
+        <v>4</v>
+      </c>
+      <c r="I239">
+        <v>3</v>
+      </c>
+      <c r="J239" t="s">
+        <v>48</v>
       </c>
       <c r="K239">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N239">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O239">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P239">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q239">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S239">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U239">
         <v>1.825</v>
@@ -21742,19 +21781,25 @@
         <v>1.975</v>
       </c>
       <c r="W239">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA239">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB239">
+        <v>0.825</v>
+      </c>
+      <c r="AC239">
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21762,7 +21807,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7948784</v>
+        <v>6962952</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21771,64 +21816,79 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45368.3125</v>
+        <v>45367.60416666666</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G240" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240" t="s">
+        <v>50</v>
       </c>
       <c r="K240">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="L240">
+        <v>4</v>
+      </c>
+      <c r="M240">
+        <v>6.5</v>
+      </c>
+      <c r="N240">
+        <v>1.363</v>
+      </c>
+      <c r="O240">
+        <v>4.2</v>
+      </c>
+      <c r="P240">
+        <v>7.5</v>
+      </c>
+      <c r="Q240">
+        <v>-1.25</v>
+      </c>
+      <c r="R240">
+        <v>1.875</v>
+      </c>
+      <c r="S240">
+        <v>1.925</v>
+      </c>
+      <c r="T240">
+        <v>2.5</v>
+      </c>
+      <c r="U240">
+        <v>1.825</v>
+      </c>
+      <c r="V240">
+        <v>1.975</v>
+      </c>
+      <c r="W240">
+        <v>-1</v>
+      </c>
+      <c r="X240">
         <v>3.2</v>
       </c>
-      <c r="M240">
-        <v>4.5</v>
-      </c>
-      <c r="N240">
-        <v>1.8</v>
-      </c>
-      <c r="O240">
-        <v>3.2</v>
-      </c>
-      <c r="P240">
-        <v>4.5</v>
-      </c>
-      <c r="Q240">
-        <v>-0.5</v>
-      </c>
-      <c r="R240">
-        <v>1.775</v>
-      </c>
-      <c r="S240">
-        <v>2.025</v>
-      </c>
-      <c r="T240">
-        <v>2.25</v>
-      </c>
-      <c r="U240">
-        <v>2.025</v>
-      </c>
-      <c r="V240">
-        <v>1.775</v>
-      </c>
-      <c r="W240">
-        <v>0</v>
-      </c>
-      <c r="X240">
-        <v>0</v>
-      </c>
       <c r="Y240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB240">
+        <v>-1</v>
+      </c>
+      <c r="AC240">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:27">
@@ -21836,7 +21896,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6963276</v>
+        <v>6963049</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21845,34 +21905,34 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45368.3125</v>
+        <v>45368.41666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G241" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K241">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="L241">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M241">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="N241">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="O241">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P241">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q241">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R241">
         <v>1.95</v>
@@ -21884,10 +21944,10 @@
         <v>2.25</v>
       </c>
       <c r="U241">
+        <v>1.825</v>
+      </c>
+      <c r="V241">
         <v>1.975</v>
-      </c>
-      <c r="V241">
-        <v>1.825</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21910,7 +21970,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6963049</v>
+        <v>6963021</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21922,46 +21982,46 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G242" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K242">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="L242">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M242">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="N242">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="O242">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P242">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="Q242">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R242">
+        <v>1.975</v>
+      </c>
+      <c r="S242">
+        <v>1.825</v>
+      </c>
+      <c r="T242">
+        <v>2.5</v>
+      </c>
+      <c r="U242">
         <v>1.85</v>
       </c>
-      <c r="S242">
+      <c r="V242">
         <v>1.95</v>
-      </c>
-      <c r="T242">
-        <v>2.25</v>
-      </c>
-      <c r="U242">
-        <v>1.775</v>
-      </c>
-      <c r="V242">
-        <v>2.025</v>
       </c>
       <c r="W242">
         <v>0</v>
@@ -22011,31 +22071,31 @@
         <v>11</v>
       </c>
       <c r="N243">
-        <v>1.181</v>
+        <v>1.142</v>
       </c>
       <c r="O243">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P243">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q243">
         <v>-2</v>
       </c>
       <c r="R243">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S243">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T243">
         <v>3.25</v>
       </c>
       <c r="U243">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V243">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W243">
         <v>0</v>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Kocaelispor</t>
   </si>
   <si>
-    <t>Tuzlaspor</t>
+    <t>Genclerbirligi</t>
   </si>
   <si>
-    <t>Genclerbirligi</t>
+    <t>Tuzlaspor</t>
   </si>
   <si>
     <t>Erzurum BB</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC243"/>
+  <dimension ref="A1:AC249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6963162</v>
+        <v>6963260</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1085,70 +1085,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L7">
         <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O7">
         <v>3.4</v>
       </c>
       <c r="P7">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
+        <v>1.75</v>
+      </c>
+      <c r="S7">
+        <v>2.05</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
         <v>1.825</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6963260</v>
+        <v>6963162</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,70 +1174,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N8">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="O8">
         <v>3.4</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
+        <v>1.975</v>
+      </c>
+      <c r="V8">
         <v>1.825</v>
       </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -2064,7 +2064,7 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7102510</v>
+        <v>6963169</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2420,73 +2420,73 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P22">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
+        <v>1.975</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
         <v>1.9</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>1.9</v>
       </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.8</v>
-      </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
       <c r="W22">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB22">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
       <c r="AC22">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6963169</v>
+        <v>7102510</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,73 +2509,73 @@
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N23">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="Q23">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3310,7 +3310,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -3666,7 +3666,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6963264</v>
+        <v>6962909</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4108,73 +4108,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N41">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P41">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
+        <v>1.775</v>
+      </c>
+      <c r="S41">
         <v>2.025</v>
       </c>
-      <c r="S41">
+      <c r="T41">
+        <v>2.25</v>
+      </c>
+      <c r="U41">
         <v>1.775</v>
       </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
-      <c r="U41">
-        <v>1.925</v>
-      </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA41">
+        <v>-1</v>
+      </c>
+      <c r="AB41">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB41">
-        <v>0.925</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4185,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6962909</v>
+        <v>6963264</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4197,73 +4197,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
+        <v>2.1</v>
+      </c>
+      <c r="L42">
+        <v>3.25</v>
+      </c>
+      <c r="M42">
+        <v>3.1</v>
+      </c>
+      <c r="N42">
+        <v>2.3</v>
+      </c>
+      <c r="O42">
+        <v>3.25</v>
+      </c>
+      <c r="P42">
+        <v>2.75</v>
+      </c>
+      <c r="Q42">
+        <v>-0.25</v>
+      </c>
+      <c r="R42">
+        <v>2.025</v>
+      </c>
+      <c r="S42">
+        <v>1.775</v>
+      </c>
+      <c r="T42">
+        <v>2.5</v>
+      </c>
+      <c r="U42">
+        <v>1.925</v>
+      </c>
+      <c r="V42">
+        <v>1.875</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>-1</v>
+      </c>
+      <c r="Y42">
         <v>1.75</v>
       </c>
-      <c r="L42">
-        <v>3.2</v>
-      </c>
-      <c r="M42">
-        <v>4.333</v>
-      </c>
-      <c r="N42">
-        <v>1.75</v>
-      </c>
-      <c r="O42">
-        <v>3.2</v>
-      </c>
-      <c r="P42">
-        <v>4.333</v>
-      </c>
-      <c r="Q42">
-        <v>-0.5</v>
-      </c>
-      <c r="R42">
-        <v>1.775</v>
-      </c>
-      <c r="S42">
-        <v>2.025</v>
-      </c>
-      <c r="T42">
-        <v>2.25</v>
-      </c>
-      <c r="U42">
-        <v>1.775</v>
-      </c>
-      <c r="V42">
-        <v>2.025</v>
-      </c>
-      <c r="W42">
-        <v>0.75</v>
-      </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>-1</v>
-      </c>
       <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
       <c r="AB42">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6963175</v>
+        <v>6962968</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,76 +4286,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
+        <v>2.5</v>
+      </c>
+      <c r="N43">
+        <v>2.55</v>
+      </c>
+      <c r="O43">
+        <v>3.2</v>
+      </c>
+      <c r="P43">
+        <v>2.5</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
         <v>1.85</v>
-      </c>
-      <c r="N43">
-        <v>4.5</v>
-      </c>
-      <c r="O43">
-        <v>3.75</v>
-      </c>
-      <c r="P43">
-        <v>1.615</v>
-      </c>
-      <c r="Q43">
-        <v>0.75</v>
-      </c>
-      <c r="R43">
-        <v>1.975</v>
-      </c>
-      <c r="S43">
-        <v>1.825</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
+        <v>1.975</v>
+      </c>
+      <c r="V43">
         <v>1.825</v>
       </c>
-      <c r="V43">
-        <v>1.975</v>
-      </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X43">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>0.95</v>
+      </c>
+      <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
       <c r="AC43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6962968</v>
+        <v>6963175</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N44">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
+        <v>1.825</v>
+      </c>
+      <c r="V44">
         <v>1.975</v>
       </c>
-      <c r="V44">
-        <v>1.825</v>
-      </c>
       <c r="W44">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
+        <v>-1</v>
+      </c>
+      <c r="AC44">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC44">
-        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4464,7 +4464,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4734,7 +4734,7 @@
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6962970</v>
+        <v>6962911</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,76 +4998,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51">
         <v>2.1</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
+        <v>3.25</v>
+      </c>
+      <c r="N51">
+        <v>2.2</v>
+      </c>
+      <c r="O51">
+        <v>3.2</v>
+      </c>
+      <c r="P51">
         <v>3.1</v>
       </c>
-      <c r="N51">
-        <v>1.909</v>
-      </c>
-      <c r="O51">
-        <v>3.5</v>
-      </c>
-      <c r="P51">
-        <v>3.6</v>
-      </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6962911</v>
+        <v>6962970</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,76 +5087,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>2.1</v>
       </c>
       <c r="L52">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N52">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>4</v>
@@ -5621,7 +5621,7 @@
         <v>45199.3125</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -5799,7 +5799,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>43</v>
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6962976</v>
+        <v>7291537</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,16 +6422,16 @@
         <v>45206.3125</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>50</v>
@@ -6446,37 +6446,37 @@
         <v>4</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O67">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
         <v>2.5</v>
       </c>
       <c r="U67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6485,13 +6485,13 @@
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7291537</v>
+        <v>6962976</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,16 +6511,16 @@
         <v>45206.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>50</v>
@@ -6535,37 +6535,37 @@
         <v>4</v>
       </c>
       <c r="N68">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P68">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
         <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y68">
         <v>-1</v>
@@ -6574,13 +6574,13 @@
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6603,7 +6603,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6781,7 +6781,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6963186</v>
+        <v>6962917</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,55 +7134,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>49</v>
       </c>
       <c r="K75">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N75">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7191,19 +7191,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6962917</v>
+        <v>6963186</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,55 +7223,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>1</v>
-      </c>
-      <c r="I76">
-        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>49</v>
       </c>
       <c r="K76">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N76">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7280,19 +7280,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
         <v>45</v>
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6963191</v>
+        <v>6962919</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,10 +8024,10 @@
         <v>45227.3125</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8039,40 +8039,40 @@
         <v>49</v>
       </c>
       <c r="K85">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
+        <v>2.3</v>
+      </c>
+      <c r="N85">
         <v>3</v>
-      </c>
-      <c r="N85">
-        <v>2.375</v>
       </c>
       <c r="O85">
         <v>3.1</v>
       </c>
       <c r="P85">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8081,19 +8081,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6962919</v>
+        <v>6963191</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,10 +8113,10 @@
         <v>45227.3125</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8128,40 +8128,40 @@
         <v>49</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O86">
         <v>3.1</v>
       </c>
       <c r="P86">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8170,19 +8170,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8294,7 +8294,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8457,7 +8457,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6962979</v>
+        <v>6962980</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,76 +8469,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L90">
         <v>3.2</v>
       </c>
       <c r="M90">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P90">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T90">
         <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z90">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6962980</v>
+        <v>6962979</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
         <v>3.2</v>
       </c>
       <c r="M91">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N91">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
         <v>2.5</v>
       </c>
       <c r="U91">
+        <v>1.875</v>
+      </c>
+      <c r="V91">
+        <v>1.925</v>
+      </c>
+      <c r="W91">
         <v>2</v>
       </c>
-      <c r="V91">
-        <v>1.8</v>
-      </c>
-      <c r="W91">
-        <v>-1</v>
-      </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8914,7 +8914,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
@@ -9080,7 +9080,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6963195</v>
+        <v>6962982</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9092,10 +9092,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9107,43 +9107,43 @@
         <v>48</v>
       </c>
       <c r="K97">
+        <v>1.333</v>
+      </c>
+      <c r="L97">
+        <v>4.5</v>
+      </c>
+      <c r="M97">
+        <v>8</v>
+      </c>
+      <c r="N97">
+        <v>1.285</v>
+      </c>
+      <c r="O97">
+        <v>5</v>
+      </c>
+      <c r="P97">
+        <v>9</v>
+      </c>
+      <c r="Q97">
+        <v>-1.5</v>
+      </c>
+      <c r="R97">
+        <v>1.9</v>
+      </c>
+      <c r="S97">
+        <v>1.9</v>
+      </c>
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
         <v>1.95</v>
       </c>
-      <c r="L97">
-        <v>3.4</v>
-      </c>
-      <c r="M97">
-        <v>3.75</v>
-      </c>
-      <c r="N97">
-        <v>1.909</v>
-      </c>
-      <c r="O97">
-        <v>3.3</v>
-      </c>
-      <c r="P97">
-        <v>3.8</v>
-      </c>
-      <c r="Q97">
-        <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.95</v>
-      </c>
-      <c r="S97">
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="T97">
-        <v>2.25</v>
-      </c>
-      <c r="U97">
-        <v>1.825</v>
-      </c>
-      <c r="V97">
-        <v>1.975</v>
-      </c>
       <c r="W97">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9152,16 +9152,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6962982</v>
+        <v>6963195</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,10 +9181,10 @@
         <v>45235.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9196,43 +9196,43 @@
         <v>48</v>
       </c>
       <c r="K98">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="L98">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N98">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O98">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
-        <v>0.2849999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9241,16 +9241,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9451,7 +9451,7 @@
         <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9540,7 +9540,7 @@
         <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6963199</v>
+        <v>6963198</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,46 +9626,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L103">
+        <v>3.1</v>
+      </c>
+      <c r="M103">
+        <v>2.375</v>
+      </c>
+      <c r="N103">
         <v>3.4</v>
       </c>
-      <c r="M103">
-        <v>3.8</v>
-      </c>
-      <c r="N103">
-        <v>1.95</v>
-      </c>
       <c r="O103">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
         <v>2.25</v>
@@ -9677,25 +9677,25 @@
         <v>1.95</v>
       </c>
       <c r="W103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6963198</v>
+        <v>6963199</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,46 +9715,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K104">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N104">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O104">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P104">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.25</v>
@@ -9766,25 +9766,25 @@
         <v>1.95</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X104">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10964,7 +10964,7 @@
         <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11050,7 +11050,7 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
         <v>32</v>
@@ -11305,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7526759</v>
+        <v>6962991</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11317,46 +11317,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K122">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N122">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O122">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P122">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q122">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T122">
         <v>2.5</v>
@@ -11371,22 +11371,22 @@
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB122">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6962991</v>
+        <v>7526759</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,46 +11406,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K123">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N123">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11460,22 +11460,22 @@
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y123">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>36</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11943,7 +11943,7 @@
         <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12474,7 +12474,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
         <v>37</v>
@@ -12741,7 +12741,7 @@
         <v>45279.33333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
         <v>44</v>
@@ -12833,7 +12833,7 @@
         <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -13542,10 +13542,10 @@
         <v>45283.3125</v>
       </c>
       <c r="F147" t="s">
+        <v>34</v>
+      </c>
+      <c r="G147" t="s">
         <v>35</v>
-      </c>
-      <c r="G147" t="s">
-        <v>34</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -14880,7 +14880,7 @@
         <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6963223</v>
+        <v>6963004</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,76 +15500,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K169">
+        <v>1.85</v>
+      </c>
+      <c r="L169">
         <v>3.4</v>
       </c>
-      <c r="L169">
-        <v>3.25</v>
-      </c>
       <c r="M169">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N169">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O169">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S169">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
+        <v>2.025</v>
+      </c>
+      <c r="V169">
         <v>1.775</v>
       </c>
-      <c r="V169">
-        <v>2.025</v>
-      </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X169">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6963004</v>
+        <v>6963223</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,76 +15589,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K170">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="L170">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M170">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N170">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O170">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P170">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>2.05</v>
+      </c>
+      <c r="S170">
+        <v>1.75</v>
+      </c>
+      <c r="T170">
+        <v>2.25</v>
+      </c>
+      <c r="U170">
+        <v>1.775</v>
+      </c>
+      <c r="V170">
+        <v>2.025</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>2.2</v>
+      </c>
+      <c r="Y170">
+        <v>-1</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>-0</v>
+      </c>
+      <c r="AB170">
         <v>-0.5</v>
       </c>
-      <c r="R170">
-        <v>1.775</v>
-      </c>
-      <c r="S170">
-        <v>2.025</v>
-      </c>
-      <c r="T170">
-        <v>2.5</v>
-      </c>
-      <c r="U170">
-        <v>2.025</v>
-      </c>
-      <c r="V170">
-        <v>1.775</v>
-      </c>
-      <c r="W170">
-        <v>0.8</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
-      <c r="Z170">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA170">
-        <v>-1</v>
-      </c>
-      <c r="AB170">
-        <v>-1</v>
-      </c>
       <c r="AC170">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>45312.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
         <v>44</v>
@@ -16215,7 +16215,7 @@
         <v>46</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>4</v>
@@ -16393,7 +16393,7 @@
         <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6963229</v>
+        <v>6963045</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,58 +17191,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H188">
         <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L188">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M188">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="N188">
+        <v>1.95</v>
+      </c>
+      <c r="O188">
         <v>3.5</v>
       </c>
-      <c r="O188">
-        <v>3.4</v>
-      </c>
       <c r="P188">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V188">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W188">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17251,16 +17251,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17268,7 +17268,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6963045</v>
+        <v>6963229</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17280,58 +17280,58 @@
         <v>45326.3125</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L189">
+        <v>3.4</v>
+      </c>
+      <c r="M189">
+        <v>2.05</v>
+      </c>
+      <c r="N189">
         <v>3.5</v>
       </c>
-      <c r="M189">
-        <v>3.75</v>
-      </c>
-      <c r="N189">
-        <v>1.95</v>
-      </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S189">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W189">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17340,16 +17340,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC189">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
         <v>39</v>
@@ -17995,7 +17995,7 @@
         <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18262,7 +18262,7 @@
         <v>46</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18437,7 +18437,7 @@
         <v>45339.3125</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
         <v>31</v>
@@ -18692,7 +18692,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6963011</v>
+        <v>6963013</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,13 +18704,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -18719,43 +18719,43 @@
         <v>48</v>
       </c>
       <c r="K205">
-        <v>1.727</v>
+        <v>1.181</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M205">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N205">
-        <v>1.7</v>
+        <v>1.166</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P205">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R205">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>0.7</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18764,16 +18764,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>0.4</v>
+      </c>
+      <c r="AC205">
         <v>-0.5</v>
-      </c>
-      <c r="AB205">
-        <v>-1</v>
-      </c>
-      <c r="AC205">
-        <v>0.95</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6963013</v>
+        <v>6963011</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,13 +18793,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -18808,43 +18808,43 @@
         <v>48</v>
       </c>
       <c r="K206">
-        <v>1.181</v>
+        <v>1.727</v>
       </c>
       <c r="L206">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N206">
-        <v>1.166</v>
+        <v>1.7</v>
       </c>
       <c r="O206">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q206">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W206">
-        <v>0.1659999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18853,16 +18853,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB206">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19060,7 +19060,7 @@
         <v>45341.33333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
         <v>42</v>
@@ -19686,7 +19686,7 @@
         <v>43</v>
       </c>
       <c r="G216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19864,7 +19864,7 @@
         <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -20027,7 +20027,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6963239</v>
+        <v>6963241</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20039,76 +20039,76 @@
         <v>45353.3125</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220">
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="L220">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N220">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O220">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P220">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S220">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V220">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20116,7 +20116,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6963241</v>
+        <v>6963239</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20128,76 +20128,76 @@
         <v>45353.3125</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221">
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K221">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M221">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N221">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O221">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P221">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y221">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA221">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>45355.33333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G227" t="s">
         <v>38</v>
@@ -21199,7 +21199,7 @@
         <v>45</v>
       </c>
       <c r="G233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21377,7 +21377,7 @@
         <v>33</v>
       </c>
       <c r="G235" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21552,7 +21552,7 @@
         <v>45366.60416666666</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
         <v>33</v>
@@ -21891,12 +21891,12 @@
         <v>0.9750000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:29">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6963049</v>
+        <v>6963276</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,34 +21905,43 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45368.41666666666</v>
+        <v>45368.3125</v>
       </c>
       <c r="F241" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G241" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241" t="s">
+        <v>50</v>
       </c>
       <c r="K241">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="L241">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M241">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="N241">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="O241">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P241">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="Q241">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R241">
         <v>1.95</v>
@@ -21944,33 +21953,39 @@
         <v>2.25</v>
       </c>
       <c r="U241">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V241">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X241">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB241">
+        <v>-0.5</v>
+      </c>
+      <c r="AC241">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6963021</v>
+        <v>7948784</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21979,137 +21994,641 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45368.41666666666</v>
+        <v>45368.3125</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G242" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242" t="s">
+        <v>48</v>
       </c>
       <c r="K242">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L242">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M242">
         <v>4.5</v>
       </c>
       <c r="N242">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O242">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P242">
         <v>4.333</v>
       </c>
       <c r="Q242">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S242">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U242">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V242">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W242">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="X242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB242">
+        <v>-1</v>
+      </c>
+      <c r="AC242">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243">
+        <v>6963049</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45368.41666666666</v>
+      </c>
+      <c r="F243" t="s">
+        <v>47</v>
+      </c>
+      <c r="G243" t="s">
+        <v>38</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>6</v>
+      </c>
+      <c r="J243" t="s">
+        <v>49</v>
+      </c>
+      <c r="K243">
+        <v>5.5</v>
+      </c>
+      <c r="L243">
+        <v>3.8</v>
+      </c>
+      <c r="M243">
+        <v>1.55</v>
+      </c>
+      <c r="N243">
+        <v>7</v>
+      </c>
+      <c r="O243">
+        <v>4</v>
+      </c>
+      <c r="P243">
+        <v>1.444</v>
+      </c>
+      <c r="Q243">
+        <v>1.25</v>
+      </c>
+      <c r="R243">
+        <v>1.75</v>
+      </c>
+      <c r="S243">
+        <v>2.05</v>
+      </c>
+      <c r="T243">
+        <v>2.25</v>
+      </c>
+      <c r="U243">
+        <v>1.775</v>
+      </c>
+      <c r="V243">
+        <v>2.025</v>
+      </c>
+      <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
+        <v>-1</v>
+      </c>
+      <c r="Y243">
+        <v>0.444</v>
+      </c>
+      <c r="Z243">
+        <v>-1</v>
+      </c>
+      <c r="AA243">
+        <v>1.05</v>
+      </c>
+      <c r="AB243">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC243">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>6963021</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45368.41666666666</v>
+      </c>
+      <c r="F244" t="s">
+        <v>40</v>
+      </c>
+      <c r="G244" t="s">
+        <v>41</v>
+      </c>
+      <c r="H244">
+        <v>2</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244" t="s">
+        <v>48</v>
+      </c>
+      <c r="K244">
+        <v>1.7</v>
+      </c>
+      <c r="L244">
+        <v>3.5</v>
+      </c>
+      <c r="M244">
+        <v>4.5</v>
+      </c>
+      <c r="N244">
+        <v>1.727</v>
+      </c>
+      <c r="O244">
+        <v>3.6</v>
+      </c>
+      <c r="P244">
+        <v>4.2</v>
+      </c>
+      <c r="Q244">
+        <v>-0.75</v>
+      </c>
+      <c r="R244">
+        <v>1.975</v>
+      </c>
+      <c r="S244">
+        <v>1.825</v>
+      </c>
+      <c r="T244">
+        <v>2.75</v>
+      </c>
+      <c r="U244">
+        <v>2</v>
+      </c>
+      <c r="V244">
+        <v>1.8</v>
+      </c>
+      <c r="W244">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X244">
+        <v>-1</v>
+      </c>
+      <c r="Y244">
+        <v>-1</v>
+      </c>
+      <c r="Z244">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA244">
+        <v>-1</v>
+      </c>
+      <c r="AB244">
+        <v>-1</v>
+      </c>
+      <c r="AC244">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
         <v>6963022</v>
       </c>
-      <c r="C243" t="s">
-        <v>28</v>
-      </c>
-      <c r="D243" t="s">
-        <v>28</v>
-      </c>
-      <c r="E243" s="2">
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
         <v>45368.60416666666</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F245" t="s">
         <v>44</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G245" t="s">
         <v>45</v>
       </c>
-      <c r="K243">
+      <c r="H245">
+        <v>2</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245" t="s">
+        <v>48</v>
+      </c>
+      <c r="K245">
         <v>1.2</v>
       </c>
-      <c r="L243">
+      <c r="L245">
         <v>6</v>
       </c>
-      <c r="M243">
+      <c r="M245">
         <v>11</v>
       </c>
-      <c r="N243">
+      <c r="N245">
         <v>1.142</v>
       </c>
-      <c r="O243">
+      <c r="O245">
         <v>7</v>
       </c>
-      <c r="P243">
+      <c r="P245">
         <v>13</v>
       </c>
-      <c r="Q243">
-        <v>-2</v>
-      </c>
-      <c r="R243">
+      <c r="Q245">
+        <v>-2.25</v>
+      </c>
+      <c r="R245">
+        <v>2</v>
+      </c>
+      <c r="S245">
         <v>1.8</v>
       </c>
-      <c r="S243">
+      <c r="T245">
+        <v>3.25</v>
+      </c>
+      <c r="U245">
+        <v>1.95</v>
+      </c>
+      <c r="V245">
+        <v>1.85</v>
+      </c>
+      <c r="W245">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X245">
+        <v>-1</v>
+      </c>
+      <c r="Y245">
+        <v>-1</v>
+      </c>
+      <c r="Z245">
+        <v>-0.5</v>
+      </c>
+      <c r="AA245">
+        <v>0.4</v>
+      </c>
+      <c r="AB245">
+        <v>-1</v>
+      </c>
+      <c r="AC245">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>6963252</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45384.33333333334</v>
+      </c>
+      <c r="F246" t="s">
+        <v>32</v>
+      </c>
+      <c r="G246" t="s">
+        <v>39</v>
+      </c>
+      <c r="K246">
+        <v>2.7</v>
+      </c>
+      <c r="L246">
+        <v>3.2</v>
+      </c>
+      <c r="M246">
+        <v>2.4</v>
+      </c>
+      <c r="N246">
+        <v>2.7</v>
+      </c>
+      <c r="O246">
+        <v>3.2</v>
+      </c>
+      <c r="P246">
+        <v>2.4</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>2.025</v>
+      </c>
+      <c r="S246">
+        <v>1.775</v>
+      </c>
+      <c r="T246">
+        <v>2.25</v>
+      </c>
+      <c r="U246">
+        <v>1.875</v>
+      </c>
+      <c r="V246">
+        <v>1.925</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>6963023</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45384.33333333334</v>
+      </c>
+      <c r="F247" t="s">
+        <v>38</v>
+      </c>
+      <c r="G247" t="s">
+        <v>44</v>
+      </c>
+      <c r="K247">
+        <v>2.15</v>
+      </c>
+      <c r="L247">
+        <v>3.3</v>
+      </c>
+      <c r="M247">
+        <v>3.1</v>
+      </c>
+      <c r="N247">
+        <v>2.15</v>
+      </c>
+      <c r="O247">
+        <v>3.3</v>
+      </c>
+      <c r="P247">
+        <v>3.1</v>
+      </c>
+      <c r="Q247">
+        <v>-0.25</v>
+      </c>
+      <c r="R247">
+        <v>1.925</v>
+      </c>
+      <c r="S247">
+        <v>1.875</v>
+      </c>
+      <c r="T247">
+        <v>2.25</v>
+      </c>
+      <c r="U247">
+        <v>1.8</v>
+      </c>
+      <c r="V247">
         <v>2</v>
       </c>
-      <c r="T243">
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>6963277</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45384.45833333334</v>
+      </c>
+      <c r="F248" t="s">
+        <v>31</v>
+      </c>
+      <c r="G248" t="s">
+        <v>34</v>
+      </c>
+      <c r="K248">
+        <v>2.45</v>
+      </c>
+      <c r="L248">
+        <v>3.2</v>
+      </c>
+      <c r="M248">
+        <v>2.7</v>
+      </c>
+      <c r="N248">
+        <v>2.45</v>
+      </c>
+      <c r="O248">
+        <v>3.2</v>
+      </c>
+      <c r="P248">
+        <v>2.7</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>1.85</v>
+      </c>
+      <c r="S248">
+        <v>1.95</v>
+      </c>
+      <c r="T248">
+        <v>2.25</v>
+      </c>
+      <c r="U248">
+        <v>1.975</v>
+      </c>
+      <c r="V248">
+        <v>1.825</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AA248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>6963251</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45384.60416666666</v>
+      </c>
+      <c r="F249" t="s">
+        <v>43</v>
+      </c>
+      <c r="G249" t="s">
+        <v>29</v>
+      </c>
+      <c r="K249">
+        <v>2.55</v>
+      </c>
+      <c r="L249">
+        <v>3.2</v>
+      </c>
+      <c r="M249">
+        <v>2.55</v>
+      </c>
+      <c r="N249">
+        <v>2.2</v>
+      </c>
+      <c r="O249">
         <v>3.25</v>
       </c>
-      <c r="U243">
+      <c r="P249">
+        <v>2.9</v>
+      </c>
+      <c r="Q249">
+        <v>-0.25</v>
+      </c>
+      <c r="R249">
+        <v>2.025</v>
+      </c>
+      <c r="S249">
+        <v>1.775</v>
+      </c>
+      <c r="T249">
+        <v>2.25</v>
+      </c>
+      <c r="U249">
         <v>1.925</v>
       </c>
-      <c r="V243">
+      <c r="V249">
         <v>1.875</v>
       </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243">
-        <v>0</v>
-      </c>
-      <c r="Y243">
-        <v>0</v>
-      </c>
-      <c r="Z243">
-        <v>0</v>
-      </c>
-      <c r="AA243">
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AA249">
         <v>0</v>
       </c>
     </row>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Adanaspor</t>
   </si>
   <si>
-    <t>Bandirmaspor</t>
+    <t>Manisa BBSK</t>
   </si>
   <si>
-    <t>Manisa BBSK</t>
+    <t>Bandirmaspor</t>
   </si>
   <si>
     <t>Sakaryaspor</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC249"/>
+  <dimension ref="A1:AC254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,7 +996,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6963166</v>
+        <v>6963167</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1886,7 +1886,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1898,31 +1898,31 @@
         <v>50</v>
       </c>
       <c r="K16">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L16">
+        <v>3.75</v>
+      </c>
+      <c r="M16">
+        <v>2.625</v>
+      </c>
+      <c r="N16">
+        <v>1.85</v>
+      </c>
+      <c r="O16">
+        <v>3.8</v>
+      </c>
+      <c r="P16">
         <v>3.6</v>
       </c>
-      <c r="M16">
-        <v>3.6</v>
-      </c>
-      <c r="N16">
-        <v>1.7</v>
-      </c>
-      <c r="O16">
-        <v>3.6</v>
-      </c>
-      <c r="P16">
-        <v>4.333</v>
-      </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
         <v>2.5</v>
@@ -1937,7 +1937,7 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -1946,7 +1946,7 @@
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB16">
         <v>-1</v>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6963167</v>
+        <v>6963166</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1975,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1987,31 +1987,31 @@
         <v>50</v>
       </c>
       <c r="K17">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N17">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
         <v>2.5</v>
@@ -2026,7 +2026,7 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2035,7 +2035,7 @@
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -2331,7 +2331,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6963173</v>
+        <v>6963171</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N32">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P32">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R32">
+        <v>1.725</v>
+      </c>
+      <c r="S32">
+        <v>2.075</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.775</v>
+      </c>
+      <c r="V32">
         <v>2.025</v>
       </c>
-      <c r="S32">
-        <v>1.775</v>
-      </c>
-      <c r="T32">
-        <v>2.75</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.875</v>
-      </c>
       <c r="W32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>-0</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>1.025</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
-      <c r="AB32">
-        <v>0.925</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6963171</v>
+        <v>6963173</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M33">
+        <v>5.5</v>
+      </c>
+      <c r="N33">
+        <v>1.45</v>
+      </c>
+      <c r="O33">
+        <v>4.2</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+      <c r="Q33">
+        <v>-1.25</v>
+      </c>
+      <c r="R33">
+        <v>2.025</v>
+      </c>
+      <c r="S33">
+        <v>1.775</v>
+      </c>
+      <c r="T33">
         <v>2.75</v>
       </c>
-      <c r="N33">
-        <v>2.45</v>
-      </c>
-      <c r="O33">
-        <v>3.1</v>
-      </c>
-      <c r="P33">
-        <v>2.8</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>1.725</v>
-      </c>
-      <c r="S33">
-        <v>2.075</v>
-      </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
       <c r="U33">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X33">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -4096,7 +4096,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6962909</v>
+        <v>6963264</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4108,73 +4108,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
+        <v>2.1</v>
+      </c>
+      <c r="L41">
+        <v>3.25</v>
+      </c>
+      <c r="M41">
+        <v>3.1</v>
+      </c>
+      <c r="N41">
+        <v>2.3</v>
+      </c>
+      <c r="O41">
+        <v>3.25</v>
+      </c>
+      <c r="P41">
+        <v>2.75</v>
+      </c>
+      <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>2.025</v>
+      </c>
+      <c r="S41">
+        <v>1.775</v>
+      </c>
+      <c r="T41">
+        <v>2.5</v>
+      </c>
+      <c r="U41">
+        <v>1.925</v>
+      </c>
+      <c r="V41">
+        <v>1.875</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>-1</v>
+      </c>
+      <c r="Y41">
         <v>1.75</v>
       </c>
-      <c r="L41">
-        <v>3.2</v>
-      </c>
-      <c r="M41">
-        <v>4.333</v>
-      </c>
-      <c r="N41">
-        <v>1.75</v>
-      </c>
-      <c r="O41">
-        <v>3.2</v>
-      </c>
-      <c r="P41">
-        <v>4.333</v>
-      </c>
-      <c r="Q41">
-        <v>-0.5</v>
-      </c>
-      <c r="R41">
-        <v>1.775</v>
-      </c>
-      <c r="S41">
-        <v>2.025</v>
-      </c>
-      <c r="T41">
-        <v>2.25</v>
-      </c>
-      <c r="U41">
-        <v>1.775</v>
-      </c>
-      <c r="V41">
-        <v>2.025</v>
-      </c>
-      <c r="W41">
-        <v>0.75</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
-      <c r="Y41">
-        <v>-1</v>
-      </c>
       <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
       <c r="AB41">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4185,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6963264</v>
+        <v>6962909</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4197,73 +4197,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M42">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N42">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O42">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
+        <v>1.775</v>
+      </c>
+      <c r="S42">
         <v>2.025</v>
       </c>
-      <c r="S42">
+      <c r="T42">
+        <v>2.25</v>
+      </c>
+      <c r="U42">
         <v>1.775</v>
       </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
-      <c r="U42">
-        <v>1.925</v>
-      </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB42">
-        <v>0.925</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6962968</v>
+        <v>6963175</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,76 +4286,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N43">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O43">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P43">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
+        <v>1.825</v>
+      </c>
+      <c r="V43">
         <v>1.975</v>
       </c>
-      <c r="V43">
-        <v>1.825</v>
-      </c>
       <c r="W43">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6963175</v>
+        <v>6962968</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
+        <v>2.5</v>
+      </c>
+      <c r="N44">
+        <v>2.55</v>
+      </c>
+      <c r="O44">
+        <v>3.2</v>
+      </c>
+      <c r="P44">
+        <v>2.5</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
         <v>1.85</v>
-      </c>
-      <c r="N44">
-        <v>4.5</v>
-      </c>
-      <c r="O44">
-        <v>3.75</v>
-      </c>
-      <c r="P44">
-        <v>1.615</v>
-      </c>
-      <c r="Q44">
-        <v>0.75</v>
-      </c>
-      <c r="R44">
-        <v>1.975</v>
-      </c>
-      <c r="S44">
-        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
+        <v>1.975</v>
+      </c>
+      <c r="V44">
         <v>1.825</v>
       </c>
-      <c r="V44">
-        <v>1.975</v>
-      </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
+        <v>0.95</v>
+      </c>
+      <c r="AA44">
+        <v>-1</v>
+      </c>
+      <c r="AB44">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA44">
-        <v>-1</v>
-      </c>
-      <c r="AB44">
-        <v>-1</v>
-      </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4452,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6963174</v>
+        <v>6962910</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4464,76 +4464,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L45">
+        <v>3.25</v>
+      </c>
+      <c r="M45">
+        <v>2.875</v>
+      </c>
+      <c r="N45">
+        <v>2.375</v>
+      </c>
+      <c r="O45">
         <v>3.2</v>
       </c>
-      <c r="M45">
-        <v>1.95</v>
-      </c>
-      <c r="N45">
-        <v>4</v>
-      </c>
-      <c r="O45">
-        <v>3.3</v>
-      </c>
       <c r="P45">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4541,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6962910</v>
+        <v>6963174</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4553,76 +4553,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N46">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O46">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P46">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4719,7 +4719,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6963176</v>
+        <v>6963179</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4731,58 +4731,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>48</v>
       </c>
       <c r="K48">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P48">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4791,16 +4791,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6963179</v>
+        <v>6963176</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,58 +4820,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>48</v>
       </c>
       <c r="K49">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L49">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O49">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P49">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
+        <v>1.8</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>2.5</v>
+      </c>
+      <c r="U49">
+        <v>1.875</v>
+      </c>
+      <c r="V49">
         <v>1.925</v>
       </c>
-      <c r="S49">
-        <v>1.875</v>
-      </c>
-      <c r="T49">
-        <v>2.75</v>
-      </c>
-      <c r="U49">
-        <v>1.975</v>
-      </c>
-      <c r="V49">
-        <v>1.825</v>
-      </c>
       <c r="W49">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4880,16 +4880,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4998,7 +4998,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
         <v>37</v>
@@ -5176,7 +5176,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5253,7 +5253,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6962969</v>
+        <v>6962912</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5265,76 +5265,76 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K54">
+        <v>2.375</v>
+      </c>
+      <c r="L54">
+        <v>3.25</v>
+      </c>
+      <c r="M54">
+        <v>2.75</v>
+      </c>
+      <c r="N54">
         <v>2.6</v>
       </c>
-      <c r="L54">
-        <v>3.1</v>
-      </c>
-      <c r="M54">
-        <v>2.6</v>
-      </c>
-      <c r="N54">
-        <v>2.625</v>
-      </c>
       <c r="O54">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P54">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6962912</v>
+        <v>6962969</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,76 +5354,76 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M55">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N55">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O55">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5535,7 +5535,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6963180</v>
+        <v>6963265</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,58 +5888,58 @@
         <v>45200.3125</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
         <v>1</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>48</v>
       </c>
       <c r="K61">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M61">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N61">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
+        <v>1.925</v>
+      </c>
+      <c r="V61">
         <v>1.875</v>
       </c>
-      <c r="V61">
-        <v>1.925</v>
-      </c>
       <c r="W61">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5948,16 +5948,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6963265</v>
+        <v>6963180</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,58 +5977,58 @@
         <v>45200.3125</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>48</v>
       </c>
       <c r="K62">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N62">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
+        <v>1.875</v>
+      </c>
+      <c r="V62">
         <v>1.925</v>
       </c>
-      <c r="V62">
-        <v>1.875</v>
-      </c>
       <c r="W62">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6037,16 +6037,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.925</v>
-      </c>
-      <c r="AC62">
-        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6422,7 +6422,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
         <v>39</v>
@@ -6511,7 +6511,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6962917</v>
+        <v>6963186</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,55 +7134,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>1</v>
-      </c>
-      <c r="I75">
-        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>49</v>
       </c>
       <c r="K75">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N75">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7191,19 +7191,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6963186</v>
+        <v>6962917</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,55 +7223,55 @@
         <v>45220.3125</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>49</v>
       </c>
       <c r="K76">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N76">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7280,19 +7280,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7493,7 +7493,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6963187</v>
+        <v>6963190</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,76 +7579,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M80">
         <v>2.375</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O80">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z80">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6963190</v>
+        <v>6963187</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,76 +7668,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L81">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
         <v>2.375</v>
       </c>
       <c r="N81">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P81">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA81">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8380,7 +8380,7 @@
         <v>45228.3125</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
         <v>39</v>
@@ -8457,7 +8457,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6962980</v>
+        <v>6962979</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,76 +8469,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L90">
         <v>3.2</v>
       </c>
       <c r="M90">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N90">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
         <v>2.5</v>
       </c>
       <c r="U90">
+        <v>1.875</v>
+      </c>
+      <c r="V90">
+        <v>1.925</v>
+      </c>
+      <c r="W90">
         <v>2</v>
       </c>
-      <c r="V90">
-        <v>1.8</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA90">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6962979</v>
+        <v>6962980</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L91">
         <v>3.2</v>
       </c>
       <c r="M91">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P91">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R91">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T91">
         <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z91">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8650,7 +8650,7 @@
         <v>46</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>45235.3125</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
         <v>45</v>
@@ -9184,7 +9184,7 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9614,7 +9614,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6963198</v>
+        <v>6963199</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,46 +9626,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N103">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P103">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T103">
         <v>2.25</v>
@@ -9677,25 +9677,25 @@
         <v>1.95</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6963199</v>
+        <v>6963198</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9715,46 +9715,46 @@
         <v>45241.3125</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K104">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L104">
+        <v>3.1</v>
+      </c>
+      <c r="M104">
+        <v>2.375</v>
+      </c>
+      <c r="N104">
         <v>3.4</v>
       </c>
-      <c r="M104">
-        <v>3.8</v>
-      </c>
-      <c r="N104">
-        <v>1.95</v>
-      </c>
       <c r="O104">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P104">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
         <v>2.25</v>
@@ -9766,25 +9766,25 @@
         <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9982,10 +9982,10 @@
         <v>45242.3125</v>
       </c>
       <c r="F107" t="s">
+        <v>42</v>
+      </c>
+      <c r="G107" t="s">
         <v>43</v>
-      </c>
-      <c r="G107" t="s">
-        <v>42</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10516,7 +10516,7 @@
         <v>45255.3125</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
         <v>38</v>
@@ -10875,7 +10875,7 @@
         <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6962926</v>
+        <v>6962990</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,10 +11139,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11154,40 +11154,40 @@
         <v>49</v>
       </c>
       <c r="K120">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N120">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11196,16 +11196,16 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6962990</v>
+        <v>6962926</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,10 +11228,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11243,40 +11243,40 @@
         <v>49</v>
       </c>
       <c r="K121">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N121">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="O121">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11285,16 +11285,16 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11305,7 +11305,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6962991</v>
+        <v>7526759</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11317,46 +11317,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K122">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N122">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
         <v>2.5</v>
@@ -11371,22 +11371,22 @@
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y122">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11394,7 +11394,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7526759</v>
+        <v>6962991</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11406,46 +11406,46 @@
         <v>45262.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="N123">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q123">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11460,22 +11460,22 @@
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB123">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA123">
-        <v>-1</v>
-      </c>
-      <c r="AB123">
-        <v>-1</v>
-      </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>45263.3125</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
@@ -11928,7 +11928,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6963207</v>
+        <v>6962929</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11940,76 +11940,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L129">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N129">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O129">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
+        <v>2</v>
+      </c>
+      <c r="V129">
         <v>1.8</v>
       </c>
-      <c r="V129">
-        <v>2</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC129">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6962929</v>
+        <v>6963207</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,76 +12029,76 @@
         <v>45269.3125</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K130">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M130">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N130">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O130">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
+        <v>1.8</v>
+      </c>
+      <c r="V130">
         <v>2</v>
       </c>
-      <c r="V130">
-        <v>1.8</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>1</v>
-      </c>
-      <c r="AC130">
-        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12385,7 +12385,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
         <v>41</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6963211</v>
+        <v>7589522</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M141">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N141">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O141">
         <v>3.25</v>
       </c>
       <c r="P141">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
+        <v>1.85</v>
+      </c>
+      <c r="S141">
+        <v>1.95</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
         <v>2</v>
       </c>
-      <c r="S141">
+      <c r="V141">
         <v>1.8</v>
       </c>
-      <c r="T141">
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
         <v>2.25</v>
       </c>
-      <c r="U141">
-        <v>1.8</v>
-      </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
-      <c r="W141">
-        <v>-1</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
       <c r="Y141">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
+        <v>0.475</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
         <v>0.8</v>
-      </c>
-      <c r="AB141">
-        <v>0.8</v>
-      </c>
-      <c r="AC141">
-        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7589522</v>
+        <v>6963211</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45280.33333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L142">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O142">
         <v>3.25</v>
       </c>
       <c r="P142">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
+        <v>1.8</v>
+      </c>
+      <c r="V142">
         <v>2</v>
       </c>
-      <c r="V142">
-        <v>1.8</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13367,7 +13367,7 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6962933</v>
+        <v>6962998</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,73 +13720,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
         <v>3</v>
       </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L149">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M149">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N149">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O149">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P149">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z149">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13797,7 +13797,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6962998</v>
+        <v>6962933</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13809,73 +13809,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L150">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M150">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N150">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O150">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q150">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
+        <v>1.9</v>
+      </c>
+      <c r="V150">
+        <v>1.9</v>
+      </c>
+      <c r="W150">
         <v>1.8</v>
       </c>
-      <c r="V150">
-        <v>2</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA150">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -14076,7 +14076,7 @@
         <v>45285.33333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
         <v>38</v>
@@ -14521,7 +14521,7 @@
         <v>45304.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
         <v>36</v>
@@ -14788,7 +14788,7 @@
         <v>45305.3125</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -15325,7 +15325,7 @@
         <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6963004</v>
+        <v>6963223</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,76 +15500,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K169">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="L169">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M169">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N169">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P169">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>2.05</v>
+      </c>
+      <c r="S169">
+        <v>1.75</v>
+      </c>
+      <c r="T169">
+        <v>2.25</v>
+      </c>
+      <c r="U169">
+        <v>1.775</v>
+      </c>
+      <c r="V169">
+        <v>2.025</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>2.2</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>-0</v>
+      </c>
+      <c r="AB169">
         <v>-0.5</v>
       </c>
-      <c r="R169">
-        <v>1.775</v>
-      </c>
-      <c r="S169">
-        <v>2.025</v>
-      </c>
-      <c r="T169">
-        <v>2.5</v>
-      </c>
-      <c r="U169">
-        <v>2.025</v>
-      </c>
-      <c r="V169">
-        <v>1.775</v>
-      </c>
-      <c r="W169">
-        <v>0.8</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
-      <c r="AB169">
-        <v>-1</v>
-      </c>
       <c r="AC169">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6963223</v>
+        <v>6963004</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,76 +15589,76 @@
         <v>45312.3125</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K170">
+        <v>1.85</v>
+      </c>
+      <c r="L170">
         <v>3.4</v>
       </c>
-      <c r="L170">
-        <v>3.25</v>
-      </c>
       <c r="M170">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N170">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P170">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S170">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
+        <v>2.025</v>
+      </c>
+      <c r="V170">
         <v>1.775</v>
       </c>
-      <c r="V170">
-        <v>2.025</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X170">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16034,7 +16034,7 @@
         <v>45318.3125</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
         <v>36</v>
@@ -16301,7 +16301,7 @@
         <v>45319.3125</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
         <v>47</v>
@@ -16749,7 +16749,7 @@
         <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16823,7 +16823,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6963272</v>
+        <v>6963227</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16835,10 +16835,10 @@
         <v>45325.3125</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16850,40 +16850,40 @@
         <v>49</v>
       </c>
       <c r="K184">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M184">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N184">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P184">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16892,16 +16892,16 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB184">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16912,7 +16912,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6963227</v>
+        <v>6963272</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16924,10 +16924,10 @@
         <v>45325.3125</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16939,40 +16939,40 @@
         <v>49</v>
       </c>
       <c r="K185">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L185">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M185">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N185">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O185">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P185">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16981,16 +16981,16 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB185">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17283,7 +17283,7 @@
         <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17891,7 +17891,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6962943</v>
+        <v>6963009</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17903,76 +17903,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K196">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L196">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M196">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N196">
         <v>2.375</v>
       </c>
       <c r="O196">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P196">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q196">
         <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S196">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V196">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA196">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC196">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17980,7 +17980,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6963009</v>
+        <v>6962943</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17992,76 +17992,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
         <v>2</v>
       </c>
-      <c r="I197">
-        <v>1</v>
-      </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K197">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L197">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M197">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N197">
         <v>2.375</v>
       </c>
       <c r="O197">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P197">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q197">
         <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W197">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z197">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18170,7 +18170,7 @@
         <v>45333.54166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G199" t="s">
         <v>47</v>
@@ -18351,7 +18351,7 @@
         <v>37</v>
       </c>
       <c r="G201" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18692,7 +18692,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6963013</v>
+        <v>6963011</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,13 +18704,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -18719,43 +18719,43 @@
         <v>48</v>
       </c>
       <c r="K205">
-        <v>1.181</v>
+        <v>1.727</v>
       </c>
       <c r="L205">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M205">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="N205">
-        <v>1.166</v>
+        <v>1.7</v>
       </c>
       <c r="O205">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q205">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S205">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
-        <v>0.1659999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18764,16 +18764,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB205">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6963011</v>
+        <v>6963013</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,13 +18793,13 @@
         <v>45340.3125</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -18808,43 +18808,43 @@
         <v>48</v>
       </c>
       <c r="K206">
-        <v>1.727</v>
+        <v>1.181</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M206">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N206">
-        <v>1.7</v>
+        <v>1.166</v>
       </c>
       <c r="O206">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P206">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R206">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>0.7</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18853,16 +18853,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
+        <v>0.4</v>
+      </c>
+      <c r="AC206">
         <v>-0.5</v>
-      </c>
-      <c r="AB206">
-        <v>-1</v>
-      </c>
-      <c r="AC206">
-        <v>0.95</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19238,7 +19238,7 @@
         <v>45346.3125</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -19683,7 +19683,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -20027,7 +20027,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6963241</v>
+        <v>6963239</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20039,76 +20039,76 @@
         <v>45353.3125</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K220">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M220">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N220">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O220">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P220">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y220">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA220">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20116,7 +20116,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6963239</v>
+        <v>6963241</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20128,76 +20128,76 @@
         <v>45353.3125</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="L221">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N221">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O221">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S221">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V221">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20309,7 +20309,7 @@
         <v>44</v>
       </c>
       <c r="G223" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20576,7 +20576,7 @@
         <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20840,7 +20840,7 @@
         <v>45360.3125</v>
       </c>
       <c r="F229" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G229" t="s">
         <v>29</v>
@@ -21463,7 +21463,7 @@
         <v>45362.60416666666</v>
       </c>
       <c r="F236" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G236" t="s">
         <v>40</v>
@@ -21641,7 +21641,7 @@
         <v>45367.3125</v>
       </c>
       <c r="F238" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G238" t="s">
         <v>46</v>
@@ -21733,7 +21733,7 @@
         <v>39</v>
       </c>
       <c r="G239" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H239">
         <v>4</v>
@@ -21896,7 +21896,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6963276</v>
+        <v>7948784</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21908,76 +21908,76 @@
         <v>45368.3125</v>
       </c>
       <c r="F241" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G241" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H241">
         <v>1</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K241">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L241">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M241">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N241">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="O241">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P241">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q241">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S241">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T241">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U241">
+        <v>1.775</v>
+      </c>
+      <c r="V241">
         <v>2.025</v>
       </c>
-      <c r="V241">
-        <v>1.775</v>
-      </c>
       <c r="W241">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X241">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA241">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21985,7 +21985,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7948784</v>
+        <v>6963276</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21997,76 +21997,76 @@
         <v>45368.3125</v>
       </c>
       <c r="F242" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G242" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H242">
         <v>1</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K242">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L242">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M242">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N242">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="O242">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P242">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q242">
+        <v>-0.75</v>
+      </c>
+      <c r="R242">
+        <v>1.95</v>
+      </c>
+      <c r="S242">
+        <v>1.85</v>
+      </c>
+      <c r="T242">
+        <v>2.25</v>
+      </c>
+      <c r="U242">
+        <v>2.025</v>
+      </c>
+      <c r="V242">
+        <v>1.775</v>
+      </c>
+      <c r="W242">
+        <v>-1</v>
+      </c>
+      <c r="X242">
+        <v>2.4</v>
+      </c>
+      <c r="Y242">
+        <v>-1</v>
+      </c>
+      <c r="Z242">
+        <v>-1</v>
+      </c>
+      <c r="AA242">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB242">
         <v>-0.5</v>
       </c>
-      <c r="R242">
-        <v>1.875</v>
-      </c>
-      <c r="S242">
-        <v>1.925</v>
-      </c>
-      <c r="T242">
-        <v>2</v>
-      </c>
-      <c r="U242">
-        <v>1.775</v>
-      </c>
-      <c r="V242">
-        <v>2.025</v>
-      </c>
-      <c r="W242">
-        <v>0.833</v>
-      </c>
-      <c r="X242">
-        <v>-1</v>
-      </c>
-      <c r="Y242">
-        <v>-1</v>
-      </c>
-      <c r="Z242">
-        <v>0.875</v>
-      </c>
-      <c r="AA242">
-        <v>-1</v>
-      </c>
-      <c r="AB242">
-        <v>-1</v>
-      </c>
       <c r="AC242">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22442,22 +22442,22 @@
         <v>3.1</v>
       </c>
       <c r="N247">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O247">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P247">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S247">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T247">
         <v>2.25</v>
@@ -22575,7 +22575,7 @@
         <v>45384.60416666666</v>
       </c>
       <c r="F249" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G249" t="s">
         <v>29</v>
@@ -22629,6 +22629,376 @@
         <v>0</v>
       </c>
       <c r="AA249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>6963250</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45385.33333333334</v>
+      </c>
+      <c r="F250" t="s">
+        <v>35</v>
+      </c>
+      <c r="G250" t="s">
+        <v>40</v>
+      </c>
+      <c r="K250">
+        <v>2.5</v>
+      </c>
+      <c r="L250">
+        <v>3</v>
+      </c>
+      <c r="M250">
+        <v>2.625</v>
+      </c>
+      <c r="N250">
+        <v>2.5</v>
+      </c>
+      <c r="O250">
+        <v>3</v>
+      </c>
+      <c r="P250">
+        <v>2.625</v>
+      </c>
+      <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="R250">
+        <v>1.85</v>
+      </c>
+      <c r="S250">
+        <v>1.95</v>
+      </c>
+      <c r="T250">
+        <v>2.5</v>
+      </c>
+      <c r="U250">
+        <v>2</v>
+      </c>
+      <c r="V250">
+        <v>1.8</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>6963025</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45385.45833333334</v>
+      </c>
+      <c r="F251" t="s">
+        <v>41</v>
+      </c>
+      <c r="G251" t="s">
+        <v>46</v>
+      </c>
+      <c r="K251">
+        <v>7</v>
+      </c>
+      <c r="L251">
+        <v>4.333</v>
+      </c>
+      <c r="M251">
+        <v>1.363</v>
+      </c>
+      <c r="N251">
+        <v>7</v>
+      </c>
+      <c r="O251">
+        <v>4.333</v>
+      </c>
+      <c r="P251">
+        <v>1.363</v>
+      </c>
+      <c r="Q251">
+        <v>1.25</v>
+      </c>
+      <c r="R251">
+        <v>1.925</v>
+      </c>
+      <c r="S251">
+        <v>1.875</v>
+      </c>
+      <c r="T251">
+        <v>2.5</v>
+      </c>
+      <c r="U251">
+        <v>1.85</v>
+      </c>
+      <c r="V251">
+        <v>1.95</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>6963024</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45385.60416666666</v>
+      </c>
+      <c r="F252" t="s">
+        <v>45</v>
+      </c>
+      <c r="G252" t="s">
+        <v>43</v>
+      </c>
+      <c r="K252">
+        <v>7.5</v>
+      </c>
+      <c r="L252">
+        <v>5.25</v>
+      </c>
+      <c r="M252">
+        <v>1.285</v>
+      </c>
+      <c r="N252">
+        <v>7.5</v>
+      </c>
+      <c r="O252">
+        <v>5.25</v>
+      </c>
+      <c r="P252">
+        <v>1.285</v>
+      </c>
+      <c r="Q252">
+        <v>1.5</v>
+      </c>
+      <c r="R252">
+        <v>1.925</v>
+      </c>
+      <c r="S252">
+        <v>1.875</v>
+      </c>
+      <c r="T252">
+        <v>2.75</v>
+      </c>
+      <c r="U252">
+        <v>1.85</v>
+      </c>
+      <c r="V252">
+        <v>1.95</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>6962954</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45385.60416666666</v>
+      </c>
+      <c r="F253" t="s">
+        <v>33</v>
+      </c>
+      <c r="G253" t="s">
+        <v>37</v>
+      </c>
+      <c r="K253">
+        <v>3.1</v>
+      </c>
+      <c r="L253">
+        <v>2.875</v>
+      </c>
+      <c r="M253">
+        <v>2.3</v>
+      </c>
+      <c r="N253">
+        <v>3.1</v>
+      </c>
+      <c r="O253">
+        <v>2.875</v>
+      </c>
+      <c r="P253">
+        <v>2.3</v>
+      </c>
+      <c r="Q253">
+        <v>0.25</v>
+      </c>
+      <c r="R253">
+        <v>1.775</v>
+      </c>
+      <c r="S253">
+        <v>2.025</v>
+      </c>
+      <c r="T253">
+        <v>2</v>
+      </c>
+      <c r="U253">
+        <v>1.775</v>
+      </c>
+      <c r="V253">
+        <v>2.025</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>6963253</v>
+      </c>
+      <c r="C254" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45386.60416666666</v>
+      </c>
+      <c r="F254" t="s">
+        <v>36</v>
+      </c>
+      <c r="G254" t="s">
+        <v>47</v>
+      </c>
+      <c r="K254">
+        <v>1.142</v>
+      </c>
+      <c r="L254">
+        <v>6.5</v>
+      </c>
+      <c r="M254">
+        <v>15</v>
+      </c>
+      <c r="N254">
+        <v>1.142</v>
+      </c>
+      <c r="O254">
+        <v>6.5</v>
+      </c>
+      <c r="P254">
+        <v>15</v>
+      </c>
+      <c r="Q254">
+        <v>-2</v>
+      </c>
+      <c r="R254">
+        <v>1.975</v>
+      </c>
+      <c r="S254">
+        <v>1.825</v>
+      </c>
+      <c r="T254">
+        <v>2.75</v>
+      </c>
+      <c r="U254">
+        <v>1.85</v>
+      </c>
+      <c r="V254">
+        <v>1.95</v>
+      </c>
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <v>0</v>
+      </c>
+      <c r="Z254">
+        <v>0</v>
+      </c>
+      <c r="AA254">
         <v>0</v>
       </c>
     </row>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6963169</v>
+        <v>7102510</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N22">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="O22">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P22">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="Q22">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7102510</v>
+        <v>6963169</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,76 +2506,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P23">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R23">
+        <v>1.825</v>
+      </c>
+      <c r="S23">
+        <v>1.975</v>
+      </c>
+      <c r="T23">
+        <v>2.5</v>
+      </c>
+      <c r="U23">
         <v>1.9</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>1.9</v>
       </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
       <c r="W23">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB23">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
       <c r="AC23">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6963171</v>
+        <v>6963173</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M32">
+        <v>5.5</v>
+      </c>
+      <c r="N32">
+        <v>1.45</v>
+      </c>
+      <c r="O32">
+        <v>4.2</v>
+      </c>
+      <c r="P32">
+        <v>7</v>
+      </c>
+      <c r="Q32">
+        <v>-1.25</v>
+      </c>
+      <c r="R32">
+        <v>2.025</v>
+      </c>
+      <c r="S32">
+        <v>1.775</v>
+      </c>
+      <c r="T32">
         <v>2.75</v>
       </c>
-      <c r="N32">
-        <v>2.45</v>
-      </c>
-      <c r="O32">
-        <v>3.1</v>
-      </c>
-      <c r="P32">
-        <v>2.8</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.725</v>
-      </c>
-      <c r="S32">
-        <v>2.075</v>
-      </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
       <c r="U32">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X32">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA32">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC32">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6963173</v>
+        <v>6963171</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P33">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q33">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R33">
+        <v>1.725</v>
+      </c>
+      <c r="S33">
+        <v>2.075</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>1.775</v>
+      </c>
+      <c r="V33">
         <v>2.025</v>
       </c>
-      <c r="S33">
-        <v>1.775</v>
-      </c>
-      <c r="T33">
-        <v>2.75</v>
-      </c>
-      <c r="U33">
-        <v>1.925</v>
-      </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
       <c r="W33">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>-0</v>
+      </c>
+      <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>1.025</v>
-      </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
-      <c r="AB33">
-        <v>0.925</v>
-      </c>
-      <c r="AC33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6963175</v>
+        <v>6962968</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,76 +4286,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
+        <v>2.5</v>
+      </c>
+      <c r="N43">
+        <v>2.55</v>
+      </c>
+      <c r="O43">
+        <v>3.2</v>
+      </c>
+      <c r="P43">
+        <v>2.5</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
         <v>1.85</v>
-      </c>
-      <c r="N43">
-        <v>4.5</v>
-      </c>
-      <c r="O43">
-        <v>3.75</v>
-      </c>
-      <c r="P43">
-        <v>1.615</v>
-      </c>
-      <c r="Q43">
-        <v>0.75</v>
-      </c>
-      <c r="R43">
-        <v>1.975</v>
-      </c>
-      <c r="S43">
-        <v>1.825</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
+        <v>1.975</v>
+      </c>
+      <c r="V43">
         <v>1.825</v>
       </c>
-      <c r="V43">
-        <v>1.975</v>
-      </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X43">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>0.95</v>
+      </c>
+      <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
       <c r="AC43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6962968</v>
+        <v>6963175</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N44">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
+        <v>1.825</v>
+      </c>
+      <c r="V44">
         <v>1.975</v>
       </c>
-      <c r="V44">
-        <v>1.825</v>
-      </c>
       <c r="W44">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
+        <v>-1</v>
+      </c>
+      <c r="AC44">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC44">
-        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4719,7 +4719,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6963179</v>
+        <v>6963176</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4731,58 +4731,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
         <v>48</v>
       </c>
       <c r="K48">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L48">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O48">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
+        <v>1.8</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
+        <v>1.875</v>
+      </c>
+      <c r="V48">
         <v>1.925</v>
       </c>
-      <c r="S48">
-        <v>1.875</v>
-      </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
-      <c r="V48">
-        <v>1.825</v>
-      </c>
       <c r="W48">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4791,16 +4791,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6963176</v>
+        <v>6963179</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,58 +4820,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>48</v>
       </c>
       <c r="K49">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P49">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4880,16 +4880,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6962919</v>
+        <v>6963191</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,10 +8024,10 @@
         <v>45227.3125</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8039,40 +8039,40 @@
         <v>49</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O85">
         <v>3.1</v>
       </c>
       <c r="P85">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8081,19 +8081,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6963191</v>
+        <v>6962919</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8113,10 +8113,10 @@
         <v>45227.3125</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8128,40 +8128,40 @@
         <v>49</v>
       </c>
       <c r="K86">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
+        <v>2.3</v>
+      </c>
+      <c r="N86">
         <v>3</v>
-      </c>
-      <c r="N86">
-        <v>2.375</v>
       </c>
       <c r="O86">
         <v>3.1</v>
       </c>
       <c r="P86">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S86">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8170,19 +8170,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8457,7 +8457,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6962979</v>
+        <v>6962980</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,76 +8469,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L90">
         <v>3.2</v>
       </c>
       <c r="M90">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P90">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T90">
         <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z90">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6962980</v>
+        <v>6962979</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
         <v>3.2</v>
       </c>
       <c r="M91">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N91">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
         <v>2.5</v>
       </c>
       <c r="U91">
+        <v>1.875</v>
+      </c>
+      <c r="V91">
+        <v>1.925</v>
+      </c>
+      <c r="W91">
         <v>2</v>
       </c>
-      <c r="V91">
-        <v>1.8</v>
-      </c>
-      <c r="W91">
-        <v>-1</v>
-      </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6962990</v>
+        <v>6962926</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,10 +11139,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11154,40 +11154,40 @@
         <v>49</v>
       </c>
       <c r="K120">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N120">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11196,16 +11196,16 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6962926</v>
+        <v>6962990</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,10 +11228,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11243,40 +11243,40 @@
         <v>49</v>
       </c>
       <c r="K121">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N121">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P121">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11285,16 +11285,16 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6962998</v>
+        <v>6962933</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,73 +13720,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L149">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M149">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N149">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O149">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q149">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U149">
+        <v>1.9</v>
+      </c>
+      <c r="V149">
+        <v>1.9</v>
+      </c>
+      <c r="W149">
         <v>1.8</v>
       </c>
-      <c r="V149">
-        <v>2</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13797,7 +13797,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6962933</v>
+        <v>6962998</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13809,73 +13809,73 @@
         <v>45284.3125</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
         <v>3</v>
       </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K150">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L150">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M150">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N150">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O150">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="P150">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R150">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB150">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -14420,7 +14420,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6963219</v>
+        <v>7656973</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14432,76 +14432,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K157">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="L157">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N157">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="O157">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P157">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q157">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7656973</v>
+        <v>6963219</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45304.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K158">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M158">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N158">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="O158">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P158">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X158">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -17891,7 +17891,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6963009</v>
+        <v>6962943</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17903,76 +17903,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
         <v>2</v>
       </c>
-      <c r="I196">
-        <v>1</v>
-      </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L196">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M196">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N196">
         <v>2.375</v>
       </c>
       <c r="O196">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P196">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q196">
         <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S196">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W196">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17980,7 +17980,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6962943</v>
+        <v>6963009</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17992,76 +17992,76 @@
         <v>45333.3125</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K197">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L197">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M197">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N197">
         <v>2.375</v>
       </c>
       <c r="O197">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P197">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q197">
         <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S197">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V197">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA197">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC197">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -20027,7 +20027,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6963239</v>
+        <v>6963241</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20039,76 +20039,76 @@
         <v>45353.3125</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220">
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="L220">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N220">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O220">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P220">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S220">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V220">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20116,7 +20116,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6963241</v>
+        <v>6963239</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20128,76 +20128,76 @@
         <v>45353.3125</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221">
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K221">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M221">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N221">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O221">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P221">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y221">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA221">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21896,7 +21896,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7948784</v>
+        <v>6963276</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21908,76 +21908,76 @@
         <v>45368.3125</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G241" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H241">
         <v>1</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K241">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L241">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M241">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N241">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="O241">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P241">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q241">
+        <v>-0.75</v>
+      </c>
+      <c r="R241">
+        <v>1.95</v>
+      </c>
+      <c r="S241">
+        <v>1.85</v>
+      </c>
+      <c r="T241">
+        <v>2.25</v>
+      </c>
+      <c r="U241">
+        <v>2.025</v>
+      </c>
+      <c r="V241">
+        <v>1.775</v>
+      </c>
+      <c r="W241">
+        <v>-1</v>
+      </c>
+      <c r="X241">
+        <v>2.4</v>
+      </c>
+      <c r="Y241">
+        <v>-1</v>
+      </c>
+      <c r="Z241">
+        <v>-1</v>
+      </c>
+      <c r="AA241">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB241">
         <v>-0.5</v>
       </c>
-      <c r="R241">
-        <v>1.875</v>
-      </c>
-      <c r="S241">
-        <v>1.925</v>
-      </c>
-      <c r="T241">
-        <v>2</v>
-      </c>
-      <c r="U241">
-        <v>1.775</v>
-      </c>
-      <c r="V241">
-        <v>2.025</v>
-      </c>
-      <c r="W241">
-        <v>0.833</v>
-      </c>
-      <c r="X241">
-        <v>-1</v>
-      </c>
-      <c r="Y241">
-        <v>-1</v>
-      </c>
-      <c r="Z241">
-        <v>0.875</v>
-      </c>
-      <c r="AA241">
-        <v>-1</v>
-      </c>
-      <c r="AB241">
-        <v>-1</v>
-      </c>
       <c r="AC241">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21985,7 +21985,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6963276</v>
+        <v>7948784</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21997,76 +21997,76 @@
         <v>45368.3125</v>
       </c>
       <c r="F242" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G242" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H242">
         <v>1</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K242">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L242">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M242">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N242">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="O242">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P242">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q242">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S242">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T242">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U242">
+        <v>1.775</v>
+      </c>
+      <c r="V242">
         <v>2.025</v>
       </c>
-      <c r="V242">
-        <v>1.775</v>
-      </c>
       <c r="W242">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X242">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA242">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22341,7 +22341,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6963252</v>
+        <v>6963023</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22353,46 +22353,46 @@
         <v>45384.33333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G246" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K246">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L246">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M246">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N246">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O246">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P246">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q246">
         <v>0</v>
       </c>
       <c r="R246">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S246">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V246">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22415,7 +22415,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6963023</v>
+        <v>6963252</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22427,46 +22427,46 @@
         <v>45384.33333333334</v>
       </c>
       <c r="F247" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G247" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K247">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L247">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M247">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N247">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O247">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q247">
         <v>0</v>
       </c>
       <c r="R247">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S247">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T247">
         <v>2.25</v>
       </c>
       <c r="U247">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V247">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W247">
         <v>0</v>

--- a/Turkey 1 Lig/Turkey 1 Lig.xlsx
+++ b/Turkey 1 Lig/Turkey 1 Lig.xlsx
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6963173</v>
+        <v>6963171</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N32">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P32">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R32">
+        <v>1.725</v>
+      </c>
+      <c r="S32">
+        <v>2.075</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.775</v>
+      </c>
+      <c r="V32">
         <v>2.025</v>
       </c>
-      <c r="S32">
-        <v>1.775</v>
-      </c>
-      <c r="T32">
-        <v>2.75</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.875</v>
-      </c>
       <c r="W32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>-0</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>1.025</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
-      <c r="AB32">
-        <v>0.925</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6963171</v>
+        <v>6963173</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45171.55208333334</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M33">
+        <v>5.5</v>
+      </c>
+      <c r="N33">
+        <v>1.45</v>
+      </c>
+      <c r="O33">
+        <v>4.2</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+      <c r="Q33">
+        <v>-1.25</v>
+      </c>
+      <c r="R33">
+        <v>2.025</v>
+      </c>
+      <c r="S33">
+        <v>1.775</v>
+      </c>
+      <c r="T33">
         <v>2.75</v>
       </c>
-      <c r="N33">
-        <v>2.45</v>
-      </c>
-      <c r="O33">
-        <v>3.1</v>
-      </c>
-      <c r="P33">
-        <v>2.8</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>1.725</v>
-      </c>
-      <c r="S33">
-        <v>2.075</v>
-      </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
       <c r="U33">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X33">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6963033</v>
+        <v>6962908</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,76 +3752,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N37">
+        <v>3.4</v>
+      </c>
+      <c r="O37">
+        <v>3.4</v>
+      </c>
+      <c r="P37">
         <v>2</v>
       </c>
-      <c r="O37">
-        <v>3.3</v>
-      </c>
-      <c r="P37">
-        <v>3.4</v>
-      </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
         <v>2</v>
-      </c>
-      <c r="S37">
-        <v>1.8</v>
       </c>
       <c r="T37">
         <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6962908</v>
+        <v>6963033</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L38">
+        <v>3.6</v>
+      </c>
+      <c r="M38">
+        <v>4.5</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
         <v>3.3</v>
       </c>
-      <c r="M38">
-        <v>2.25</v>
-      </c>
-      <c r="N38">
+      <c r="P38">
         <v>3.4</v>
       </c>
-      <c r="O38">
-        <v>3.4</v>
-      </c>
-      <c r="P38">
+      <c r="Q38">
+        <v>-0.5</v>
+      </c>
+      <c r="R38">
         <v>2</v>
       </c>
-      <c r="Q38">
-        <v>0.5</v>
-      </c>
-      <c r="R38">
+      <c r="S38">
         <v>1.8</v>
-      </c>
-      <c r="S38">
-        <v>2</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6962968</v>
+        <v>6963175</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,76 +4286,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N43">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O43">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P43">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
+        <v>1.825</v>
+      </c>
+      <c r="V43">
         <v>1.975</v>
       </c>
-      <c r="V43">
-        <v>1.825</v>
-      </c>
       <c r="W43">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6963175</v>
+        <v>6962968</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
+        <v>2.5</v>
+      </c>
+      <c r="N44">
+        <v>2.55</v>
+      </c>
+      <c r="O44">
+        <v>3.2</v>
+      </c>
+      <c r="P44">
+        <v>2.5</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
         <v>1.85</v>
-      </c>
-      <c r="N44">
-        <v>4.5</v>
-      </c>
-      <c r="O44">
-        <v>3.75</v>
-      </c>
-      <c r="P44">
-        <v>1.615</v>
-      </c>
-      <c r="Q44">
-        <v>0.75</v>
-      </c>
-      <c r="R44">
-        <v>1.975</v>
-      </c>
-      <c r="S44">
-        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
+        <v>1.975</v>
+      </c>
+      <c r="V44">
         <v>1.825</v>
       </c>
-      <c r="V44">
-        <v>1.975</v>
-      </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
+        <v>0.95</v>
+      </c>
+      <c r="AA44">
+        <v>-1</v>
+      </c>
+      <c r="AB44">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA44">
-        <v>-1</v>
-      </c>
-      <c r="AB44">
-        <v>-1</v>
-      </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4719,7 +4719,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6963176</v>
+        <v>6963179</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4731,58 +4731,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>48</v>
       </c>
       <c r="K48">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P48">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4791,16 +4791,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4808,7 +4808,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6963179</v>
+        <v>6963176</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4820,58 +4820,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>48</v>
       </c>
       <c r="K49">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L49">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O49">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P49">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
+        <v>1.8</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>2.5</v>
+      </c>
+      <c r="U49">
+        <v>1.875</v>
+      </c>
+      <c r="V49">
         <v>1.925</v>
       </c>
-      <c r="S49">
-        <v>1.875</v>
-      </c>
-      <c r="T49">
-        <v>2.75</v>
-      </c>
-      <c r="U49">
-        <v>1.975</v>
-      </c>
-      <c r="V49">
-        <v>1.825</v>
-      </c>
       <c r="W49">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4880,16 +4880,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6963191</v>
+      